--- a/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
   <si>
     <t>SKFRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,141 +665,153 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8908200</v>
+        <v>9041700</v>
       </c>
       <c r="E8" s="3">
-        <v>8100100</v>
+        <v>9010200</v>
       </c>
       <c r="F8" s="3">
-        <v>7544200</v>
+        <v>8192800</v>
       </c>
       <c r="G8" s="3">
-        <v>7898400</v>
+        <v>7630600</v>
       </c>
       <c r="H8" s="3">
-        <v>7376400</v>
+        <v>7988800</v>
       </c>
       <c r="I8" s="3">
-        <v>6609600</v>
+        <v>7460900</v>
       </c>
       <c r="J8" s="3">
+        <v>6685300</v>
+      </c>
+      <c r="K8" s="3">
         <v>6711300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7516800</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6733700</v>
+        <v>6831900</v>
       </c>
       <c r="E9" s="3">
-        <v>6077500</v>
+        <v>6810800</v>
       </c>
       <c r="F9" s="3">
-        <v>5696700</v>
+        <v>6147100</v>
       </c>
       <c r="G9" s="3">
-        <v>5951600</v>
+        <v>5761900</v>
       </c>
       <c r="H9" s="3">
-        <v>5514100</v>
+        <v>6019700</v>
       </c>
       <c r="I9" s="3">
-        <v>4977600</v>
+        <v>5577200</v>
       </c>
       <c r="J9" s="3">
+        <v>5034600</v>
+      </c>
+      <c r="K9" s="3">
         <v>10000500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5403600</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2174400</v>
+        <v>2209800</v>
       </c>
       <c r="E10" s="3">
-        <v>2022600</v>
+        <v>2199300</v>
       </c>
       <c r="F10" s="3">
-        <v>1847500</v>
+        <v>2045700</v>
       </c>
       <c r="G10" s="3">
-        <v>1946800</v>
+        <v>1868600</v>
       </c>
       <c r="H10" s="3">
-        <v>1862300</v>
+        <v>1969100</v>
       </c>
       <c r="I10" s="3">
-        <v>1632000</v>
+        <v>1883600</v>
       </c>
       <c r="J10" s="3">
+        <v>1650700</v>
+      </c>
+      <c r="K10" s="3">
         <v>-3289200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>2113300</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -812,8 +824,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -841,9 +854,12 @@
       <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -871,69 +887,78 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-110000</v>
+        <v>18000</v>
       </c>
       <c r="E14" s="3">
+        <v>-111200</v>
+      </c>
+      <c r="F14" s="3">
         <v>4100</v>
       </c>
-      <c r="F14" s="3">
-        <v>5400</v>
-      </c>
       <c r="G14" s="3">
-        <v>27900</v>
+        <v>5500</v>
       </c>
       <c r="H14" s="3">
-        <v>17900</v>
+        <v>28200</v>
       </c>
       <c r="I14" s="3">
-        <v>11200</v>
+        <v>18100</v>
       </c>
       <c r="J14" s="3">
+        <v>11400</v>
+      </c>
+      <c r="K14" s="3">
         <v>2400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>5000</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>47500</v>
+        <v>99200</v>
       </c>
       <c r="E15" s="3">
-        <v>49300</v>
+        <v>48000</v>
       </c>
       <c r="F15" s="3">
-        <v>50800</v>
+        <v>49800</v>
       </c>
       <c r="G15" s="3">
-        <v>56200</v>
+        <v>51400</v>
       </c>
       <c r="H15" s="3">
-        <v>51200</v>
+        <v>56900</v>
       </c>
       <c r="I15" s="3">
-        <v>30500</v>
+        <v>51800</v>
       </c>
       <c r="J15" s="3">
+        <v>30800</v>
+      </c>
+      <c r="K15" s="3">
         <v>25600</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>28200</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -943,68 +968,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7759800</v>
+        <v>8054100</v>
       </c>
       <c r="E17" s="3">
-        <v>7207100</v>
+        <v>7848700</v>
       </c>
       <c r="F17" s="3">
-        <v>6761900</v>
+        <v>7289700</v>
       </c>
       <c r="G17" s="3">
-        <v>7174200</v>
+        <v>6839300</v>
       </c>
       <c r="H17" s="3">
-        <v>6565700</v>
+        <v>7256300</v>
       </c>
       <c r="I17" s="3">
-        <v>6225800</v>
+        <v>6640900</v>
       </c>
       <c r="J17" s="3">
+        <v>6297100</v>
+      </c>
+      <c r="K17" s="3">
         <v>5951100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6425700</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1148300</v>
+        <v>987600</v>
       </c>
       <c r="E18" s="3">
-        <v>893000</v>
+        <v>1161500</v>
       </c>
       <c r="F18" s="3">
-        <v>782300</v>
+        <v>903200</v>
       </c>
       <c r="G18" s="3">
-        <v>724200</v>
+        <v>791200</v>
       </c>
       <c r="H18" s="3">
-        <v>810800</v>
+        <v>732500</v>
       </c>
       <c r="I18" s="3">
-        <v>383800</v>
+        <v>820000</v>
       </c>
       <c r="J18" s="3">
+        <v>388200</v>
+      </c>
+      <c r="K18" s="3">
         <v>760100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1091200</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1017,158 +1049,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-27200</v>
+        <v>-18700</v>
       </c>
       <c r="E20" s="3">
-        <v>-26700</v>
+        <v>-27500</v>
       </c>
       <c r="F20" s="3">
-        <v>-36600</v>
+        <v>-27000</v>
       </c>
       <c r="G20" s="3">
-        <v>-51300</v>
+        <v>-37000</v>
       </c>
       <c r="H20" s="3">
-        <v>-70800</v>
+        <v>-51900</v>
       </c>
       <c r="I20" s="3">
-        <v>-45000</v>
+        <v>-71600</v>
       </c>
       <c r="J20" s="3">
+        <v>-45500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-44000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-33900</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1364000</v>
+        <v>1316900</v>
       </c>
       <c r="E21" s="3">
-        <v>1102100</v>
+        <v>1376600</v>
       </c>
       <c r="F21" s="3">
-        <v>985800</v>
+        <v>1111800</v>
       </c>
       <c r="G21" s="3">
-        <v>925200</v>
+        <v>994100</v>
       </c>
       <c r="H21" s="3">
-        <v>971600</v>
+        <v>932700</v>
       </c>
       <c r="I21" s="3">
-        <v>533100</v>
-      </c>
-      <c r="J21" s="3" t="s">
+        <v>979900</v>
+      </c>
+      <c r="J21" s="3">
+        <v>536800</v>
+      </c>
+      <c r="K21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1260700</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>62300</v>
+        <v>78600</v>
       </c>
       <c r="E22" s="3">
-        <v>70400</v>
+        <v>63000</v>
       </c>
       <c r="F22" s="3">
-        <v>45300</v>
+        <v>71200</v>
       </c>
       <c r="G22" s="3">
-        <v>66500</v>
+        <v>45800</v>
       </c>
       <c r="H22" s="3">
-        <v>47000</v>
+        <v>67300</v>
       </c>
       <c r="I22" s="3">
-        <v>45600</v>
+        <v>47500</v>
       </c>
       <c r="J22" s="3">
+        <v>46100</v>
+      </c>
+      <c r="K22" s="3">
         <v>50200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>43300</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1058800</v>
+        <v>890300</v>
       </c>
       <c r="E23" s="3">
-        <v>795900</v>
+        <v>1071000</v>
       </c>
       <c r="F23" s="3">
-        <v>700400</v>
+        <v>805000</v>
       </c>
       <c r="G23" s="3">
-        <v>606300</v>
+        <v>708400</v>
       </c>
       <c r="H23" s="3">
-        <v>693000</v>
+        <v>613300</v>
       </c>
       <c r="I23" s="3">
-        <v>293200</v>
+        <v>700900</v>
       </c>
       <c r="J23" s="3">
+        <v>296500</v>
+      </c>
+      <c r="K23" s="3">
         <v>666000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1014000</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>270500</v>
+        <v>281400</v>
       </c>
       <c r="E24" s="3">
-        <v>277400</v>
+        <v>273600</v>
       </c>
       <c r="F24" s="3">
-        <v>262900</v>
+        <v>280600</v>
       </c>
       <c r="G24" s="3">
-        <v>182900</v>
+        <v>266000</v>
       </c>
       <c r="H24" s="3">
-        <v>199300</v>
+        <v>185000</v>
       </c>
       <c r="I24" s="3">
-        <v>184700</v>
+        <v>201600</v>
       </c>
       <c r="J24" s="3">
+        <v>186800</v>
+      </c>
+      <c r="K24" s="3">
         <v>165500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>307400</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1196,69 +1244,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>788300</v>
+        <v>608900</v>
       </c>
       <c r="E26" s="3">
-        <v>518500</v>
+        <v>797300</v>
       </c>
       <c r="F26" s="3">
-        <v>437400</v>
+        <v>524400</v>
       </c>
       <c r="G26" s="3">
-        <v>423400</v>
+        <v>442500</v>
       </c>
       <c r="H26" s="3">
-        <v>493700</v>
+        <v>428300</v>
       </c>
       <c r="I26" s="3">
-        <v>108500</v>
+        <v>499300</v>
       </c>
       <c r="J26" s="3">
+        <v>109700</v>
+      </c>
+      <c r="K26" s="3">
         <v>500500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>706500</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>757100</v>
+        <v>584200</v>
       </c>
       <c r="E27" s="3">
-        <v>488900</v>
+        <v>765800</v>
       </c>
       <c r="F27" s="3">
-        <v>414200</v>
+        <v>494500</v>
       </c>
       <c r="G27" s="3">
-        <v>403200</v>
+        <v>418900</v>
       </c>
       <c r="H27" s="3">
-        <v>478100</v>
+        <v>407900</v>
       </c>
       <c r="I27" s="3">
-        <v>94800</v>
+        <v>483600</v>
       </c>
       <c r="J27" s="3">
+        <v>95900</v>
+      </c>
+      <c r="K27" s="3">
         <v>484500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>686900</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1286,20 +1343,23 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="3">
-        <v>80100</v>
-      </c>
-      <c r="F29" s="3" t="s">
+      <c r="E29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="F29" s="3">
+        <v>81000</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1316,9 +1376,12 @@
       <c r="K29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1346,9 +1409,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1376,69 +1442,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>27200</v>
+        <v>18700</v>
       </c>
       <c r="E32" s="3">
-        <v>26700</v>
+        <v>27500</v>
       </c>
       <c r="F32" s="3">
-        <v>36600</v>
+        <v>27000</v>
       </c>
       <c r="G32" s="3">
-        <v>51300</v>
+        <v>37000</v>
       </c>
       <c r="H32" s="3">
-        <v>70800</v>
+        <v>51900</v>
       </c>
       <c r="I32" s="3">
-        <v>45000</v>
+        <v>71600</v>
       </c>
       <c r="J32" s="3">
+        <v>45500</v>
+      </c>
+      <c r="K32" s="3">
         <v>44000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>33900</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>757100</v>
+        <v>584200</v>
       </c>
       <c r="E33" s="3">
-        <v>569000</v>
+        <v>765800</v>
       </c>
       <c r="F33" s="3">
-        <v>414200</v>
+        <v>575500</v>
       </c>
       <c r="G33" s="3">
-        <v>403200</v>
+        <v>418900</v>
       </c>
       <c r="H33" s="3">
-        <v>478100</v>
+        <v>407900</v>
       </c>
       <c r="I33" s="3">
-        <v>94800</v>
+        <v>483600</v>
       </c>
       <c r="J33" s="3">
+        <v>95900</v>
+      </c>
+      <c r="K33" s="3">
         <v>484500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>686900</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1466,74 +1541,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>757100</v>
+        <v>584200</v>
       </c>
       <c r="E35" s="3">
-        <v>569000</v>
+        <v>765800</v>
       </c>
       <c r="F35" s="3">
-        <v>414200</v>
+        <v>575500</v>
       </c>
       <c r="G35" s="3">
-        <v>403200</v>
+        <v>418900</v>
       </c>
       <c r="H35" s="3">
-        <v>478100</v>
+        <v>407900</v>
       </c>
       <c r="I35" s="3">
-        <v>94800</v>
+        <v>483600</v>
       </c>
       <c r="J35" s="3">
+        <v>95900</v>
+      </c>
+      <c r="K35" s="3">
         <v>484500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>686900</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1546,8 +1630,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1560,278 +1645,306 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1079800</v>
+        <v>683400</v>
       </c>
       <c r="E41" s="3">
-        <v>739200</v>
+        <v>1104400</v>
       </c>
       <c r="F41" s="3">
-        <v>1033000</v>
+        <v>755900</v>
       </c>
       <c r="G41" s="3">
-        <v>750200</v>
+        <v>1056400</v>
       </c>
       <c r="H41" s="3">
-        <v>615300</v>
+        <v>767200</v>
       </c>
       <c r="I41" s="3">
-        <v>558000</v>
+        <v>629200</v>
       </c>
       <c r="J41" s="3">
+        <v>570700</v>
+      </c>
+      <c r="K41" s="3">
         <v>856800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>547700</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>131600</v>
+        <v>38300</v>
       </c>
       <c r="E42" s="3">
-        <v>137400</v>
+        <v>126800</v>
       </c>
       <c r="F42" s="3">
-        <v>103500</v>
+        <v>21300</v>
       </c>
       <c r="G42" s="3">
-        <v>90600</v>
+        <v>17900</v>
       </c>
       <c r="H42" s="3">
-        <v>827200</v>
+        <v>6800</v>
       </c>
       <c r="I42" s="3">
-        <v>86500</v>
+        <v>797900</v>
       </c>
       <c r="J42" s="3">
+        <v>88400</v>
+      </c>
+      <c r="K42" s="3">
         <v>84500</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>58100</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1786200</v>
+        <v>2385600</v>
       </c>
       <c r="E43" s="3">
-        <v>1725500</v>
+        <v>1834600</v>
       </c>
       <c r="F43" s="3">
-        <v>1672800</v>
+        <v>1884000</v>
       </c>
       <c r="G43" s="3">
-        <v>1520200</v>
+        <v>1798700</v>
       </c>
       <c r="H43" s="3">
-        <v>2949600</v>
+        <v>1640600</v>
       </c>
       <c r="I43" s="3">
-        <v>1292700</v>
+        <v>3064700</v>
       </c>
       <c r="J43" s="3">
+        <v>1322000</v>
+      </c>
+      <c r="K43" s="3">
         <v>1270600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1464400</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1852700</v>
+        <v>1918600</v>
       </c>
       <c r="E44" s="3">
-        <v>1779500</v>
+        <v>1894700</v>
       </c>
       <c r="F44" s="3">
-        <v>1602400</v>
+        <v>1819900</v>
       </c>
       <c r="G44" s="3">
-        <v>1509000</v>
+        <v>1638800</v>
       </c>
       <c r="H44" s="3">
-        <v>3131600</v>
+        <v>1543200</v>
       </c>
       <c r="I44" s="3">
-        <v>1423800</v>
+        <v>3202700</v>
       </c>
       <c r="J44" s="3">
+        <v>1456200</v>
+      </c>
+      <c r="K44" s="3">
         <v>1336100</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1611000</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>58900</v>
+        <v>59400</v>
       </c>
       <c r="E45" s="3">
-        <v>68800</v>
+        <v>60300</v>
       </c>
       <c r="F45" s="3">
-        <v>67700</v>
+        <v>70400</v>
       </c>
       <c r="G45" s="3">
-        <v>95300</v>
+        <v>69200</v>
       </c>
       <c r="H45" s="3">
-        <v>748700</v>
+        <v>97500</v>
       </c>
       <c r="I45" s="3">
-        <v>233100</v>
+        <v>765700</v>
       </c>
       <c r="J45" s="3">
+        <v>238400</v>
+      </c>
+      <c r="K45" s="3">
         <v>73700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>104400</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>4909200</v>
+        <v>5085300</v>
       </c>
       <c r="E46" s="3">
-        <v>4450400</v>
+        <v>5020700</v>
       </c>
       <c r="F46" s="3">
-        <v>4479300</v>
+        <v>4551400</v>
       </c>
       <c r="G46" s="3">
-        <v>3965200</v>
+        <v>4581000</v>
       </c>
       <c r="H46" s="3">
-        <v>4033200</v>
+        <v>4055300</v>
       </c>
       <c r="I46" s="3">
-        <v>3594100</v>
+        <v>4124800</v>
       </c>
       <c r="J46" s="3">
+        <v>3675700</v>
+      </c>
+      <c r="K46" s="3">
         <v>3621800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3785700</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>120000</v>
+        <v>136200</v>
       </c>
       <c r="E47" s="3">
-        <v>123400</v>
+        <v>122800</v>
       </c>
       <c r="F47" s="3">
-        <v>134700</v>
+        <v>126200</v>
       </c>
       <c r="G47" s="3">
-        <v>148900</v>
+        <v>137800</v>
       </c>
       <c r="H47" s="3">
-        <v>311900</v>
+        <v>152300</v>
       </c>
       <c r="I47" s="3">
-        <v>118200</v>
+        <v>319000</v>
       </c>
       <c r="J47" s="3">
+        <v>120900</v>
+      </c>
+      <c r="K47" s="3">
         <v>112800</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>160300</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1734400</v>
+        <v>2275800</v>
       </c>
       <c r="E48" s="3">
-        <v>1638100</v>
+        <v>1773800</v>
       </c>
       <c r="F48" s="3">
-        <v>1636500</v>
+        <v>1675300</v>
       </c>
       <c r="G48" s="3">
-        <v>1590400</v>
+        <v>1673600</v>
       </c>
       <c r="H48" s="3">
-        <v>3218100</v>
+        <v>1626600</v>
       </c>
       <c r="I48" s="3">
-        <v>1464900</v>
+        <v>3291200</v>
       </c>
       <c r="J48" s="3">
+        <v>1498200</v>
+      </c>
+      <c r="K48" s="3">
         <v>1360000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1484400</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1841800</v>
+        <v>1955400</v>
       </c>
       <c r="E49" s="3">
-        <v>1804200</v>
+        <v>1883700</v>
       </c>
       <c r="F49" s="3">
-        <v>2033700</v>
+        <v>1845200</v>
       </c>
       <c r="G49" s="3">
-        <v>2232900</v>
+        <v>2079900</v>
       </c>
       <c r="H49" s="3">
-        <v>4601600</v>
+        <v>2283600</v>
       </c>
       <c r="I49" s="3">
-        <v>1977100</v>
+        <v>4706100</v>
       </c>
       <c r="J49" s="3">
+        <v>2022000</v>
+      </c>
+      <c r="K49" s="3">
         <v>1018500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1153000</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1859,9 +1972,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1889,39 +2005,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>454400</v>
+        <v>550100</v>
       </c>
       <c r="E52" s="3">
-        <v>423300</v>
+        <v>464700</v>
       </c>
       <c r="F52" s="3">
-        <v>436300</v>
+        <v>432900</v>
       </c>
       <c r="G52" s="3">
-        <v>349100</v>
+        <v>446200</v>
       </c>
       <c r="H52" s="3">
-        <v>413700</v>
+        <v>357000</v>
       </c>
       <c r="I52" s="3">
-        <v>223900</v>
+        <v>423100</v>
       </c>
       <c r="J52" s="3">
+        <v>228900</v>
+      </c>
+      <c r="K52" s="3">
         <v>201400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>156800</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,39 +2071,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9059900</v>
+        <v>10002700</v>
       </c>
       <c r="E54" s="3">
-        <v>8439400</v>
+        <v>9265600</v>
       </c>
       <c r="F54" s="3">
-        <v>8720500</v>
+        <v>8631100</v>
       </c>
       <c r="G54" s="3">
-        <v>8286700</v>
+        <v>8918500</v>
       </c>
       <c r="H54" s="3">
-        <v>8484700</v>
+        <v>8474800</v>
       </c>
       <c r="I54" s="3">
-        <v>7378100</v>
+        <v>8677400</v>
       </c>
       <c r="J54" s="3">
+        <v>7545600</v>
+      </c>
+      <c r="K54" s="3">
         <v>6314500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6740100</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1994,8 +2122,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2008,188 +2137,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>813900</v>
+        <v>878600</v>
       </c>
       <c r="E57" s="3">
-        <v>820900</v>
+        <v>832400</v>
       </c>
       <c r="F57" s="3">
-        <v>737900</v>
+        <v>839600</v>
       </c>
       <c r="G57" s="3">
-        <v>589400</v>
+        <v>754700</v>
       </c>
       <c r="H57" s="3">
-        <v>617100</v>
+        <v>602800</v>
       </c>
       <c r="I57" s="3">
-        <v>492600</v>
+        <v>631200</v>
       </c>
       <c r="J57" s="3">
+        <v>503800</v>
+      </c>
+      <c r="K57" s="3">
         <v>435400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>533300</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>226000</v>
+        <v>325500</v>
       </c>
       <c r="E58" s="3">
-        <v>252900</v>
+        <v>231200</v>
       </c>
       <c r="F58" s="3">
-        <v>128100</v>
+        <v>258600</v>
       </c>
       <c r="G58" s="3">
-        <v>149900</v>
+        <v>131100</v>
       </c>
       <c r="H58" s="3">
-        <v>210800</v>
+        <v>153300</v>
       </c>
       <c r="I58" s="3">
-        <v>171100</v>
+        <v>215600</v>
       </c>
       <c r="J58" s="3">
+        <v>175000</v>
+      </c>
+      <c r="K58" s="3">
         <v>306100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>126300</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1130900</v>
+        <v>1255500</v>
       </c>
       <c r="E59" s="3">
-        <v>1058700</v>
+        <v>1156500</v>
       </c>
       <c r="F59" s="3">
-        <v>940000</v>
+        <v>1082800</v>
       </c>
       <c r="G59" s="3">
-        <v>854100</v>
+        <v>961400</v>
       </c>
       <c r="H59" s="3">
-        <v>1731400</v>
+        <v>873500</v>
       </c>
       <c r="I59" s="3">
-        <v>1076200</v>
+        <v>1770700</v>
       </c>
       <c r="J59" s="3">
+        <v>1100600</v>
+      </c>
+      <c r="K59" s="3">
         <v>703500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>843900</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2170800</v>
+        <v>2459600</v>
       </c>
       <c r="E60" s="3">
-        <v>2132500</v>
+        <v>2220100</v>
       </c>
       <c r="F60" s="3">
-        <v>1806100</v>
+        <v>2181000</v>
       </c>
       <c r="G60" s="3">
-        <v>1593400</v>
+        <v>1847100</v>
       </c>
       <c r="H60" s="3">
-        <v>1673500</v>
+        <v>1629500</v>
       </c>
       <c r="I60" s="3">
-        <v>1739900</v>
+        <v>1711500</v>
       </c>
       <c r="J60" s="3">
+        <v>1779400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1444900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1503600</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1452300</v>
+        <v>1585800</v>
       </c>
       <c r="E61" s="3">
-        <v>1563700</v>
+        <v>1485300</v>
       </c>
       <c r="F61" s="3">
-        <v>1991800</v>
+        <v>1599200</v>
       </c>
       <c r="G61" s="3">
-        <v>2326300</v>
+        <v>2037000</v>
       </c>
       <c r="H61" s="3">
-        <v>2502300</v>
+        <v>2379100</v>
       </c>
       <c r="I61" s="3">
-        <v>2047200</v>
+        <v>2559100</v>
       </c>
       <c r="J61" s="3">
+        <v>2093700</v>
+      </c>
+      <c r="K61" s="3">
         <v>1323000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1419000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1752300</v>
+        <v>1985700</v>
       </c>
       <c r="E62" s="3">
-        <v>1643700</v>
+        <v>1792000</v>
       </c>
       <c r="F62" s="3">
-        <v>2045400</v>
+        <v>1681000</v>
       </c>
       <c r="G62" s="3">
-        <v>1635500</v>
+        <v>2091900</v>
       </c>
       <c r="H62" s="3">
-        <v>1772600</v>
+        <v>1672700</v>
       </c>
       <c r="I62" s="3">
-        <v>1392700</v>
+        <v>1812900</v>
       </c>
       <c r="J62" s="3">
+        <v>1424300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1211400</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1268500</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2217,9 +2365,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2247,9 +2398,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2277,39 +2431,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5574500</v>
+        <v>6228200</v>
       </c>
       <c r="E66" s="3">
-        <v>5525600</v>
+        <v>5701100</v>
       </c>
       <c r="F66" s="3">
-        <v>6014700</v>
+        <v>5651100</v>
       </c>
       <c r="G66" s="3">
-        <v>5707600</v>
+        <v>6151300</v>
       </c>
       <c r="H66" s="3">
-        <v>6085100</v>
+        <v>5837200</v>
       </c>
       <c r="I66" s="3">
-        <v>5289100</v>
+        <v>6223300</v>
       </c>
       <c r="J66" s="3">
+        <v>5409200</v>
+      </c>
+      <c r="K66" s="3">
         <v>4096600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4306700</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2322,8 +2482,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2351,9 +2512,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2381,9 +2545,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2411,9 +2578,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2441,39 +2611,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3151700</v>
+        <v>3342100</v>
       </c>
       <c r="E72" s="3">
-        <v>2693400</v>
+        <v>3223200</v>
       </c>
       <c r="F72" s="3">
-        <v>2394400</v>
+        <v>2754600</v>
       </c>
       <c r="G72" s="3">
-        <v>2377100</v>
+        <v>2448800</v>
       </c>
       <c r="H72" s="3">
-        <v>2139400</v>
+        <v>2431100</v>
       </c>
       <c r="I72" s="3">
-        <v>2155700</v>
+        <v>2188000</v>
       </c>
       <c r="J72" s="3">
+        <v>2204700</v>
+      </c>
+      <c r="K72" s="3">
         <v>2292700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2373000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2501,9 +2677,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2531,9 +2710,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2561,39 +2743,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3485400</v>
+        <v>3774600</v>
       </c>
       <c r="E76" s="3">
-        <v>2913800</v>
+        <v>3564500</v>
       </c>
       <c r="F76" s="3">
-        <v>2705700</v>
+        <v>2979900</v>
       </c>
       <c r="G76" s="3">
-        <v>2579000</v>
+        <v>2767200</v>
       </c>
       <c r="H76" s="3">
-        <v>2399600</v>
+        <v>2637600</v>
       </c>
       <c r="I76" s="3">
-        <v>2089000</v>
+        <v>2454100</v>
       </c>
       <c r="J76" s="3">
+        <v>2136400</v>
+      </c>
+      <c r="K76" s="3">
         <v>2217900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2433400</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2621,74 +2809,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>757100</v>
+        <v>584200</v>
       </c>
       <c r="E81" s="3">
-        <v>569000</v>
+        <v>765800</v>
       </c>
       <c r="F81" s="3">
-        <v>414200</v>
+        <v>575500</v>
       </c>
       <c r="G81" s="3">
-        <v>403200</v>
+        <v>418900</v>
       </c>
       <c r="H81" s="3">
-        <v>478100</v>
+        <v>407900</v>
       </c>
       <c r="I81" s="3">
-        <v>94800</v>
+        <v>483600</v>
       </c>
       <c r="J81" s="3">
+        <v>95900</v>
+      </c>
+      <c r="K81" s="3">
         <v>484500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>686900</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2701,38 +2898,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>350900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>244700</v>
+      </c>
+      <c r="F83" s="3">
+        <v>237600</v>
+      </c>
+      <c r="G83" s="3">
         <v>241900</v>
       </c>
-      <c r="E83" s="3">
-        <v>234900</v>
-      </c>
-      <c r="F83" s="3">
-        <v>239100</v>
-      </c>
-      <c r="G83" s="3">
-        <v>251400</v>
-      </c>
       <c r="H83" s="3">
-        <v>230700</v>
+        <v>254300</v>
       </c>
       <c r="I83" s="3">
-        <v>193500</v>
-      </c>
-      <c r="J83" s="3" t="s">
+        <v>233400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>195700</v>
+      </c>
+      <c r="K83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>203200</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2760,9 +2961,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2790,9 +2994,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2820,9 +3027,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2850,9 +3060,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2880,39 +3093,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>867300</v>
+        <v>989200</v>
       </c>
       <c r="E89" s="3">
-        <v>668200</v>
+        <v>877200</v>
       </c>
       <c r="F89" s="3">
-        <v>743100</v>
+        <v>675800</v>
       </c>
       <c r="G89" s="3">
-        <v>803500</v>
+        <v>751600</v>
       </c>
       <c r="H89" s="3">
-        <v>498600</v>
+        <v>812700</v>
       </c>
       <c r="I89" s="3">
-        <v>552400</v>
+        <v>504300</v>
       </c>
       <c r="J89" s="3">
+        <v>558700</v>
+      </c>
+      <c r="K89" s="3">
         <v>644700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>634100</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2925,38 +3144,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-275100</v>
+        <v>-363800</v>
       </c>
       <c r="E91" s="3">
-        <v>-233100</v>
+        <v>-278300</v>
       </c>
       <c r="F91" s="3">
-        <v>-194200</v>
+        <v>-235800</v>
       </c>
       <c r="G91" s="3">
-        <v>-214400</v>
+        <v>-196500</v>
       </c>
       <c r="H91" s="3">
-        <v>-192500</v>
+        <v>-216900</v>
       </c>
       <c r="I91" s="3">
-        <v>-181500</v>
+        <v>-194700</v>
       </c>
       <c r="J91" s="3">
+        <v>-183500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-204500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-218900</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2984,9 +3207,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3014,39 +3240,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-468500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2000</v>
       </c>
-      <c r="E94" s="3">
-        <v>-174200</v>
-      </c>
       <c r="F94" s="3">
-        <v>58900</v>
+        <v>-176200</v>
       </c>
       <c r="G94" s="3">
-        <v>-136700</v>
+        <v>59600</v>
       </c>
       <c r="H94" s="3">
-        <v>-276500</v>
+        <v>-138200</v>
       </c>
       <c r="I94" s="3">
-        <v>-1107600</v>
-      </c>
-      <c r="J94" s="3" t="s">
+        <v>-279600</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1120300</v>
+      </c>
+      <c r="K94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-197300</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3059,38 +3291,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-272400</v>
+        <v>-293300</v>
       </c>
       <c r="E96" s="3">
+        <v>-275500</v>
+      </c>
+      <c r="F96" s="3">
+        <v>-263200</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-263200</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-263200</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-263200</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-263200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-260200</v>
       </c>
-      <c r="F96" s="3">
-        <v>-260200</v>
-      </c>
-      <c r="G96" s="3">
-        <v>-260200</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-260200</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-260200</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-260200</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-258500</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3118,9 +3354,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3148,9 +3387,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3178,97 +3420,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-528300</v>
+        <v>-945800</v>
       </c>
       <c r="E100" s="3">
-        <v>-773400</v>
+        <v>-534300</v>
       </c>
       <c r="F100" s="3">
-        <v>-542300</v>
+        <v>-782300</v>
       </c>
       <c r="G100" s="3">
-        <v>-540300</v>
+        <v>-548500</v>
       </c>
       <c r="H100" s="3">
-        <v>-194700</v>
+        <v>-546500</v>
       </c>
       <c r="I100" s="3">
-        <v>259200</v>
-      </c>
-      <c r="J100" s="3" t="s">
+        <v>-196900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>262200</v>
+      </c>
+      <c r="K100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-161200</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>3600</v>
+        <v>8800</v>
       </c>
       <c r="E101" s="3">
-        <v>-14300</v>
+        <v>3700</v>
       </c>
       <c r="F101" s="3">
-        <v>23100</v>
+        <v>-14500</v>
       </c>
       <c r="G101" s="3">
-        <v>8400</v>
+        <v>23300</v>
       </c>
       <c r="H101" s="3">
-        <v>29800</v>
+        <v>8500</v>
       </c>
       <c r="I101" s="3">
+        <v>30200</v>
+      </c>
+      <c r="J101" s="3">
         <v>-2800</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="K101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>340700</v>
+        <v>-416300</v>
       </c>
       <c r="E102" s="3">
-        <v>-293800</v>
+        <v>344600</v>
       </c>
       <c r="F102" s="3">
-        <v>282800</v>
+        <v>-297200</v>
       </c>
       <c r="G102" s="3">
-        <v>134900</v>
+        <v>286000</v>
       </c>
       <c r="H102" s="3">
-        <v>57300</v>
+        <v>136400</v>
       </c>
       <c r="I102" s="3">
-        <v>-298800</v>
+        <v>57900</v>
       </c>
       <c r="J102" s="3">
+        <v>-302200</v>
+      </c>
+      <c r="K102" s="3">
         <v>355300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>275900</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9041700</v>
+        <v>9873400</v>
       </c>
       <c r="E8" s="3">
-        <v>9010200</v>
+        <v>9839000</v>
       </c>
       <c r="F8" s="3">
-        <v>8192800</v>
+        <v>8946500</v>
       </c>
       <c r="G8" s="3">
-        <v>7630600</v>
+        <v>8332500</v>
       </c>
       <c r="H8" s="3">
-        <v>7988800</v>
+        <v>8723700</v>
       </c>
       <c r="I8" s="3">
-        <v>7460900</v>
+        <v>8147200</v>
       </c>
       <c r="J8" s="3">
-        <v>6685300</v>
+        <v>7300300</v>
       </c>
       <c r="K8" s="3">
         <v>6711300</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6831900</v>
+        <v>7460300</v>
       </c>
       <c r="E9" s="3">
-        <v>6810800</v>
+        <v>7437400</v>
       </c>
       <c r="F9" s="3">
-        <v>6147100</v>
+        <v>6712600</v>
       </c>
       <c r="G9" s="3">
-        <v>5761900</v>
+        <v>6292000</v>
       </c>
       <c r="H9" s="3">
-        <v>6019700</v>
+        <v>6573400</v>
       </c>
       <c r="I9" s="3">
-        <v>5577200</v>
+        <v>6090300</v>
       </c>
       <c r="J9" s="3">
-        <v>5034600</v>
+        <v>5497800</v>
       </c>
       <c r="K9" s="3">
         <v>10000500</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2209800</v>
+        <v>2413100</v>
       </c>
       <c r="E10" s="3">
-        <v>2199300</v>
+        <v>2401600</v>
       </c>
       <c r="F10" s="3">
-        <v>2045700</v>
+        <v>2233900</v>
       </c>
       <c r="G10" s="3">
-        <v>1868600</v>
+        <v>2040500</v>
       </c>
       <c r="H10" s="3">
-        <v>1969100</v>
+        <v>2150200</v>
       </c>
       <c r="I10" s="3">
-        <v>1883600</v>
+        <v>2056900</v>
       </c>
       <c r="J10" s="3">
-        <v>1650700</v>
+        <v>1802500</v>
       </c>
       <c r="K10" s="3">
         <v>-3289200</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>18000</v>
+        <v>19600</v>
       </c>
       <c r="E14" s="3">
-        <v>-111200</v>
+        <v>-121400</v>
       </c>
       <c r="F14" s="3">
-        <v>4100</v>
+        <v>4500</v>
       </c>
       <c r="G14" s="3">
-        <v>5500</v>
+        <v>6000</v>
       </c>
       <c r="H14" s="3">
-        <v>28200</v>
+        <v>30800</v>
       </c>
       <c r="I14" s="3">
-        <v>18100</v>
+        <v>19700</v>
       </c>
       <c r="J14" s="3">
-        <v>11400</v>
+        <v>12400</v>
       </c>
       <c r="K14" s="3">
         <v>2400</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>99200</v>
+        <v>108400</v>
       </c>
       <c r="E15" s="3">
-        <v>48000</v>
+        <v>52500</v>
       </c>
       <c r="F15" s="3">
-        <v>49800</v>
+        <v>54400</v>
       </c>
       <c r="G15" s="3">
-        <v>51400</v>
+        <v>56100</v>
       </c>
       <c r="H15" s="3">
-        <v>56900</v>
+        <v>62100</v>
       </c>
       <c r="I15" s="3">
-        <v>51800</v>
+        <v>56600</v>
       </c>
       <c r="J15" s="3">
-        <v>30800</v>
+        <v>33600</v>
       </c>
       <c r="K15" s="3">
         <v>25600</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8054100</v>
+        <v>8795000</v>
       </c>
       <c r="E17" s="3">
-        <v>7848700</v>
+        <v>8570700</v>
       </c>
       <c r="F17" s="3">
-        <v>7289700</v>
+        <v>7960200</v>
       </c>
       <c r="G17" s="3">
-        <v>6839300</v>
+        <v>7468500</v>
       </c>
       <c r="H17" s="3">
-        <v>7256300</v>
+        <v>7923800</v>
       </c>
       <c r="I17" s="3">
-        <v>6640900</v>
+        <v>7251700</v>
       </c>
       <c r="J17" s="3">
-        <v>6297100</v>
+        <v>6876400</v>
       </c>
       <c r="K17" s="3">
         <v>5951100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>987600</v>
+        <v>1078500</v>
       </c>
       <c r="E18" s="3">
-        <v>1161500</v>
+        <v>1268300</v>
       </c>
       <c r="F18" s="3">
-        <v>903200</v>
+        <v>986300</v>
       </c>
       <c r="G18" s="3">
-        <v>791200</v>
+        <v>864000</v>
       </c>
       <c r="H18" s="3">
-        <v>732500</v>
+        <v>799900</v>
       </c>
       <c r="I18" s="3">
-        <v>820000</v>
+        <v>895500</v>
       </c>
       <c r="J18" s="3">
-        <v>388200</v>
+        <v>423900</v>
       </c>
       <c r="K18" s="3">
         <v>760100</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-18700</v>
+        <v>-20400</v>
       </c>
       <c r="E20" s="3">
-        <v>-27500</v>
+        <v>-30100</v>
       </c>
       <c r="F20" s="3">
-        <v>-27000</v>
+        <v>-29500</v>
       </c>
       <c r="G20" s="3">
-        <v>-37000</v>
+        <v>-40400</v>
       </c>
       <c r="H20" s="3">
-        <v>-51900</v>
+        <v>-56700</v>
       </c>
       <c r="I20" s="3">
-        <v>-71600</v>
+        <v>-78200</v>
       </c>
       <c r="J20" s="3">
-        <v>-45500</v>
+        <v>-49700</v>
       </c>
       <c r="K20" s="3">
         <v>-44000</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1316900</v>
+        <v>1439400</v>
       </c>
       <c r="E21" s="3">
-        <v>1376600</v>
+        <v>1504200</v>
       </c>
       <c r="F21" s="3">
-        <v>1111800</v>
+        <v>1215000</v>
       </c>
       <c r="G21" s="3">
-        <v>994100</v>
+        <v>1086500</v>
       </c>
       <c r="H21" s="3">
-        <v>932700</v>
+        <v>1019500</v>
       </c>
       <c r="I21" s="3">
-        <v>979900</v>
+        <v>1070900</v>
       </c>
       <c r="J21" s="3">
-        <v>536800</v>
+        <v>586900</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>78600</v>
+        <v>85900</v>
       </c>
       <c r="E22" s="3">
-        <v>63000</v>
+        <v>68800</v>
       </c>
       <c r="F22" s="3">
-        <v>71200</v>
+        <v>77700</v>
       </c>
       <c r="G22" s="3">
-        <v>45800</v>
+        <v>50000</v>
       </c>
       <c r="H22" s="3">
-        <v>67300</v>
+        <v>73500</v>
       </c>
       <c r="I22" s="3">
-        <v>47500</v>
+        <v>51900</v>
       </c>
       <c r="J22" s="3">
-        <v>46100</v>
+        <v>50400</v>
       </c>
       <c r="K22" s="3">
         <v>50200</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>890300</v>
+        <v>972200</v>
       </c>
       <c r="E23" s="3">
-        <v>1071000</v>
+        <v>1169500</v>
       </c>
       <c r="F23" s="3">
-        <v>805000</v>
+        <v>879100</v>
       </c>
       <c r="G23" s="3">
-        <v>708400</v>
+        <v>773600</v>
       </c>
       <c r="H23" s="3">
-        <v>613300</v>
+        <v>669700</v>
       </c>
       <c r="I23" s="3">
-        <v>700900</v>
+        <v>765400</v>
       </c>
       <c r="J23" s="3">
-        <v>296500</v>
+        <v>323800</v>
       </c>
       <c r="K23" s="3">
         <v>666000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>281400</v>
+        <v>307300</v>
       </c>
       <c r="E24" s="3">
-        <v>273600</v>
+        <v>298800</v>
       </c>
       <c r="F24" s="3">
-        <v>280600</v>
+        <v>306400</v>
       </c>
       <c r="G24" s="3">
-        <v>266000</v>
+        <v>290400</v>
       </c>
       <c r="H24" s="3">
-        <v>185000</v>
+        <v>202000</v>
       </c>
       <c r="I24" s="3">
-        <v>201600</v>
+        <v>220200</v>
       </c>
       <c r="J24" s="3">
-        <v>186800</v>
+        <v>204000</v>
       </c>
       <c r="K24" s="3">
         <v>165500</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>608900</v>
+        <v>664900</v>
       </c>
       <c r="E26" s="3">
-        <v>797300</v>
+        <v>870700</v>
       </c>
       <c r="F26" s="3">
-        <v>524400</v>
+        <v>572700</v>
       </c>
       <c r="G26" s="3">
-        <v>442500</v>
+        <v>483200</v>
       </c>
       <c r="H26" s="3">
-        <v>428300</v>
+        <v>467700</v>
       </c>
       <c r="I26" s="3">
-        <v>499300</v>
+        <v>545300</v>
       </c>
       <c r="J26" s="3">
-        <v>109700</v>
+        <v>119800</v>
       </c>
       <c r="K26" s="3">
         <v>500500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>584200</v>
+        <v>637900</v>
       </c>
       <c r="E27" s="3">
-        <v>765800</v>
+        <v>836200</v>
       </c>
       <c r="F27" s="3">
-        <v>494500</v>
+        <v>540000</v>
       </c>
       <c r="G27" s="3">
-        <v>418900</v>
+        <v>457400</v>
       </c>
       <c r="H27" s="3">
-        <v>407900</v>
+        <v>445400</v>
       </c>
       <c r="I27" s="3">
-        <v>483600</v>
+        <v>528000</v>
       </c>
       <c r="J27" s="3">
-        <v>95900</v>
+        <v>104700</v>
       </c>
       <c r="K27" s="3">
         <v>484500</v>
@@ -1359,7 +1359,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>81000</v>
+        <v>88500</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>18700</v>
+        <v>20400</v>
       </c>
       <c r="E32" s="3">
-        <v>27500</v>
+        <v>30100</v>
       </c>
       <c r="F32" s="3">
-        <v>27000</v>
+        <v>29500</v>
       </c>
       <c r="G32" s="3">
-        <v>37000</v>
+        <v>40400</v>
       </c>
       <c r="H32" s="3">
-        <v>51900</v>
+        <v>56700</v>
       </c>
       <c r="I32" s="3">
-        <v>71600</v>
+        <v>78200</v>
       </c>
       <c r="J32" s="3">
-        <v>45500</v>
+        <v>49700</v>
       </c>
       <c r="K32" s="3">
         <v>44000</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>584200</v>
+        <v>637900</v>
       </c>
       <c r="E33" s="3">
-        <v>765800</v>
+        <v>836200</v>
       </c>
       <c r="F33" s="3">
-        <v>575500</v>
+        <v>628500</v>
       </c>
       <c r="G33" s="3">
-        <v>418900</v>
+        <v>457400</v>
       </c>
       <c r="H33" s="3">
-        <v>407900</v>
+        <v>445400</v>
       </c>
       <c r="I33" s="3">
-        <v>483600</v>
+        <v>528000</v>
       </c>
       <c r="J33" s="3">
-        <v>95900</v>
+        <v>104700</v>
       </c>
       <c r="K33" s="3">
         <v>484500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>584200</v>
+        <v>637900</v>
       </c>
       <c r="E35" s="3">
-        <v>765800</v>
+        <v>836200</v>
       </c>
       <c r="F35" s="3">
-        <v>575500</v>
+        <v>628500</v>
       </c>
       <c r="G35" s="3">
-        <v>418900</v>
+        <v>457400</v>
       </c>
       <c r="H35" s="3">
-        <v>407900</v>
+        <v>445400</v>
       </c>
       <c r="I35" s="3">
-        <v>483600</v>
+        <v>528000</v>
       </c>
       <c r="J35" s="3">
-        <v>95900</v>
+        <v>104700</v>
       </c>
       <c r="K35" s="3">
         <v>484500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>683400</v>
+        <v>738100</v>
       </c>
       <c r="E41" s="3">
-        <v>1104400</v>
+        <v>1192700</v>
       </c>
       <c r="F41" s="3">
-        <v>755900</v>
+        <v>816400</v>
       </c>
       <c r="G41" s="3">
-        <v>1056400</v>
+        <v>1140900</v>
       </c>
       <c r="H41" s="3">
-        <v>767200</v>
+        <v>828600</v>
       </c>
       <c r="I41" s="3">
-        <v>629200</v>
+        <v>679600</v>
       </c>
       <c r="J41" s="3">
-        <v>570700</v>
+        <v>616300</v>
       </c>
       <c r="K41" s="3">
         <v>856800</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>38300</v>
+        <v>41300</v>
       </c>
       <c r="E42" s="3">
-        <v>126800</v>
+        <v>136900</v>
       </c>
       <c r="F42" s="3">
-        <v>21300</v>
+        <v>23000</v>
       </c>
       <c r="G42" s="3">
-        <v>17900</v>
+        <v>19300</v>
       </c>
       <c r="H42" s="3">
-        <v>6800</v>
+        <v>7300</v>
       </c>
       <c r="I42" s="3">
-        <v>797900</v>
+        <v>861700</v>
       </c>
       <c r="J42" s="3">
-        <v>88400</v>
+        <v>95500</v>
       </c>
       <c r="K42" s="3">
         <v>84500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2385600</v>
+        <v>2576300</v>
       </c>
       <c r="E43" s="3">
-        <v>1834600</v>
+        <v>1981300</v>
       </c>
       <c r="F43" s="3">
-        <v>1884000</v>
+        <v>2034700</v>
       </c>
       <c r="G43" s="3">
-        <v>1798700</v>
+        <v>1942600</v>
       </c>
       <c r="H43" s="3">
-        <v>1640600</v>
+        <v>1771800</v>
       </c>
       <c r="I43" s="3">
-        <v>3064700</v>
+        <v>3309700</v>
       </c>
       <c r="J43" s="3">
-        <v>1322000</v>
+        <v>1427800</v>
       </c>
       <c r="K43" s="3">
         <v>1270600</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1918600</v>
+        <v>2072100</v>
       </c>
       <c r="E44" s="3">
-        <v>1894700</v>
+        <v>2046200</v>
       </c>
       <c r="F44" s="3">
-        <v>1819900</v>
+        <v>1965400</v>
       </c>
       <c r="G44" s="3">
-        <v>1638800</v>
+        <v>1769800</v>
       </c>
       <c r="H44" s="3">
-        <v>1543200</v>
+        <v>1666600</v>
       </c>
       <c r="I44" s="3">
-        <v>3202700</v>
+        <v>3458900</v>
       </c>
       <c r="J44" s="3">
-        <v>1456200</v>
+        <v>1572600</v>
       </c>
       <c r="K44" s="3">
         <v>1336100</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>59400</v>
+        <v>64200</v>
       </c>
       <c r="E45" s="3">
-        <v>60300</v>
+        <v>65100</v>
       </c>
       <c r="F45" s="3">
-        <v>70400</v>
+        <v>76000</v>
       </c>
       <c r="G45" s="3">
-        <v>69200</v>
+        <v>74700</v>
       </c>
       <c r="H45" s="3">
-        <v>97500</v>
+        <v>105300</v>
       </c>
       <c r="I45" s="3">
-        <v>765700</v>
+        <v>826900</v>
       </c>
       <c r="J45" s="3">
-        <v>238400</v>
+        <v>257500</v>
       </c>
       <c r="K45" s="3">
         <v>73700</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5085300</v>
+        <v>5492000</v>
       </c>
       <c r="E46" s="3">
-        <v>5020700</v>
+        <v>5422200</v>
       </c>
       <c r="F46" s="3">
-        <v>4551400</v>
+        <v>4915400</v>
       </c>
       <c r="G46" s="3">
-        <v>4581000</v>
+        <v>4947300</v>
       </c>
       <c r="H46" s="3">
-        <v>4055300</v>
+        <v>4379600</v>
       </c>
       <c r="I46" s="3">
-        <v>4124800</v>
+        <v>4454700</v>
       </c>
       <c r="J46" s="3">
-        <v>3675700</v>
+        <v>3969700</v>
       </c>
       <c r="K46" s="3">
         <v>3621800</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>136200</v>
+        <v>147000</v>
       </c>
       <c r="E47" s="3">
-        <v>122800</v>
+        <v>132600</v>
       </c>
       <c r="F47" s="3">
-        <v>126200</v>
+        <v>136300</v>
       </c>
       <c r="G47" s="3">
-        <v>137800</v>
+        <v>148800</v>
       </c>
       <c r="H47" s="3">
-        <v>152300</v>
+        <v>164500</v>
       </c>
       <c r="I47" s="3">
-        <v>319000</v>
+        <v>344500</v>
       </c>
       <c r="J47" s="3">
-        <v>120900</v>
+        <v>130500</v>
       </c>
       <c r="K47" s="3">
         <v>112800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2275800</v>
+        <v>2457800</v>
       </c>
       <c r="E48" s="3">
-        <v>1773800</v>
+        <v>1915600</v>
       </c>
       <c r="F48" s="3">
-        <v>1675300</v>
+        <v>1809300</v>
       </c>
       <c r="G48" s="3">
-        <v>1673600</v>
+        <v>1807500</v>
       </c>
       <c r="H48" s="3">
-        <v>1626600</v>
+        <v>1756600</v>
       </c>
       <c r="I48" s="3">
-        <v>3291200</v>
+        <v>3554400</v>
       </c>
       <c r="J48" s="3">
-        <v>1498200</v>
+        <v>1618000</v>
       </c>
       <c r="K48" s="3">
         <v>1360000</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1955400</v>
+        <v>2111800</v>
       </c>
       <c r="E49" s="3">
-        <v>1883700</v>
+        <v>2034300</v>
       </c>
       <c r="F49" s="3">
-        <v>1845200</v>
+        <v>1992800</v>
       </c>
       <c r="G49" s="3">
-        <v>2079900</v>
+        <v>2246200</v>
       </c>
       <c r="H49" s="3">
-        <v>2283600</v>
+        <v>2466300</v>
       </c>
       <c r="I49" s="3">
-        <v>4706100</v>
+        <v>5082400</v>
       </c>
       <c r="J49" s="3">
-        <v>2022000</v>
+        <v>2183700</v>
       </c>
       <c r="K49" s="3">
         <v>1018500</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>550100</v>
+        <v>594000</v>
       </c>
       <c r="E52" s="3">
-        <v>464700</v>
+        <v>501900</v>
       </c>
       <c r="F52" s="3">
-        <v>432900</v>
+        <v>467500</v>
       </c>
       <c r="G52" s="3">
-        <v>446200</v>
+        <v>481900</v>
       </c>
       <c r="H52" s="3">
-        <v>357000</v>
+        <v>385600</v>
       </c>
       <c r="I52" s="3">
-        <v>423100</v>
+        <v>457000</v>
       </c>
       <c r="J52" s="3">
-        <v>228900</v>
+        <v>247300</v>
       </c>
       <c r="K52" s="3">
         <v>201400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10002700</v>
+        <v>10802700</v>
       </c>
       <c r="E54" s="3">
-        <v>9265600</v>
+        <v>10006600</v>
       </c>
       <c r="F54" s="3">
-        <v>8631100</v>
+        <v>9321300</v>
       </c>
       <c r="G54" s="3">
-        <v>8918500</v>
+        <v>9631700</v>
       </c>
       <c r="H54" s="3">
-        <v>8474800</v>
+        <v>9152600</v>
       </c>
       <c r="I54" s="3">
-        <v>8677400</v>
+        <v>9371300</v>
       </c>
       <c r="J54" s="3">
-        <v>7545600</v>
+        <v>8149100</v>
       </c>
       <c r="K54" s="3">
         <v>6314500</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>878600</v>
+        <v>948900</v>
       </c>
       <c r="E57" s="3">
-        <v>832400</v>
+        <v>898900</v>
       </c>
       <c r="F57" s="3">
-        <v>839600</v>
+        <v>906700</v>
       </c>
       <c r="G57" s="3">
-        <v>754700</v>
+        <v>815000</v>
       </c>
       <c r="H57" s="3">
-        <v>602800</v>
+        <v>651000</v>
       </c>
       <c r="I57" s="3">
-        <v>631200</v>
+        <v>681600</v>
       </c>
       <c r="J57" s="3">
-        <v>503800</v>
+        <v>544100</v>
       </c>
       <c r="K57" s="3">
         <v>435400</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>325500</v>
+        <v>351500</v>
       </c>
       <c r="E58" s="3">
-        <v>231200</v>
+        <v>249700</v>
       </c>
       <c r="F58" s="3">
-        <v>258600</v>
+        <v>279300</v>
       </c>
       <c r="G58" s="3">
-        <v>131100</v>
+        <v>141500</v>
       </c>
       <c r="H58" s="3">
-        <v>153300</v>
+        <v>165500</v>
       </c>
       <c r="I58" s="3">
-        <v>215600</v>
+        <v>232800</v>
       </c>
       <c r="J58" s="3">
-        <v>175000</v>
+        <v>188900</v>
       </c>
       <c r="K58" s="3">
         <v>306100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1255500</v>
+        <v>1355900</v>
       </c>
       <c r="E59" s="3">
-        <v>1156500</v>
+        <v>1249000</v>
       </c>
       <c r="F59" s="3">
-        <v>1082800</v>
+        <v>1169400</v>
       </c>
       <c r="G59" s="3">
-        <v>961400</v>
+        <v>1038300</v>
       </c>
       <c r="H59" s="3">
-        <v>873500</v>
+        <v>943300</v>
       </c>
       <c r="I59" s="3">
-        <v>1770700</v>
+        <v>1912300</v>
       </c>
       <c r="J59" s="3">
-        <v>1100600</v>
+        <v>1188700</v>
       </c>
       <c r="K59" s="3">
         <v>703500</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2459600</v>
+        <v>2656200</v>
       </c>
       <c r="E60" s="3">
-        <v>2220100</v>
+        <v>2397600</v>
       </c>
       <c r="F60" s="3">
-        <v>2181000</v>
+        <v>2355400</v>
       </c>
       <c r="G60" s="3">
-        <v>1847100</v>
+        <v>1994800</v>
       </c>
       <c r="H60" s="3">
-        <v>1629500</v>
+        <v>1759800</v>
       </c>
       <c r="I60" s="3">
-        <v>1711500</v>
+        <v>1848300</v>
       </c>
       <c r="J60" s="3">
-        <v>1779400</v>
+        <v>1921700</v>
       </c>
       <c r="K60" s="3">
         <v>1444900</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1585800</v>
+        <v>1712700</v>
       </c>
       <c r="E61" s="3">
-        <v>1485300</v>
+        <v>1604100</v>
       </c>
       <c r="F61" s="3">
-        <v>1599200</v>
+        <v>1727100</v>
       </c>
       <c r="G61" s="3">
-        <v>2037000</v>
+        <v>2200000</v>
       </c>
       <c r="H61" s="3">
-        <v>2379100</v>
+        <v>2569300</v>
       </c>
       <c r="I61" s="3">
-        <v>2559100</v>
+        <v>2763800</v>
       </c>
       <c r="J61" s="3">
-        <v>2093700</v>
+        <v>2261100</v>
       </c>
       <c r="K61" s="3">
         <v>1323000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1985700</v>
+        <v>2144500</v>
       </c>
       <c r="E62" s="3">
-        <v>1792000</v>
+        <v>1935400</v>
       </c>
       <c r="F62" s="3">
-        <v>1681000</v>
+        <v>1815400</v>
       </c>
       <c r="G62" s="3">
-        <v>2091900</v>
+        <v>2259200</v>
       </c>
       <c r="H62" s="3">
-        <v>1672700</v>
+        <v>1806500</v>
       </c>
       <c r="I62" s="3">
-        <v>1812900</v>
+        <v>1957900</v>
       </c>
       <c r="J62" s="3">
-        <v>1424300</v>
+        <v>1538200</v>
       </c>
       <c r="K62" s="3">
         <v>1211400</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6228200</v>
+        <v>6726200</v>
       </c>
       <c r="E66" s="3">
-        <v>5701100</v>
+        <v>6157000</v>
       </c>
       <c r="F66" s="3">
-        <v>5651100</v>
+        <v>6103000</v>
       </c>
       <c r="G66" s="3">
-        <v>6151300</v>
+        <v>6643200</v>
       </c>
       <c r="H66" s="3">
-        <v>5837200</v>
+        <v>6304000</v>
       </c>
       <c r="I66" s="3">
-        <v>6223300</v>
+        <v>6721000</v>
       </c>
       <c r="J66" s="3">
-        <v>5409200</v>
+        <v>5841800</v>
       </c>
       <c r="K66" s="3">
         <v>4096600</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3342100</v>
+        <v>3609300</v>
       </c>
       <c r="E72" s="3">
-        <v>3223200</v>
+        <v>3481000</v>
       </c>
       <c r="F72" s="3">
-        <v>2754600</v>
+        <v>2974900</v>
       </c>
       <c r="G72" s="3">
-        <v>2448800</v>
+        <v>2644600</v>
       </c>
       <c r="H72" s="3">
-        <v>2431100</v>
+        <v>2625500</v>
       </c>
       <c r="I72" s="3">
-        <v>2188000</v>
+        <v>2363000</v>
       </c>
       <c r="J72" s="3">
-        <v>2204700</v>
+        <v>2381000</v>
       </c>
       <c r="K72" s="3">
         <v>2292700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3774600</v>
+        <v>4076400</v>
       </c>
       <c r="E76" s="3">
-        <v>3564500</v>
+        <v>3849600</v>
       </c>
       <c r="F76" s="3">
-        <v>2979900</v>
+        <v>3218300</v>
       </c>
       <c r="G76" s="3">
-        <v>2767200</v>
+        <v>2988400</v>
       </c>
       <c r="H76" s="3">
-        <v>2637600</v>
+        <v>2848500</v>
       </c>
       <c r="I76" s="3">
-        <v>2454100</v>
+        <v>2650400</v>
       </c>
       <c r="J76" s="3">
-        <v>2136400</v>
+        <v>2307300</v>
       </c>
       <c r="K76" s="3">
         <v>2217900</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>584200</v>
+        <v>637900</v>
       </c>
       <c r="E81" s="3">
-        <v>765800</v>
+        <v>836200</v>
       </c>
       <c r="F81" s="3">
-        <v>575500</v>
+        <v>628500</v>
       </c>
       <c r="G81" s="3">
-        <v>418900</v>
+        <v>457400</v>
       </c>
       <c r="H81" s="3">
-        <v>407900</v>
+        <v>445400</v>
       </c>
       <c r="I81" s="3">
-        <v>483600</v>
+        <v>528000</v>
       </c>
       <c r="J81" s="3">
-        <v>95900</v>
+        <v>104700</v>
       </c>
       <c r="K81" s="3">
         <v>484500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>350900</v>
+        <v>383200</v>
       </c>
       <c r="E83" s="3">
-        <v>244700</v>
+        <v>267200</v>
       </c>
       <c r="F83" s="3">
-        <v>237600</v>
+        <v>259400</v>
       </c>
       <c r="G83" s="3">
-        <v>241900</v>
+        <v>264100</v>
       </c>
       <c r="H83" s="3">
-        <v>254300</v>
+        <v>277700</v>
       </c>
       <c r="I83" s="3">
-        <v>233400</v>
+        <v>254800</v>
       </c>
       <c r="J83" s="3">
-        <v>195700</v>
+        <v>213700</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>989200</v>
+        <v>1080200</v>
       </c>
       <c r="E89" s="3">
-        <v>877200</v>
+        <v>957900</v>
       </c>
       <c r="F89" s="3">
-        <v>675800</v>
+        <v>738000</v>
       </c>
       <c r="G89" s="3">
-        <v>751600</v>
+        <v>820700</v>
       </c>
       <c r="H89" s="3">
-        <v>812700</v>
+        <v>887400</v>
       </c>
       <c r="I89" s="3">
-        <v>504300</v>
+        <v>550600</v>
       </c>
       <c r="J89" s="3">
-        <v>558700</v>
+        <v>610100</v>
       </c>
       <c r="K89" s="3">
         <v>644700</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-363800</v>
+        <v>-397300</v>
       </c>
       <c r="E91" s="3">
-        <v>-278300</v>
+        <v>-303800</v>
       </c>
       <c r="F91" s="3">
-        <v>-235800</v>
+        <v>-257500</v>
       </c>
       <c r="G91" s="3">
-        <v>-196500</v>
+        <v>-214500</v>
       </c>
       <c r="H91" s="3">
-        <v>-216900</v>
+        <v>-236800</v>
       </c>
       <c r="I91" s="3">
-        <v>-194700</v>
+        <v>-212600</v>
       </c>
       <c r="J91" s="3">
-        <v>-183500</v>
+        <v>-200400</v>
       </c>
       <c r="K91" s="3">
         <v>-204500</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-468500</v>
+        <v>-511600</v>
       </c>
       <c r="E94" s="3">
-        <v>-2000</v>
+        <v>-2200</v>
       </c>
       <c r="F94" s="3">
-        <v>-176200</v>
+        <v>-192400</v>
       </c>
       <c r="G94" s="3">
-        <v>59600</v>
+        <v>65100</v>
       </c>
       <c r="H94" s="3">
-        <v>-138200</v>
+        <v>-150900</v>
       </c>
       <c r="I94" s="3">
-        <v>-279600</v>
+        <v>-305300</v>
       </c>
       <c r="J94" s="3">
-        <v>-1120300</v>
+        <v>-1223300</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-293300</v>
+        <v>-320300</v>
       </c>
       <c r="E96" s="3">
-        <v>-275500</v>
+        <v>-300900</v>
       </c>
       <c r="F96" s="3">
-        <v>-263200</v>
+        <v>-287400</v>
       </c>
       <c r="G96" s="3">
-        <v>-263200</v>
+        <v>-287400</v>
       </c>
       <c r="H96" s="3">
-        <v>-263200</v>
+        <v>-287400</v>
       </c>
       <c r="I96" s="3">
-        <v>-263200</v>
+        <v>-287400</v>
       </c>
       <c r="J96" s="3">
-        <v>-263200</v>
+        <v>-287400</v>
       </c>
       <c r="K96" s="3">
         <v>-260200</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-945800</v>
+        <v>-1032800</v>
       </c>
       <c r="E100" s="3">
-        <v>-534300</v>
+        <v>-583500</v>
       </c>
       <c r="F100" s="3">
-        <v>-782300</v>
+        <v>-854300</v>
       </c>
       <c r="G100" s="3">
-        <v>-548500</v>
+        <v>-599000</v>
       </c>
       <c r="H100" s="3">
-        <v>-546500</v>
+        <v>-596800</v>
       </c>
       <c r="I100" s="3">
-        <v>-196900</v>
+        <v>-215000</v>
       </c>
       <c r="J100" s="3">
-        <v>262200</v>
+        <v>286300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>8800</v>
+        <v>9600</v>
       </c>
       <c r="E101" s="3">
-        <v>3700</v>
+        <v>4000</v>
       </c>
       <c r="F101" s="3">
-        <v>-14500</v>
+        <v>-15800</v>
       </c>
       <c r="G101" s="3">
-        <v>23300</v>
+        <v>25500</v>
       </c>
       <c r="H101" s="3">
-        <v>8500</v>
+        <v>9300</v>
       </c>
       <c r="I101" s="3">
-        <v>30200</v>
+        <v>32900</v>
       </c>
       <c r="J101" s="3">
-        <v>-2800</v>
+        <v>-3100</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-416300</v>
+        <v>-454600</v>
       </c>
       <c r="E102" s="3">
-        <v>344600</v>
+        <v>376300</v>
       </c>
       <c r="F102" s="3">
-        <v>-297200</v>
+        <v>-324500</v>
       </c>
       <c r="G102" s="3">
-        <v>286000</v>
+        <v>312300</v>
       </c>
       <c r="H102" s="3">
-        <v>136400</v>
+        <v>149000</v>
       </c>
       <c r="I102" s="3">
-        <v>57900</v>
+        <v>63200</v>
       </c>
       <c r="J102" s="3">
-        <v>-302200</v>
+        <v>-330000</v>
       </c>
       <c r="K102" s="3">
         <v>355300</v>

--- a/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
@@ -717,25 +717,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9873400</v>
+        <v>10128900</v>
       </c>
       <c r="E8" s="3">
-        <v>9839000</v>
+        <v>10093600</v>
       </c>
       <c r="F8" s="3">
-        <v>8946500</v>
+        <v>9178000</v>
       </c>
       <c r="G8" s="3">
-        <v>8332500</v>
+        <v>8548100</v>
       </c>
       <c r="H8" s="3">
-        <v>8723700</v>
+        <v>8949400</v>
       </c>
       <c r="I8" s="3">
-        <v>8147200</v>
+        <v>8358000</v>
       </c>
       <c r="J8" s="3">
-        <v>7300300</v>
+        <v>7489200</v>
       </c>
       <c r="K8" s="3">
         <v>6711300</v>
@@ -750,25 +750,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7460300</v>
+        <v>7653300</v>
       </c>
       <c r="E9" s="3">
-        <v>7437400</v>
+        <v>7629800</v>
       </c>
       <c r="F9" s="3">
-        <v>6712600</v>
+        <v>6886300</v>
       </c>
       <c r="G9" s="3">
-        <v>6292000</v>
+        <v>6454800</v>
       </c>
       <c r="H9" s="3">
-        <v>6573400</v>
+        <v>6743500</v>
       </c>
       <c r="I9" s="3">
-        <v>6090300</v>
+        <v>6247900</v>
       </c>
       <c r="J9" s="3">
-        <v>5497800</v>
+        <v>5640000</v>
       </c>
       <c r="K9" s="3">
         <v>10000500</v>
@@ -783,25 +783,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2413100</v>
+        <v>2475600</v>
       </c>
       <c r="E10" s="3">
-        <v>2401600</v>
+        <v>2463800</v>
       </c>
       <c r="F10" s="3">
-        <v>2233900</v>
+        <v>2291700</v>
       </c>
       <c r="G10" s="3">
-        <v>2040500</v>
+        <v>2093300</v>
       </c>
       <c r="H10" s="3">
-        <v>2150200</v>
+        <v>2205900</v>
       </c>
       <c r="I10" s="3">
-        <v>2056900</v>
+        <v>2110100</v>
       </c>
       <c r="J10" s="3">
-        <v>1802500</v>
+        <v>1849200</v>
       </c>
       <c r="K10" s="3">
         <v>-3289200</v>
@@ -897,25 +897,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>19600</v>
+        <v>20100</v>
       </c>
       <c r="E14" s="3">
-        <v>-121400</v>
+        <v>-124600</v>
       </c>
       <c r="F14" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="G14" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="H14" s="3">
-        <v>30800</v>
+        <v>31600</v>
       </c>
       <c r="I14" s="3">
-        <v>19700</v>
+        <v>20300</v>
       </c>
       <c r="J14" s="3">
-        <v>12400</v>
+        <v>12700</v>
       </c>
       <c r="K14" s="3">
         <v>2400</v>
@@ -930,25 +930,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>108400</v>
+        <v>111200</v>
       </c>
       <c r="E15" s="3">
-        <v>52500</v>
+        <v>53800</v>
       </c>
       <c r="F15" s="3">
-        <v>54400</v>
+        <v>55800</v>
       </c>
       <c r="G15" s="3">
-        <v>56100</v>
+        <v>57600</v>
       </c>
       <c r="H15" s="3">
-        <v>62100</v>
+        <v>63700</v>
       </c>
       <c r="I15" s="3">
-        <v>56600</v>
+        <v>58100</v>
       </c>
       <c r="J15" s="3">
-        <v>33600</v>
+        <v>34500</v>
       </c>
       <c r="K15" s="3">
         <v>25600</v>
@@ -975,25 +975,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8795000</v>
+        <v>9022500</v>
       </c>
       <c r="E17" s="3">
-        <v>8570700</v>
+        <v>8792400</v>
       </c>
       <c r="F17" s="3">
-        <v>7960200</v>
+        <v>8166200</v>
       </c>
       <c r="G17" s="3">
-        <v>7468500</v>
+        <v>7661700</v>
       </c>
       <c r="H17" s="3">
-        <v>7923800</v>
+        <v>8128900</v>
       </c>
       <c r="I17" s="3">
-        <v>7251700</v>
+        <v>7439400</v>
       </c>
       <c r="J17" s="3">
-        <v>6876400</v>
+        <v>7054300</v>
       </c>
       <c r="K17" s="3">
         <v>5951100</v>
@@ -1008,25 +1008,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1078500</v>
+        <v>1106400</v>
       </c>
       <c r="E18" s="3">
-        <v>1268300</v>
+        <v>1301100</v>
       </c>
       <c r="F18" s="3">
-        <v>986300</v>
+        <v>1011800</v>
       </c>
       <c r="G18" s="3">
-        <v>864000</v>
+        <v>886400</v>
       </c>
       <c r="H18" s="3">
-        <v>799900</v>
+        <v>820600</v>
       </c>
       <c r="I18" s="3">
-        <v>895500</v>
+        <v>918600</v>
       </c>
       <c r="J18" s="3">
-        <v>423900</v>
+        <v>434900</v>
       </c>
       <c r="K18" s="3">
         <v>760100</v>
@@ -1056,25 +1056,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-20400</v>
+        <v>-21000</v>
       </c>
       <c r="E20" s="3">
-        <v>-30100</v>
+        <v>-30900</v>
       </c>
       <c r="F20" s="3">
-        <v>-29500</v>
+        <v>-30300</v>
       </c>
       <c r="G20" s="3">
-        <v>-40400</v>
+        <v>-41500</v>
       </c>
       <c r="H20" s="3">
-        <v>-56700</v>
+        <v>-58200</v>
       </c>
       <c r="I20" s="3">
-        <v>-78200</v>
+        <v>-80200</v>
       </c>
       <c r="J20" s="3">
-        <v>-49700</v>
+        <v>-51000</v>
       </c>
       <c r="K20" s="3">
         <v>-44000</v>
@@ -1089,25 +1089,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1439400</v>
+        <v>1477300</v>
       </c>
       <c r="E21" s="3">
-        <v>1504200</v>
+        <v>1543600</v>
       </c>
       <c r="F21" s="3">
-        <v>1215000</v>
+        <v>1246900</v>
       </c>
       <c r="G21" s="3">
-        <v>1086500</v>
+        <v>1115100</v>
       </c>
       <c r="H21" s="3">
-        <v>1019500</v>
+        <v>1046400</v>
       </c>
       <c r="I21" s="3">
-        <v>1070900</v>
+        <v>1099100</v>
       </c>
       <c r="J21" s="3">
-        <v>586900</v>
+        <v>602500</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>8</v>
@@ -1122,25 +1122,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>85900</v>
+        <v>88100</v>
       </c>
       <c r="E22" s="3">
-        <v>68800</v>
+        <v>70500</v>
       </c>
       <c r="F22" s="3">
-        <v>77700</v>
+        <v>79700</v>
       </c>
       <c r="G22" s="3">
-        <v>50000</v>
+        <v>51300</v>
       </c>
       <c r="H22" s="3">
-        <v>73500</v>
+        <v>75400</v>
       </c>
       <c r="I22" s="3">
-        <v>51900</v>
+        <v>53200</v>
       </c>
       <c r="J22" s="3">
-        <v>50400</v>
+        <v>51700</v>
       </c>
       <c r="K22" s="3">
         <v>50200</v>
@@ -1155,25 +1155,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>972200</v>
+        <v>997300</v>
       </c>
       <c r="E23" s="3">
-        <v>1169500</v>
+        <v>1199700</v>
       </c>
       <c r="F23" s="3">
-        <v>879100</v>
+        <v>901800</v>
       </c>
       <c r="G23" s="3">
-        <v>773600</v>
+        <v>793600</v>
       </c>
       <c r="H23" s="3">
-        <v>669700</v>
+        <v>687000</v>
       </c>
       <c r="I23" s="3">
-        <v>765400</v>
+        <v>785200</v>
       </c>
       <c r="J23" s="3">
-        <v>323800</v>
+        <v>332200</v>
       </c>
       <c r="K23" s="3">
         <v>666000</v>
@@ -1188,25 +1188,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>307300</v>
+        <v>315200</v>
       </c>
       <c r="E24" s="3">
-        <v>298800</v>
+        <v>306500</v>
       </c>
       <c r="F24" s="3">
-        <v>306400</v>
+        <v>314300</v>
       </c>
       <c r="G24" s="3">
-        <v>290400</v>
+        <v>297900</v>
       </c>
       <c r="H24" s="3">
-        <v>202000</v>
+        <v>207300</v>
       </c>
       <c r="I24" s="3">
-        <v>220200</v>
+        <v>225900</v>
       </c>
       <c r="J24" s="3">
-        <v>204000</v>
+        <v>209300</v>
       </c>
       <c r="K24" s="3">
         <v>165500</v>
@@ -1254,25 +1254,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>664900</v>
+        <v>682100</v>
       </c>
       <c r="E26" s="3">
-        <v>870700</v>
+        <v>893200</v>
       </c>
       <c r="F26" s="3">
-        <v>572700</v>
+        <v>587500</v>
       </c>
       <c r="G26" s="3">
-        <v>483200</v>
+        <v>495700</v>
       </c>
       <c r="H26" s="3">
-        <v>467700</v>
+        <v>479800</v>
       </c>
       <c r="I26" s="3">
-        <v>545300</v>
+        <v>559400</v>
       </c>
       <c r="J26" s="3">
-        <v>119800</v>
+        <v>122900</v>
       </c>
       <c r="K26" s="3">
         <v>500500</v>
@@ -1287,25 +1287,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>637900</v>
+        <v>654400</v>
       </c>
       <c r="E27" s="3">
-        <v>836200</v>
+        <v>857900</v>
       </c>
       <c r="F27" s="3">
-        <v>540000</v>
+        <v>553900</v>
       </c>
       <c r="G27" s="3">
-        <v>457400</v>
+        <v>469300</v>
       </c>
       <c r="H27" s="3">
-        <v>445400</v>
+        <v>456900</v>
       </c>
       <c r="I27" s="3">
-        <v>528000</v>
+        <v>541700</v>
       </c>
       <c r="J27" s="3">
-        <v>104700</v>
+        <v>107400</v>
       </c>
       <c r="K27" s="3">
         <v>484500</v>
@@ -1359,7 +1359,7 @@
         <v>8</v>
       </c>
       <c r="F29" s="3">
-        <v>88500</v>
+        <v>90800</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
@@ -1452,25 +1452,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>20400</v>
+        <v>21000</v>
       </c>
       <c r="E32" s="3">
-        <v>30100</v>
+        <v>30900</v>
       </c>
       <c r="F32" s="3">
-        <v>29500</v>
+        <v>30300</v>
       </c>
       <c r="G32" s="3">
-        <v>40400</v>
+        <v>41500</v>
       </c>
       <c r="H32" s="3">
-        <v>56700</v>
+        <v>58200</v>
       </c>
       <c r="I32" s="3">
-        <v>78200</v>
+        <v>80200</v>
       </c>
       <c r="J32" s="3">
-        <v>49700</v>
+        <v>51000</v>
       </c>
       <c r="K32" s="3">
         <v>44000</v>
@@ -1485,25 +1485,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>637900</v>
+        <v>654400</v>
       </c>
       <c r="E33" s="3">
-        <v>836200</v>
+        <v>857900</v>
       </c>
       <c r="F33" s="3">
-        <v>628500</v>
+        <v>644700</v>
       </c>
       <c r="G33" s="3">
-        <v>457400</v>
+        <v>469300</v>
       </c>
       <c r="H33" s="3">
-        <v>445400</v>
+        <v>456900</v>
       </c>
       <c r="I33" s="3">
-        <v>528000</v>
+        <v>541700</v>
       </c>
       <c r="J33" s="3">
-        <v>104700</v>
+        <v>107400</v>
       </c>
       <c r="K33" s="3">
         <v>484500</v>
@@ -1551,25 +1551,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>637900</v>
+        <v>654400</v>
       </c>
       <c r="E35" s="3">
-        <v>836200</v>
+        <v>857900</v>
       </c>
       <c r="F35" s="3">
-        <v>628500</v>
+        <v>644700</v>
       </c>
       <c r="G35" s="3">
-        <v>457400</v>
+        <v>469300</v>
       </c>
       <c r="H35" s="3">
-        <v>445400</v>
+        <v>456900</v>
       </c>
       <c r="I35" s="3">
-        <v>528000</v>
+        <v>541700</v>
       </c>
       <c r="J35" s="3">
-        <v>104700</v>
+        <v>107400</v>
       </c>
       <c r="K35" s="3">
         <v>484500</v>
@@ -1652,25 +1652,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>738100</v>
+        <v>757200</v>
       </c>
       <c r="E41" s="3">
-        <v>1192700</v>
+        <v>1223500</v>
       </c>
       <c r="F41" s="3">
-        <v>816400</v>
+        <v>837500</v>
       </c>
       <c r="G41" s="3">
-        <v>1140900</v>
+        <v>1170400</v>
       </c>
       <c r="H41" s="3">
-        <v>828600</v>
+        <v>850000</v>
       </c>
       <c r="I41" s="3">
-        <v>679600</v>
+        <v>697100</v>
       </c>
       <c r="J41" s="3">
-        <v>616300</v>
+        <v>632300</v>
       </c>
       <c r="K41" s="3">
         <v>856800</v>
@@ -1685,25 +1685,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>41300</v>
+        <v>42400</v>
       </c>
       <c r="E42" s="3">
-        <v>136900</v>
+        <v>140500</v>
       </c>
       <c r="F42" s="3">
-        <v>23000</v>
+        <v>23600</v>
       </c>
       <c r="G42" s="3">
-        <v>19300</v>
+        <v>19800</v>
       </c>
       <c r="H42" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="I42" s="3">
-        <v>861700</v>
+        <v>884000</v>
       </c>
       <c r="J42" s="3">
-        <v>95500</v>
+        <v>98000</v>
       </c>
       <c r="K42" s="3">
         <v>84500</v>
@@ -1718,25 +1718,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2576300</v>
+        <v>2643000</v>
       </c>
       <c r="E43" s="3">
-        <v>1981300</v>
+        <v>2032500</v>
       </c>
       <c r="F43" s="3">
-        <v>2034700</v>
+        <v>2087300</v>
       </c>
       <c r="G43" s="3">
-        <v>1942600</v>
+        <v>1992900</v>
       </c>
       <c r="H43" s="3">
-        <v>1771800</v>
+        <v>1817600</v>
       </c>
       <c r="I43" s="3">
-        <v>3309700</v>
+        <v>3395400</v>
       </c>
       <c r="J43" s="3">
-        <v>1427800</v>
+        <v>1464700</v>
       </c>
       <c r="K43" s="3">
         <v>1270600</v>
@@ -1751,25 +1751,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2072100</v>
+        <v>2125700</v>
       </c>
       <c r="E44" s="3">
-        <v>2046200</v>
+        <v>2099200</v>
       </c>
       <c r="F44" s="3">
-        <v>1965400</v>
+        <v>2016300</v>
       </c>
       <c r="G44" s="3">
-        <v>1769800</v>
+        <v>1815600</v>
       </c>
       <c r="H44" s="3">
-        <v>1666600</v>
+        <v>1709800</v>
       </c>
       <c r="I44" s="3">
-        <v>3458900</v>
+        <v>3548300</v>
       </c>
       <c r="J44" s="3">
-        <v>1572600</v>
+        <v>1613300</v>
       </c>
       <c r="K44" s="3">
         <v>1336100</v>
@@ -1784,25 +1784,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>64200</v>
+        <v>65800</v>
       </c>
       <c r="E45" s="3">
-        <v>65100</v>
+        <v>66800</v>
       </c>
       <c r="F45" s="3">
-        <v>76000</v>
+        <v>78000</v>
       </c>
       <c r="G45" s="3">
-        <v>74700</v>
+        <v>76700</v>
       </c>
       <c r="H45" s="3">
-        <v>105300</v>
+        <v>108000</v>
       </c>
       <c r="I45" s="3">
-        <v>826900</v>
+        <v>848300</v>
       </c>
       <c r="J45" s="3">
-        <v>257500</v>
+        <v>264100</v>
       </c>
       <c r="K45" s="3">
         <v>73700</v>
@@ -1817,25 +1817,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5492000</v>
+        <v>5634100</v>
       </c>
       <c r="E46" s="3">
-        <v>5422200</v>
+        <v>5562500</v>
       </c>
       <c r="F46" s="3">
-        <v>4915400</v>
+        <v>5042600</v>
       </c>
       <c r="G46" s="3">
-        <v>4947300</v>
+        <v>5075300</v>
       </c>
       <c r="H46" s="3">
-        <v>4379600</v>
+        <v>4492900</v>
       </c>
       <c r="I46" s="3">
-        <v>4454700</v>
+        <v>4569900</v>
       </c>
       <c r="J46" s="3">
-        <v>3969700</v>
+        <v>4072400</v>
       </c>
       <c r="K46" s="3">
         <v>3621800</v>
@@ -1850,25 +1850,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>147000</v>
+        <v>150900</v>
       </c>
       <c r="E47" s="3">
-        <v>132600</v>
+        <v>136000</v>
       </c>
       <c r="F47" s="3">
-        <v>136300</v>
+        <v>139800</v>
       </c>
       <c r="G47" s="3">
-        <v>148800</v>
+        <v>152600</v>
       </c>
       <c r="H47" s="3">
-        <v>164500</v>
+        <v>168800</v>
       </c>
       <c r="I47" s="3">
-        <v>344500</v>
+        <v>353400</v>
       </c>
       <c r="J47" s="3">
-        <v>130500</v>
+        <v>133900</v>
       </c>
       <c r="K47" s="3">
         <v>112800</v>
@@ -1883,25 +1883,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2457800</v>
+        <v>2521400</v>
       </c>
       <c r="E48" s="3">
-        <v>1915600</v>
+        <v>1965200</v>
       </c>
       <c r="F48" s="3">
-        <v>1809300</v>
+        <v>1856100</v>
       </c>
       <c r="G48" s="3">
-        <v>1807500</v>
+        <v>1854200</v>
       </c>
       <c r="H48" s="3">
-        <v>1756600</v>
+        <v>1802100</v>
       </c>
       <c r="I48" s="3">
-        <v>3554400</v>
+        <v>3646300</v>
       </c>
       <c r="J48" s="3">
-        <v>1618000</v>
+        <v>1659800</v>
       </c>
       <c r="K48" s="3">
         <v>1360000</v>
@@ -1916,25 +1916,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2111800</v>
+        <v>2166400</v>
       </c>
       <c r="E49" s="3">
-        <v>2034300</v>
+        <v>2086900</v>
       </c>
       <c r="F49" s="3">
-        <v>1992800</v>
+        <v>2044300</v>
       </c>
       <c r="G49" s="3">
-        <v>2246200</v>
+        <v>2304300</v>
       </c>
       <c r="H49" s="3">
-        <v>2466300</v>
+        <v>2530100</v>
       </c>
       <c r="I49" s="3">
-        <v>5082400</v>
+        <v>5213900</v>
       </c>
       <c r="J49" s="3">
-        <v>2183700</v>
+        <v>2240100</v>
       </c>
       <c r="K49" s="3">
         <v>1018500</v>
@@ -2015,25 +2015,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>594000</v>
+        <v>609400</v>
       </c>
       <c r="E52" s="3">
-        <v>501900</v>
+        <v>514800</v>
       </c>
       <c r="F52" s="3">
-        <v>467500</v>
+        <v>479600</v>
       </c>
       <c r="G52" s="3">
-        <v>481900</v>
+        <v>494400</v>
       </c>
       <c r="H52" s="3">
-        <v>385600</v>
+        <v>395600</v>
       </c>
       <c r="I52" s="3">
-        <v>457000</v>
+        <v>468800</v>
       </c>
       <c r="J52" s="3">
-        <v>247300</v>
+        <v>253700</v>
       </c>
       <c r="K52" s="3">
         <v>201400</v>
@@ -2081,25 +2081,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10802700</v>
+        <v>11082200</v>
       </c>
       <c r="E54" s="3">
-        <v>10006600</v>
+        <v>10265500</v>
       </c>
       <c r="F54" s="3">
-        <v>9321300</v>
+        <v>9562500</v>
       </c>
       <c r="G54" s="3">
-        <v>9631700</v>
+        <v>9880900</v>
       </c>
       <c r="H54" s="3">
-        <v>9152600</v>
+        <v>9389400</v>
       </c>
       <c r="I54" s="3">
-        <v>9371300</v>
+        <v>9613800</v>
       </c>
       <c r="J54" s="3">
-        <v>8149100</v>
+        <v>8359900</v>
       </c>
       <c r="K54" s="3">
         <v>6314500</v>
@@ -2144,25 +2144,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>948900</v>
+        <v>973400</v>
       </c>
       <c r="E57" s="3">
-        <v>898900</v>
+        <v>922200</v>
       </c>
       <c r="F57" s="3">
-        <v>906700</v>
+        <v>930200</v>
       </c>
       <c r="G57" s="3">
-        <v>815000</v>
+        <v>836100</v>
       </c>
       <c r="H57" s="3">
-        <v>651000</v>
+        <v>667800</v>
       </c>
       <c r="I57" s="3">
-        <v>681600</v>
+        <v>699300</v>
       </c>
       <c r="J57" s="3">
-        <v>544100</v>
+        <v>558200</v>
       </c>
       <c r="K57" s="3">
         <v>435400</v>
@@ -2177,25 +2177,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>351500</v>
+        <v>360600</v>
       </c>
       <c r="E58" s="3">
-        <v>249700</v>
+        <v>256100</v>
       </c>
       <c r="F58" s="3">
-        <v>279300</v>
+        <v>286500</v>
       </c>
       <c r="G58" s="3">
-        <v>141500</v>
+        <v>145200</v>
       </c>
       <c r="H58" s="3">
-        <v>165500</v>
+        <v>169800</v>
       </c>
       <c r="I58" s="3">
-        <v>232800</v>
+        <v>238800</v>
       </c>
       <c r="J58" s="3">
-        <v>188900</v>
+        <v>193800</v>
       </c>
       <c r="K58" s="3">
         <v>306100</v>
@@ -2210,25 +2210,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1355900</v>
+        <v>1391000</v>
       </c>
       <c r="E59" s="3">
-        <v>1249000</v>
+        <v>1281300</v>
       </c>
       <c r="F59" s="3">
-        <v>1169400</v>
+        <v>1199600</v>
       </c>
       <c r="G59" s="3">
-        <v>1038300</v>
+        <v>1065100</v>
       </c>
       <c r="H59" s="3">
-        <v>943300</v>
+        <v>967800</v>
       </c>
       <c r="I59" s="3">
-        <v>1912300</v>
+        <v>1961800</v>
       </c>
       <c r="J59" s="3">
-        <v>1188700</v>
+        <v>1219400</v>
       </c>
       <c r="K59" s="3">
         <v>703500</v>
@@ -2243,25 +2243,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2656200</v>
+        <v>2725000</v>
       </c>
       <c r="E60" s="3">
-        <v>2397600</v>
+        <v>2459700</v>
       </c>
       <c r="F60" s="3">
-        <v>2355400</v>
+        <v>2416300</v>
       </c>
       <c r="G60" s="3">
-        <v>1994800</v>
+        <v>2046400</v>
       </c>
       <c r="H60" s="3">
-        <v>1759800</v>
+        <v>1805400</v>
       </c>
       <c r="I60" s="3">
-        <v>1848300</v>
+        <v>1896200</v>
       </c>
       <c r="J60" s="3">
-        <v>1921700</v>
+        <v>1971400</v>
       </c>
       <c r="K60" s="3">
         <v>1444900</v>
@@ -2276,25 +2276,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1712700</v>
+        <v>1757000</v>
       </c>
       <c r="E61" s="3">
-        <v>1604100</v>
+        <v>1645600</v>
       </c>
       <c r="F61" s="3">
-        <v>1727100</v>
+        <v>1771800</v>
       </c>
       <c r="G61" s="3">
-        <v>2200000</v>
+        <v>2256900</v>
       </c>
       <c r="H61" s="3">
-        <v>2569300</v>
+        <v>2635800</v>
       </c>
       <c r="I61" s="3">
-        <v>2763800</v>
+        <v>2835300</v>
       </c>
       <c r="J61" s="3">
-        <v>2261100</v>
+        <v>2319600</v>
       </c>
       <c r="K61" s="3">
         <v>1323000</v>
@@ -2309,25 +2309,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2144500</v>
+        <v>2200000</v>
       </c>
       <c r="E62" s="3">
-        <v>1935400</v>
+        <v>1985400</v>
       </c>
       <c r="F62" s="3">
-        <v>1815400</v>
+        <v>1862400</v>
       </c>
       <c r="G62" s="3">
-        <v>2259200</v>
+        <v>2317600</v>
       </c>
       <c r="H62" s="3">
-        <v>1806500</v>
+        <v>1853200</v>
       </c>
       <c r="I62" s="3">
-        <v>1957900</v>
+        <v>2008500</v>
       </c>
       <c r="J62" s="3">
-        <v>1538200</v>
+        <v>1578000</v>
       </c>
       <c r="K62" s="3">
         <v>1211400</v>
@@ -2441,25 +2441,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6726200</v>
+        <v>6900300</v>
       </c>
       <c r="E66" s="3">
-        <v>6157000</v>
+        <v>6316300</v>
       </c>
       <c r="F66" s="3">
-        <v>6103000</v>
+        <v>6260900</v>
       </c>
       <c r="G66" s="3">
-        <v>6643200</v>
+        <v>6815100</v>
       </c>
       <c r="H66" s="3">
-        <v>6304000</v>
+        <v>6467100</v>
       </c>
       <c r="I66" s="3">
-        <v>6721000</v>
+        <v>6894800</v>
       </c>
       <c r="J66" s="3">
-        <v>5841800</v>
+        <v>5992900</v>
       </c>
       <c r="K66" s="3">
         <v>4096600</v>
@@ -2621,25 +2621,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3609300</v>
+        <v>3702700</v>
       </c>
       <c r="E72" s="3">
-        <v>3481000</v>
+        <v>3571100</v>
       </c>
       <c r="F72" s="3">
-        <v>2974900</v>
+        <v>3051900</v>
       </c>
       <c r="G72" s="3">
-        <v>2644600</v>
+        <v>2713100</v>
       </c>
       <c r="H72" s="3">
-        <v>2625500</v>
+        <v>2693400</v>
       </c>
       <c r="I72" s="3">
-        <v>2363000</v>
+        <v>2424100</v>
       </c>
       <c r="J72" s="3">
-        <v>2381000</v>
+        <v>2442600</v>
       </c>
       <c r="K72" s="3">
         <v>2292700</v>
@@ -2753,25 +2753,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4076400</v>
+        <v>4181900</v>
       </c>
       <c r="E76" s="3">
-        <v>3849600</v>
+        <v>3949200</v>
       </c>
       <c r="F76" s="3">
-        <v>3218300</v>
+        <v>3301500</v>
       </c>
       <c r="G76" s="3">
-        <v>2988400</v>
+        <v>3065800</v>
       </c>
       <c r="H76" s="3">
-        <v>2848500</v>
+        <v>2922200</v>
       </c>
       <c r="I76" s="3">
-        <v>2650400</v>
+        <v>2719000</v>
       </c>
       <c r="J76" s="3">
-        <v>2307300</v>
+        <v>2367000</v>
       </c>
       <c r="K76" s="3">
         <v>2217900</v>
@@ -2857,25 +2857,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>637900</v>
+        <v>654400</v>
       </c>
       <c r="E81" s="3">
-        <v>836200</v>
+        <v>857900</v>
       </c>
       <c r="F81" s="3">
-        <v>628500</v>
+        <v>644700</v>
       </c>
       <c r="G81" s="3">
-        <v>457400</v>
+        <v>469300</v>
       </c>
       <c r="H81" s="3">
-        <v>445400</v>
+        <v>456900</v>
       </c>
       <c r="I81" s="3">
-        <v>528000</v>
+        <v>541700</v>
       </c>
       <c r="J81" s="3">
-        <v>104700</v>
+        <v>107400</v>
       </c>
       <c r="K81" s="3">
         <v>484500</v>
@@ -2905,25 +2905,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>383200</v>
+        <v>393100</v>
       </c>
       <c r="E83" s="3">
-        <v>267200</v>
+        <v>274100</v>
       </c>
       <c r="F83" s="3">
-        <v>259400</v>
+        <v>266100</v>
       </c>
       <c r="G83" s="3">
-        <v>264100</v>
+        <v>271000</v>
       </c>
       <c r="H83" s="3">
-        <v>277700</v>
+        <v>284900</v>
       </c>
       <c r="I83" s="3">
-        <v>254800</v>
+        <v>261400</v>
       </c>
       <c r="J83" s="3">
-        <v>213700</v>
+        <v>219300</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>8</v>
@@ -3103,25 +3103,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1080200</v>
+        <v>1108100</v>
       </c>
       <c r="E89" s="3">
-        <v>957900</v>
+        <v>982700</v>
       </c>
       <c r="F89" s="3">
-        <v>738000</v>
+        <v>757100</v>
       </c>
       <c r="G89" s="3">
-        <v>820700</v>
+        <v>842000</v>
       </c>
       <c r="H89" s="3">
-        <v>887400</v>
+        <v>910400</v>
       </c>
       <c r="I89" s="3">
-        <v>550600</v>
+        <v>564900</v>
       </c>
       <c r="J89" s="3">
-        <v>610100</v>
+        <v>625900</v>
       </c>
       <c r="K89" s="3">
         <v>644700</v>
@@ -3151,25 +3151,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-397300</v>
+        <v>-407600</v>
       </c>
       <c r="E91" s="3">
-        <v>-303800</v>
+        <v>-311700</v>
       </c>
       <c r="F91" s="3">
-        <v>-257500</v>
+        <v>-264100</v>
       </c>
       <c r="G91" s="3">
-        <v>-214500</v>
+        <v>-220100</v>
       </c>
       <c r="H91" s="3">
-        <v>-236800</v>
+        <v>-242900</v>
       </c>
       <c r="I91" s="3">
-        <v>-212600</v>
+        <v>-218100</v>
       </c>
       <c r="J91" s="3">
-        <v>-200400</v>
+        <v>-205600</v>
       </c>
       <c r="K91" s="3">
         <v>-204500</v>
@@ -3250,25 +3250,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-511600</v>
+        <v>-524900</v>
       </c>
       <c r="E94" s="3">
         <v>-2200</v>
       </c>
       <c r="F94" s="3">
-        <v>-192400</v>
+        <v>-197400</v>
       </c>
       <c r="G94" s="3">
-        <v>65100</v>
+        <v>66800</v>
       </c>
       <c r="H94" s="3">
-        <v>-150900</v>
+        <v>-154900</v>
       </c>
       <c r="I94" s="3">
-        <v>-305300</v>
+        <v>-313200</v>
       </c>
       <c r="J94" s="3">
-        <v>-1223300</v>
+        <v>-1255000</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>8</v>
@@ -3298,25 +3298,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-320300</v>
+        <v>-328600</v>
       </c>
       <c r="E96" s="3">
-        <v>-300900</v>
+        <v>-308600</v>
       </c>
       <c r="F96" s="3">
-        <v>-287400</v>
+        <v>-294900</v>
       </c>
       <c r="G96" s="3">
-        <v>-287400</v>
+        <v>-294900</v>
       </c>
       <c r="H96" s="3">
-        <v>-287400</v>
+        <v>-294900</v>
       </c>
       <c r="I96" s="3">
-        <v>-287400</v>
+        <v>-294900</v>
       </c>
       <c r="J96" s="3">
-        <v>-287400</v>
+        <v>-294900</v>
       </c>
       <c r="K96" s="3">
         <v>-260200</v>
@@ -3430,25 +3430,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1032800</v>
+        <v>-1059500</v>
       </c>
       <c r="E100" s="3">
-        <v>-583500</v>
+        <v>-598600</v>
       </c>
       <c r="F100" s="3">
-        <v>-854300</v>
+        <v>-876400</v>
       </c>
       <c r="G100" s="3">
-        <v>-599000</v>
+        <v>-614500</v>
       </c>
       <c r="H100" s="3">
-        <v>-596800</v>
+        <v>-612200</v>
       </c>
       <c r="I100" s="3">
-        <v>-215000</v>
+        <v>-220600</v>
       </c>
       <c r="J100" s="3">
-        <v>286300</v>
+        <v>293700</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>8</v>
@@ -3463,25 +3463,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9600</v>
+        <v>9900</v>
       </c>
       <c r="E101" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="F101" s="3">
-        <v>-15800</v>
+        <v>-16300</v>
       </c>
       <c r="G101" s="3">
-        <v>25500</v>
+        <v>26100</v>
       </c>
       <c r="H101" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="I101" s="3">
-        <v>32900</v>
+        <v>33800</v>
       </c>
       <c r="J101" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>8</v>
@@ -3496,25 +3496,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-454600</v>
+        <v>-466300</v>
       </c>
       <c r="E102" s="3">
-        <v>376300</v>
+        <v>386000</v>
       </c>
       <c r="F102" s="3">
-        <v>-324500</v>
+        <v>-332900</v>
       </c>
       <c r="G102" s="3">
-        <v>312300</v>
+        <v>320400</v>
       </c>
       <c r="H102" s="3">
-        <v>149000</v>
+        <v>152900</v>
       </c>
       <c r="I102" s="3">
-        <v>63200</v>
+        <v>64900</v>
       </c>
       <c r="J102" s="3">
-        <v>-330000</v>
+        <v>-338600</v>
       </c>
       <c r="K102" s="3">
         <v>355300</v>

--- a/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
   <si>
     <t>SKFRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,153 +665,165 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>10128900</v>
+        <v>8648400</v>
       </c>
       <c r="E8" s="3">
-        <v>10093600</v>
+        <v>9937900</v>
       </c>
       <c r="F8" s="3">
-        <v>9178000</v>
+        <v>9903300</v>
       </c>
       <c r="G8" s="3">
-        <v>8548100</v>
+        <v>9005000</v>
       </c>
       <c r="H8" s="3">
-        <v>8949400</v>
+        <v>8386900</v>
       </c>
       <c r="I8" s="3">
-        <v>8358000</v>
+        <v>8780700</v>
       </c>
       <c r="J8" s="3">
+        <v>8200500</v>
+      </c>
+      <c r="K8" s="3">
         <v>7489200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>6711300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7516800</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7653300</v>
+        <v>6683200</v>
       </c>
       <c r="E9" s="3">
-        <v>7629800</v>
+        <v>7509100</v>
       </c>
       <c r="F9" s="3">
-        <v>6886300</v>
+        <v>7486000</v>
       </c>
       <c r="G9" s="3">
-        <v>6454800</v>
+        <v>6756400</v>
       </c>
       <c r="H9" s="3">
-        <v>6743500</v>
+        <v>6333100</v>
       </c>
       <c r="I9" s="3">
-        <v>6247900</v>
+        <v>6616400</v>
       </c>
       <c r="J9" s="3">
+        <v>6130100</v>
+      </c>
+      <c r="K9" s="3">
         <v>5640000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>10000500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5403600</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2475600</v>
+        <v>1965200</v>
       </c>
       <c r="E10" s="3">
-        <v>2463800</v>
+        <v>2428900</v>
       </c>
       <c r="F10" s="3">
-        <v>2291700</v>
+        <v>2417300</v>
       </c>
       <c r="G10" s="3">
-        <v>2093300</v>
+        <v>2248500</v>
       </c>
       <c r="H10" s="3">
-        <v>2205900</v>
+        <v>2053800</v>
       </c>
       <c r="I10" s="3">
-        <v>2110100</v>
+        <v>2164300</v>
       </c>
       <c r="J10" s="3">
+        <v>2070400</v>
+      </c>
+      <c r="K10" s="3">
         <v>1849200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-3289200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>2113300</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -825,8 +837,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -857,9 +870,12 @@
       <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -890,75 +906,84 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>20100</v>
+        <v>2300</v>
       </c>
       <c r="E14" s="3">
-        <v>-124600</v>
+        <v>19800</v>
       </c>
       <c r="F14" s="3">
-        <v>4600</v>
+        <v>-122200</v>
       </c>
       <c r="G14" s="3">
-        <v>6100</v>
+        <v>4500</v>
       </c>
       <c r="H14" s="3">
-        <v>31600</v>
+        <v>6000</v>
       </c>
       <c r="I14" s="3">
-        <v>20300</v>
+        <v>31000</v>
       </c>
       <c r="J14" s="3">
+        <v>19900</v>
+      </c>
+      <c r="K14" s="3">
         <v>12700</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>2400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>5000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>111200</v>
+        <v>111700</v>
       </c>
       <c r="E15" s="3">
-        <v>53800</v>
+        <v>109100</v>
       </c>
       <c r="F15" s="3">
-        <v>55800</v>
+        <v>52800</v>
       </c>
       <c r="G15" s="3">
-        <v>57600</v>
+        <v>54800</v>
       </c>
       <c r="H15" s="3">
-        <v>63700</v>
+        <v>56500</v>
       </c>
       <c r="I15" s="3">
-        <v>58100</v>
+        <v>62500</v>
       </c>
       <c r="J15" s="3">
+        <v>57000</v>
+      </c>
+      <c r="K15" s="3">
         <v>34500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>25600</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>28200</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -969,74 +994,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9022500</v>
+        <v>7831600</v>
       </c>
       <c r="E17" s="3">
-        <v>8792400</v>
+        <v>8852400</v>
       </c>
       <c r="F17" s="3">
-        <v>8166200</v>
+        <v>8626700</v>
       </c>
       <c r="G17" s="3">
-        <v>7661700</v>
+        <v>8012200</v>
       </c>
       <c r="H17" s="3">
-        <v>8128900</v>
+        <v>7517300</v>
       </c>
       <c r="I17" s="3">
-        <v>7439400</v>
+        <v>7975600</v>
       </c>
       <c r="J17" s="3">
+        <v>7299100</v>
+      </c>
+      <c r="K17" s="3">
         <v>7054300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>5951100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6425700</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1106400</v>
+        <v>816800</v>
       </c>
       <c r="E18" s="3">
-        <v>1301100</v>
+        <v>1085500</v>
       </c>
       <c r="F18" s="3">
-        <v>1011800</v>
+        <v>1276600</v>
       </c>
       <c r="G18" s="3">
-        <v>886400</v>
+        <v>992700</v>
       </c>
       <c r="H18" s="3">
-        <v>820600</v>
+        <v>869700</v>
       </c>
       <c r="I18" s="3">
-        <v>918600</v>
+        <v>805100</v>
       </c>
       <c r="J18" s="3">
+        <v>901300</v>
+      </c>
+      <c r="K18" s="3">
         <v>434900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>760100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1091200</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1050,173 +1082,189 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-21000</v>
+        <v>-55500</v>
       </c>
       <c r="E20" s="3">
-        <v>-30900</v>
+        <v>-20600</v>
       </c>
       <c r="F20" s="3">
         <v>-30300</v>
       </c>
       <c r="G20" s="3">
-        <v>-41500</v>
+        <v>-29700</v>
       </c>
       <c r="H20" s="3">
-        <v>-58200</v>
+        <v>-40700</v>
       </c>
       <c r="I20" s="3">
-        <v>-80200</v>
+        <v>-57100</v>
       </c>
       <c r="J20" s="3">
+        <v>-78700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-51000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-44000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-33900</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1477300</v>
+        <v>1153000</v>
       </c>
       <c r="E21" s="3">
-        <v>1543600</v>
+        <v>1452900</v>
       </c>
       <c r="F21" s="3">
-        <v>1246900</v>
+        <v>1516900</v>
       </c>
       <c r="G21" s="3">
-        <v>1115100</v>
+        <v>1225700</v>
       </c>
       <c r="H21" s="3">
-        <v>1046400</v>
+        <v>1096400</v>
       </c>
       <c r="I21" s="3">
-        <v>1099100</v>
+        <v>1029100</v>
       </c>
       <c r="J21" s="3">
+        <v>1080700</v>
+      </c>
+      <c r="K21" s="3">
         <v>602500</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="L21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>1260700</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>88100</v>
+        <v>33400</v>
       </c>
       <c r="E22" s="3">
-        <v>70500</v>
+        <v>86400</v>
       </c>
       <c r="F22" s="3">
-        <v>79700</v>
+        <v>69200</v>
       </c>
       <c r="G22" s="3">
-        <v>51300</v>
+        <v>78200</v>
       </c>
       <c r="H22" s="3">
-        <v>75400</v>
+        <v>50400</v>
       </c>
       <c r="I22" s="3">
-        <v>53200</v>
+        <v>73900</v>
       </c>
       <c r="J22" s="3">
+        <v>52200</v>
+      </c>
+      <c r="K22" s="3">
         <v>51700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>50200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>43300</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>997300</v>
+        <v>727900</v>
       </c>
       <c r="E23" s="3">
-        <v>1199700</v>
+        <v>978500</v>
       </c>
       <c r="F23" s="3">
-        <v>901800</v>
+        <v>1177100</v>
       </c>
       <c r="G23" s="3">
-        <v>793600</v>
+        <v>884800</v>
       </c>
       <c r="H23" s="3">
-        <v>687000</v>
+        <v>778600</v>
       </c>
       <c r="I23" s="3">
-        <v>785200</v>
+        <v>674100</v>
       </c>
       <c r="J23" s="3">
+        <v>770400</v>
+      </c>
+      <c r="K23" s="3">
         <v>332200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>666000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1014000</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>315200</v>
+        <v>211000</v>
       </c>
       <c r="E24" s="3">
-        <v>306500</v>
+        <v>309300</v>
       </c>
       <c r="F24" s="3">
-        <v>314300</v>
+        <v>300800</v>
       </c>
       <c r="G24" s="3">
-        <v>297900</v>
+        <v>308400</v>
       </c>
       <c r="H24" s="3">
-        <v>207300</v>
+        <v>292300</v>
       </c>
       <c r="I24" s="3">
-        <v>225900</v>
+        <v>203400</v>
       </c>
       <c r="J24" s="3">
+        <v>221600</v>
+      </c>
+      <c r="K24" s="3">
         <v>209300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>165500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>307400</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1247,75 +1295,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>682100</v>
+        <v>516900</v>
       </c>
       <c r="E26" s="3">
-        <v>893200</v>
+        <v>669200</v>
       </c>
       <c r="F26" s="3">
-        <v>587500</v>
+        <v>876400</v>
       </c>
       <c r="G26" s="3">
-        <v>495700</v>
+        <v>576400</v>
       </c>
       <c r="H26" s="3">
-        <v>479800</v>
+        <v>486300</v>
       </c>
       <c r="I26" s="3">
-        <v>559400</v>
+        <v>470700</v>
       </c>
       <c r="J26" s="3">
+        <v>548800</v>
+      </c>
+      <c r="K26" s="3">
         <v>122900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>500500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>706500</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>654400</v>
+        <v>496600</v>
       </c>
       <c r="E27" s="3">
-        <v>857900</v>
+        <v>642100</v>
       </c>
       <c r="F27" s="3">
-        <v>553900</v>
+        <v>841700</v>
       </c>
       <c r="G27" s="3">
-        <v>469300</v>
+        <v>543500</v>
       </c>
       <c r="H27" s="3">
-        <v>456900</v>
+        <v>460400</v>
       </c>
       <c r="I27" s="3">
-        <v>541700</v>
+        <v>448300</v>
       </c>
       <c r="J27" s="3">
+        <v>531500</v>
+      </c>
+      <c r="K27" s="3">
         <v>107400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>484500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>686900</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1346,9 +1403,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1358,11 +1418,11 @@
       <c r="E29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="3">
-        <v>90800</v>
-      </c>
-      <c r="G29" s="3" t="s">
+      <c r="F29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="G29" s="3">
+        <v>89100</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1379,9 +1439,12 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1412,9 +1475,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,75 +1511,84 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>21000</v>
+        <v>55500</v>
       </c>
       <c r="E32" s="3">
-        <v>30900</v>
+        <v>20600</v>
       </c>
       <c r="F32" s="3">
         <v>30300</v>
       </c>
       <c r="G32" s="3">
-        <v>41500</v>
+        <v>29700</v>
       </c>
       <c r="H32" s="3">
-        <v>58200</v>
+        <v>40700</v>
       </c>
       <c r="I32" s="3">
-        <v>80200</v>
+        <v>57100</v>
       </c>
       <c r="J32" s="3">
+        <v>78700</v>
+      </c>
+      <c r="K32" s="3">
         <v>51000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>44000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>33900</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>654400</v>
+        <v>496600</v>
       </c>
       <c r="E33" s="3">
-        <v>857900</v>
+        <v>642100</v>
       </c>
       <c r="F33" s="3">
-        <v>644700</v>
+        <v>841700</v>
       </c>
       <c r="G33" s="3">
-        <v>469300</v>
+        <v>632600</v>
       </c>
       <c r="H33" s="3">
-        <v>456900</v>
+        <v>460400</v>
       </c>
       <c r="I33" s="3">
-        <v>541700</v>
+        <v>448300</v>
       </c>
       <c r="J33" s="3">
+        <v>531500</v>
+      </c>
+      <c r="K33" s="3">
         <v>107400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>484500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>686900</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1544,80 +1619,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>654400</v>
+        <v>496600</v>
       </c>
       <c r="E35" s="3">
-        <v>857900</v>
+        <v>642100</v>
       </c>
       <c r="F35" s="3">
-        <v>644700</v>
+        <v>841700</v>
       </c>
       <c r="G35" s="3">
-        <v>469300</v>
+        <v>632600</v>
       </c>
       <c r="H35" s="3">
-        <v>456900</v>
+        <v>460400</v>
       </c>
       <c r="I35" s="3">
-        <v>541700</v>
+        <v>448300</v>
       </c>
       <c r="J35" s="3">
+        <v>531500</v>
+      </c>
+      <c r="K35" s="3">
         <v>107400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>484500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>686900</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1631,8 +1715,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1646,305 +1731,333 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>757200</v>
+        <v>1623300</v>
       </c>
       <c r="E41" s="3">
-        <v>1223500</v>
+        <v>742900</v>
       </c>
       <c r="F41" s="3">
-        <v>837500</v>
+        <v>1200500</v>
       </c>
       <c r="G41" s="3">
-        <v>1170400</v>
+        <v>821700</v>
       </c>
       <c r="H41" s="3">
-        <v>850000</v>
+        <v>1148400</v>
       </c>
       <c r="I41" s="3">
-        <v>697100</v>
+        <v>834000</v>
       </c>
       <c r="J41" s="3">
+        <v>684000</v>
+      </c>
+      <c r="K41" s="3">
         <v>632300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>856800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>547700</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>42400</v>
+        <v>16400</v>
       </c>
       <c r="E42" s="3">
-        <v>140500</v>
+        <v>41600</v>
       </c>
       <c r="F42" s="3">
-        <v>23600</v>
+        <v>137800</v>
       </c>
       <c r="G42" s="3">
-        <v>19800</v>
+        <v>23100</v>
       </c>
       <c r="H42" s="3">
-        <v>7500</v>
+        <v>19400</v>
       </c>
       <c r="I42" s="3">
-        <v>884000</v>
+        <v>7400</v>
       </c>
       <c r="J42" s="3">
+        <v>867400</v>
+      </c>
+      <c r="K42" s="3">
         <v>98000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>84500</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>58100</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2643000</v>
+        <v>1901700</v>
       </c>
       <c r="E43" s="3">
-        <v>2032500</v>
+        <v>2593200</v>
       </c>
       <c r="F43" s="3">
-        <v>2087300</v>
+        <v>1994200</v>
       </c>
       <c r="G43" s="3">
-        <v>1992900</v>
+        <v>2047900</v>
       </c>
       <c r="H43" s="3">
-        <v>1817600</v>
+        <v>1955300</v>
       </c>
       <c r="I43" s="3">
-        <v>3395400</v>
+        <v>1783400</v>
       </c>
       <c r="J43" s="3">
+        <v>3331400</v>
+      </c>
+      <c r="K43" s="3">
         <v>1464700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1270600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1464400</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2125700</v>
+        <v>1817800</v>
       </c>
       <c r="E44" s="3">
-        <v>2099200</v>
+        <v>2085600</v>
       </c>
       <c r="F44" s="3">
-        <v>2016300</v>
+        <v>2059600</v>
       </c>
       <c r="G44" s="3">
-        <v>1815600</v>
+        <v>1978300</v>
       </c>
       <c r="H44" s="3">
-        <v>1709800</v>
+        <v>1781400</v>
       </c>
       <c r="I44" s="3">
-        <v>3548300</v>
+        <v>1677500</v>
       </c>
       <c r="J44" s="3">
+        <v>3481500</v>
+      </c>
+      <c r="K44" s="3">
         <v>1613300</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1336100</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1611000</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>65800</v>
+        <v>59400</v>
       </c>
       <c r="E45" s="3">
-        <v>66800</v>
+        <v>64600</v>
       </c>
       <c r="F45" s="3">
-        <v>78000</v>
+        <v>65500</v>
       </c>
       <c r="G45" s="3">
-        <v>76700</v>
+        <v>76500</v>
       </c>
       <c r="H45" s="3">
-        <v>108000</v>
+        <v>75200</v>
       </c>
       <c r="I45" s="3">
-        <v>848300</v>
+        <v>106000</v>
       </c>
       <c r="J45" s="3">
+        <v>832400</v>
+      </c>
+      <c r="K45" s="3">
         <v>264100</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>73700</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>104400</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5634100</v>
+        <v>5418600</v>
       </c>
       <c r="E46" s="3">
-        <v>5562500</v>
+        <v>5527900</v>
       </c>
       <c r="F46" s="3">
-        <v>5042600</v>
+        <v>5457600</v>
       </c>
       <c r="G46" s="3">
-        <v>5075300</v>
+        <v>4947500</v>
       </c>
       <c r="H46" s="3">
-        <v>4492900</v>
+        <v>4979700</v>
       </c>
       <c r="I46" s="3">
-        <v>4569900</v>
+        <v>4408200</v>
       </c>
       <c r="J46" s="3">
+        <v>4483800</v>
+      </c>
+      <c r="K46" s="3">
         <v>4072400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3621800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3785700</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>150900</v>
+        <v>116800</v>
       </c>
       <c r="E47" s="3">
-        <v>136000</v>
+        <v>148000</v>
       </c>
       <c r="F47" s="3">
-        <v>139800</v>
+        <v>133400</v>
       </c>
       <c r="G47" s="3">
-        <v>152600</v>
+        <v>137100</v>
       </c>
       <c r="H47" s="3">
-        <v>168800</v>
+        <v>149700</v>
       </c>
       <c r="I47" s="3">
-        <v>353400</v>
+        <v>165600</v>
       </c>
       <c r="J47" s="3">
+        <v>346700</v>
+      </c>
+      <c r="K47" s="3">
         <v>133900</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>112800</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>160300</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2521400</v>
+        <v>2389100</v>
       </c>
       <c r="E48" s="3">
-        <v>1965200</v>
+        <v>2473800</v>
       </c>
       <c r="F48" s="3">
-        <v>1856100</v>
+        <v>1928100</v>
       </c>
       <c r="G48" s="3">
-        <v>1854200</v>
+        <v>1821100</v>
       </c>
       <c r="H48" s="3">
-        <v>1802100</v>
+        <v>1819300</v>
       </c>
       <c r="I48" s="3">
-        <v>3646300</v>
+        <v>1768100</v>
       </c>
       <c r="J48" s="3">
+        <v>3577600</v>
+      </c>
+      <c r="K48" s="3">
         <v>1659800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1360000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1484400</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2166400</v>
+        <v>1876600</v>
       </c>
       <c r="E49" s="3">
-        <v>2086900</v>
+        <v>2125600</v>
       </c>
       <c r="F49" s="3">
-        <v>2044300</v>
+        <v>2047600</v>
       </c>
       <c r="G49" s="3">
-        <v>2304300</v>
+        <v>2005800</v>
       </c>
       <c r="H49" s="3">
-        <v>2530100</v>
+        <v>2260900</v>
       </c>
       <c r="I49" s="3">
-        <v>5213900</v>
+        <v>2482400</v>
       </c>
       <c r="J49" s="3">
+        <v>5115600</v>
+      </c>
+      <c r="K49" s="3">
         <v>2240100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>1018500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1153000</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1975,9 +2088,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,42 +2124,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>609400</v>
+        <v>661800</v>
       </c>
       <c r="E52" s="3">
-        <v>514800</v>
+        <v>597900</v>
       </c>
       <c r="F52" s="3">
-        <v>479600</v>
+        <v>505100</v>
       </c>
       <c r="G52" s="3">
-        <v>494400</v>
+        <v>470600</v>
       </c>
       <c r="H52" s="3">
-        <v>395600</v>
+        <v>485000</v>
       </c>
       <c r="I52" s="3">
-        <v>468800</v>
+        <v>388100</v>
       </c>
       <c r="J52" s="3">
+        <v>460000</v>
+      </c>
+      <c r="K52" s="3">
         <v>253700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>201400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>156800</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2074,42 +2196,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>11082200</v>
+        <v>10463000</v>
       </c>
       <c r="E54" s="3">
-        <v>10265500</v>
+        <v>10873200</v>
       </c>
       <c r="F54" s="3">
-        <v>9562500</v>
+        <v>10072000</v>
       </c>
       <c r="G54" s="3">
-        <v>9880900</v>
+        <v>9382200</v>
       </c>
       <c r="H54" s="3">
-        <v>9389400</v>
+        <v>9694600</v>
       </c>
       <c r="I54" s="3">
-        <v>9613800</v>
+        <v>9212400</v>
       </c>
       <c r="J54" s="3">
+        <v>9432600</v>
+      </c>
+      <c r="K54" s="3">
         <v>8359900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6314500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6740100</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2123,8 +2251,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2138,206 +2267,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>973400</v>
+        <v>977400</v>
       </c>
       <c r="E57" s="3">
-        <v>922200</v>
+        <v>955100</v>
       </c>
       <c r="F57" s="3">
-        <v>930200</v>
+        <v>904800</v>
       </c>
       <c r="G57" s="3">
-        <v>836100</v>
+        <v>912700</v>
       </c>
       <c r="H57" s="3">
-        <v>667800</v>
+        <v>820300</v>
       </c>
       <c r="I57" s="3">
-        <v>699300</v>
+        <v>655200</v>
       </c>
       <c r="J57" s="3">
+        <v>686100</v>
+      </c>
+      <c r="K57" s="3">
         <v>558200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>435400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>533300</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>360600</v>
+        <v>316000</v>
       </c>
       <c r="E58" s="3">
-        <v>256100</v>
+        <v>353800</v>
       </c>
       <c r="F58" s="3">
-        <v>286500</v>
+        <v>251300</v>
       </c>
       <c r="G58" s="3">
-        <v>145200</v>
+        <v>281100</v>
       </c>
       <c r="H58" s="3">
-        <v>169800</v>
+        <v>142500</v>
       </c>
       <c r="I58" s="3">
-        <v>238800</v>
+        <v>166600</v>
       </c>
       <c r="J58" s="3">
+        <v>234300</v>
+      </c>
+      <c r="K58" s="3">
         <v>193800</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>306100</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>126300</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1391000</v>
+        <v>1207400</v>
       </c>
       <c r="E59" s="3">
-        <v>1281300</v>
+        <v>1364800</v>
       </c>
       <c r="F59" s="3">
-        <v>1199600</v>
+        <v>1257200</v>
       </c>
       <c r="G59" s="3">
-        <v>1065100</v>
+        <v>1177000</v>
       </c>
       <c r="H59" s="3">
-        <v>967800</v>
+        <v>1045100</v>
       </c>
       <c r="I59" s="3">
-        <v>1961800</v>
+        <v>949500</v>
       </c>
       <c r="J59" s="3">
+        <v>1924800</v>
+      </c>
+      <c r="K59" s="3">
         <v>1219400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>703500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>843900</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2725000</v>
+        <v>2500700</v>
       </c>
       <c r="E60" s="3">
-        <v>2459700</v>
+        <v>2673600</v>
       </c>
       <c r="F60" s="3">
-        <v>2416300</v>
+        <v>2413300</v>
       </c>
       <c r="G60" s="3">
-        <v>2046400</v>
+        <v>2370800</v>
       </c>
       <c r="H60" s="3">
-        <v>1805400</v>
+        <v>2007900</v>
       </c>
       <c r="I60" s="3">
-        <v>1896200</v>
+        <v>1771300</v>
       </c>
       <c r="J60" s="3">
+        <v>1860400</v>
+      </c>
+      <c r="K60" s="3">
         <v>1971400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1444900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1503600</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1757000</v>
+        <v>1743400</v>
       </c>
       <c r="E61" s="3">
-        <v>1645600</v>
+        <v>1723900</v>
       </c>
       <c r="F61" s="3">
-        <v>1771800</v>
+        <v>1614600</v>
       </c>
       <c r="G61" s="3">
-        <v>2256900</v>
+        <v>1738400</v>
       </c>
       <c r="H61" s="3">
-        <v>2635800</v>
+        <v>2214300</v>
       </c>
       <c r="I61" s="3">
-        <v>2835300</v>
+        <v>2586100</v>
       </c>
       <c r="J61" s="3">
+        <v>2781900</v>
+      </c>
+      <c r="K61" s="3">
         <v>2319600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1323000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1419000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2200000</v>
+        <v>2092700</v>
       </c>
       <c r="E62" s="3">
-        <v>1985400</v>
+        <v>2158500</v>
       </c>
       <c r="F62" s="3">
-        <v>1862400</v>
+        <v>1948000</v>
       </c>
       <c r="G62" s="3">
-        <v>2317600</v>
+        <v>1827300</v>
       </c>
       <c r="H62" s="3">
-        <v>1853200</v>
+        <v>2273900</v>
       </c>
       <c r="I62" s="3">
-        <v>2008500</v>
+        <v>1818300</v>
       </c>
       <c r="J62" s="3">
+        <v>1970700</v>
+      </c>
+      <c r="K62" s="3">
         <v>1578000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1211400</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1268500</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2368,9 +2516,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2401,9 +2552,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2434,42 +2588,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6900300</v>
+        <v>6498900</v>
       </c>
       <c r="E66" s="3">
-        <v>6316300</v>
+        <v>6770200</v>
       </c>
       <c r="F66" s="3">
-        <v>6260900</v>
+        <v>6197200</v>
       </c>
       <c r="G66" s="3">
-        <v>6815100</v>
+        <v>6142900</v>
       </c>
       <c r="H66" s="3">
-        <v>6467100</v>
+        <v>6686600</v>
       </c>
       <c r="I66" s="3">
-        <v>6894800</v>
+        <v>6345200</v>
       </c>
       <c r="J66" s="3">
+        <v>6764900</v>
+      </c>
+      <c r="K66" s="3">
         <v>5992900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4096600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4306700</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2483,8 +2643,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2515,9 +2676,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2548,9 +2712,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2581,9 +2748,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2614,42 +2784,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3702700</v>
+        <v>3903500</v>
       </c>
       <c r="E72" s="3">
-        <v>3571100</v>
+        <v>3632900</v>
       </c>
       <c r="F72" s="3">
-        <v>3051900</v>
+        <v>3503800</v>
       </c>
       <c r="G72" s="3">
-        <v>2713100</v>
+        <v>2994300</v>
       </c>
       <c r="H72" s="3">
-        <v>2693400</v>
+        <v>2661900</v>
       </c>
       <c r="I72" s="3">
-        <v>2424100</v>
+        <v>2642600</v>
       </c>
       <c r="J72" s="3">
+        <v>2378400</v>
+      </c>
+      <c r="K72" s="3">
         <v>2442600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2292700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2373000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2680,9 +2856,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2713,9 +2892,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2746,42 +2928,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4181900</v>
+        <v>3964100</v>
       </c>
       <c r="E76" s="3">
-        <v>3949200</v>
+        <v>4103100</v>
       </c>
       <c r="F76" s="3">
-        <v>3301500</v>
+        <v>3874700</v>
       </c>
       <c r="G76" s="3">
-        <v>3065800</v>
+        <v>3239300</v>
       </c>
       <c r="H76" s="3">
-        <v>2922200</v>
+        <v>3008000</v>
       </c>
       <c r="I76" s="3">
-        <v>2719000</v>
+        <v>2867100</v>
       </c>
       <c r="J76" s="3">
+        <v>2667700</v>
+      </c>
+      <c r="K76" s="3">
         <v>2367000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2217900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2433400</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2812,80 +3000,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>654400</v>
+        <v>496600</v>
       </c>
       <c r="E81" s="3">
-        <v>857900</v>
+        <v>642100</v>
       </c>
       <c r="F81" s="3">
-        <v>644700</v>
+        <v>841700</v>
       </c>
       <c r="G81" s="3">
-        <v>469300</v>
+        <v>632600</v>
       </c>
       <c r="H81" s="3">
-        <v>456900</v>
+        <v>460400</v>
       </c>
       <c r="I81" s="3">
-        <v>541700</v>
+        <v>448300</v>
       </c>
       <c r="J81" s="3">
+        <v>531500</v>
+      </c>
+      <c r="K81" s="3">
         <v>107400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>484500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>686900</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2899,41 +3096,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>393100</v>
+        <v>389400</v>
       </c>
       <c r="E83" s="3">
-        <v>274100</v>
+        <v>385700</v>
       </c>
       <c r="F83" s="3">
-        <v>266100</v>
+        <v>269000</v>
       </c>
       <c r="G83" s="3">
-        <v>271000</v>
+        <v>261100</v>
       </c>
       <c r="H83" s="3">
-        <v>284900</v>
+        <v>265900</v>
       </c>
       <c r="I83" s="3">
-        <v>261400</v>
+        <v>279500</v>
       </c>
       <c r="J83" s="3">
+        <v>256500</v>
+      </c>
+      <c r="K83" s="3">
         <v>219300</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="L83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>203200</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2964,9 +3165,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2997,9 +3201,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3030,9 +3237,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3063,9 +3273,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3096,42 +3309,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1108100</v>
+        <v>954900</v>
       </c>
       <c r="E89" s="3">
-        <v>982700</v>
+        <v>1087200</v>
       </c>
       <c r="F89" s="3">
-        <v>757100</v>
+        <v>964200</v>
       </c>
       <c r="G89" s="3">
-        <v>842000</v>
+        <v>742800</v>
       </c>
       <c r="H89" s="3">
-        <v>910400</v>
+        <v>826100</v>
       </c>
       <c r="I89" s="3">
-        <v>564900</v>
+        <v>893200</v>
       </c>
       <c r="J89" s="3">
+        <v>554200</v>
+      </c>
+      <c r="K89" s="3">
         <v>625900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>644700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>634100</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3145,41 +3364,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-407600</v>
+        <v>-385000</v>
       </c>
       <c r="E91" s="3">
-        <v>-311700</v>
+        <v>-399900</v>
       </c>
       <c r="F91" s="3">
-        <v>-264100</v>
+        <v>-305800</v>
       </c>
       <c r="G91" s="3">
-        <v>-220100</v>
+        <v>-259200</v>
       </c>
       <c r="H91" s="3">
-        <v>-242900</v>
+        <v>-215900</v>
       </c>
       <c r="I91" s="3">
-        <v>-218100</v>
+        <v>-238400</v>
       </c>
       <c r="J91" s="3">
+        <v>-214000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-205600</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-204500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-218900</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3210,9 +3433,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3243,42 +3469,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-524900</v>
+        <v>-347300</v>
       </c>
       <c r="E94" s="3">
+        <v>-515000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-2200</v>
       </c>
-      <c r="F94" s="3">
-        <v>-197400</v>
-      </c>
       <c r="G94" s="3">
-        <v>66800</v>
+        <v>-193600</v>
       </c>
       <c r="H94" s="3">
-        <v>-154900</v>
+        <v>65500</v>
       </c>
       <c r="I94" s="3">
-        <v>-313200</v>
+        <v>-151900</v>
       </c>
       <c r="J94" s="3">
+        <v>-307300</v>
+      </c>
+      <c r="K94" s="3">
         <v>-1255000</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="L94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-197300</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3292,41 +3524,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-328600</v>
+        <v>-205400</v>
       </c>
       <c r="E96" s="3">
-        <v>-308600</v>
+        <v>-322400</v>
       </c>
       <c r="F96" s="3">
+        <v>-302800</v>
+      </c>
+      <c r="G96" s="3">
+        <v>-289300</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-289300</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-289300</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-289300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-294900</v>
       </c>
-      <c r="G96" s="3">
-        <v>-294900</v>
-      </c>
-      <c r="H96" s="3">
-        <v>-294900</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-294900</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-294900</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-260200</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-258500</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3357,9 +3593,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3390,9 +3629,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3423,106 +3665,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-1059500</v>
+        <v>310900</v>
       </c>
       <c r="E100" s="3">
-        <v>-598600</v>
+        <v>-1039500</v>
       </c>
       <c r="F100" s="3">
-        <v>-876400</v>
+        <v>-587300</v>
       </c>
       <c r="G100" s="3">
-        <v>-614500</v>
+        <v>-859800</v>
       </c>
       <c r="H100" s="3">
-        <v>-612200</v>
+        <v>-602900</v>
       </c>
       <c r="I100" s="3">
-        <v>-220600</v>
+        <v>-600700</v>
       </c>
       <c r="J100" s="3">
+        <v>-216400</v>
+      </c>
+      <c r="K100" s="3">
         <v>293700</v>
       </c>
-      <c r="K100" s="3" t="s">
+      <c r="L100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-161200</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>9900</v>
+        <v>-38100</v>
       </c>
       <c r="E101" s="3">
-        <v>4100</v>
+        <v>9700</v>
       </c>
       <c r="F101" s="3">
-        <v>-16300</v>
+        <v>4000</v>
       </c>
       <c r="G101" s="3">
-        <v>26100</v>
+        <v>-15900</v>
       </c>
       <c r="H101" s="3">
-        <v>9500</v>
+        <v>25600</v>
       </c>
       <c r="I101" s="3">
-        <v>33800</v>
+        <v>9400</v>
       </c>
       <c r="J101" s="3">
+        <v>33200</v>
+      </c>
+      <c r="K101" s="3">
         <v>-3200</v>
       </c>
-      <c r="K101" s="3" t="s">
+      <c r="L101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>200</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-466300</v>
+        <v>880400</v>
       </c>
       <c r="E102" s="3">
-        <v>386000</v>
+        <v>-457500</v>
       </c>
       <c r="F102" s="3">
-        <v>-332900</v>
+        <v>378700</v>
       </c>
       <c r="G102" s="3">
-        <v>320400</v>
+        <v>-326600</v>
       </c>
       <c r="H102" s="3">
-        <v>152900</v>
+        <v>314400</v>
       </c>
       <c r="I102" s="3">
-        <v>64900</v>
+        <v>150000</v>
       </c>
       <c r="J102" s="3">
+        <v>63700</v>
+      </c>
+      <c r="K102" s="3">
         <v>-338600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>355300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>275900</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8648400</v>
+        <v>9063800</v>
       </c>
       <c r="E8" s="3">
-        <v>9937900</v>
+        <v>10415300</v>
       </c>
       <c r="F8" s="3">
-        <v>9903300</v>
+        <v>10379000</v>
       </c>
       <c r="G8" s="3">
-        <v>9005000</v>
+        <v>9437500</v>
       </c>
       <c r="H8" s="3">
-        <v>8386900</v>
+        <v>8789800</v>
       </c>
       <c r="I8" s="3">
-        <v>8780700</v>
+        <v>9202500</v>
       </c>
       <c r="J8" s="3">
-        <v>8200500</v>
+        <v>8594400</v>
       </c>
       <c r="K8" s="3">
         <v>7489200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6683200</v>
+        <v>7004200</v>
       </c>
       <c r="E9" s="3">
-        <v>7509100</v>
+        <v>7869800</v>
       </c>
       <c r="F9" s="3">
-        <v>7486000</v>
+        <v>7845500</v>
       </c>
       <c r="G9" s="3">
-        <v>6756400</v>
+        <v>7081000</v>
       </c>
       <c r="H9" s="3">
-        <v>6333100</v>
+        <v>6637300</v>
       </c>
       <c r="I9" s="3">
-        <v>6616400</v>
+        <v>6934200</v>
       </c>
       <c r="J9" s="3">
-        <v>6130100</v>
+        <v>6424600</v>
       </c>
       <c r="K9" s="3">
         <v>5640000</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1965200</v>
+        <v>2059600</v>
       </c>
       <c r="E10" s="3">
-        <v>2428900</v>
+        <v>2545600</v>
       </c>
       <c r="F10" s="3">
-        <v>2417300</v>
+        <v>2533400</v>
       </c>
       <c r="G10" s="3">
-        <v>2248500</v>
+        <v>2356500</v>
       </c>
       <c r="H10" s="3">
-        <v>2053800</v>
+        <v>2152500</v>
       </c>
       <c r="I10" s="3">
-        <v>2164300</v>
+        <v>2268300</v>
       </c>
       <c r="J10" s="3">
-        <v>2070400</v>
+        <v>2169800</v>
       </c>
       <c r="K10" s="3">
         <v>1849200</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="E14" s="3">
-        <v>19800</v>
+        <v>20700</v>
       </c>
       <c r="F14" s="3">
-        <v>-122200</v>
+        <v>-128100</v>
       </c>
       <c r="G14" s="3">
-        <v>4500</v>
+        <v>4700</v>
       </c>
       <c r="H14" s="3">
-        <v>6000</v>
+        <v>6300</v>
       </c>
       <c r="I14" s="3">
-        <v>31000</v>
+        <v>32500</v>
       </c>
       <c r="J14" s="3">
-        <v>19900</v>
+        <v>20800</v>
       </c>
       <c r="K14" s="3">
         <v>12700</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>111700</v>
+        <v>117100</v>
       </c>
       <c r="E15" s="3">
-        <v>109100</v>
+        <v>114300</v>
       </c>
       <c r="F15" s="3">
-        <v>52800</v>
+        <v>55300</v>
       </c>
       <c r="G15" s="3">
-        <v>54800</v>
+        <v>57400</v>
       </c>
       <c r="H15" s="3">
-        <v>56500</v>
+        <v>59200</v>
       </c>
       <c r="I15" s="3">
-        <v>62500</v>
+        <v>65500</v>
       </c>
       <c r="J15" s="3">
-        <v>57000</v>
+        <v>59700</v>
       </c>
       <c r="K15" s="3">
         <v>34500</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7831600</v>
+        <v>8207800</v>
       </c>
       <c r="E17" s="3">
-        <v>8852400</v>
+        <v>9277700</v>
       </c>
       <c r="F17" s="3">
-        <v>8626700</v>
+        <v>9041100</v>
       </c>
       <c r="G17" s="3">
-        <v>8012200</v>
+        <v>8397100</v>
       </c>
       <c r="H17" s="3">
-        <v>7517300</v>
+        <v>7878400</v>
       </c>
       <c r="I17" s="3">
-        <v>7975600</v>
+        <v>8358700</v>
       </c>
       <c r="J17" s="3">
-        <v>7299100</v>
+        <v>7649700</v>
       </c>
       <c r="K17" s="3">
         <v>7054300</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>816800</v>
+        <v>856000</v>
       </c>
       <c r="E18" s="3">
-        <v>1085500</v>
+        <v>1137600</v>
       </c>
       <c r="F18" s="3">
-        <v>1276600</v>
+        <v>1337900</v>
       </c>
       <c r="G18" s="3">
-        <v>992700</v>
+        <v>1040400</v>
       </c>
       <c r="H18" s="3">
-        <v>869700</v>
+        <v>911400</v>
       </c>
       <c r="I18" s="3">
-        <v>805100</v>
+        <v>843800</v>
       </c>
       <c r="J18" s="3">
-        <v>901300</v>
+        <v>944600</v>
       </c>
       <c r="K18" s="3">
         <v>434900</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-55500</v>
+        <v>-58100</v>
       </c>
       <c r="E20" s="3">
-        <v>-20600</v>
+        <v>-21600</v>
       </c>
       <c r="F20" s="3">
-        <v>-30300</v>
+        <v>-31700</v>
       </c>
       <c r="G20" s="3">
-        <v>-29700</v>
+        <v>-31100</v>
       </c>
       <c r="H20" s="3">
-        <v>-40700</v>
+        <v>-42600</v>
       </c>
       <c r="I20" s="3">
-        <v>-57100</v>
+        <v>-59800</v>
       </c>
       <c r="J20" s="3">
-        <v>-78700</v>
+        <v>-82500</v>
       </c>
       <c r="K20" s="3">
         <v>-51000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1153000</v>
+        <v>1203300</v>
       </c>
       <c r="E21" s="3">
-        <v>1452900</v>
+        <v>1517700</v>
       </c>
       <c r="F21" s="3">
-        <v>1516900</v>
+        <v>1586300</v>
       </c>
       <c r="G21" s="3">
-        <v>1225700</v>
+        <v>1281200</v>
       </c>
       <c r="H21" s="3">
-        <v>1096400</v>
+        <v>1145700</v>
       </c>
       <c r="I21" s="3">
-        <v>1029100</v>
+        <v>1075000</v>
       </c>
       <c r="J21" s="3">
-        <v>1080700</v>
+        <v>1129200</v>
       </c>
       <c r="K21" s="3">
         <v>602500</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>33400</v>
+        <v>35000</v>
       </c>
       <c r="E22" s="3">
-        <v>86400</v>
+        <v>90600</v>
       </c>
       <c r="F22" s="3">
-        <v>69200</v>
+        <v>72500</v>
       </c>
       <c r="G22" s="3">
-        <v>78200</v>
+        <v>82000</v>
       </c>
       <c r="H22" s="3">
-        <v>50400</v>
+        <v>52800</v>
       </c>
       <c r="I22" s="3">
-        <v>73900</v>
+        <v>77500</v>
       </c>
       <c r="J22" s="3">
-        <v>52200</v>
+        <v>54700</v>
       </c>
       <c r="K22" s="3">
         <v>51700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>727900</v>
+        <v>762900</v>
       </c>
       <c r="E23" s="3">
-        <v>978500</v>
+        <v>1025500</v>
       </c>
       <c r="F23" s="3">
-        <v>1177100</v>
+        <v>1233700</v>
       </c>
       <c r="G23" s="3">
-        <v>884800</v>
+        <v>927300</v>
       </c>
       <c r="H23" s="3">
-        <v>778600</v>
+        <v>816000</v>
       </c>
       <c r="I23" s="3">
-        <v>674100</v>
+        <v>706400</v>
       </c>
       <c r="J23" s="3">
-        <v>770400</v>
+        <v>807400</v>
       </c>
       <c r="K23" s="3">
         <v>332200</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>211000</v>
+        <v>221100</v>
       </c>
       <c r="E24" s="3">
-        <v>309300</v>
+        <v>324200</v>
       </c>
       <c r="F24" s="3">
-        <v>300800</v>
+        <v>315200</v>
       </c>
       <c r="G24" s="3">
-        <v>308400</v>
+        <v>323200</v>
       </c>
       <c r="H24" s="3">
-        <v>292300</v>
+        <v>306400</v>
       </c>
       <c r="I24" s="3">
-        <v>203400</v>
+        <v>213100</v>
       </c>
       <c r="J24" s="3">
-        <v>221600</v>
+        <v>232300</v>
       </c>
       <c r="K24" s="3">
         <v>209300</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>516900</v>
+        <v>541800</v>
       </c>
       <c r="E26" s="3">
-        <v>669200</v>
+        <v>701400</v>
       </c>
       <c r="F26" s="3">
-        <v>876400</v>
+        <v>918500</v>
       </c>
       <c r="G26" s="3">
-        <v>576400</v>
+        <v>604100</v>
       </c>
       <c r="H26" s="3">
-        <v>486300</v>
+        <v>509700</v>
       </c>
       <c r="I26" s="3">
-        <v>470700</v>
+        <v>493300</v>
       </c>
       <c r="J26" s="3">
-        <v>548800</v>
+        <v>575200</v>
       </c>
       <c r="K26" s="3">
         <v>122900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>496600</v>
+        <v>520400</v>
       </c>
       <c r="E27" s="3">
-        <v>642100</v>
+        <v>672900</v>
       </c>
       <c r="F27" s="3">
-        <v>841700</v>
+        <v>882100</v>
       </c>
       <c r="G27" s="3">
-        <v>543500</v>
+        <v>569600</v>
       </c>
       <c r="H27" s="3">
-        <v>460400</v>
+        <v>482500</v>
       </c>
       <c r="I27" s="3">
-        <v>448300</v>
+        <v>469800</v>
       </c>
       <c r="J27" s="3">
-        <v>531500</v>
+        <v>557000</v>
       </c>
       <c r="K27" s="3">
         <v>107400</v>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>89100</v>
+        <v>93400</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>55500</v>
+        <v>58100</v>
       </c>
       <c r="E32" s="3">
-        <v>20600</v>
+        <v>21600</v>
       </c>
       <c r="F32" s="3">
-        <v>30300</v>
+        <v>31700</v>
       </c>
       <c r="G32" s="3">
-        <v>29700</v>
+        <v>31100</v>
       </c>
       <c r="H32" s="3">
-        <v>40700</v>
+        <v>42600</v>
       </c>
       <c r="I32" s="3">
-        <v>57100</v>
+        <v>59800</v>
       </c>
       <c r="J32" s="3">
-        <v>78700</v>
+        <v>82500</v>
       </c>
       <c r="K32" s="3">
         <v>51000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>496600</v>
+        <v>520400</v>
       </c>
       <c r="E33" s="3">
-        <v>642100</v>
+        <v>672900</v>
       </c>
       <c r="F33" s="3">
-        <v>841700</v>
+        <v>882100</v>
       </c>
       <c r="G33" s="3">
-        <v>632600</v>
+        <v>663000</v>
       </c>
       <c r="H33" s="3">
-        <v>460400</v>
+        <v>482500</v>
       </c>
       <c r="I33" s="3">
-        <v>448300</v>
+        <v>469800</v>
       </c>
       <c r="J33" s="3">
-        <v>531500</v>
+        <v>557000</v>
       </c>
       <c r="K33" s="3">
         <v>107400</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>496600</v>
+        <v>520400</v>
       </c>
       <c r="E35" s="3">
-        <v>642100</v>
+        <v>672900</v>
       </c>
       <c r="F35" s="3">
-        <v>841700</v>
+        <v>882100</v>
       </c>
       <c r="G35" s="3">
-        <v>632600</v>
+        <v>663000</v>
       </c>
       <c r="H35" s="3">
-        <v>460400</v>
+        <v>482500</v>
       </c>
       <c r="I35" s="3">
-        <v>448300</v>
+        <v>469800</v>
       </c>
       <c r="J35" s="3">
-        <v>531500</v>
+        <v>557000</v>
       </c>
       <c r="K35" s="3">
         <v>107400</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1623300</v>
+        <v>1701300</v>
       </c>
       <c r="E41" s="3">
-        <v>742900</v>
+        <v>778600</v>
       </c>
       <c r="F41" s="3">
-        <v>1200500</v>
+        <v>1258100</v>
       </c>
       <c r="G41" s="3">
-        <v>821700</v>
+        <v>861200</v>
       </c>
       <c r="H41" s="3">
-        <v>1148400</v>
+        <v>1203500</v>
       </c>
       <c r="I41" s="3">
-        <v>834000</v>
+        <v>874000</v>
       </c>
       <c r="J41" s="3">
-        <v>684000</v>
+        <v>716900</v>
       </c>
       <c r="K41" s="3">
         <v>632300</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16400</v>
+        <v>17200</v>
       </c>
       <c r="E42" s="3">
-        <v>41600</v>
+        <v>43600</v>
       </c>
       <c r="F42" s="3">
-        <v>137800</v>
+        <v>144500</v>
       </c>
       <c r="G42" s="3">
-        <v>23100</v>
+        <v>24200</v>
       </c>
       <c r="H42" s="3">
-        <v>19400</v>
+        <v>20300</v>
       </c>
       <c r="I42" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="J42" s="3">
-        <v>867400</v>
+        <v>909000</v>
       </c>
       <c r="K42" s="3">
         <v>98000</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1901700</v>
+        <v>1993000</v>
       </c>
       <c r="E43" s="3">
-        <v>2593200</v>
+        <v>2717700</v>
       </c>
       <c r="F43" s="3">
-        <v>1994200</v>
+        <v>2090000</v>
       </c>
       <c r="G43" s="3">
-        <v>2047900</v>
+        <v>2146300</v>
       </c>
       <c r="H43" s="3">
-        <v>1955300</v>
+        <v>2049200</v>
       </c>
       <c r="I43" s="3">
-        <v>1783400</v>
+        <v>1869000</v>
       </c>
       <c r="J43" s="3">
-        <v>3331400</v>
+        <v>3491400</v>
       </c>
       <c r="K43" s="3">
         <v>1464700</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1817800</v>
+        <v>1905100</v>
       </c>
       <c r="E44" s="3">
-        <v>2085600</v>
+        <v>2185800</v>
       </c>
       <c r="F44" s="3">
-        <v>2059600</v>
+        <v>2158600</v>
       </c>
       <c r="G44" s="3">
-        <v>1978300</v>
+        <v>2073300</v>
       </c>
       <c r="H44" s="3">
-        <v>1781400</v>
+        <v>1867000</v>
       </c>
       <c r="I44" s="3">
-        <v>1677500</v>
+        <v>1758100</v>
       </c>
       <c r="J44" s="3">
-        <v>3481500</v>
+        <v>3648700</v>
       </c>
       <c r="K44" s="3">
         <v>1613300</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>59400</v>
+        <v>62200</v>
       </c>
       <c r="E45" s="3">
-        <v>64600</v>
+        <v>67700</v>
       </c>
       <c r="F45" s="3">
-        <v>65500</v>
+        <v>68700</v>
       </c>
       <c r="G45" s="3">
-        <v>76500</v>
+        <v>80200</v>
       </c>
       <c r="H45" s="3">
-        <v>75200</v>
+        <v>78800</v>
       </c>
       <c r="I45" s="3">
-        <v>106000</v>
+        <v>111000</v>
       </c>
       <c r="J45" s="3">
-        <v>832400</v>
+        <v>872300</v>
       </c>
       <c r="K45" s="3">
         <v>264100</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5418600</v>
+        <v>5678900</v>
       </c>
       <c r="E46" s="3">
-        <v>5527900</v>
+        <v>5793400</v>
       </c>
       <c r="F46" s="3">
-        <v>5457600</v>
+        <v>5719800</v>
       </c>
       <c r="G46" s="3">
-        <v>4947500</v>
+        <v>5185200</v>
       </c>
       <c r="H46" s="3">
-        <v>4979700</v>
+        <v>5218900</v>
       </c>
       <c r="I46" s="3">
-        <v>4408200</v>
+        <v>4619900</v>
       </c>
       <c r="J46" s="3">
-        <v>4483800</v>
+        <v>4699100</v>
       </c>
       <c r="K46" s="3">
         <v>4072400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>116800</v>
+        <v>122400</v>
       </c>
       <c r="E47" s="3">
-        <v>148000</v>
+        <v>155100</v>
       </c>
       <c r="F47" s="3">
-        <v>133400</v>
+        <v>139900</v>
       </c>
       <c r="G47" s="3">
-        <v>137100</v>
+        <v>143700</v>
       </c>
       <c r="H47" s="3">
-        <v>149700</v>
+        <v>156900</v>
       </c>
       <c r="I47" s="3">
-        <v>165600</v>
+        <v>173500</v>
       </c>
       <c r="J47" s="3">
-        <v>346700</v>
+        <v>363400</v>
       </c>
       <c r="K47" s="3">
         <v>133900</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2389100</v>
+        <v>2503900</v>
       </c>
       <c r="E48" s="3">
-        <v>2473800</v>
+        <v>2592700</v>
       </c>
       <c r="F48" s="3">
-        <v>1928100</v>
+        <v>2020700</v>
       </c>
       <c r="G48" s="3">
-        <v>1821100</v>
+        <v>1908600</v>
       </c>
       <c r="H48" s="3">
-        <v>1819300</v>
+        <v>1906700</v>
       </c>
       <c r="I48" s="3">
-        <v>1768100</v>
+        <v>1853000</v>
       </c>
       <c r="J48" s="3">
-        <v>3577600</v>
+        <v>3749400</v>
       </c>
       <c r="K48" s="3">
         <v>1659800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1876600</v>
+        <v>1966700</v>
       </c>
       <c r="E49" s="3">
-        <v>2125600</v>
+        <v>2227700</v>
       </c>
       <c r="F49" s="3">
-        <v>2047600</v>
+        <v>2146000</v>
       </c>
       <c r="G49" s="3">
-        <v>2005800</v>
+        <v>2102100</v>
       </c>
       <c r="H49" s="3">
-        <v>2260900</v>
+        <v>2369500</v>
       </c>
       <c r="I49" s="3">
-        <v>2482400</v>
+        <v>2601600</v>
       </c>
       <c r="J49" s="3">
-        <v>5115600</v>
+        <v>5361400</v>
       </c>
       <c r="K49" s="3">
         <v>2240100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>661800</v>
+        <v>693600</v>
       </c>
       <c r="E52" s="3">
-        <v>597900</v>
+        <v>626600</v>
       </c>
       <c r="F52" s="3">
-        <v>505100</v>
+        <v>529400</v>
       </c>
       <c r="G52" s="3">
-        <v>470600</v>
+        <v>493200</v>
       </c>
       <c r="H52" s="3">
-        <v>485000</v>
+        <v>508300</v>
       </c>
       <c r="I52" s="3">
-        <v>388100</v>
+        <v>406700</v>
       </c>
       <c r="J52" s="3">
-        <v>460000</v>
+        <v>482100</v>
       </c>
       <c r="K52" s="3">
         <v>253700</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10463000</v>
+        <v>10965500</v>
       </c>
       <c r="E54" s="3">
-        <v>10873200</v>
+        <v>11395500</v>
       </c>
       <c r="F54" s="3">
-        <v>10072000</v>
+        <v>10555800</v>
       </c>
       <c r="G54" s="3">
-        <v>9382200</v>
+        <v>9832900</v>
       </c>
       <c r="H54" s="3">
-        <v>9694600</v>
+        <v>10160300</v>
       </c>
       <c r="I54" s="3">
-        <v>9212400</v>
+        <v>9654900</v>
       </c>
       <c r="J54" s="3">
-        <v>9432600</v>
+        <v>9885700</v>
       </c>
       <c r="K54" s="3">
         <v>8359900</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>977400</v>
+        <v>1024300</v>
       </c>
       <c r="E57" s="3">
-        <v>955100</v>
+        <v>1000900</v>
       </c>
       <c r="F57" s="3">
-        <v>904800</v>
+        <v>948300</v>
       </c>
       <c r="G57" s="3">
-        <v>912700</v>
+        <v>956500</v>
       </c>
       <c r="H57" s="3">
-        <v>820300</v>
+        <v>859700</v>
       </c>
       <c r="I57" s="3">
-        <v>655200</v>
+        <v>686700</v>
       </c>
       <c r="J57" s="3">
-        <v>686100</v>
+        <v>719000</v>
       </c>
       <c r="K57" s="3">
         <v>558200</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>316000</v>
+        <v>331200</v>
       </c>
       <c r="E58" s="3">
-        <v>353800</v>
+        <v>370800</v>
       </c>
       <c r="F58" s="3">
-        <v>251300</v>
+        <v>263400</v>
       </c>
       <c r="G58" s="3">
-        <v>281100</v>
+        <v>294600</v>
       </c>
       <c r="H58" s="3">
-        <v>142500</v>
+        <v>149300</v>
       </c>
       <c r="I58" s="3">
-        <v>166600</v>
+        <v>174600</v>
       </c>
       <c r="J58" s="3">
-        <v>234300</v>
+        <v>245600</v>
       </c>
       <c r="K58" s="3">
         <v>193800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1207400</v>
+        <v>1265400</v>
       </c>
       <c r="E59" s="3">
-        <v>1364800</v>
+        <v>1430300</v>
       </c>
       <c r="F59" s="3">
-        <v>1257200</v>
+        <v>1317600</v>
       </c>
       <c r="G59" s="3">
-        <v>1177000</v>
+        <v>1233500</v>
       </c>
       <c r="H59" s="3">
-        <v>1045100</v>
+        <v>1095300</v>
       </c>
       <c r="I59" s="3">
-        <v>949500</v>
+        <v>995100</v>
       </c>
       <c r="J59" s="3">
-        <v>1924800</v>
+        <v>2017200</v>
       </c>
       <c r="K59" s="3">
         <v>1219400</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2500700</v>
+        <v>2620900</v>
       </c>
       <c r="E60" s="3">
-        <v>2673600</v>
+        <v>2802000</v>
       </c>
       <c r="F60" s="3">
-        <v>2413300</v>
+        <v>2529200</v>
       </c>
       <c r="G60" s="3">
-        <v>2370800</v>
+        <v>2484600</v>
       </c>
       <c r="H60" s="3">
-        <v>2007900</v>
+        <v>2104300</v>
       </c>
       <c r="I60" s="3">
-        <v>1771300</v>
+        <v>1856400</v>
       </c>
       <c r="J60" s="3">
-        <v>1860400</v>
+        <v>1949800</v>
       </c>
       <c r="K60" s="3">
         <v>1971400</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1743400</v>
+        <v>1827100</v>
       </c>
       <c r="E61" s="3">
-        <v>1723900</v>
+        <v>1806700</v>
       </c>
       <c r="F61" s="3">
-        <v>1614600</v>
+        <v>1692100</v>
       </c>
       <c r="G61" s="3">
-        <v>1738400</v>
+        <v>1821900</v>
       </c>
       <c r="H61" s="3">
-        <v>2214300</v>
+        <v>2320700</v>
       </c>
       <c r="I61" s="3">
-        <v>2586100</v>
+        <v>2710400</v>
       </c>
       <c r="J61" s="3">
-        <v>2781900</v>
+        <v>2915500</v>
       </c>
       <c r="K61" s="3">
         <v>2319600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2092700</v>
+        <v>2193200</v>
       </c>
       <c r="E62" s="3">
-        <v>2158500</v>
+        <v>2262200</v>
       </c>
       <c r="F62" s="3">
-        <v>1948000</v>
+        <v>2041600</v>
       </c>
       <c r="G62" s="3">
-        <v>1827300</v>
+        <v>1915000</v>
       </c>
       <c r="H62" s="3">
-        <v>2273900</v>
+        <v>2383200</v>
       </c>
       <c r="I62" s="3">
-        <v>1818300</v>
+        <v>1905600</v>
       </c>
       <c r="J62" s="3">
-        <v>1970700</v>
+        <v>2065300</v>
       </c>
       <c r="K62" s="3">
         <v>1578000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6498900</v>
+        <v>6811100</v>
       </c>
       <c r="E66" s="3">
-        <v>6770200</v>
+        <v>7095400</v>
       </c>
       <c r="F66" s="3">
-        <v>6197200</v>
+        <v>6494900</v>
       </c>
       <c r="G66" s="3">
-        <v>6142900</v>
+        <v>6438000</v>
       </c>
       <c r="H66" s="3">
-        <v>6686600</v>
+        <v>7007800</v>
       </c>
       <c r="I66" s="3">
-        <v>6345200</v>
+        <v>6650000</v>
       </c>
       <c r="J66" s="3">
-        <v>6764900</v>
+        <v>7089800</v>
       </c>
       <c r="K66" s="3">
         <v>5992900</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3903500</v>
+        <v>4091000</v>
       </c>
       <c r="E72" s="3">
-        <v>3632900</v>
+        <v>3807400</v>
       </c>
       <c r="F72" s="3">
-        <v>3503800</v>
+        <v>3672100</v>
       </c>
       <c r="G72" s="3">
-        <v>2994300</v>
+        <v>3138200</v>
       </c>
       <c r="H72" s="3">
-        <v>2661900</v>
+        <v>2789800</v>
       </c>
       <c r="I72" s="3">
-        <v>2642600</v>
+        <v>2769600</v>
       </c>
       <c r="J72" s="3">
-        <v>2378400</v>
+        <v>2492600</v>
       </c>
       <c r="K72" s="3">
         <v>2442600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3964100</v>
+        <v>4154500</v>
       </c>
       <c r="E76" s="3">
-        <v>4103100</v>
+        <v>4300100</v>
       </c>
       <c r="F76" s="3">
-        <v>3874700</v>
+        <v>4060900</v>
       </c>
       <c r="G76" s="3">
-        <v>3239300</v>
+        <v>3394900</v>
       </c>
       <c r="H76" s="3">
-        <v>3008000</v>
+        <v>3152500</v>
       </c>
       <c r="I76" s="3">
-        <v>2867100</v>
+        <v>3004800</v>
       </c>
       <c r="J76" s="3">
-        <v>2667700</v>
+        <v>2795800</v>
       </c>
       <c r="K76" s="3">
         <v>2367000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>496600</v>
+        <v>520400</v>
       </c>
       <c r="E81" s="3">
-        <v>642100</v>
+        <v>672900</v>
       </c>
       <c r="F81" s="3">
-        <v>841700</v>
+        <v>882100</v>
       </c>
       <c r="G81" s="3">
-        <v>632600</v>
+        <v>663000</v>
       </c>
       <c r="H81" s="3">
-        <v>460400</v>
+        <v>482500</v>
       </c>
       <c r="I81" s="3">
-        <v>448300</v>
+        <v>469800</v>
       </c>
       <c r="J81" s="3">
-        <v>531500</v>
+        <v>557000</v>
       </c>
       <c r="K81" s="3">
         <v>107400</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>389400</v>
+        <v>408100</v>
       </c>
       <c r="E83" s="3">
-        <v>385700</v>
+        <v>404200</v>
       </c>
       <c r="F83" s="3">
-        <v>269000</v>
+        <v>281900</v>
       </c>
       <c r="G83" s="3">
-        <v>261100</v>
+        <v>273700</v>
       </c>
       <c r="H83" s="3">
-        <v>265900</v>
+        <v>278600</v>
       </c>
       <c r="I83" s="3">
-        <v>279500</v>
+        <v>292900</v>
       </c>
       <c r="J83" s="3">
-        <v>256500</v>
+        <v>268800</v>
       </c>
       <c r="K83" s="3">
         <v>219300</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>954900</v>
+        <v>1000800</v>
       </c>
       <c r="E89" s="3">
-        <v>1087200</v>
+        <v>1139500</v>
       </c>
       <c r="F89" s="3">
-        <v>964200</v>
+        <v>1010500</v>
       </c>
       <c r="G89" s="3">
-        <v>742800</v>
+        <v>778500</v>
       </c>
       <c r="H89" s="3">
-        <v>826100</v>
+        <v>865800</v>
       </c>
       <c r="I89" s="3">
-        <v>893200</v>
+        <v>936100</v>
       </c>
       <c r="J89" s="3">
-        <v>554200</v>
+        <v>580900</v>
       </c>
       <c r="K89" s="3">
         <v>625900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-385000</v>
+        <v>-403500</v>
       </c>
       <c r="E91" s="3">
-        <v>-399900</v>
+        <v>-419100</v>
       </c>
       <c r="F91" s="3">
-        <v>-305800</v>
+        <v>-320500</v>
       </c>
       <c r="G91" s="3">
-        <v>-259200</v>
+        <v>-271600</v>
       </c>
       <c r="H91" s="3">
-        <v>-215900</v>
+        <v>-226300</v>
       </c>
       <c r="I91" s="3">
-        <v>-238400</v>
+        <v>-249800</v>
       </c>
       <c r="J91" s="3">
-        <v>-214000</v>
+        <v>-224300</v>
       </c>
       <c r="K91" s="3">
         <v>-205600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-347300</v>
+        <v>-364000</v>
       </c>
       <c r="E94" s="3">
-        <v>-515000</v>
+        <v>-539700</v>
       </c>
       <c r="F94" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="G94" s="3">
-        <v>-193600</v>
+        <v>-202900</v>
       </c>
       <c r="H94" s="3">
-        <v>65500</v>
+        <v>68700</v>
       </c>
       <c r="I94" s="3">
-        <v>-151900</v>
+        <v>-159200</v>
       </c>
       <c r="J94" s="3">
-        <v>-307300</v>
+        <v>-322100</v>
       </c>
       <c r="K94" s="3">
         <v>-1255000</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-205400</v>
+        <v>-215300</v>
       </c>
       <c r="E96" s="3">
-        <v>-322400</v>
+        <v>-337800</v>
       </c>
       <c r="F96" s="3">
-        <v>-302800</v>
+        <v>-317400</v>
       </c>
       <c r="G96" s="3">
-        <v>-289300</v>
+        <v>-303200</v>
       </c>
       <c r="H96" s="3">
-        <v>-289300</v>
+        <v>-303200</v>
       </c>
       <c r="I96" s="3">
-        <v>-289300</v>
+        <v>-303200</v>
       </c>
       <c r="J96" s="3">
-        <v>-289300</v>
+        <v>-303200</v>
       </c>
       <c r="K96" s="3">
         <v>-294900</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>310900</v>
+        <v>325900</v>
       </c>
       <c r="E100" s="3">
-        <v>-1039500</v>
+        <v>-1089400</v>
       </c>
       <c r="F100" s="3">
-        <v>-587300</v>
+        <v>-615500</v>
       </c>
       <c r="G100" s="3">
-        <v>-859800</v>
+        <v>-901200</v>
       </c>
       <c r="H100" s="3">
-        <v>-602900</v>
+        <v>-631800</v>
       </c>
       <c r="I100" s="3">
-        <v>-600700</v>
+        <v>-629500</v>
       </c>
       <c r="J100" s="3">
-        <v>-216400</v>
+        <v>-226800</v>
       </c>
       <c r="K100" s="3">
         <v>293700</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-38100</v>
+        <v>-40000</v>
       </c>
       <c r="E101" s="3">
-        <v>9700</v>
+        <v>10200</v>
       </c>
       <c r="F101" s="3">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="G101" s="3">
-        <v>-15900</v>
+        <v>-16700</v>
       </c>
       <c r="H101" s="3">
-        <v>25600</v>
+        <v>26900</v>
       </c>
       <c r="I101" s="3">
-        <v>9400</v>
+        <v>9800</v>
       </c>
       <c r="J101" s="3">
-        <v>33200</v>
+        <v>34800</v>
       </c>
       <c r="K101" s="3">
         <v>-3200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>880400</v>
+        <v>922700</v>
       </c>
       <c r="E102" s="3">
-        <v>-457500</v>
+        <v>-479500</v>
       </c>
       <c r="F102" s="3">
-        <v>378700</v>
+        <v>396900</v>
       </c>
       <c r="G102" s="3">
-        <v>-326600</v>
+        <v>-342300</v>
       </c>
       <c r="H102" s="3">
-        <v>314400</v>
+        <v>329500</v>
       </c>
       <c r="I102" s="3">
-        <v>150000</v>
+        <v>157200</v>
       </c>
       <c r="J102" s="3">
-        <v>63700</v>
+        <v>66700</v>
       </c>
       <c r="K102" s="3">
         <v>-338600</v>

--- a/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9063800</v>
+        <v>8510700</v>
       </c>
       <c r="E8" s="3">
-        <v>10415300</v>
+        <v>9779700</v>
       </c>
       <c r="F8" s="3">
-        <v>10379000</v>
+        <v>9745600</v>
       </c>
       <c r="G8" s="3">
-        <v>9437500</v>
+        <v>8861600</v>
       </c>
       <c r="H8" s="3">
-        <v>8789800</v>
+        <v>8253400</v>
       </c>
       <c r="I8" s="3">
-        <v>9202500</v>
+        <v>8640900</v>
       </c>
       <c r="J8" s="3">
-        <v>8594400</v>
+        <v>8069900</v>
       </c>
       <c r="K8" s="3">
         <v>7489200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>7004200</v>
+        <v>6576700</v>
       </c>
       <c r="E9" s="3">
-        <v>7869800</v>
+        <v>7389500</v>
       </c>
       <c r="F9" s="3">
-        <v>7845500</v>
+        <v>7366700</v>
       </c>
       <c r="G9" s="3">
-        <v>7081000</v>
+        <v>6648800</v>
       </c>
       <c r="H9" s="3">
-        <v>6637300</v>
+        <v>6232200</v>
       </c>
       <c r="I9" s="3">
-        <v>6934200</v>
+        <v>6511000</v>
       </c>
       <c r="J9" s="3">
-        <v>6424600</v>
+        <v>6032500</v>
       </c>
       <c r="K9" s="3">
         <v>5640000</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2059600</v>
+        <v>1933900</v>
       </c>
       <c r="E10" s="3">
-        <v>2545600</v>
+        <v>2390200</v>
       </c>
       <c r="F10" s="3">
-        <v>2533400</v>
+        <v>2378800</v>
       </c>
       <c r="G10" s="3">
-        <v>2356500</v>
+        <v>2212700</v>
       </c>
       <c r="H10" s="3">
-        <v>2152500</v>
+        <v>2021100</v>
       </c>
       <c r="I10" s="3">
-        <v>2268300</v>
+        <v>2129800</v>
       </c>
       <c r="J10" s="3">
-        <v>2169800</v>
+        <v>2037400</v>
       </c>
       <c r="K10" s="3">
         <v>1849200</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2400</v>
+        <v>2300</v>
       </c>
       <c r="E14" s="3">
-        <v>20700</v>
+        <v>19400</v>
       </c>
       <c r="F14" s="3">
-        <v>-128100</v>
+        <v>-120300</v>
       </c>
       <c r="G14" s="3">
-        <v>4700</v>
+        <v>4400</v>
       </c>
       <c r="H14" s="3">
-        <v>6300</v>
+        <v>5900</v>
       </c>
       <c r="I14" s="3">
-        <v>32500</v>
+        <v>30500</v>
       </c>
       <c r="J14" s="3">
-        <v>20800</v>
+        <v>19600</v>
       </c>
       <c r="K14" s="3">
         <v>12700</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>117100</v>
+        <v>109900</v>
       </c>
       <c r="E15" s="3">
-        <v>114300</v>
+        <v>107300</v>
       </c>
       <c r="F15" s="3">
-        <v>55300</v>
+        <v>52000</v>
       </c>
       <c r="G15" s="3">
-        <v>57400</v>
+        <v>53900</v>
       </c>
       <c r="H15" s="3">
-        <v>59200</v>
+        <v>55600</v>
       </c>
       <c r="I15" s="3">
-        <v>65500</v>
+        <v>61500</v>
       </c>
       <c r="J15" s="3">
-        <v>59700</v>
+        <v>56100</v>
       </c>
       <c r="K15" s="3">
         <v>34500</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8207800</v>
+        <v>7706900</v>
       </c>
       <c r="E17" s="3">
-        <v>9277700</v>
+        <v>8711500</v>
       </c>
       <c r="F17" s="3">
-        <v>9041100</v>
+        <v>8489300</v>
       </c>
       <c r="G17" s="3">
-        <v>8397100</v>
+        <v>7884600</v>
       </c>
       <c r="H17" s="3">
-        <v>7878400</v>
+        <v>7397500</v>
       </c>
       <c r="I17" s="3">
-        <v>8358700</v>
+        <v>7848600</v>
       </c>
       <c r="J17" s="3">
-        <v>7649700</v>
+        <v>7182900</v>
       </c>
       <c r="K17" s="3">
         <v>7054300</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>856000</v>
+        <v>803700</v>
       </c>
       <c r="E18" s="3">
-        <v>1137600</v>
+        <v>1068200</v>
       </c>
       <c r="F18" s="3">
-        <v>1337900</v>
+        <v>1256300</v>
       </c>
       <c r="G18" s="3">
-        <v>1040400</v>
+        <v>976900</v>
       </c>
       <c r="H18" s="3">
-        <v>911400</v>
+        <v>855800</v>
       </c>
       <c r="I18" s="3">
-        <v>843800</v>
+        <v>792300</v>
       </c>
       <c r="J18" s="3">
-        <v>944600</v>
+        <v>887000</v>
       </c>
       <c r="K18" s="3">
         <v>434900</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-58100</v>
+        <v>-54600</v>
       </c>
       <c r="E20" s="3">
-        <v>-21600</v>
+        <v>-20200</v>
       </c>
       <c r="F20" s="3">
-        <v>-31700</v>
+        <v>-29800</v>
       </c>
       <c r="G20" s="3">
-        <v>-31100</v>
+        <v>-29200</v>
       </c>
       <c r="H20" s="3">
-        <v>-42600</v>
+        <v>-40000</v>
       </c>
       <c r="I20" s="3">
-        <v>-59800</v>
+        <v>-56200</v>
       </c>
       <c r="J20" s="3">
-        <v>-82500</v>
+        <v>-77400</v>
       </c>
       <c r="K20" s="3">
         <v>-51000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1203300</v>
+        <v>1135300</v>
       </c>
       <c r="E21" s="3">
-        <v>1517700</v>
+        <v>1430400</v>
       </c>
       <c r="F21" s="3">
-        <v>1586300</v>
+        <v>1493200</v>
       </c>
       <c r="G21" s="3">
-        <v>1281200</v>
+        <v>1206600</v>
       </c>
       <c r="H21" s="3">
-        <v>1145700</v>
+        <v>1079400</v>
       </c>
       <c r="I21" s="3">
-        <v>1075000</v>
+        <v>1013200</v>
       </c>
       <c r="J21" s="3">
-        <v>1129200</v>
+        <v>1063900</v>
       </c>
       <c r="K21" s="3">
         <v>602500</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>35000</v>
+        <v>32900</v>
       </c>
       <c r="E22" s="3">
-        <v>90600</v>
+        <v>85000</v>
       </c>
       <c r="F22" s="3">
-        <v>72500</v>
+        <v>68100</v>
       </c>
       <c r="G22" s="3">
-        <v>82000</v>
+        <v>77000</v>
       </c>
       <c r="H22" s="3">
-        <v>52800</v>
+        <v>49600</v>
       </c>
       <c r="I22" s="3">
-        <v>77500</v>
+        <v>72800</v>
       </c>
       <c r="J22" s="3">
-        <v>54700</v>
+        <v>51400</v>
       </c>
       <c r="K22" s="3">
         <v>51700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>762900</v>
+        <v>716300</v>
       </c>
       <c r="E23" s="3">
-        <v>1025500</v>
+        <v>962900</v>
       </c>
       <c r="F23" s="3">
-        <v>1233700</v>
+        <v>1158400</v>
       </c>
       <c r="G23" s="3">
-        <v>927300</v>
+        <v>870700</v>
       </c>
       <c r="H23" s="3">
-        <v>816000</v>
+        <v>766200</v>
       </c>
       <c r="I23" s="3">
-        <v>706400</v>
+        <v>663300</v>
       </c>
       <c r="J23" s="3">
-        <v>807400</v>
+        <v>758200</v>
       </c>
       <c r="K23" s="3">
         <v>332200</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>221100</v>
+        <v>207600</v>
       </c>
       <c r="E24" s="3">
-        <v>324200</v>
+        <v>304400</v>
       </c>
       <c r="F24" s="3">
-        <v>315200</v>
+        <v>296000</v>
       </c>
       <c r="G24" s="3">
-        <v>323200</v>
+        <v>303500</v>
       </c>
       <c r="H24" s="3">
-        <v>306400</v>
+        <v>287700</v>
       </c>
       <c r="I24" s="3">
-        <v>213100</v>
+        <v>200100</v>
       </c>
       <c r="J24" s="3">
-        <v>232300</v>
+        <v>218100</v>
       </c>
       <c r="K24" s="3">
         <v>209300</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>541800</v>
+        <v>508700</v>
       </c>
       <c r="E26" s="3">
-        <v>701400</v>
+        <v>658600</v>
       </c>
       <c r="F26" s="3">
-        <v>918500</v>
+        <v>862400</v>
       </c>
       <c r="G26" s="3">
-        <v>604100</v>
+        <v>567200</v>
       </c>
       <c r="H26" s="3">
-        <v>509700</v>
+        <v>478600</v>
       </c>
       <c r="I26" s="3">
-        <v>493300</v>
+        <v>463200</v>
       </c>
       <c r="J26" s="3">
-        <v>575200</v>
+        <v>540100</v>
       </c>
       <c r="K26" s="3">
         <v>122900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>520400</v>
+        <v>488700</v>
       </c>
       <c r="E27" s="3">
-        <v>672900</v>
+        <v>631800</v>
       </c>
       <c r="F27" s="3">
-        <v>882100</v>
+        <v>828300</v>
       </c>
       <c r="G27" s="3">
-        <v>569600</v>
+        <v>534800</v>
       </c>
       <c r="H27" s="3">
-        <v>482500</v>
+        <v>453100</v>
       </c>
       <c r="I27" s="3">
-        <v>469800</v>
+        <v>441200</v>
       </c>
       <c r="J27" s="3">
-        <v>557000</v>
+        <v>523000</v>
       </c>
       <c r="K27" s="3">
         <v>107400</v>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>93400</v>
+        <v>87700</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>58100</v>
+        <v>54600</v>
       </c>
       <c r="E32" s="3">
-        <v>21600</v>
+        <v>20200</v>
       </c>
       <c r="F32" s="3">
-        <v>31700</v>
+        <v>29800</v>
       </c>
       <c r="G32" s="3">
-        <v>31100</v>
+        <v>29200</v>
       </c>
       <c r="H32" s="3">
-        <v>42600</v>
+        <v>40000</v>
       </c>
       <c r="I32" s="3">
-        <v>59800</v>
+        <v>56200</v>
       </c>
       <c r="J32" s="3">
-        <v>82500</v>
+        <v>77400</v>
       </c>
       <c r="K32" s="3">
         <v>51000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>520400</v>
+        <v>488700</v>
       </c>
       <c r="E33" s="3">
-        <v>672900</v>
+        <v>631800</v>
       </c>
       <c r="F33" s="3">
-        <v>882100</v>
+        <v>828300</v>
       </c>
       <c r="G33" s="3">
-        <v>663000</v>
+        <v>622500</v>
       </c>
       <c r="H33" s="3">
-        <v>482500</v>
+        <v>453100</v>
       </c>
       <c r="I33" s="3">
-        <v>469800</v>
+        <v>441200</v>
       </c>
       <c r="J33" s="3">
-        <v>557000</v>
+        <v>523000</v>
       </c>
       <c r="K33" s="3">
         <v>107400</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>520400</v>
+        <v>488700</v>
       </c>
       <c r="E35" s="3">
-        <v>672900</v>
+        <v>631800</v>
       </c>
       <c r="F35" s="3">
-        <v>882100</v>
+        <v>828300</v>
       </c>
       <c r="G35" s="3">
-        <v>663000</v>
+        <v>622500</v>
       </c>
       <c r="H35" s="3">
-        <v>482500</v>
+        <v>453100</v>
       </c>
       <c r="I35" s="3">
-        <v>469800</v>
+        <v>441200</v>
       </c>
       <c r="J35" s="3">
-        <v>557000</v>
+        <v>523000</v>
       </c>
       <c r="K35" s="3">
         <v>107400</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1701300</v>
+        <v>1597500</v>
       </c>
       <c r="E41" s="3">
-        <v>778600</v>
+        <v>731100</v>
       </c>
       <c r="F41" s="3">
-        <v>1258100</v>
+        <v>1181300</v>
       </c>
       <c r="G41" s="3">
-        <v>861200</v>
+        <v>808600</v>
       </c>
       <c r="H41" s="3">
-        <v>1203500</v>
+        <v>1130100</v>
       </c>
       <c r="I41" s="3">
-        <v>874000</v>
+        <v>820700</v>
       </c>
       <c r="J41" s="3">
-        <v>716900</v>
+        <v>673100</v>
       </c>
       <c r="K41" s="3">
         <v>632300</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>17200</v>
+        <v>16100</v>
       </c>
       <c r="E42" s="3">
-        <v>43600</v>
+        <v>40900</v>
       </c>
       <c r="F42" s="3">
-        <v>144500</v>
+        <v>135600</v>
       </c>
       <c r="G42" s="3">
-        <v>24200</v>
+        <v>22700</v>
       </c>
       <c r="H42" s="3">
-        <v>20300</v>
+        <v>19100</v>
       </c>
       <c r="I42" s="3">
-        <v>7700</v>
+        <v>7300</v>
       </c>
       <c r="J42" s="3">
-        <v>909000</v>
+        <v>853500</v>
       </c>
       <c r="K42" s="3">
         <v>98000</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1993000</v>
+        <v>1871400</v>
       </c>
       <c r="E43" s="3">
-        <v>2717700</v>
+        <v>2551900</v>
       </c>
       <c r="F43" s="3">
-        <v>2090000</v>
+        <v>1962500</v>
       </c>
       <c r="G43" s="3">
-        <v>2146300</v>
+        <v>2015300</v>
       </c>
       <c r="H43" s="3">
-        <v>2049200</v>
+        <v>1924100</v>
       </c>
       <c r="I43" s="3">
-        <v>1869000</v>
+        <v>1755000</v>
       </c>
       <c r="J43" s="3">
-        <v>3491400</v>
+        <v>3278300</v>
       </c>
       <c r="K43" s="3">
         <v>1464700</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1905100</v>
+        <v>1788800</v>
       </c>
       <c r="E44" s="3">
-        <v>2185800</v>
+        <v>2052400</v>
       </c>
       <c r="F44" s="3">
-        <v>2158600</v>
+        <v>2026800</v>
       </c>
       <c r="G44" s="3">
-        <v>2073300</v>
+        <v>1946800</v>
       </c>
       <c r="H44" s="3">
-        <v>1867000</v>
+        <v>1753000</v>
       </c>
       <c r="I44" s="3">
-        <v>1758100</v>
+        <v>1650800</v>
       </c>
       <c r="J44" s="3">
-        <v>3648700</v>
+        <v>3426000</v>
       </c>
       <c r="K44" s="3">
         <v>1613300</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>62200</v>
+        <v>58400</v>
       </c>
       <c r="E45" s="3">
-        <v>67700</v>
+        <v>63600</v>
       </c>
       <c r="F45" s="3">
-        <v>68700</v>
+        <v>64500</v>
       </c>
       <c r="G45" s="3">
-        <v>80200</v>
+        <v>75300</v>
       </c>
       <c r="H45" s="3">
-        <v>78800</v>
+        <v>74000</v>
       </c>
       <c r="I45" s="3">
-        <v>111000</v>
+        <v>104300</v>
       </c>
       <c r="J45" s="3">
-        <v>872300</v>
+        <v>819100</v>
       </c>
       <c r="K45" s="3">
         <v>264100</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5678900</v>
+        <v>5332300</v>
       </c>
       <c r="E46" s="3">
-        <v>5793400</v>
+        <v>5439900</v>
       </c>
       <c r="F46" s="3">
-        <v>5719800</v>
+        <v>5370700</v>
       </c>
       <c r="G46" s="3">
-        <v>5185200</v>
+        <v>4868700</v>
       </c>
       <c r="H46" s="3">
-        <v>5218900</v>
+        <v>4900400</v>
       </c>
       <c r="I46" s="3">
-        <v>4619900</v>
+        <v>4338000</v>
       </c>
       <c r="J46" s="3">
-        <v>4699100</v>
+        <v>4412400</v>
       </c>
       <c r="K46" s="3">
         <v>4072400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>122400</v>
+        <v>115000</v>
       </c>
       <c r="E47" s="3">
-        <v>155100</v>
+        <v>145600</v>
       </c>
       <c r="F47" s="3">
-        <v>139900</v>
+        <v>131300</v>
       </c>
       <c r="G47" s="3">
-        <v>143700</v>
+        <v>135000</v>
       </c>
       <c r="H47" s="3">
-        <v>156900</v>
+        <v>147400</v>
       </c>
       <c r="I47" s="3">
-        <v>173500</v>
+        <v>162900</v>
       </c>
       <c r="J47" s="3">
-        <v>363400</v>
+        <v>341200</v>
       </c>
       <c r="K47" s="3">
         <v>133900</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2503900</v>
+        <v>2351100</v>
       </c>
       <c r="E48" s="3">
-        <v>2592700</v>
+        <v>2434400</v>
       </c>
       <c r="F48" s="3">
-        <v>2020700</v>
+        <v>1897400</v>
       </c>
       <c r="G48" s="3">
-        <v>1908600</v>
+        <v>1792100</v>
       </c>
       <c r="H48" s="3">
-        <v>1906700</v>
+        <v>1790300</v>
       </c>
       <c r="I48" s="3">
-        <v>1853000</v>
+        <v>1740000</v>
       </c>
       <c r="J48" s="3">
-        <v>3749400</v>
+        <v>3520600</v>
       </c>
       <c r="K48" s="3">
         <v>1659800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1966700</v>
+        <v>1846700</v>
       </c>
       <c r="E49" s="3">
-        <v>2227700</v>
+        <v>2091700</v>
       </c>
       <c r="F49" s="3">
-        <v>2146000</v>
+        <v>2015000</v>
       </c>
       <c r="G49" s="3">
-        <v>2102100</v>
+        <v>1973800</v>
       </c>
       <c r="H49" s="3">
-        <v>2369500</v>
+        <v>2224900</v>
       </c>
       <c r="I49" s="3">
-        <v>2601600</v>
+        <v>2442800</v>
       </c>
       <c r="J49" s="3">
-        <v>5361400</v>
+        <v>5034200</v>
       </c>
       <c r="K49" s="3">
         <v>2240100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>693600</v>
+        <v>651300</v>
       </c>
       <c r="E52" s="3">
-        <v>626600</v>
+        <v>588400</v>
       </c>
       <c r="F52" s="3">
-        <v>529400</v>
+        <v>497100</v>
       </c>
       <c r="G52" s="3">
-        <v>493200</v>
+        <v>463100</v>
       </c>
       <c r="H52" s="3">
-        <v>508300</v>
+        <v>477300</v>
       </c>
       <c r="I52" s="3">
-        <v>406700</v>
+        <v>381900</v>
       </c>
       <c r="J52" s="3">
-        <v>482100</v>
+        <v>452600</v>
       </c>
       <c r="K52" s="3">
         <v>253700</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10965500</v>
+        <v>10296300</v>
       </c>
       <c r="E54" s="3">
-        <v>11395500</v>
+        <v>10700100</v>
       </c>
       <c r="F54" s="3">
-        <v>10555800</v>
+        <v>9911600</v>
       </c>
       <c r="G54" s="3">
-        <v>9832900</v>
+        <v>9232800</v>
       </c>
       <c r="H54" s="3">
-        <v>10160300</v>
+        <v>9540200</v>
       </c>
       <c r="I54" s="3">
-        <v>9654900</v>
+        <v>9065600</v>
       </c>
       <c r="J54" s="3">
-        <v>9885700</v>
+        <v>9282400</v>
       </c>
       <c r="K54" s="3">
         <v>8359900</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1024300</v>
+        <v>961800</v>
       </c>
       <c r="E57" s="3">
-        <v>1000900</v>
+        <v>939800</v>
       </c>
       <c r="F57" s="3">
-        <v>948300</v>
+        <v>890400</v>
       </c>
       <c r="G57" s="3">
-        <v>956500</v>
+        <v>898100</v>
       </c>
       <c r="H57" s="3">
-        <v>859700</v>
+        <v>807300</v>
       </c>
       <c r="I57" s="3">
-        <v>686700</v>
+        <v>644800</v>
       </c>
       <c r="J57" s="3">
-        <v>719000</v>
+        <v>675200</v>
       </c>
       <c r="K57" s="3">
         <v>558200</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>331200</v>
+        <v>311000</v>
       </c>
       <c r="E58" s="3">
-        <v>370800</v>
+        <v>348100</v>
       </c>
       <c r="F58" s="3">
-        <v>263400</v>
+        <v>247300</v>
       </c>
       <c r="G58" s="3">
-        <v>294600</v>
+        <v>276600</v>
       </c>
       <c r="H58" s="3">
-        <v>149300</v>
+        <v>140200</v>
       </c>
       <c r="I58" s="3">
-        <v>174600</v>
+        <v>164000</v>
       </c>
       <c r="J58" s="3">
-        <v>245600</v>
+        <v>230600</v>
       </c>
       <c r="K58" s="3">
         <v>193800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1265400</v>
+        <v>1188200</v>
       </c>
       <c r="E59" s="3">
-        <v>1430300</v>
+        <v>1343000</v>
       </c>
       <c r="F59" s="3">
-        <v>1317600</v>
+        <v>1237200</v>
       </c>
       <c r="G59" s="3">
-        <v>1233500</v>
+        <v>1158300</v>
       </c>
       <c r="H59" s="3">
-        <v>1095300</v>
+        <v>1028400</v>
       </c>
       <c r="I59" s="3">
-        <v>995100</v>
+        <v>934400</v>
       </c>
       <c r="J59" s="3">
-        <v>2017200</v>
+        <v>1894100</v>
       </c>
       <c r="K59" s="3">
         <v>1219400</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2620900</v>
+        <v>2460900</v>
       </c>
       <c r="E60" s="3">
-        <v>2802000</v>
+        <v>2631000</v>
       </c>
       <c r="F60" s="3">
-        <v>2529200</v>
+        <v>2374900</v>
       </c>
       <c r="G60" s="3">
-        <v>2484600</v>
+        <v>2333000</v>
       </c>
       <c r="H60" s="3">
-        <v>2104300</v>
+        <v>1975900</v>
       </c>
       <c r="I60" s="3">
-        <v>1856400</v>
+        <v>1743100</v>
       </c>
       <c r="J60" s="3">
-        <v>1949800</v>
+        <v>1830800</v>
       </c>
       <c r="K60" s="3">
         <v>1971400</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1827100</v>
+        <v>1715600</v>
       </c>
       <c r="E61" s="3">
-        <v>1806700</v>
+        <v>1696400</v>
       </c>
       <c r="F61" s="3">
-        <v>1692100</v>
+        <v>1588800</v>
       </c>
       <c r="G61" s="3">
-        <v>1821900</v>
+        <v>1710700</v>
       </c>
       <c r="H61" s="3">
-        <v>2320700</v>
+        <v>2179100</v>
       </c>
       <c r="I61" s="3">
-        <v>2710400</v>
+        <v>2544900</v>
       </c>
       <c r="J61" s="3">
-        <v>2915500</v>
+        <v>2737600</v>
       </c>
       <c r="K61" s="3">
         <v>2319600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2193200</v>
+        <v>2059300</v>
       </c>
       <c r="E62" s="3">
-        <v>2262200</v>
+        <v>2124100</v>
       </c>
       <c r="F62" s="3">
-        <v>2041600</v>
+        <v>1917000</v>
       </c>
       <c r="G62" s="3">
-        <v>1915000</v>
+        <v>1798200</v>
       </c>
       <c r="H62" s="3">
-        <v>2383200</v>
+        <v>2237700</v>
       </c>
       <c r="I62" s="3">
-        <v>1905600</v>
+        <v>1789300</v>
       </c>
       <c r="J62" s="3">
-        <v>2065300</v>
+        <v>1939300</v>
       </c>
       <c r="K62" s="3">
         <v>1578000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6811100</v>
+        <v>6395400</v>
       </c>
       <c r="E66" s="3">
-        <v>7095400</v>
+        <v>6662400</v>
       </c>
       <c r="F66" s="3">
-        <v>6494900</v>
+        <v>6098500</v>
       </c>
       <c r="G66" s="3">
-        <v>6438000</v>
+        <v>6045100</v>
       </c>
       <c r="H66" s="3">
-        <v>7007800</v>
+        <v>6580200</v>
       </c>
       <c r="I66" s="3">
-        <v>6650000</v>
+        <v>6244200</v>
       </c>
       <c r="J66" s="3">
-        <v>7089800</v>
+        <v>6657100</v>
       </c>
       <c r="K66" s="3">
         <v>5992900</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4091000</v>
+        <v>3841400</v>
       </c>
       <c r="E72" s="3">
-        <v>3807400</v>
+        <v>3575100</v>
       </c>
       <c r="F72" s="3">
-        <v>3672100</v>
+        <v>3448000</v>
       </c>
       <c r="G72" s="3">
-        <v>3138200</v>
+        <v>2946600</v>
       </c>
       <c r="H72" s="3">
-        <v>2789800</v>
+        <v>2619500</v>
       </c>
       <c r="I72" s="3">
-        <v>2769600</v>
+        <v>2600500</v>
       </c>
       <c r="J72" s="3">
-        <v>2492600</v>
+        <v>2340500</v>
       </c>
       <c r="K72" s="3">
         <v>2442600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4154500</v>
+        <v>3900900</v>
       </c>
       <c r="E76" s="3">
-        <v>4300100</v>
+        <v>4037700</v>
       </c>
       <c r="F76" s="3">
-        <v>4060900</v>
+        <v>3813000</v>
       </c>
       <c r="G76" s="3">
-        <v>3394900</v>
+        <v>3187700</v>
       </c>
       <c r="H76" s="3">
-        <v>3152500</v>
+        <v>2960100</v>
       </c>
       <c r="I76" s="3">
-        <v>3004800</v>
+        <v>2821500</v>
       </c>
       <c r="J76" s="3">
-        <v>2795800</v>
+        <v>2625200</v>
       </c>
       <c r="K76" s="3">
         <v>2367000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>520400</v>
+        <v>488700</v>
       </c>
       <c r="E81" s="3">
-        <v>672900</v>
+        <v>631800</v>
       </c>
       <c r="F81" s="3">
-        <v>882100</v>
+        <v>828300</v>
       </c>
       <c r="G81" s="3">
-        <v>663000</v>
+        <v>622500</v>
       </c>
       <c r="H81" s="3">
-        <v>482500</v>
+        <v>453100</v>
       </c>
       <c r="I81" s="3">
-        <v>469800</v>
+        <v>441200</v>
       </c>
       <c r="J81" s="3">
-        <v>557000</v>
+        <v>523000</v>
       </c>
       <c r="K81" s="3">
         <v>107400</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>408100</v>
+        <v>383200</v>
       </c>
       <c r="E83" s="3">
-        <v>404200</v>
+        <v>379500</v>
       </c>
       <c r="F83" s="3">
-        <v>281900</v>
+        <v>264700</v>
       </c>
       <c r="G83" s="3">
-        <v>273700</v>
+        <v>257000</v>
       </c>
       <c r="H83" s="3">
-        <v>278600</v>
+        <v>261600</v>
       </c>
       <c r="I83" s="3">
-        <v>292900</v>
+        <v>275000</v>
       </c>
       <c r="J83" s="3">
-        <v>268800</v>
+        <v>252400</v>
       </c>
       <c r="K83" s="3">
         <v>219300</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>1000800</v>
+        <v>939700</v>
       </c>
       <c r="E89" s="3">
-        <v>1139500</v>
+        <v>1069900</v>
       </c>
       <c r="F89" s="3">
-        <v>1010500</v>
+        <v>948800</v>
       </c>
       <c r="G89" s="3">
-        <v>778500</v>
+        <v>731000</v>
       </c>
       <c r="H89" s="3">
-        <v>865800</v>
+        <v>813000</v>
       </c>
       <c r="I89" s="3">
-        <v>936100</v>
+        <v>879000</v>
       </c>
       <c r="J89" s="3">
-        <v>580900</v>
+        <v>545400</v>
       </c>
       <c r="K89" s="3">
         <v>625900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-403500</v>
+        <v>-378800</v>
       </c>
       <c r="E91" s="3">
-        <v>-419100</v>
+        <v>-393500</v>
       </c>
       <c r="F91" s="3">
-        <v>-320500</v>
+        <v>-301000</v>
       </c>
       <c r="G91" s="3">
-        <v>-271600</v>
+        <v>-255000</v>
       </c>
       <c r="H91" s="3">
-        <v>-226300</v>
+        <v>-212500</v>
       </c>
       <c r="I91" s="3">
-        <v>-249800</v>
+        <v>-234600</v>
       </c>
       <c r="J91" s="3">
-        <v>-224300</v>
+        <v>-210600</v>
       </c>
       <c r="K91" s="3">
         <v>-205600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-364000</v>
+        <v>-341800</v>
       </c>
       <c r="E94" s="3">
-        <v>-539700</v>
+        <v>-506800</v>
       </c>
       <c r="F94" s="3">
-        <v>-2300</v>
+        <v>-2200</v>
       </c>
       <c r="G94" s="3">
-        <v>-202900</v>
+        <v>-190600</v>
       </c>
       <c r="H94" s="3">
-        <v>68700</v>
+        <v>64500</v>
       </c>
       <c r="I94" s="3">
-        <v>-159200</v>
+        <v>-149500</v>
       </c>
       <c r="J94" s="3">
-        <v>-322100</v>
+        <v>-302400</v>
       </c>
       <c r="K94" s="3">
         <v>-1255000</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-215300</v>
+        <v>-155300</v>
       </c>
       <c r="E96" s="3">
-        <v>-337800</v>
+        <v>-310500</v>
       </c>
       <c r="F96" s="3">
-        <v>-317400</v>
+        <v>-298000</v>
       </c>
       <c r="G96" s="3">
-        <v>-303200</v>
+        <v>-284700</v>
       </c>
       <c r="H96" s="3">
-        <v>-303200</v>
+        <v>-284700</v>
       </c>
       <c r="I96" s="3">
-        <v>-303200</v>
+        <v>-284700</v>
       </c>
       <c r="J96" s="3">
-        <v>-303200</v>
+        <v>-284700</v>
       </c>
       <c r="K96" s="3">
         <v>-294900</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>325900</v>
+        <v>306000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1089400</v>
+        <v>-1023000</v>
       </c>
       <c r="F100" s="3">
-        <v>-615500</v>
+        <v>-577900</v>
       </c>
       <c r="G100" s="3">
-        <v>-901200</v>
+        <v>-846200</v>
       </c>
       <c r="H100" s="3">
-        <v>-631800</v>
+        <v>-593300</v>
       </c>
       <c r="I100" s="3">
-        <v>-629500</v>
+        <v>-591100</v>
       </c>
       <c r="J100" s="3">
-        <v>-226800</v>
+        <v>-213000</v>
       </c>
       <c r="K100" s="3">
         <v>293700</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-40000</v>
+        <v>-37500</v>
       </c>
       <c r="E101" s="3">
-        <v>10200</v>
+        <v>9600</v>
       </c>
       <c r="F101" s="3">
-        <v>4200</v>
+        <v>4000</v>
       </c>
       <c r="G101" s="3">
-        <v>-16700</v>
+        <v>-15700</v>
       </c>
       <c r="H101" s="3">
-        <v>26900</v>
+        <v>25200</v>
       </c>
       <c r="I101" s="3">
-        <v>9800</v>
+        <v>9200</v>
       </c>
       <c r="J101" s="3">
-        <v>34800</v>
+        <v>32600</v>
       </c>
       <c r="K101" s="3">
         <v>-3200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>922700</v>
+        <v>866400</v>
       </c>
       <c r="E102" s="3">
-        <v>-479500</v>
+        <v>-450300</v>
       </c>
       <c r="F102" s="3">
-        <v>396900</v>
+        <v>372700</v>
       </c>
       <c r="G102" s="3">
-        <v>-342300</v>
+        <v>-321400</v>
       </c>
       <c r="H102" s="3">
-        <v>329500</v>
+        <v>309400</v>
       </c>
       <c r="I102" s="3">
-        <v>157200</v>
+        <v>147600</v>
       </c>
       <c r="J102" s="3">
-        <v>66700</v>
+        <v>62600</v>
       </c>
       <c r="K102" s="3">
         <v>-338600</v>

--- a/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
@@ -720,25 +720,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8510700</v>
+        <v>8262200</v>
       </c>
       <c r="E8" s="3">
-        <v>9779700</v>
+        <v>9494100</v>
       </c>
       <c r="F8" s="3">
-        <v>9745600</v>
+        <v>9461000</v>
       </c>
       <c r="G8" s="3">
-        <v>8861600</v>
+        <v>8602800</v>
       </c>
       <c r="H8" s="3">
-        <v>8253400</v>
+        <v>8012400</v>
       </c>
       <c r="I8" s="3">
-        <v>8640900</v>
+        <v>8388500</v>
       </c>
       <c r="J8" s="3">
-        <v>8069900</v>
+        <v>7834200</v>
       </c>
       <c r="K8" s="3">
         <v>7489200</v>
@@ -756,25 +756,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6576700</v>
+        <v>6384700</v>
       </c>
       <c r="E9" s="3">
-        <v>7389500</v>
+        <v>7173700</v>
       </c>
       <c r="F9" s="3">
-        <v>7366700</v>
+        <v>7151600</v>
       </c>
       <c r="G9" s="3">
-        <v>6648800</v>
+        <v>6454700</v>
       </c>
       <c r="H9" s="3">
-        <v>6232200</v>
+        <v>6050300</v>
       </c>
       <c r="I9" s="3">
-        <v>6511000</v>
+        <v>6320900</v>
       </c>
       <c r="J9" s="3">
-        <v>6032500</v>
+        <v>5856300</v>
       </c>
       <c r="K9" s="3">
         <v>5640000</v>
@@ -792,25 +792,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1933900</v>
+        <v>1877500</v>
       </c>
       <c r="E10" s="3">
-        <v>2390200</v>
+        <v>2320400</v>
       </c>
       <c r="F10" s="3">
-        <v>2378800</v>
+        <v>2309400</v>
       </c>
       <c r="G10" s="3">
-        <v>2212700</v>
+        <v>2148100</v>
       </c>
       <c r="H10" s="3">
-        <v>2021100</v>
+        <v>1962100</v>
       </c>
       <c r="I10" s="3">
-        <v>2129800</v>
+        <v>2067600</v>
       </c>
       <c r="J10" s="3">
-        <v>2037400</v>
+        <v>1977900</v>
       </c>
       <c r="K10" s="3">
         <v>1849200</v>
@@ -916,25 +916,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="E14" s="3">
-        <v>19400</v>
+        <v>18900</v>
       </c>
       <c r="F14" s="3">
-        <v>-120300</v>
+        <v>-116800</v>
       </c>
       <c r="G14" s="3">
-        <v>4400</v>
+        <v>4300</v>
       </c>
       <c r="H14" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="I14" s="3">
-        <v>30500</v>
+        <v>29600</v>
       </c>
       <c r="J14" s="3">
-        <v>19600</v>
+        <v>19000</v>
       </c>
       <c r="K14" s="3">
         <v>12700</v>
@@ -952,25 +952,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>109900</v>
+        <v>106700</v>
       </c>
       <c r="E15" s="3">
-        <v>107300</v>
+        <v>104200</v>
       </c>
       <c r="F15" s="3">
-        <v>52000</v>
+        <v>50400</v>
       </c>
       <c r="G15" s="3">
-        <v>53900</v>
+        <v>52300</v>
       </c>
       <c r="H15" s="3">
-        <v>55600</v>
+        <v>54000</v>
       </c>
       <c r="I15" s="3">
-        <v>61500</v>
+        <v>59700</v>
       </c>
       <c r="J15" s="3">
-        <v>56100</v>
+        <v>54400</v>
       </c>
       <c r="K15" s="3">
         <v>34500</v>
@@ -1001,25 +1001,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7706900</v>
+        <v>7481900</v>
       </c>
       <c r="E17" s="3">
-        <v>8711500</v>
+        <v>8457100</v>
       </c>
       <c r="F17" s="3">
-        <v>8489300</v>
+        <v>8241400</v>
       </c>
       <c r="G17" s="3">
-        <v>7884600</v>
+        <v>7654400</v>
       </c>
       <c r="H17" s="3">
-        <v>7397500</v>
+        <v>7181500</v>
       </c>
       <c r="I17" s="3">
-        <v>7848600</v>
+        <v>7619400</v>
       </c>
       <c r="J17" s="3">
-        <v>7182900</v>
+        <v>6973100</v>
       </c>
       <c r="K17" s="3">
         <v>7054300</v>
@@ -1037,25 +1037,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>803700</v>
+        <v>780300</v>
       </c>
       <c r="E18" s="3">
-        <v>1068200</v>
+        <v>1037000</v>
       </c>
       <c r="F18" s="3">
-        <v>1256300</v>
+        <v>1219600</v>
       </c>
       <c r="G18" s="3">
-        <v>976900</v>
+        <v>948400</v>
       </c>
       <c r="H18" s="3">
-        <v>855800</v>
+        <v>830800</v>
       </c>
       <c r="I18" s="3">
-        <v>792300</v>
+        <v>769100</v>
       </c>
       <c r="J18" s="3">
-        <v>887000</v>
+        <v>861100</v>
       </c>
       <c r="K18" s="3">
         <v>434900</v>
@@ -1089,25 +1089,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-54600</v>
+        <v>-53000</v>
       </c>
       <c r="E20" s="3">
-        <v>-20200</v>
+        <v>-19600</v>
       </c>
       <c r="F20" s="3">
-        <v>-29800</v>
+        <v>-28900</v>
       </c>
       <c r="G20" s="3">
-        <v>-29200</v>
+        <v>-28400</v>
       </c>
       <c r="H20" s="3">
-        <v>-40000</v>
+        <v>-38900</v>
       </c>
       <c r="I20" s="3">
-        <v>-56200</v>
+        <v>-54500</v>
       </c>
       <c r="J20" s="3">
-        <v>-77400</v>
+        <v>-75200</v>
       </c>
       <c r="K20" s="3">
         <v>-51000</v>
@@ -1125,25 +1125,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1135300</v>
+        <v>1096100</v>
       </c>
       <c r="E21" s="3">
-        <v>1430400</v>
+        <v>1382700</v>
       </c>
       <c r="F21" s="3">
-        <v>1493200</v>
+        <v>1445500</v>
       </c>
       <c r="G21" s="3">
-        <v>1206600</v>
+        <v>1167400</v>
       </c>
       <c r="H21" s="3">
-        <v>1079400</v>
+        <v>1043800</v>
       </c>
       <c r="I21" s="3">
-        <v>1013200</v>
+        <v>979400</v>
       </c>
       <c r="J21" s="3">
-        <v>1063900</v>
+        <v>1028900</v>
       </c>
       <c r="K21" s="3">
         <v>602500</v>
@@ -1161,25 +1161,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>32900</v>
+        <v>31900</v>
       </c>
       <c r="E22" s="3">
-        <v>85000</v>
+        <v>82600</v>
       </c>
       <c r="F22" s="3">
-        <v>68100</v>
+        <v>66100</v>
       </c>
       <c r="G22" s="3">
-        <v>77000</v>
+        <v>74700</v>
       </c>
       <c r="H22" s="3">
-        <v>49600</v>
+        <v>48100</v>
       </c>
       <c r="I22" s="3">
-        <v>72800</v>
+        <v>70600</v>
       </c>
       <c r="J22" s="3">
-        <v>51400</v>
+        <v>49900</v>
       </c>
       <c r="K22" s="3">
         <v>51700</v>
@@ -1197,25 +1197,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>716300</v>
+        <v>695400</v>
       </c>
       <c r="E23" s="3">
-        <v>962900</v>
+        <v>934800</v>
       </c>
       <c r="F23" s="3">
-        <v>1158400</v>
+        <v>1124600</v>
       </c>
       <c r="G23" s="3">
-        <v>870700</v>
+        <v>845300</v>
       </c>
       <c r="H23" s="3">
-        <v>766200</v>
+        <v>743900</v>
       </c>
       <c r="I23" s="3">
-        <v>663300</v>
+        <v>644000</v>
       </c>
       <c r="J23" s="3">
-        <v>758200</v>
+        <v>736000</v>
       </c>
       <c r="K23" s="3">
         <v>332200</v>
@@ -1233,25 +1233,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>207600</v>
+        <v>201600</v>
       </c>
       <c r="E24" s="3">
-        <v>304400</v>
+        <v>295500</v>
       </c>
       <c r="F24" s="3">
-        <v>296000</v>
+        <v>287300</v>
       </c>
       <c r="G24" s="3">
-        <v>303500</v>
+        <v>294600</v>
       </c>
       <c r="H24" s="3">
-        <v>287700</v>
+        <v>279300</v>
       </c>
       <c r="I24" s="3">
-        <v>200100</v>
+        <v>194300</v>
       </c>
       <c r="J24" s="3">
-        <v>218100</v>
+        <v>211700</v>
       </c>
       <c r="K24" s="3">
         <v>209300</v>
@@ -1305,25 +1305,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>508700</v>
+        <v>493800</v>
       </c>
       <c r="E26" s="3">
-        <v>658600</v>
+        <v>639300</v>
       </c>
       <c r="F26" s="3">
-        <v>862400</v>
+        <v>837200</v>
       </c>
       <c r="G26" s="3">
-        <v>567200</v>
+        <v>550700</v>
       </c>
       <c r="H26" s="3">
-        <v>478600</v>
+        <v>464600</v>
       </c>
       <c r="I26" s="3">
-        <v>463200</v>
+        <v>449700</v>
       </c>
       <c r="J26" s="3">
-        <v>540100</v>
+        <v>524300</v>
       </c>
       <c r="K26" s="3">
         <v>122900</v>
@@ -1341,25 +1341,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>488700</v>
+        <v>474400</v>
       </c>
       <c r="E27" s="3">
-        <v>631800</v>
+        <v>613400</v>
       </c>
       <c r="F27" s="3">
-        <v>828300</v>
+        <v>804100</v>
       </c>
       <c r="G27" s="3">
-        <v>534800</v>
+        <v>519200</v>
       </c>
       <c r="H27" s="3">
-        <v>453100</v>
+        <v>439900</v>
       </c>
       <c r="I27" s="3">
-        <v>441200</v>
+        <v>428300</v>
       </c>
       <c r="J27" s="3">
-        <v>523000</v>
+        <v>507700</v>
       </c>
       <c r="K27" s="3">
         <v>107400</v>
@@ -1422,7 +1422,7 @@
         <v>8</v>
       </c>
       <c r="G29" s="3">
-        <v>87700</v>
+        <v>85100</v>
       </c>
       <c r="H29" s="3" t="s">
         <v>8</v>
@@ -1521,25 +1521,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>54600</v>
+        <v>53000</v>
       </c>
       <c r="E32" s="3">
-        <v>20200</v>
+        <v>19600</v>
       </c>
       <c r="F32" s="3">
-        <v>29800</v>
+        <v>28900</v>
       </c>
       <c r="G32" s="3">
-        <v>29200</v>
+        <v>28400</v>
       </c>
       <c r="H32" s="3">
-        <v>40000</v>
+        <v>38900</v>
       </c>
       <c r="I32" s="3">
-        <v>56200</v>
+        <v>54500</v>
       </c>
       <c r="J32" s="3">
-        <v>77400</v>
+        <v>75200</v>
       </c>
       <c r="K32" s="3">
         <v>51000</v>
@@ -1557,25 +1557,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>488700</v>
+        <v>474400</v>
       </c>
       <c r="E33" s="3">
-        <v>631800</v>
+        <v>613400</v>
       </c>
       <c r="F33" s="3">
-        <v>828300</v>
+        <v>804100</v>
       </c>
       <c r="G33" s="3">
-        <v>622500</v>
+        <v>604300</v>
       </c>
       <c r="H33" s="3">
-        <v>453100</v>
+        <v>439900</v>
       </c>
       <c r="I33" s="3">
-        <v>441200</v>
+        <v>428300</v>
       </c>
       <c r="J33" s="3">
-        <v>523000</v>
+        <v>507700</v>
       </c>
       <c r="K33" s="3">
         <v>107400</v>
@@ -1629,25 +1629,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>488700</v>
+        <v>474400</v>
       </c>
       <c r="E35" s="3">
-        <v>631800</v>
+        <v>613400</v>
       </c>
       <c r="F35" s="3">
-        <v>828300</v>
+        <v>804100</v>
       </c>
       <c r="G35" s="3">
-        <v>622500</v>
+        <v>604300</v>
       </c>
       <c r="H35" s="3">
-        <v>453100</v>
+        <v>439900</v>
       </c>
       <c r="I35" s="3">
-        <v>441200</v>
+        <v>428300</v>
       </c>
       <c r="J35" s="3">
-        <v>523000</v>
+        <v>507700</v>
       </c>
       <c r="K35" s="3">
         <v>107400</v>
@@ -1738,25 +1738,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1597500</v>
+        <v>1550800</v>
       </c>
       <c r="E41" s="3">
-        <v>731100</v>
+        <v>709700</v>
       </c>
       <c r="F41" s="3">
-        <v>1181300</v>
+        <v>1146800</v>
       </c>
       <c r="G41" s="3">
-        <v>808600</v>
+        <v>785000</v>
       </c>
       <c r="H41" s="3">
-        <v>1130100</v>
+        <v>1097100</v>
       </c>
       <c r="I41" s="3">
-        <v>820700</v>
+        <v>796700</v>
       </c>
       <c r="J41" s="3">
-        <v>673100</v>
+        <v>653400</v>
       </c>
       <c r="K41" s="3">
         <v>632300</v>
@@ -1774,25 +1774,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>16100</v>
+        <v>15700</v>
       </c>
       <c r="E42" s="3">
-        <v>40900</v>
+        <v>39700</v>
       </c>
       <c r="F42" s="3">
-        <v>135600</v>
+        <v>131700</v>
       </c>
       <c r="G42" s="3">
-        <v>22700</v>
+        <v>22100</v>
       </c>
       <c r="H42" s="3">
-        <v>19100</v>
+        <v>18500</v>
       </c>
       <c r="I42" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="J42" s="3">
-        <v>853500</v>
+        <v>828600</v>
       </c>
       <c r="K42" s="3">
         <v>98000</v>
@@ -1810,25 +1810,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1871400</v>
+        <v>1816700</v>
       </c>
       <c r="E43" s="3">
-        <v>2551900</v>
+        <v>2477400</v>
       </c>
       <c r="F43" s="3">
-        <v>1962500</v>
+        <v>1905200</v>
       </c>
       <c r="G43" s="3">
-        <v>2015300</v>
+        <v>1956500</v>
       </c>
       <c r="H43" s="3">
-        <v>1924100</v>
+        <v>1868000</v>
       </c>
       <c r="I43" s="3">
-        <v>1755000</v>
+        <v>1703700</v>
       </c>
       <c r="J43" s="3">
-        <v>3278300</v>
+        <v>3182600</v>
       </c>
       <c r="K43" s="3">
         <v>1464700</v>
@@ -1846,25 +1846,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1788800</v>
+        <v>1736600</v>
       </c>
       <c r="E44" s="3">
-        <v>2052400</v>
+        <v>1992500</v>
       </c>
       <c r="F44" s="3">
-        <v>2026800</v>
+        <v>1967600</v>
       </c>
       <c r="G44" s="3">
-        <v>1946800</v>
+        <v>1889900</v>
       </c>
       <c r="H44" s="3">
-        <v>1753000</v>
+        <v>1701800</v>
       </c>
       <c r="I44" s="3">
-        <v>1650800</v>
+        <v>1602600</v>
       </c>
       <c r="J44" s="3">
-        <v>3426000</v>
+        <v>3326000</v>
       </c>
       <c r="K44" s="3">
         <v>1613300</v>
@@ -1882,25 +1882,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>58400</v>
+        <v>56700</v>
       </c>
       <c r="E45" s="3">
-        <v>63600</v>
+        <v>61700</v>
       </c>
       <c r="F45" s="3">
-        <v>64500</v>
+        <v>62600</v>
       </c>
       <c r="G45" s="3">
-        <v>75300</v>
+        <v>73100</v>
       </c>
       <c r="H45" s="3">
-        <v>74000</v>
+        <v>71900</v>
       </c>
       <c r="I45" s="3">
-        <v>104300</v>
+        <v>101200</v>
       </c>
       <c r="J45" s="3">
-        <v>819100</v>
+        <v>795200</v>
       </c>
       <c r="K45" s="3">
         <v>264100</v>
@@ -1918,25 +1918,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5332300</v>
+        <v>5176600</v>
       </c>
       <c r="E46" s="3">
-        <v>5439900</v>
+        <v>5281000</v>
       </c>
       <c r="F46" s="3">
-        <v>5370700</v>
+        <v>5213900</v>
       </c>
       <c r="G46" s="3">
-        <v>4868700</v>
+        <v>4726600</v>
       </c>
       <c r="H46" s="3">
-        <v>4900400</v>
+        <v>4757300</v>
       </c>
       <c r="I46" s="3">
-        <v>4338000</v>
+        <v>4211300</v>
       </c>
       <c r="J46" s="3">
-        <v>4412400</v>
+        <v>4283500</v>
       </c>
       <c r="K46" s="3">
         <v>4072400</v>
@@ -1954,25 +1954,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>115000</v>
+        <v>111600</v>
       </c>
       <c r="E47" s="3">
-        <v>145600</v>
+        <v>141400</v>
       </c>
       <c r="F47" s="3">
-        <v>131300</v>
+        <v>127500</v>
       </c>
       <c r="G47" s="3">
-        <v>135000</v>
+        <v>131000</v>
       </c>
       <c r="H47" s="3">
-        <v>147400</v>
+        <v>143100</v>
       </c>
       <c r="I47" s="3">
-        <v>162900</v>
+        <v>158200</v>
       </c>
       <c r="J47" s="3">
-        <v>341200</v>
+        <v>331300</v>
       </c>
       <c r="K47" s="3">
         <v>133900</v>
@@ -1990,25 +1990,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2351100</v>
+        <v>2282400</v>
       </c>
       <c r="E48" s="3">
-        <v>2434400</v>
+        <v>2363300</v>
       </c>
       <c r="F48" s="3">
-        <v>1897400</v>
+        <v>1842000</v>
       </c>
       <c r="G48" s="3">
-        <v>1792100</v>
+        <v>1739800</v>
       </c>
       <c r="H48" s="3">
-        <v>1790300</v>
+        <v>1738000</v>
       </c>
       <c r="I48" s="3">
-        <v>1740000</v>
+        <v>1689100</v>
       </c>
       <c r="J48" s="3">
-        <v>3520600</v>
+        <v>3417800</v>
       </c>
       <c r="K48" s="3">
         <v>1659800</v>
@@ -2026,25 +2026,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1846700</v>
+        <v>1792800</v>
       </c>
       <c r="E49" s="3">
-        <v>2091700</v>
+        <v>2030700</v>
       </c>
       <c r="F49" s="3">
-        <v>2015000</v>
+        <v>1956200</v>
       </c>
       <c r="G49" s="3">
-        <v>1973800</v>
+        <v>1916200</v>
       </c>
       <c r="H49" s="3">
-        <v>2224900</v>
+        <v>2159900</v>
       </c>
       <c r="I49" s="3">
-        <v>2442800</v>
+        <v>2371500</v>
       </c>
       <c r="J49" s="3">
-        <v>5034200</v>
+        <v>4887200</v>
       </c>
       <c r="K49" s="3">
         <v>2240100</v>
@@ -2134,25 +2134,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>651300</v>
+        <v>632300</v>
       </c>
       <c r="E52" s="3">
-        <v>588400</v>
+        <v>571200</v>
       </c>
       <c r="F52" s="3">
-        <v>497100</v>
+        <v>482600</v>
       </c>
       <c r="G52" s="3">
-        <v>463100</v>
+        <v>449600</v>
       </c>
       <c r="H52" s="3">
-        <v>477300</v>
+        <v>463400</v>
       </c>
       <c r="I52" s="3">
-        <v>381900</v>
+        <v>370800</v>
       </c>
       <c r="J52" s="3">
-        <v>452600</v>
+        <v>439400</v>
       </c>
       <c r="K52" s="3">
         <v>253700</v>
@@ -2206,25 +2206,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10296300</v>
+        <v>9995700</v>
       </c>
       <c r="E54" s="3">
-        <v>10700100</v>
+        <v>10387600</v>
       </c>
       <c r="F54" s="3">
-        <v>9911600</v>
+        <v>9622200</v>
       </c>
       <c r="G54" s="3">
-        <v>9232800</v>
+        <v>8963200</v>
       </c>
       <c r="H54" s="3">
-        <v>9540200</v>
+        <v>9261700</v>
       </c>
       <c r="I54" s="3">
-        <v>9065600</v>
+        <v>8800900</v>
       </c>
       <c r="J54" s="3">
-        <v>9282400</v>
+        <v>9011300</v>
       </c>
       <c r="K54" s="3">
         <v>8359900</v>
@@ -2274,25 +2274,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>961800</v>
+        <v>933700</v>
       </c>
       <c r="E57" s="3">
-        <v>939800</v>
+        <v>912400</v>
       </c>
       <c r="F57" s="3">
-        <v>890400</v>
+        <v>864400</v>
       </c>
       <c r="G57" s="3">
-        <v>898100</v>
+        <v>871900</v>
       </c>
       <c r="H57" s="3">
-        <v>807300</v>
+        <v>783700</v>
       </c>
       <c r="I57" s="3">
-        <v>644800</v>
+        <v>626000</v>
       </c>
       <c r="J57" s="3">
-        <v>675200</v>
+        <v>655400</v>
       </c>
       <c r="K57" s="3">
         <v>558200</v>
@@ -2310,25 +2310,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>311000</v>
+        <v>301900</v>
       </c>
       <c r="E58" s="3">
-        <v>348100</v>
+        <v>338000</v>
       </c>
       <c r="F58" s="3">
-        <v>247300</v>
+        <v>240100</v>
       </c>
       <c r="G58" s="3">
-        <v>276600</v>
+        <v>268600</v>
       </c>
       <c r="H58" s="3">
-        <v>140200</v>
+        <v>136100</v>
       </c>
       <c r="I58" s="3">
-        <v>164000</v>
+        <v>159200</v>
       </c>
       <c r="J58" s="3">
-        <v>230600</v>
+        <v>223900</v>
       </c>
       <c r="K58" s="3">
         <v>193800</v>
@@ -2346,25 +2346,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1188200</v>
+        <v>1153500</v>
       </c>
       <c r="E59" s="3">
-        <v>1343000</v>
+        <v>1303800</v>
       </c>
       <c r="F59" s="3">
-        <v>1237200</v>
+        <v>1201000</v>
       </c>
       <c r="G59" s="3">
-        <v>1158300</v>
+        <v>1124400</v>
       </c>
       <c r="H59" s="3">
-        <v>1028400</v>
+        <v>998400</v>
       </c>
       <c r="I59" s="3">
-        <v>934400</v>
+        <v>907100</v>
       </c>
       <c r="J59" s="3">
-        <v>1894100</v>
+        <v>1838800</v>
       </c>
       <c r="K59" s="3">
         <v>1219400</v>
@@ -2382,25 +2382,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2460900</v>
+        <v>2389100</v>
       </c>
       <c r="E60" s="3">
-        <v>2631000</v>
+        <v>2554200</v>
       </c>
       <c r="F60" s="3">
-        <v>2374900</v>
+        <v>2305500</v>
       </c>
       <c r="G60" s="3">
-        <v>2333000</v>
+        <v>2264900</v>
       </c>
       <c r="H60" s="3">
-        <v>1975900</v>
+        <v>1918200</v>
       </c>
       <c r="I60" s="3">
-        <v>1743100</v>
+        <v>1692200</v>
       </c>
       <c r="J60" s="3">
-        <v>1830800</v>
+        <v>1777300</v>
       </c>
       <c r="K60" s="3">
         <v>1971400</v>
@@ -2418,25 +2418,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1715600</v>
+        <v>1665500</v>
       </c>
       <c r="E61" s="3">
-        <v>1696400</v>
+        <v>1646900</v>
       </c>
       <c r="F61" s="3">
-        <v>1588800</v>
+        <v>1542500</v>
       </c>
       <c r="G61" s="3">
-        <v>1710700</v>
+        <v>1660800</v>
       </c>
       <c r="H61" s="3">
-        <v>2179100</v>
+        <v>2115400</v>
       </c>
       <c r="I61" s="3">
-        <v>2544900</v>
+        <v>2470600</v>
       </c>
       <c r="J61" s="3">
-        <v>2737600</v>
+        <v>2657600</v>
       </c>
       <c r="K61" s="3">
         <v>2319600</v>
@@ -2454,25 +2454,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>2059300</v>
+        <v>1999200</v>
       </c>
       <c r="E62" s="3">
-        <v>2124100</v>
+        <v>2062100</v>
       </c>
       <c r="F62" s="3">
-        <v>1917000</v>
+        <v>1861000</v>
       </c>
       <c r="G62" s="3">
-        <v>1798200</v>
+        <v>1745700</v>
       </c>
       <c r="H62" s="3">
-        <v>2237700</v>
+        <v>2172400</v>
       </c>
       <c r="I62" s="3">
-        <v>1789300</v>
+        <v>1737100</v>
       </c>
       <c r="J62" s="3">
-        <v>1939300</v>
+        <v>1882600</v>
       </c>
       <c r="K62" s="3">
         <v>1578000</v>
@@ -2598,25 +2598,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6395400</v>
+        <v>6208700</v>
       </c>
       <c r="E66" s="3">
-        <v>6662400</v>
+        <v>6467800</v>
       </c>
       <c r="F66" s="3">
-        <v>6098500</v>
+        <v>5920500</v>
       </c>
       <c r="G66" s="3">
-        <v>6045100</v>
+        <v>5868600</v>
       </c>
       <c r="H66" s="3">
-        <v>6580200</v>
+        <v>6388000</v>
       </c>
       <c r="I66" s="3">
-        <v>6244200</v>
+        <v>6061800</v>
       </c>
       <c r="J66" s="3">
-        <v>6657100</v>
+        <v>6462700</v>
       </c>
       <c r="K66" s="3">
         <v>5992900</v>
@@ -2794,25 +2794,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3841400</v>
+        <v>3729200</v>
       </c>
       <c r="E72" s="3">
-        <v>3575100</v>
+        <v>3470700</v>
       </c>
       <c r="F72" s="3">
-        <v>3448000</v>
+        <v>3347300</v>
       </c>
       <c r="G72" s="3">
-        <v>2946600</v>
+        <v>2860600</v>
       </c>
       <c r="H72" s="3">
-        <v>2619500</v>
+        <v>2543000</v>
       </c>
       <c r="I72" s="3">
-        <v>2600500</v>
+        <v>2524600</v>
       </c>
       <c r="J72" s="3">
-        <v>2340500</v>
+        <v>2272200</v>
       </c>
       <c r="K72" s="3">
         <v>2442600</v>
@@ -2938,25 +2938,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3900900</v>
+        <v>3787000</v>
       </c>
       <c r="E76" s="3">
-        <v>4037700</v>
+        <v>3919800</v>
       </c>
       <c r="F76" s="3">
-        <v>3813000</v>
+        <v>3701700</v>
       </c>
       <c r="G76" s="3">
-        <v>3187700</v>
+        <v>3094600</v>
       </c>
       <c r="H76" s="3">
-        <v>2960100</v>
+        <v>2873600</v>
       </c>
       <c r="I76" s="3">
-        <v>2821500</v>
+        <v>2739100</v>
       </c>
       <c r="J76" s="3">
-        <v>2625200</v>
+        <v>2548600</v>
       </c>
       <c r="K76" s="3">
         <v>2367000</v>
@@ -3051,25 +3051,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>488700</v>
+        <v>474400</v>
       </c>
       <c r="E81" s="3">
-        <v>631800</v>
+        <v>613400</v>
       </c>
       <c r="F81" s="3">
-        <v>828300</v>
+        <v>804100</v>
       </c>
       <c r="G81" s="3">
-        <v>622500</v>
+        <v>604300</v>
       </c>
       <c r="H81" s="3">
-        <v>453100</v>
+        <v>439900</v>
       </c>
       <c r="I81" s="3">
-        <v>441200</v>
+        <v>428300</v>
       </c>
       <c r="J81" s="3">
-        <v>523000</v>
+        <v>507700</v>
       </c>
       <c r="K81" s="3">
         <v>107400</v>
@@ -3103,25 +3103,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>383200</v>
+        <v>372000</v>
       </c>
       <c r="E83" s="3">
-        <v>379500</v>
+        <v>368400</v>
       </c>
       <c r="F83" s="3">
-        <v>264700</v>
+        <v>257000</v>
       </c>
       <c r="G83" s="3">
-        <v>257000</v>
+        <v>249500</v>
       </c>
       <c r="H83" s="3">
-        <v>261600</v>
+        <v>254000</v>
       </c>
       <c r="I83" s="3">
-        <v>275000</v>
+        <v>267000</v>
       </c>
       <c r="J83" s="3">
-        <v>252400</v>
+        <v>245000</v>
       </c>
       <c r="K83" s="3">
         <v>219300</v>
@@ -3319,25 +3319,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>939700</v>
+        <v>912300</v>
       </c>
       <c r="E89" s="3">
-        <v>1069900</v>
+        <v>1038700</v>
       </c>
       <c r="F89" s="3">
-        <v>948800</v>
+        <v>921100</v>
       </c>
       <c r="G89" s="3">
-        <v>731000</v>
+        <v>709600</v>
       </c>
       <c r="H89" s="3">
-        <v>813000</v>
+        <v>789200</v>
       </c>
       <c r="I89" s="3">
-        <v>879000</v>
+        <v>853300</v>
       </c>
       <c r="J89" s="3">
-        <v>545400</v>
+        <v>529500</v>
       </c>
       <c r="K89" s="3">
         <v>625900</v>
@@ -3371,25 +3371,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-378800</v>
+        <v>-367800</v>
       </c>
       <c r="E91" s="3">
-        <v>-393500</v>
+        <v>-382000</v>
       </c>
       <c r="F91" s="3">
-        <v>-301000</v>
+        <v>-292200</v>
       </c>
       <c r="G91" s="3">
-        <v>-255000</v>
+        <v>-247600</v>
       </c>
       <c r="H91" s="3">
-        <v>-212500</v>
+        <v>-206300</v>
       </c>
       <c r="I91" s="3">
-        <v>-234600</v>
+        <v>-227700</v>
       </c>
       <c r="J91" s="3">
-        <v>-210600</v>
+        <v>-204400</v>
       </c>
       <c r="K91" s="3">
         <v>-205600</v>
@@ -3479,25 +3479,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-341800</v>
+        <v>-331800</v>
       </c>
       <c r="E94" s="3">
-        <v>-506800</v>
+        <v>-492000</v>
       </c>
       <c r="F94" s="3">
-        <v>-2200</v>
+        <v>-2100</v>
       </c>
       <c r="G94" s="3">
-        <v>-190600</v>
+        <v>-185000</v>
       </c>
       <c r="H94" s="3">
-        <v>64500</v>
+        <v>62600</v>
       </c>
       <c r="I94" s="3">
-        <v>-149500</v>
+        <v>-145100</v>
       </c>
       <c r="J94" s="3">
-        <v>-302400</v>
+        <v>-293600</v>
       </c>
       <c r="K94" s="3">
         <v>-1255000</v>
@@ -3531,25 +3531,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-155300</v>
+        <v>-150800</v>
       </c>
       <c r="E96" s="3">
-        <v>-310500</v>
+        <v>-301400</v>
       </c>
       <c r="F96" s="3">
-        <v>-298000</v>
+        <v>-289300</v>
       </c>
       <c r="G96" s="3">
-        <v>-284700</v>
+        <v>-276400</v>
       </c>
       <c r="H96" s="3">
-        <v>-284700</v>
+        <v>-276400</v>
       </c>
       <c r="I96" s="3">
-        <v>-284700</v>
+        <v>-276400</v>
       </c>
       <c r="J96" s="3">
-        <v>-284700</v>
+        <v>-276400</v>
       </c>
       <c r="K96" s="3">
         <v>-294900</v>
@@ -3675,25 +3675,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>306000</v>
+        <v>297000</v>
       </c>
       <c r="E100" s="3">
-        <v>-1023000</v>
+        <v>-993100</v>
       </c>
       <c r="F100" s="3">
-        <v>-577900</v>
+        <v>-561100</v>
       </c>
       <c r="G100" s="3">
-        <v>-846200</v>
+        <v>-821400</v>
       </c>
       <c r="H100" s="3">
-        <v>-593300</v>
+        <v>-576000</v>
       </c>
       <c r="I100" s="3">
-        <v>-591100</v>
+        <v>-573900</v>
       </c>
       <c r="J100" s="3">
-        <v>-213000</v>
+        <v>-206700</v>
       </c>
       <c r="K100" s="3">
         <v>293700</v>
@@ -3711,25 +3711,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-37500</v>
+        <v>-36400</v>
       </c>
       <c r="E101" s="3">
-        <v>9600</v>
+        <v>9300</v>
       </c>
       <c r="F101" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="G101" s="3">
-        <v>-15700</v>
+        <v>-15200</v>
       </c>
       <c r="H101" s="3">
-        <v>25200</v>
+        <v>24500</v>
       </c>
       <c r="I101" s="3">
-        <v>9200</v>
+        <v>8900</v>
       </c>
       <c r="J101" s="3">
-        <v>32600</v>
+        <v>31700</v>
       </c>
       <c r="K101" s="3">
         <v>-3200</v>
@@ -3747,25 +3747,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>866400</v>
+        <v>841100</v>
       </c>
       <c r="E102" s="3">
-        <v>-450300</v>
+        <v>-437100</v>
       </c>
       <c r="F102" s="3">
-        <v>372700</v>
+        <v>361800</v>
       </c>
       <c r="G102" s="3">
-        <v>-321400</v>
+        <v>-312000</v>
       </c>
       <c r="H102" s="3">
-        <v>309400</v>
+        <v>300300</v>
       </c>
       <c r="I102" s="3">
-        <v>147600</v>
+        <v>143300</v>
       </c>
       <c r="J102" s="3">
-        <v>62600</v>
+        <v>60800</v>
       </c>
       <c r="K102" s="3">
         <v>-338600</v>

--- a/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,177 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8262200</v>
+        <v>8394700</v>
       </c>
       <c r="E8" s="3">
-        <v>9494100</v>
+        <v>7688000</v>
       </c>
       <c r="F8" s="3">
-        <v>9461000</v>
+        <v>8834400</v>
       </c>
       <c r="G8" s="3">
-        <v>8602800</v>
+        <v>8803600</v>
       </c>
       <c r="H8" s="3">
-        <v>8012400</v>
+        <v>8005000</v>
       </c>
       <c r="I8" s="3">
-        <v>8388500</v>
+        <v>7455600</v>
       </c>
       <c r="J8" s="3">
+        <v>7805700</v>
+      </c>
+      <c r="K8" s="3">
         <v>7834200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7489200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>6711300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>7516800</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6384700</v>
+        <v>6000700</v>
       </c>
       <c r="E9" s="3">
-        <v>7173700</v>
+        <v>5682700</v>
       </c>
       <c r="F9" s="3">
-        <v>7151600</v>
+        <v>6675200</v>
       </c>
       <c r="G9" s="3">
-        <v>6454700</v>
+        <v>6654700</v>
       </c>
       <c r="H9" s="3">
-        <v>6050300</v>
+        <v>6006200</v>
       </c>
       <c r="I9" s="3">
-        <v>6320900</v>
+        <v>5629800</v>
       </c>
       <c r="J9" s="3">
+        <v>5881700</v>
+      </c>
+      <c r="K9" s="3">
         <v>5856300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5640000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>10000500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>5403600</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>1877500</v>
+        <v>2394000</v>
       </c>
       <c r="E10" s="3">
-        <v>2320400</v>
+        <v>2005300</v>
       </c>
       <c r="F10" s="3">
-        <v>2309400</v>
+        <v>2159200</v>
       </c>
       <c r="G10" s="3">
-        <v>2148100</v>
+        <v>2148900</v>
       </c>
       <c r="H10" s="3">
-        <v>1962100</v>
+        <v>1998800</v>
       </c>
       <c r="I10" s="3">
-        <v>2067600</v>
+        <v>1825800</v>
       </c>
       <c r="J10" s="3">
+        <v>1924000</v>
+      </c>
+      <c r="K10" s="3">
         <v>1977900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1849200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>-3289200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>2113300</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -838,16 +850,17 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
+      <c r="D12" s="3">
+        <v>282600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>258300</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>8</v>
@@ -873,9 +886,12 @@
       <c r="M12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,81 +925,90 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>2200</v>
+        <v>-37400</v>
       </c>
       <c r="E14" s="3">
-        <v>18900</v>
+        <v>2100</v>
       </c>
       <c r="F14" s="3">
-        <v>-116800</v>
+        <v>17600</v>
       </c>
       <c r="G14" s="3">
-        <v>4300</v>
+        <v>-108700</v>
       </c>
       <c r="H14" s="3">
-        <v>5700</v>
+        <v>4000</v>
       </c>
       <c r="I14" s="3">
-        <v>29600</v>
+        <v>5300</v>
       </c>
       <c r="J14" s="3">
+        <v>27500</v>
+      </c>
+      <c r="K14" s="3">
         <v>19000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>12700</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>2400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>5000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>106700</v>
+        <v>87900</v>
       </c>
       <c r="E15" s="3">
-        <v>104200</v>
+        <v>99300</v>
       </c>
       <c r="F15" s="3">
-        <v>50400</v>
+        <v>97000</v>
       </c>
       <c r="G15" s="3">
-        <v>52300</v>
+        <v>46900</v>
       </c>
       <c r="H15" s="3">
-        <v>54000</v>
+        <v>48700</v>
       </c>
       <c r="I15" s="3">
-        <v>59700</v>
+        <v>50200</v>
       </c>
       <c r="J15" s="3">
+        <v>55600</v>
+      </c>
+      <c r="K15" s="3">
         <v>54400</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>34500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>25600</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>28200</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -995,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7481900</v>
+        <v>7289700</v>
       </c>
       <c r="E17" s="3">
-        <v>8457100</v>
+        <v>6962000</v>
       </c>
       <c r="F17" s="3">
-        <v>8241400</v>
+        <v>7869400</v>
       </c>
       <c r="G17" s="3">
-        <v>7654400</v>
+        <v>7668700</v>
       </c>
       <c r="H17" s="3">
-        <v>7181500</v>
+        <v>7122500</v>
       </c>
       <c r="I17" s="3">
-        <v>7619400</v>
+        <v>6682500</v>
       </c>
       <c r="J17" s="3">
+        <v>7090000</v>
+      </c>
+      <c r="K17" s="3">
         <v>6973100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7054300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5951100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6425700</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>780300</v>
+        <v>1105000</v>
       </c>
       <c r="E18" s="3">
-        <v>1037000</v>
+        <v>726100</v>
       </c>
       <c r="F18" s="3">
-        <v>1219600</v>
+        <v>965000</v>
       </c>
       <c r="G18" s="3">
-        <v>948400</v>
+        <v>1134800</v>
       </c>
       <c r="H18" s="3">
-        <v>830800</v>
+        <v>882500</v>
       </c>
       <c r="I18" s="3">
-        <v>769100</v>
+        <v>773100</v>
       </c>
       <c r="J18" s="3">
+        <v>715700</v>
+      </c>
+      <c r="K18" s="3">
         <v>861100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>434900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>760100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1091200</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1083,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-53000</v>
+        <v>-39700</v>
       </c>
       <c r="E20" s="3">
-        <v>-19600</v>
+        <v>-49300</v>
       </c>
       <c r="F20" s="3">
-        <v>-28900</v>
+        <v>-18300</v>
       </c>
       <c r="G20" s="3">
-        <v>-28400</v>
+        <v>-26900</v>
       </c>
       <c r="H20" s="3">
-        <v>-38900</v>
+        <v>-26400</v>
       </c>
       <c r="I20" s="3">
-        <v>-54500</v>
+        <v>-36200</v>
       </c>
       <c r="J20" s="3">
+        <v>-50700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-75200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-51000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-44000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-33900</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1096100</v>
+        <v>1403500</v>
       </c>
       <c r="E21" s="3">
-        <v>1382700</v>
+        <v>1025100</v>
       </c>
       <c r="F21" s="3">
-        <v>1445500</v>
+        <v>1291800</v>
       </c>
       <c r="G21" s="3">
-        <v>1167400</v>
+        <v>1348600</v>
       </c>
       <c r="H21" s="3">
-        <v>1043800</v>
+        <v>1089700</v>
       </c>
       <c r="I21" s="3">
-        <v>979400</v>
+        <v>974800</v>
       </c>
       <c r="J21" s="3">
+        <v>915000</v>
+      </c>
+      <c r="K21" s="3">
         <v>1028900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>602500</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1260700</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>31900</v>
+        <v>31600</v>
       </c>
       <c r="E22" s="3">
-        <v>82600</v>
+        <v>29700</v>
       </c>
       <c r="F22" s="3">
-        <v>66100</v>
+        <v>76800</v>
       </c>
       <c r="G22" s="3">
-        <v>74700</v>
+        <v>61500</v>
       </c>
       <c r="H22" s="3">
-        <v>48100</v>
+        <v>69500</v>
       </c>
       <c r="I22" s="3">
-        <v>70600</v>
+        <v>44800</v>
       </c>
       <c r="J22" s="3">
+        <v>65700</v>
+      </c>
+      <c r="K22" s="3">
         <v>49900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>51700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>50200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>43300</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>695400</v>
+        <v>1033600</v>
       </c>
       <c r="E23" s="3">
-        <v>934800</v>
+        <v>647100</v>
       </c>
       <c r="F23" s="3">
-        <v>1124600</v>
+        <v>869900</v>
       </c>
       <c r="G23" s="3">
-        <v>845300</v>
+        <v>1046400</v>
       </c>
       <c r="H23" s="3">
-        <v>743900</v>
+        <v>786600</v>
       </c>
       <c r="I23" s="3">
-        <v>644000</v>
+        <v>692200</v>
       </c>
       <c r="J23" s="3">
+        <v>599200</v>
+      </c>
+      <c r="K23" s="3">
         <v>736000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>332200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>666000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1014000</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>201600</v>
+        <v>255100</v>
       </c>
       <c r="E24" s="3">
-        <v>295500</v>
+        <v>187500</v>
       </c>
       <c r="F24" s="3">
-        <v>287300</v>
+        <v>275000</v>
       </c>
       <c r="G24" s="3">
-        <v>294600</v>
+        <v>267400</v>
       </c>
       <c r="H24" s="3">
-        <v>279300</v>
+        <v>274100</v>
       </c>
       <c r="I24" s="3">
-        <v>194300</v>
+        <v>259900</v>
       </c>
       <c r="J24" s="3">
+        <v>180800</v>
+      </c>
+      <c r="K24" s="3">
         <v>211700</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>209300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>165500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>307400</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1298,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>493800</v>
+        <v>778400</v>
       </c>
       <c r="E26" s="3">
-        <v>639300</v>
+        <v>459500</v>
       </c>
       <c r="F26" s="3">
-        <v>837200</v>
+        <v>594900</v>
       </c>
       <c r="G26" s="3">
-        <v>550700</v>
+        <v>779100</v>
       </c>
       <c r="H26" s="3">
-        <v>464600</v>
+        <v>512400</v>
       </c>
       <c r="I26" s="3">
-        <v>449700</v>
+        <v>432300</v>
       </c>
       <c r="J26" s="3">
+        <v>418400</v>
+      </c>
+      <c r="K26" s="3">
         <v>524300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>122900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>500500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>706500</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>474400</v>
+        <v>753000</v>
       </c>
       <c r="E27" s="3">
-        <v>613400</v>
+        <v>441400</v>
       </c>
       <c r="F27" s="3">
-        <v>804100</v>
+        <v>570800</v>
       </c>
       <c r="G27" s="3">
-        <v>519200</v>
+        <v>748200</v>
       </c>
       <c r="H27" s="3">
-        <v>439900</v>
+        <v>483100</v>
       </c>
       <c r="I27" s="3">
-        <v>428300</v>
+        <v>409300</v>
       </c>
       <c r="J27" s="3">
+        <v>398500</v>
+      </c>
+      <c r="K27" s="3">
         <v>507700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>107400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>484500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>686900</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1406,9 +1463,12 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1421,11 +1481,11 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>85100</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="H29" s="3">
+        <v>79200</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1442,9 +1502,12 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1478,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1514,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>53000</v>
+        <v>39700</v>
       </c>
       <c r="E32" s="3">
-        <v>19600</v>
+        <v>49300</v>
       </c>
       <c r="F32" s="3">
-        <v>28900</v>
+        <v>18300</v>
       </c>
       <c r="G32" s="3">
-        <v>28400</v>
+        <v>26900</v>
       </c>
       <c r="H32" s="3">
-        <v>38900</v>
+        <v>26400</v>
       </c>
       <c r="I32" s="3">
-        <v>54500</v>
+        <v>36200</v>
       </c>
       <c r="J32" s="3">
+        <v>50700</v>
+      </c>
+      <c r="K32" s="3">
         <v>75200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>51000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>44000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>33900</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>474400</v>
+        <v>753000</v>
       </c>
       <c r="E33" s="3">
-        <v>613400</v>
+        <v>441400</v>
       </c>
       <c r="F33" s="3">
-        <v>804100</v>
+        <v>570800</v>
       </c>
       <c r="G33" s="3">
-        <v>604300</v>
+        <v>748200</v>
       </c>
       <c r="H33" s="3">
-        <v>439900</v>
+        <v>562300</v>
       </c>
       <c r="I33" s="3">
-        <v>428300</v>
+        <v>409300</v>
       </c>
       <c r="J33" s="3">
+        <v>398500</v>
+      </c>
+      <c r="K33" s="3">
         <v>507700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>107400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>484500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>686900</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1622,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>474400</v>
+        <v>753000</v>
       </c>
       <c r="E35" s="3">
-        <v>613400</v>
+        <v>441400</v>
       </c>
       <c r="F35" s="3">
-        <v>804100</v>
+        <v>570800</v>
       </c>
       <c r="G35" s="3">
-        <v>604300</v>
+        <v>748200</v>
       </c>
       <c r="H35" s="3">
-        <v>439900</v>
+        <v>562300</v>
       </c>
       <c r="I35" s="3">
-        <v>428300</v>
+        <v>409300</v>
       </c>
       <c r="J35" s="3">
+        <v>398500</v>
+      </c>
+      <c r="K35" s="3">
         <v>507700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>107400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>484500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>686900</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1716,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1732,332 +1817,360 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1550800</v>
+        <v>1357700</v>
       </c>
       <c r="E41" s="3">
-        <v>709700</v>
+        <v>1443100</v>
       </c>
       <c r="F41" s="3">
-        <v>1146800</v>
+        <v>660400</v>
       </c>
       <c r="G41" s="3">
-        <v>785000</v>
+        <v>1067200</v>
       </c>
       <c r="H41" s="3">
-        <v>1097100</v>
+        <v>730500</v>
       </c>
       <c r="I41" s="3">
-        <v>796700</v>
+        <v>1020800</v>
       </c>
       <c r="J41" s="3">
+        <v>741400</v>
+      </c>
+      <c r="K41" s="3">
         <v>653400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>632300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>856800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>547700</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>15700</v>
+        <v>10300</v>
       </c>
       <c r="E42" s="3">
-        <v>39700</v>
+        <v>14600</v>
       </c>
       <c r="F42" s="3">
-        <v>131700</v>
+        <v>37000</v>
       </c>
       <c r="G42" s="3">
-        <v>22100</v>
+        <v>122500</v>
       </c>
       <c r="H42" s="3">
-        <v>18500</v>
+        <v>20500</v>
       </c>
       <c r="I42" s="3">
-        <v>7100</v>
+        <v>17300</v>
       </c>
       <c r="J42" s="3">
+        <v>6600</v>
+      </c>
+      <c r="K42" s="3">
         <v>828600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>98000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>84500</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>58100</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1816700</v>
+        <v>1934600</v>
       </c>
       <c r="E43" s="3">
-        <v>2477400</v>
+        <v>1690500</v>
       </c>
       <c r="F43" s="3">
-        <v>1905200</v>
+        <v>2305200</v>
       </c>
       <c r="G43" s="3">
-        <v>1956500</v>
+        <v>1772800</v>
       </c>
       <c r="H43" s="3">
-        <v>1868000</v>
+        <v>1820500</v>
       </c>
       <c r="I43" s="3">
-        <v>1703700</v>
+        <v>1738200</v>
       </c>
       <c r="J43" s="3">
+        <v>1585300</v>
+      </c>
+      <c r="K43" s="3">
         <v>3182600</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1464700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1270600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1464400</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1736600</v>
+        <v>2156600</v>
       </c>
       <c r="E44" s="3">
-        <v>1992500</v>
+        <v>1615900</v>
       </c>
       <c r="F44" s="3">
-        <v>1967600</v>
+        <v>1854000</v>
       </c>
       <c r="G44" s="3">
-        <v>1889900</v>
+        <v>1830900</v>
       </c>
       <c r="H44" s="3">
-        <v>1701800</v>
+        <v>1758600</v>
       </c>
       <c r="I44" s="3">
-        <v>1602600</v>
+        <v>1583600</v>
       </c>
       <c r="J44" s="3">
+        <v>1491200</v>
+      </c>
+      <c r="K44" s="3">
         <v>3326000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>1613300</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1336100</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1611000</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>56700</v>
+        <v>65400</v>
       </c>
       <c r="E45" s="3">
-        <v>61700</v>
+        <v>52800</v>
       </c>
       <c r="F45" s="3">
-        <v>62600</v>
+        <v>57400</v>
       </c>
       <c r="G45" s="3">
-        <v>73100</v>
+        <v>58200</v>
       </c>
       <c r="H45" s="3">
-        <v>71900</v>
+        <v>68000</v>
       </c>
       <c r="I45" s="3">
-        <v>101200</v>
+        <v>66900</v>
       </c>
       <c r="J45" s="3">
+        <v>94200</v>
+      </c>
+      <c r="K45" s="3">
         <v>795200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>264100</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>73700</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>104400</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5176600</v>
+        <v>5524700</v>
       </c>
       <c r="E46" s="3">
-        <v>5281000</v>
+        <v>4816900</v>
       </c>
       <c r="F46" s="3">
-        <v>5213900</v>
+        <v>4914100</v>
       </c>
       <c r="G46" s="3">
-        <v>4726600</v>
+        <v>4851600</v>
       </c>
       <c r="H46" s="3">
-        <v>4757300</v>
+        <v>4398100</v>
       </c>
       <c r="I46" s="3">
-        <v>4211300</v>
+        <v>4426700</v>
       </c>
       <c r="J46" s="3">
+        <v>3918700</v>
+      </c>
+      <c r="K46" s="3">
         <v>4283500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4072400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>3621800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3785700</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>111600</v>
+        <v>124600</v>
       </c>
       <c r="E47" s="3">
-        <v>141400</v>
+        <v>103800</v>
       </c>
       <c r="F47" s="3">
-        <v>127500</v>
+        <v>131600</v>
       </c>
       <c r="G47" s="3">
-        <v>131000</v>
+        <v>118600</v>
       </c>
       <c r="H47" s="3">
-        <v>143100</v>
+        <v>121900</v>
       </c>
       <c r="I47" s="3">
-        <v>158200</v>
+        <v>133100</v>
       </c>
       <c r="J47" s="3">
+        <v>147200</v>
+      </c>
+      <c r="K47" s="3">
         <v>331300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>133900</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>112800</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>160300</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2282400</v>
+        <v>2401800</v>
       </c>
       <c r="E48" s="3">
-        <v>2363300</v>
+        <v>2123800</v>
       </c>
       <c r="F48" s="3">
-        <v>1842000</v>
+        <v>2199100</v>
       </c>
       <c r="G48" s="3">
-        <v>1739800</v>
+        <v>1714000</v>
       </c>
       <c r="H48" s="3">
-        <v>1738000</v>
+        <v>1618900</v>
       </c>
       <c r="I48" s="3">
-        <v>1689100</v>
+        <v>1617300</v>
       </c>
       <c r="J48" s="3">
+        <v>1571800</v>
+      </c>
+      <c r="K48" s="3">
         <v>3417800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1659800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1360000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1484400</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1792800</v>
+        <v>1740100</v>
       </c>
       <c r="E49" s="3">
-        <v>2030700</v>
+        <v>1668200</v>
       </c>
       <c r="F49" s="3">
-        <v>1956200</v>
+        <v>1889600</v>
       </c>
       <c r="G49" s="3">
-        <v>1916200</v>
+        <v>1820200</v>
       </c>
       <c r="H49" s="3">
-        <v>2159900</v>
+        <v>1783000</v>
       </c>
       <c r="I49" s="3">
-        <v>2371500</v>
+        <v>2009800</v>
       </c>
       <c r="J49" s="3">
+        <v>2206700</v>
+      </c>
+      <c r="K49" s="3">
         <v>4887200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>2240100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>1018500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1153000</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2091,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2127,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>632300</v>
+        <v>441700</v>
       </c>
       <c r="E52" s="3">
-        <v>571200</v>
+        <v>588300</v>
       </c>
       <c r="F52" s="3">
-        <v>482600</v>
+        <v>531500</v>
       </c>
       <c r="G52" s="3">
-        <v>449600</v>
+        <v>449000</v>
       </c>
       <c r="H52" s="3">
-        <v>463400</v>
+        <v>418300</v>
       </c>
       <c r="I52" s="3">
-        <v>370800</v>
+        <v>431200</v>
       </c>
       <c r="J52" s="3">
+        <v>345000</v>
+      </c>
+      <c r="K52" s="3">
         <v>439400</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>253700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>201400</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>156800</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2199,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9995700</v>
+        <v>10232800</v>
       </c>
       <c r="E54" s="3">
-        <v>10387600</v>
+        <v>9301100</v>
       </c>
       <c r="F54" s="3">
-        <v>9622200</v>
+        <v>9665800</v>
       </c>
       <c r="G54" s="3">
-        <v>8963200</v>
+        <v>8953500</v>
       </c>
       <c r="H54" s="3">
-        <v>9261700</v>
+        <v>8340400</v>
       </c>
       <c r="I54" s="3">
-        <v>8800900</v>
+        <v>8618100</v>
       </c>
       <c r="J54" s="3">
+        <v>8189400</v>
+      </c>
+      <c r="K54" s="3">
         <v>9011300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>8359900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6314500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6740100</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2252,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2268,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>933700</v>
+        <v>1014900</v>
       </c>
       <c r="E57" s="3">
-        <v>912400</v>
+        <v>868800</v>
       </c>
       <c r="F57" s="3">
-        <v>864400</v>
+        <v>849000</v>
       </c>
       <c r="G57" s="3">
-        <v>871900</v>
+        <v>804300</v>
       </c>
       <c r="H57" s="3">
-        <v>783700</v>
+        <v>811300</v>
       </c>
       <c r="I57" s="3">
-        <v>626000</v>
+        <v>729200</v>
       </c>
       <c r="J57" s="3">
+        <v>582500</v>
+      </c>
+      <c r="K57" s="3">
         <v>655400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>558200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>435400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>533300</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>301900</v>
+        <v>385900</v>
       </c>
       <c r="E58" s="3">
-        <v>338000</v>
+        <v>280900</v>
       </c>
       <c r="F58" s="3">
-        <v>240100</v>
+        <v>314500</v>
       </c>
       <c r="G58" s="3">
-        <v>268600</v>
+        <v>223400</v>
       </c>
       <c r="H58" s="3">
-        <v>136100</v>
+        <v>249900</v>
       </c>
       <c r="I58" s="3">
-        <v>159200</v>
+        <v>126600</v>
       </c>
       <c r="J58" s="3">
+        <v>148100</v>
+      </c>
+      <c r="K58" s="3">
         <v>223900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>193800</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>306100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>126300</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1153500</v>
+        <v>1118200</v>
       </c>
       <c r="E59" s="3">
-        <v>1303800</v>
+        <v>1073300</v>
       </c>
       <c r="F59" s="3">
-        <v>1201000</v>
+        <v>1213200</v>
       </c>
       <c r="G59" s="3">
-        <v>1124400</v>
+        <v>1117600</v>
       </c>
       <c r="H59" s="3">
-        <v>998400</v>
+        <v>1046300</v>
       </c>
       <c r="I59" s="3">
-        <v>907100</v>
+        <v>929000</v>
       </c>
       <c r="J59" s="3">
+        <v>844100</v>
+      </c>
+      <c r="K59" s="3">
         <v>1838800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1219400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>703500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>843900</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2389100</v>
+        <v>2519000</v>
       </c>
       <c r="E60" s="3">
-        <v>2554200</v>
+        <v>2223100</v>
       </c>
       <c r="F60" s="3">
-        <v>2305500</v>
+        <v>2376700</v>
       </c>
       <c r="G60" s="3">
-        <v>2264900</v>
+        <v>2145300</v>
       </c>
       <c r="H60" s="3">
-        <v>1918200</v>
+        <v>2107500</v>
       </c>
       <c r="I60" s="3">
-        <v>1692200</v>
+        <v>1784900</v>
       </c>
       <c r="J60" s="3">
+        <v>1574600</v>
+      </c>
+      <c r="K60" s="3">
         <v>1777300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1971400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1444900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1503600</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1665500</v>
+        <v>1587300</v>
       </c>
       <c r="E61" s="3">
-        <v>1646900</v>
+        <v>1549800</v>
       </c>
       <c r="F61" s="3">
-        <v>1542500</v>
+        <v>1532400</v>
       </c>
       <c r="G61" s="3">
-        <v>1660800</v>
+        <v>1435300</v>
       </c>
       <c r="H61" s="3">
-        <v>2115400</v>
+        <v>1545400</v>
       </c>
       <c r="I61" s="3">
-        <v>2470600</v>
+        <v>1968400</v>
       </c>
       <c r="J61" s="3">
+        <v>2299000</v>
+      </c>
+      <c r="K61" s="3">
         <v>2657600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2319600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1323000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1419000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1999200</v>
+        <v>1467100</v>
       </c>
       <c r="E62" s="3">
-        <v>2062100</v>
+        <v>1860300</v>
       </c>
       <c r="F62" s="3">
-        <v>1861000</v>
+        <v>1918800</v>
       </c>
       <c r="G62" s="3">
-        <v>1745700</v>
+        <v>1731700</v>
       </c>
       <c r="H62" s="3">
-        <v>2172400</v>
+        <v>1624400</v>
       </c>
       <c r="I62" s="3">
-        <v>1737100</v>
+        <v>2021400</v>
       </c>
       <c r="J62" s="3">
+        <v>1616300</v>
+      </c>
+      <c r="K62" s="3">
         <v>1882600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1578000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1211400</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1268500</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2519,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2555,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2591,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6208700</v>
+        <v>5750000</v>
       </c>
       <c r="E66" s="3">
-        <v>6467800</v>
+        <v>5777200</v>
       </c>
       <c r="F66" s="3">
-        <v>5920500</v>
+        <v>6018400</v>
       </c>
       <c r="G66" s="3">
-        <v>5868600</v>
+        <v>5509100</v>
       </c>
       <c r="H66" s="3">
-        <v>6388000</v>
+        <v>5460800</v>
       </c>
       <c r="I66" s="3">
-        <v>6061800</v>
+        <v>5944100</v>
       </c>
       <c r="J66" s="3">
+        <v>5640600</v>
+      </c>
+      <c r="K66" s="3">
         <v>6462700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>5992900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4096600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4306700</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2644,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2679,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2715,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2751,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2787,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3729200</v>
+        <v>4148000</v>
       </c>
       <c r="E72" s="3">
-        <v>3470700</v>
+        <v>3470100</v>
       </c>
       <c r="F72" s="3">
-        <v>3347300</v>
+        <v>3229500</v>
       </c>
       <c r="G72" s="3">
-        <v>2860600</v>
+        <v>3114700</v>
       </c>
       <c r="H72" s="3">
-        <v>2543000</v>
+        <v>2661800</v>
       </c>
       <c r="I72" s="3">
-        <v>2524600</v>
+        <v>2366300</v>
       </c>
       <c r="J72" s="3">
+        <v>2349200</v>
+      </c>
+      <c r="K72" s="3">
         <v>2272200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2442600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2292700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2373000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2859,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2895,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2931,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>3787000</v>
+        <v>4482800</v>
       </c>
       <c r="E76" s="3">
-        <v>3919800</v>
+        <v>3523900</v>
       </c>
       <c r="F76" s="3">
-        <v>3701700</v>
+        <v>3647400</v>
       </c>
       <c r="G76" s="3">
-        <v>3094600</v>
+        <v>3444500</v>
       </c>
       <c r="H76" s="3">
-        <v>2873600</v>
+        <v>2879600</v>
       </c>
       <c r="I76" s="3">
-        <v>2739100</v>
+        <v>2674000</v>
       </c>
       <c r="J76" s="3">
+        <v>2548700</v>
+      </c>
+      <c r="K76" s="3">
         <v>2548600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2367000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2217900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2433400</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3003,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>474400</v>
+        <v>753000</v>
       </c>
       <c r="E81" s="3">
-        <v>613400</v>
+        <v>441400</v>
       </c>
       <c r="F81" s="3">
-        <v>804100</v>
+        <v>570800</v>
       </c>
       <c r="G81" s="3">
-        <v>604300</v>
+        <v>748200</v>
       </c>
       <c r="H81" s="3">
-        <v>439900</v>
+        <v>562300</v>
       </c>
       <c r="I81" s="3">
-        <v>428300</v>
+        <v>409300</v>
       </c>
       <c r="J81" s="3">
+        <v>398500</v>
+      </c>
+      <c r="K81" s="3">
         <v>507700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>107400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>484500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>686900</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3097,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>372000</v>
+        <v>336100</v>
       </c>
       <c r="E83" s="3">
-        <v>368400</v>
+        <v>346100</v>
       </c>
       <c r="F83" s="3">
-        <v>257000</v>
+        <v>342800</v>
       </c>
       <c r="G83" s="3">
-        <v>249500</v>
+        <v>239100</v>
       </c>
       <c r="H83" s="3">
-        <v>254000</v>
+        <v>232100</v>
       </c>
       <c r="I83" s="3">
-        <v>267000</v>
+        <v>236300</v>
       </c>
       <c r="J83" s="3">
+        <v>248500</v>
+      </c>
+      <c r="K83" s="3">
         <v>245000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>219300</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="M83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>203200</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3168,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3204,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3240,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3276,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3312,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>912300</v>
+        <v>539000</v>
       </c>
       <c r="E89" s="3">
-        <v>1038700</v>
+        <v>848900</v>
       </c>
       <c r="F89" s="3">
-        <v>921100</v>
+        <v>966500</v>
       </c>
       <c r="G89" s="3">
-        <v>709600</v>
+        <v>857100</v>
       </c>
       <c r="H89" s="3">
-        <v>789200</v>
+        <v>660300</v>
       </c>
       <c r="I89" s="3">
-        <v>853300</v>
+        <v>734400</v>
       </c>
       <c r="J89" s="3">
+        <v>794100</v>
+      </c>
+      <c r="K89" s="3">
         <v>529500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>625900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>644700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>634100</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3365,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-367800</v>
+        <v>-392600</v>
       </c>
       <c r="E91" s="3">
-        <v>-382000</v>
+        <v>-342200</v>
       </c>
       <c r="F91" s="3">
-        <v>-292200</v>
+        <v>-355500</v>
       </c>
       <c r="G91" s="3">
-        <v>-247600</v>
+        <v>-271900</v>
       </c>
       <c r="H91" s="3">
-        <v>-206300</v>
+        <v>-230400</v>
       </c>
       <c r="I91" s="3">
-        <v>-227700</v>
+        <v>-192000</v>
       </c>
       <c r="J91" s="3">
+        <v>-211900</v>
+      </c>
+      <c r="K91" s="3">
         <v>-204400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-205600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-204500</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-218900</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3436,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3472,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-331800</v>
+        <v>-323300</v>
       </c>
       <c r="E94" s="3">
-        <v>-492000</v>
+        <v>-308700</v>
       </c>
       <c r="F94" s="3">
-        <v>-2100</v>
+        <v>-457800</v>
       </c>
       <c r="G94" s="3">
-        <v>-185000</v>
+        <v>-2000</v>
       </c>
       <c r="H94" s="3">
-        <v>62600</v>
+        <v>-172100</v>
       </c>
       <c r="I94" s="3">
-        <v>-145100</v>
+        <v>58200</v>
       </c>
       <c r="J94" s="3">
+        <v>-135100</v>
+      </c>
+      <c r="K94" s="3">
         <v>-293600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1255000</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="M94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-197300</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3525,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-150800</v>
+        <v>-304000</v>
       </c>
       <c r="E96" s="3">
-        <v>-301400</v>
+        <v>-140300</v>
       </c>
       <c r="F96" s="3">
-        <v>-289300</v>
+        <v>-280500</v>
       </c>
       <c r="G96" s="3">
+        <v>-269200</v>
+      </c>
+      <c r="H96" s="3">
+        <v>-257200</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-257200</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-257200</v>
+      </c>
+      <c r="K96" s="3">
         <v>-276400</v>
       </c>
-      <c r="H96" s="3">
-        <v>-276400</v>
-      </c>
-      <c r="I96" s="3">
-        <v>-276400</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-276400</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-294900</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-260200</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-258500</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3596,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3632,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3668,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>297000</v>
+        <v>-360800</v>
       </c>
       <c r="E100" s="3">
-        <v>-993100</v>
+        <v>276400</v>
       </c>
       <c r="F100" s="3">
-        <v>-561100</v>
+        <v>-924100</v>
       </c>
       <c r="G100" s="3">
-        <v>-821400</v>
+        <v>-522100</v>
       </c>
       <c r="H100" s="3">
-        <v>-576000</v>
+        <v>-764400</v>
       </c>
       <c r="I100" s="3">
-        <v>-573900</v>
+        <v>-535900</v>
       </c>
       <c r="J100" s="3">
+        <v>-534000</v>
+      </c>
+      <c r="K100" s="3">
         <v>-206700</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>293700</v>
       </c>
-      <c r="L100" s="3" t="s">
+      <c r="M100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-161200</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-36400</v>
+        <v>59800</v>
       </c>
       <c r="E101" s="3">
-        <v>9300</v>
+        <v>-33900</v>
       </c>
       <c r="F101" s="3">
-        <v>3900</v>
+        <v>8600</v>
       </c>
       <c r="G101" s="3">
-        <v>-15200</v>
+        <v>3600</v>
       </c>
       <c r="H101" s="3">
-        <v>24500</v>
+        <v>-14200</v>
       </c>
       <c r="I101" s="3">
-        <v>8900</v>
+        <v>22800</v>
       </c>
       <c r="J101" s="3">
+        <v>8300</v>
+      </c>
+      <c r="K101" s="3">
         <v>31700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-3200</v>
       </c>
-      <c r="L101" s="3" t="s">
+      <c r="M101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>200</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>841100</v>
+        <v>-85400</v>
       </c>
       <c r="E102" s="3">
-        <v>-437100</v>
+        <v>782700</v>
       </c>
       <c r="F102" s="3">
-        <v>361800</v>
+        <v>-406700</v>
       </c>
       <c r="G102" s="3">
-        <v>-312000</v>
+        <v>336700</v>
       </c>
       <c r="H102" s="3">
-        <v>300300</v>
+        <v>-290400</v>
       </c>
       <c r="I102" s="3">
-        <v>143300</v>
+        <v>279500</v>
       </c>
       <c r="J102" s="3">
+        <v>133300</v>
+      </c>
+      <c r="K102" s="3">
         <v>60800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-338600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>355300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>275900</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8394700</v>
+        <v>8056300</v>
       </c>
       <c r="E8" s="3">
-        <v>7688000</v>
+        <v>7378200</v>
       </c>
       <c r="F8" s="3">
-        <v>8834400</v>
+        <v>8478300</v>
       </c>
       <c r="G8" s="3">
-        <v>8803600</v>
+        <v>8448700</v>
       </c>
       <c r="H8" s="3">
-        <v>8005000</v>
+        <v>7682300</v>
       </c>
       <c r="I8" s="3">
-        <v>7455600</v>
+        <v>7155100</v>
       </c>
       <c r="J8" s="3">
-        <v>7805700</v>
+        <v>7491000</v>
       </c>
       <c r="K8" s="3">
         <v>7834200</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6000700</v>
+        <v>5758900</v>
       </c>
       <c r="E9" s="3">
-        <v>5682700</v>
+        <v>5453700</v>
       </c>
       <c r="F9" s="3">
-        <v>6675200</v>
+        <v>6406200</v>
       </c>
       <c r="G9" s="3">
-        <v>6654700</v>
+        <v>6386400</v>
       </c>
       <c r="H9" s="3">
-        <v>6006200</v>
+        <v>5764100</v>
       </c>
       <c r="I9" s="3">
-        <v>5629800</v>
+        <v>5402900</v>
       </c>
       <c r="J9" s="3">
-        <v>5881700</v>
+        <v>5644600</v>
       </c>
       <c r="K9" s="3">
         <v>5856300</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2394000</v>
+        <v>2297500</v>
       </c>
       <c r="E10" s="3">
-        <v>2005300</v>
+        <v>1924500</v>
       </c>
       <c r="F10" s="3">
-        <v>2159200</v>
+        <v>2072100</v>
       </c>
       <c r="G10" s="3">
-        <v>2148900</v>
+        <v>2062300</v>
       </c>
       <c r="H10" s="3">
-        <v>1998800</v>
+        <v>1918300</v>
       </c>
       <c r="I10" s="3">
-        <v>1825800</v>
+        <v>1752200</v>
       </c>
       <c r="J10" s="3">
-        <v>1924000</v>
+        <v>1846400</v>
       </c>
       <c r="K10" s="3">
         <v>1977900</v>
@@ -857,10 +857,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>282600</v>
+        <v>271200</v>
       </c>
       <c r="E12" s="3">
-        <v>258300</v>
+        <v>247900</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>8</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-37400</v>
+        <v>-35900</v>
       </c>
       <c r="E14" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F14" s="3">
-        <v>17600</v>
+        <v>16900</v>
       </c>
       <c r="G14" s="3">
-        <v>-108700</v>
+        <v>-104300</v>
       </c>
       <c r="H14" s="3">
-        <v>4000</v>
+        <v>3800</v>
       </c>
       <c r="I14" s="3">
-        <v>5300</v>
+        <v>5100</v>
       </c>
       <c r="J14" s="3">
-        <v>27500</v>
+        <v>26400</v>
       </c>
       <c r="K14" s="3">
         <v>19000</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>87900</v>
+        <v>84400</v>
       </c>
       <c r="E15" s="3">
-        <v>99300</v>
+        <v>95300</v>
       </c>
       <c r="F15" s="3">
-        <v>97000</v>
+        <v>93100</v>
       </c>
       <c r="G15" s="3">
-        <v>46900</v>
+        <v>45000</v>
       </c>
       <c r="H15" s="3">
-        <v>48700</v>
+        <v>46700</v>
       </c>
       <c r="I15" s="3">
-        <v>50200</v>
+        <v>48200</v>
       </c>
       <c r="J15" s="3">
-        <v>55600</v>
+        <v>53300</v>
       </c>
       <c r="K15" s="3">
         <v>54400</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7289700</v>
+        <v>6995900</v>
       </c>
       <c r="E17" s="3">
-        <v>6962000</v>
+        <v>6681400</v>
       </c>
       <c r="F17" s="3">
-        <v>7869400</v>
+        <v>7552200</v>
       </c>
       <c r="G17" s="3">
-        <v>7668700</v>
+        <v>7359600</v>
       </c>
       <c r="H17" s="3">
-        <v>7122500</v>
+        <v>6835400</v>
       </c>
       <c r="I17" s="3">
-        <v>6682500</v>
+        <v>6413200</v>
       </c>
       <c r="J17" s="3">
-        <v>7090000</v>
+        <v>6804200</v>
       </c>
       <c r="K17" s="3">
         <v>6973100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1105000</v>
+        <v>1060400</v>
       </c>
       <c r="E18" s="3">
-        <v>726100</v>
+        <v>696800</v>
       </c>
       <c r="F18" s="3">
-        <v>965000</v>
+        <v>926100</v>
       </c>
       <c r="G18" s="3">
-        <v>1134800</v>
+        <v>1089100</v>
       </c>
       <c r="H18" s="3">
-        <v>882500</v>
+        <v>846900</v>
       </c>
       <c r="I18" s="3">
-        <v>773100</v>
+        <v>741900</v>
       </c>
       <c r="J18" s="3">
-        <v>715700</v>
+        <v>686800</v>
       </c>
       <c r="K18" s="3">
         <v>861100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-39700</v>
+        <v>-38100</v>
       </c>
       <c r="E20" s="3">
-        <v>-49300</v>
+        <v>-47300</v>
       </c>
       <c r="F20" s="3">
-        <v>-18300</v>
+        <v>-17500</v>
       </c>
       <c r="G20" s="3">
-        <v>-26900</v>
+        <v>-25800</v>
       </c>
       <c r="H20" s="3">
-        <v>-26400</v>
+        <v>-25300</v>
       </c>
       <c r="I20" s="3">
-        <v>-36200</v>
+        <v>-34700</v>
       </c>
       <c r="J20" s="3">
-        <v>-50700</v>
+        <v>-48700</v>
       </c>
       <c r="K20" s="3">
         <v>-75200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1403500</v>
+        <v>1347300</v>
       </c>
       <c r="E21" s="3">
-        <v>1025100</v>
+        <v>984300</v>
       </c>
       <c r="F21" s="3">
-        <v>1291800</v>
+        <v>1240100</v>
       </c>
       <c r="G21" s="3">
-        <v>1348600</v>
+        <v>1294600</v>
       </c>
       <c r="H21" s="3">
-        <v>1089700</v>
+        <v>1046100</v>
       </c>
       <c r="I21" s="3">
-        <v>974800</v>
+        <v>935800</v>
       </c>
       <c r="J21" s="3">
-        <v>915000</v>
+        <v>878500</v>
       </c>
       <c r="K21" s="3">
         <v>1028900</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>31600</v>
+        <v>30400</v>
       </c>
       <c r="E22" s="3">
-        <v>29700</v>
+        <v>28500</v>
       </c>
       <c r="F22" s="3">
-        <v>76800</v>
+        <v>73700</v>
       </c>
       <c r="G22" s="3">
-        <v>61500</v>
+        <v>59000</v>
       </c>
       <c r="H22" s="3">
-        <v>69500</v>
+        <v>66700</v>
       </c>
       <c r="I22" s="3">
-        <v>44800</v>
+        <v>43000</v>
       </c>
       <c r="J22" s="3">
-        <v>65700</v>
+        <v>63100</v>
       </c>
       <c r="K22" s="3">
         <v>49900</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1033600</v>
+        <v>991900</v>
       </c>
       <c r="E23" s="3">
-        <v>647100</v>
+        <v>621000</v>
       </c>
       <c r="F23" s="3">
-        <v>869900</v>
+        <v>834800</v>
       </c>
       <c r="G23" s="3">
-        <v>1046400</v>
+        <v>1004200</v>
       </c>
       <c r="H23" s="3">
-        <v>786600</v>
+        <v>754800</v>
       </c>
       <c r="I23" s="3">
-        <v>692200</v>
+        <v>664300</v>
       </c>
       <c r="J23" s="3">
-        <v>599200</v>
+        <v>575100</v>
       </c>
       <c r="K23" s="3">
         <v>736000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>255100</v>
+        <v>244800</v>
       </c>
       <c r="E24" s="3">
-        <v>187500</v>
+        <v>180000</v>
       </c>
       <c r="F24" s="3">
-        <v>275000</v>
+        <v>263900</v>
       </c>
       <c r="G24" s="3">
-        <v>267400</v>
+        <v>256600</v>
       </c>
       <c r="H24" s="3">
-        <v>274100</v>
+        <v>263100</v>
       </c>
       <c r="I24" s="3">
-        <v>259900</v>
+        <v>249400</v>
       </c>
       <c r="J24" s="3">
-        <v>180800</v>
+        <v>173500</v>
       </c>
       <c r="K24" s="3">
         <v>211700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>778400</v>
+        <v>747100</v>
       </c>
       <c r="E26" s="3">
-        <v>459500</v>
+        <v>441000</v>
       </c>
       <c r="F26" s="3">
-        <v>594900</v>
+        <v>570900</v>
       </c>
       <c r="G26" s="3">
-        <v>779100</v>
+        <v>747700</v>
       </c>
       <c r="H26" s="3">
-        <v>512400</v>
+        <v>491800</v>
       </c>
       <c r="I26" s="3">
-        <v>432300</v>
+        <v>414900</v>
       </c>
       <c r="J26" s="3">
-        <v>418400</v>
+        <v>401600</v>
       </c>
       <c r="K26" s="3">
         <v>524300</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>753000</v>
+        <v>722600</v>
       </c>
       <c r="E27" s="3">
-        <v>441400</v>
+        <v>423700</v>
       </c>
       <c r="F27" s="3">
-        <v>570800</v>
+        <v>547800</v>
       </c>
       <c r="G27" s="3">
-        <v>748200</v>
+        <v>718100</v>
       </c>
       <c r="H27" s="3">
-        <v>483100</v>
+        <v>463700</v>
       </c>
       <c r="I27" s="3">
-        <v>409300</v>
+        <v>392800</v>
       </c>
       <c r="J27" s="3">
-        <v>398500</v>
+        <v>382500</v>
       </c>
       <c r="K27" s="3">
         <v>507700</v>
@@ -1485,7 +1485,7 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>79200</v>
+        <v>76000</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>39700</v>
+        <v>38100</v>
       </c>
       <c r="E32" s="3">
-        <v>49300</v>
+        <v>47300</v>
       </c>
       <c r="F32" s="3">
-        <v>18300</v>
+        <v>17500</v>
       </c>
       <c r="G32" s="3">
-        <v>26900</v>
+        <v>25800</v>
       </c>
       <c r="H32" s="3">
-        <v>26400</v>
+        <v>25300</v>
       </c>
       <c r="I32" s="3">
-        <v>36200</v>
+        <v>34700</v>
       </c>
       <c r="J32" s="3">
-        <v>50700</v>
+        <v>48700</v>
       </c>
       <c r="K32" s="3">
         <v>75200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>753000</v>
+        <v>722600</v>
       </c>
       <c r="E33" s="3">
-        <v>441400</v>
+        <v>423700</v>
       </c>
       <c r="F33" s="3">
-        <v>570800</v>
+        <v>547800</v>
       </c>
       <c r="G33" s="3">
-        <v>748200</v>
+        <v>718100</v>
       </c>
       <c r="H33" s="3">
-        <v>562300</v>
+        <v>539700</v>
       </c>
       <c r="I33" s="3">
-        <v>409300</v>
+        <v>392800</v>
       </c>
       <c r="J33" s="3">
-        <v>398500</v>
+        <v>382500</v>
       </c>
       <c r="K33" s="3">
         <v>507700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>753000</v>
+        <v>722600</v>
       </c>
       <c r="E35" s="3">
-        <v>441400</v>
+        <v>423700</v>
       </c>
       <c r="F35" s="3">
-        <v>570800</v>
+        <v>547800</v>
       </c>
       <c r="G35" s="3">
-        <v>748200</v>
+        <v>718100</v>
       </c>
       <c r="H35" s="3">
-        <v>562300</v>
+        <v>539700</v>
       </c>
       <c r="I35" s="3">
-        <v>409300</v>
+        <v>392800</v>
       </c>
       <c r="J35" s="3">
-        <v>398500</v>
+        <v>382500</v>
       </c>
       <c r="K35" s="3">
         <v>507700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1357700</v>
+        <v>1303000</v>
       </c>
       <c r="E41" s="3">
-        <v>1443100</v>
+        <v>1384900</v>
       </c>
       <c r="F41" s="3">
-        <v>660400</v>
+        <v>633800</v>
       </c>
       <c r="G41" s="3">
-        <v>1067200</v>
+        <v>1024100</v>
       </c>
       <c r="H41" s="3">
-        <v>730500</v>
+        <v>701000</v>
       </c>
       <c r="I41" s="3">
-        <v>1020800</v>
+        <v>979700</v>
       </c>
       <c r="J41" s="3">
-        <v>741400</v>
+        <v>711500</v>
       </c>
       <c r="K41" s="3">
         <v>653400</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>10300</v>
+        <v>9900</v>
       </c>
       <c r="E42" s="3">
-        <v>14600</v>
+        <v>14000</v>
       </c>
       <c r="F42" s="3">
-        <v>37000</v>
+        <v>35500</v>
       </c>
       <c r="G42" s="3">
-        <v>122500</v>
+        <v>117600</v>
       </c>
       <c r="H42" s="3">
-        <v>20500</v>
+        <v>19700</v>
       </c>
       <c r="I42" s="3">
-        <v>17300</v>
+        <v>16600</v>
       </c>
       <c r="J42" s="3">
-        <v>6600</v>
+        <v>6300</v>
       </c>
       <c r="K42" s="3">
         <v>828600</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1934600</v>
+        <v>1856700</v>
       </c>
       <c r="E43" s="3">
-        <v>1690500</v>
+        <v>1622400</v>
       </c>
       <c r="F43" s="3">
-        <v>2305200</v>
+        <v>2212300</v>
       </c>
       <c r="G43" s="3">
-        <v>1772800</v>
+        <v>1701300</v>
       </c>
       <c r="H43" s="3">
-        <v>1820500</v>
+        <v>1747200</v>
       </c>
       <c r="I43" s="3">
-        <v>1738200</v>
+        <v>1668100</v>
       </c>
       <c r="J43" s="3">
-        <v>1585300</v>
+        <v>1521400</v>
       </c>
       <c r="K43" s="3">
         <v>3182600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2156600</v>
+        <v>2069700</v>
       </c>
       <c r="E44" s="3">
-        <v>1615900</v>
+        <v>1550800</v>
       </c>
       <c r="F44" s="3">
-        <v>1854000</v>
+        <v>1779300</v>
       </c>
       <c r="G44" s="3">
-        <v>1830900</v>
+        <v>1757100</v>
       </c>
       <c r="H44" s="3">
-        <v>1758600</v>
+        <v>1687700</v>
       </c>
       <c r="I44" s="3">
-        <v>1583600</v>
+        <v>1519800</v>
       </c>
       <c r="J44" s="3">
-        <v>1491200</v>
+        <v>1431100</v>
       </c>
       <c r="K44" s="3">
         <v>3326000</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>65400</v>
+        <v>62800</v>
       </c>
       <c r="E45" s="3">
-        <v>52800</v>
+        <v>50700</v>
       </c>
       <c r="F45" s="3">
-        <v>57400</v>
+        <v>55100</v>
       </c>
       <c r="G45" s="3">
-        <v>58200</v>
+        <v>55900</v>
       </c>
       <c r="H45" s="3">
-        <v>68000</v>
+        <v>65300</v>
       </c>
       <c r="I45" s="3">
-        <v>66900</v>
+        <v>64200</v>
       </c>
       <c r="J45" s="3">
-        <v>94200</v>
+        <v>90400</v>
       </c>
       <c r="K45" s="3">
         <v>795200</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5524700</v>
+        <v>5302000</v>
       </c>
       <c r="E46" s="3">
-        <v>4816900</v>
+        <v>4622700</v>
       </c>
       <c r="F46" s="3">
-        <v>4914100</v>
+        <v>4716000</v>
       </c>
       <c r="G46" s="3">
-        <v>4851600</v>
+        <v>4656100</v>
       </c>
       <c r="H46" s="3">
-        <v>4398100</v>
+        <v>4220900</v>
       </c>
       <c r="I46" s="3">
-        <v>4426700</v>
+        <v>4248300</v>
       </c>
       <c r="J46" s="3">
-        <v>3918700</v>
+        <v>3760700</v>
       </c>
       <c r="K46" s="3">
         <v>4283500</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>124600</v>
+        <v>119600</v>
       </c>
       <c r="E47" s="3">
-        <v>103800</v>
+        <v>99700</v>
       </c>
       <c r="F47" s="3">
-        <v>131600</v>
+        <v>126300</v>
       </c>
       <c r="G47" s="3">
-        <v>118600</v>
+        <v>113800</v>
       </c>
       <c r="H47" s="3">
-        <v>121900</v>
+        <v>117000</v>
       </c>
       <c r="I47" s="3">
-        <v>133100</v>
+        <v>127700</v>
       </c>
       <c r="J47" s="3">
-        <v>147200</v>
+        <v>141300</v>
       </c>
       <c r="K47" s="3">
         <v>331300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2401800</v>
+        <v>2305000</v>
       </c>
       <c r="E48" s="3">
-        <v>2123800</v>
+        <v>2038200</v>
       </c>
       <c r="F48" s="3">
-        <v>2199100</v>
+        <v>2110500</v>
       </c>
       <c r="G48" s="3">
-        <v>1714000</v>
+        <v>1644900</v>
       </c>
       <c r="H48" s="3">
-        <v>1618900</v>
+        <v>1553700</v>
       </c>
       <c r="I48" s="3">
-        <v>1617300</v>
+        <v>1552100</v>
       </c>
       <c r="J48" s="3">
-        <v>1571800</v>
+        <v>1508400</v>
       </c>
       <c r="K48" s="3">
         <v>3417800</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1740100</v>
+        <v>1670000</v>
       </c>
       <c r="E49" s="3">
-        <v>1668200</v>
+        <v>1601000</v>
       </c>
       <c r="F49" s="3">
-        <v>1889600</v>
+        <v>1813400</v>
       </c>
       <c r="G49" s="3">
-        <v>1820200</v>
+        <v>1746900</v>
       </c>
       <c r="H49" s="3">
-        <v>1783000</v>
+        <v>1711200</v>
       </c>
       <c r="I49" s="3">
-        <v>2009800</v>
+        <v>1928800</v>
       </c>
       <c r="J49" s="3">
-        <v>2206700</v>
+        <v>2117800</v>
       </c>
       <c r="K49" s="3">
         <v>4887200</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>441700</v>
+        <v>423900</v>
       </c>
       <c r="E52" s="3">
-        <v>588300</v>
+        <v>564600</v>
       </c>
       <c r="F52" s="3">
-        <v>531500</v>
+        <v>510100</v>
       </c>
       <c r="G52" s="3">
-        <v>449000</v>
+        <v>430900</v>
       </c>
       <c r="H52" s="3">
-        <v>418300</v>
+        <v>401500</v>
       </c>
       <c r="I52" s="3">
-        <v>431200</v>
+        <v>413800</v>
       </c>
       <c r="J52" s="3">
-        <v>345000</v>
+        <v>331100</v>
       </c>
       <c r="K52" s="3">
         <v>439400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10232800</v>
+        <v>9820300</v>
       </c>
       <c r="E54" s="3">
-        <v>9301100</v>
+        <v>8926200</v>
       </c>
       <c r="F54" s="3">
-        <v>9665800</v>
+        <v>9276200</v>
       </c>
       <c r="G54" s="3">
-        <v>8953500</v>
+        <v>8592600</v>
       </c>
       <c r="H54" s="3">
-        <v>8340400</v>
+        <v>8004200</v>
       </c>
       <c r="I54" s="3">
-        <v>8618100</v>
+        <v>8270700</v>
       </c>
       <c r="J54" s="3">
-        <v>8189400</v>
+        <v>7859300</v>
       </c>
       <c r="K54" s="3">
         <v>9011300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1014900</v>
+        <v>974000</v>
       </c>
       <c r="E57" s="3">
-        <v>868800</v>
+        <v>833800</v>
       </c>
       <c r="F57" s="3">
-        <v>849000</v>
+        <v>814800</v>
       </c>
       <c r="G57" s="3">
-        <v>804300</v>
+        <v>771900</v>
       </c>
       <c r="H57" s="3">
-        <v>811300</v>
+        <v>778600</v>
       </c>
       <c r="I57" s="3">
-        <v>729200</v>
+        <v>699800</v>
       </c>
       <c r="J57" s="3">
-        <v>582500</v>
+        <v>559000</v>
       </c>
       <c r="K57" s="3">
         <v>655400</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>385900</v>
+        <v>370300</v>
       </c>
       <c r="E58" s="3">
-        <v>280900</v>
+        <v>269600</v>
       </c>
       <c r="F58" s="3">
-        <v>314500</v>
+        <v>301800</v>
       </c>
       <c r="G58" s="3">
-        <v>223400</v>
+        <v>214400</v>
       </c>
       <c r="H58" s="3">
-        <v>249900</v>
+        <v>239800</v>
       </c>
       <c r="I58" s="3">
-        <v>126600</v>
+        <v>121500</v>
       </c>
       <c r="J58" s="3">
-        <v>148100</v>
+        <v>142100</v>
       </c>
       <c r="K58" s="3">
         <v>223900</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1118200</v>
+        <v>1073100</v>
       </c>
       <c r="E59" s="3">
-        <v>1073300</v>
+        <v>1030100</v>
       </c>
       <c r="F59" s="3">
-        <v>1213200</v>
+        <v>1164300</v>
       </c>
       <c r="G59" s="3">
-        <v>1117600</v>
+        <v>1072500</v>
       </c>
       <c r="H59" s="3">
-        <v>1046300</v>
+        <v>1004100</v>
       </c>
       <c r="I59" s="3">
-        <v>929000</v>
+        <v>891600</v>
       </c>
       <c r="J59" s="3">
-        <v>844100</v>
+        <v>810000</v>
       </c>
       <c r="K59" s="3">
         <v>1838800</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2519000</v>
+        <v>2417400</v>
       </c>
       <c r="E60" s="3">
-        <v>2223100</v>
+        <v>2133400</v>
       </c>
       <c r="F60" s="3">
-        <v>2376700</v>
+        <v>2280900</v>
       </c>
       <c r="G60" s="3">
-        <v>2145300</v>
+        <v>2058800</v>
       </c>
       <c r="H60" s="3">
-        <v>2107500</v>
+        <v>2022600</v>
       </c>
       <c r="I60" s="3">
-        <v>1784900</v>
+        <v>1712900</v>
       </c>
       <c r="J60" s="3">
-        <v>1574600</v>
+        <v>1511200</v>
       </c>
       <c r="K60" s="3">
         <v>1777300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1587300</v>
+        <v>1523300</v>
       </c>
       <c r="E61" s="3">
-        <v>1549800</v>
+        <v>1487300</v>
       </c>
       <c r="F61" s="3">
-        <v>1532400</v>
+        <v>1470700</v>
       </c>
       <c r="G61" s="3">
-        <v>1435300</v>
+        <v>1377400</v>
       </c>
       <c r="H61" s="3">
-        <v>1545400</v>
+        <v>1483100</v>
       </c>
       <c r="I61" s="3">
-        <v>1968400</v>
+        <v>1889100</v>
       </c>
       <c r="J61" s="3">
-        <v>2299000</v>
+        <v>2206300</v>
       </c>
       <c r="K61" s="3">
         <v>2657600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1467100</v>
+        <v>1408000</v>
       </c>
       <c r="E62" s="3">
-        <v>1860300</v>
+        <v>1785300</v>
       </c>
       <c r="F62" s="3">
-        <v>1918800</v>
+        <v>1841500</v>
       </c>
       <c r="G62" s="3">
-        <v>1731700</v>
+        <v>1661900</v>
       </c>
       <c r="H62" s="3">
-        <v>1624400</v>
+        <v>1558900</v>
       </c>
       <c r="I62" s="3">
-        <v>2021400</v>
+        <v>1940000</v>
       </c>
       <c r="J62" s="3">
-        <v>1616300</v>
+        <v>1551200</v>
       </c>
       <c r="K62" s="3">
         <v>1882600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5750000</v>
+        <v>5518200</v>
       </c>
       <c r="E66" s="3">
-        <v>5777200</v>
+        <v>5544400</v>
       </c>
       <c r="F66" s="3">
-        <v>6018400</v>
+        <v>5775800</v>
       </c>
       <c r="G66" s="3">
-        <v>5509100</v>
+        <v>5287000</v>
       </c>
       <c r="H66" s="3">
-        <v>5460800</v>
+        <v>5240700</v>
       </c>
       <c r="I66" s="3">
-        <v>5944100</v>
+        <v>5704500</v>
       </c>
       <c r="J66" s="3">
-        <v>5640600</v>
+        <v>5413300</v>
       </c>
       <c r="K66" s="3">
         <v>6462700</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4148000</v>
+        <v>3980800</v>
       </c>
       <c r="E72" s="3">
-        <v>3470100</v>
+        <v>3330200</v>
       </c>
       <c r="F72" s="3">
-        <v>3229500</v>
+        <v>3099300</v>
       </c>
       <c r="G72" s="3">
-        <v>3114700</v>
+        <v>2989100</v>
       </c>
       <c r="H72" s="3">
-        <v>2661800</v>
+        <v>2554500</v>
       </c>
       <c r="I72" s="3">
-        <v>2366300</v>
+        <v>2271000</v>
       </c>
       <c r="J72" s="3">
-        <v>2349200</v>
+        <v>2254500</v>
       </c>
       <c r="K72" s="3">
         <v>2272200</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4482800</v>
+        <v>4302100</v>
       </c>
       <c r="E76" s="3">
-        <v>3523900</v>
+        <v>3381800</v>
       </c>
       <c r="F76" s="3">
-        <v>3647400</v>
+        <v>3500400</v>
       </c>
       <c r="G76" s="3">
-        <v>3444500</v>
+        <v>3305600</v>
       </c>
       <c r="H76" s="3">
-        <v>2879600</v>
+        <v>2763500</v>
       </c>
       <c r="I76" s="3">
-        <v>2674000</v>
+        <v>2566200</v>
       </c>
       <c r="J76" s="3">
-        <v>2548700</v>
+        <v>2446000</v>
       </c>
       <c r="K76" s="3">
         <v>2548600</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>753000</v>
+        <v>722600</v>
       </c>
       <c r="E81" s="3">
-        <v>441400</v>
+        <v>423700</v>
       </c>
       <c r="F81" s="3">
-        <v>570800</v>
+        <v>547800</v>
       </c>
       <c r="G81" s="3">
-        <v>748200</v>
+        <v>718100</v>
       </c>
       <c r="H81" s="3">
-        <v>562300</v>
+        <v>539700</v>
       </c>
       <c r="I81" s="3">
-        <v>409300</v>
+        <v>392800</v>
       </c>
       <c r="J81" s="3">
-        <v>398500</v>
+        <v>382500</v>
       </c>
       <c r="K81" s="3">
         <v>507700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>336100</v>
+        <v>322500</v>
       </c>
       <c r="E83" s="3">
-        <v>346100</v>
+        <v>332200</v>
       </c>
       <c r="F83" s="3">
-        <v>342800</v>
+        <v>329000</v>
       </c>
       <c r="G83" s="3">
-        <v>239100</v>
+        <v>229500</v>
       </c>
       <c r="H83" s="3">
-        <v>232100</v>
+        <v>222800</v>
       </c>
       <c r="I83" s="3">
-        <v>236300</v>
+        <v>226800</v>
       </c>
       <c r="J83" s="3">
-        <v>248500</v>
+        <v>238400</v>
       </c>
       <c r="K83" s="3">
         <v>245000</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>539000</v>
+        <v>517300</v>
       </c>
       <c r="E89" s="3">
-        <v>848900</v>
+        <v>814700</v>
       </c>
       <c r="F89" s="3">
-        <v>966500</v>
+        <v>927500</v>
       </c>
       <c r="G89" s="3">
-        <v>857100</v>
+        <v>822600</v>
       </c>
       <c r="H89" s="3">
-        <v>660300</v>
+        <v>633700</v>
       </c>
       <c r="I89" s="3">
-        <v>734400</v>
+        <v>704800</v>
       </c>
       <c r="J89" s="3">
-        <v>794100</v>
+        <v>762000</v>
       </c>
       <c r="K89" s="3">
         <v>529500</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-392600</v>
+        <v>-376700</v>
       </c>
       <c r="E91" s="3">
-        <v>-342200</v>
+        <v>-328400</v>
       </c>
       <c r="F91" s="3">
-        <v>-355500</v>
+        <v>-341200</v>
       </c>
       <c r="G91" s="3">
-        <v>-271900</v>
+        <v>-260900</v>
       </c>
       <c r="H91" s="3">
-        <v>-230400</v>
+        <v>-221100</v>
       </c>
       <c r="I91" s="3">
-        <v>-192000</v>
+        <v>-184200</v>
       </c>
       <c r="J91" s="3">
-        <v>-211900</v>
+        <v>-203300</v>
       </c>
       <c r="K91" s="3">
         <v>-204400</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-323300</v>
+        <v>-310300</v>
       </c>
       <c r="E94" s="3">
-        <v>-308700</v>
+        <v>-296300</v>
       </c>
       <c r="F94" s="3">
-        <v>-457800</v>
+        <v>-439300</v>
       </c>
       <c r="G94" s="3">
-        <v>-2000</v>
+        <v>-1900</v>
       </c>
       <c r="H94" s="3">
-        <v>-172100</v>
+        <v>-165200</v>
       </c>
       <c r="I94" s="3">
-        <v>58200</v>
+        <v>55900</v>
       </c>
       <c r="J94" s="3">
-        <v>-135100</v>
+        <v>-129600</v>
       </c>
       <c r="K94" s="3">
         <v>-293600</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-304000</v>
+        <v>-291800</v>
       </c>
       <c r="E96" s="3">
-        <v>-140300</v>
+        <v>-134600</v>
       </c>
       <c r="F96" s="3">
-        <v>-280500</v>
+        <v>-269200</v>
       </c>
       <c r="G96" s="3">
-        <v>-269200</v>
+        <v>-258400</v>
       </c>
       <c r="H96" s="3">
-        <v>-257200</v>
+        <v>-246800</v>
       </c>
       <c r="I96" s="3">
-        <v>-257200</v>
+        <v>-246800</v>
       </c>
       <c r="J96" s="3">
-        <v>-257200</v>
+        <v>-246800</v>
       </c>
       <c r="K96" s="3">
         <v>-276400</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-360800</v>
+        <v>-346300</v>
       </c>
       <c r="E100" s="3">
-        <v>276400</v>
+        <v>265300</v>
       </c>
       <c r="F100" s="3">
-        <v>-924100</v>
+        <v>-886800</v>
       </c>
       <c r="G100" s="3">
-        <v>-522100</v>
+        <v>-501000</v>
       </c>
       <c r="H100" s="3">
-        <v>-764400</v>
+        <v>-733600</v>
       </c>
       <c r="I100" s="3">
-        <v>-535900</v>
+        <v>-514300</v>
       </c>
       <c r="J100" s="3">
-        <v>-534000</v>
+        <v>-512500</v>
       </c>
       <c r="K100" s="3">
         <v>-206700</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>59800</v>
+        <v>57400</v>
       </c>
       <c r="E101" s="3">
-        <v>-33900</v>
+        <v>-32500</v>
       </c>
       <c r="F101" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="G101" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="H101" s="3">
-        <v>-14200</v>
+        <v>-13600</v>
       </c>
       <c r="I101" s="3">
-        <v>22800</v>
+        <v>21900</v>
       </c>
       <c r="J101" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="K101" s="3">
         <v>31700</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-85400</v>
+        <v>-81900</v>
       </c>
       <c r="E102" s="3">
-        <v>782700</v>
+        <v>751100</v>
       </c>
       <c r="F102" s="3">
-        <v>-406700</v>
+        <v>-390300</v>
       </c>
       <c r="G102" s="3">
-        <v>336700</v>
+        <v>323100</v>
       </c>
       <c r="H102" s="3">
-        <v>-290400</v>
+        <v>-278700</v>
       </c>
       <c r="I102" s="3">
-        <v>279500</v>
+        <v>268200</v>
       </c>
       <c r="J102" s="3">
-        <v>133300</v>
+        <v>127900</v>
       </c>
       <c r="K102" s="3">
         <v>60800</v>

--- a/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8056300</v>
+        <v>7720400</v>
       </c>
       <c r="E8" s="3">
-        <v>7378200</v>
+        <v>7070500</v>
       </c>
       <c r="F8" s="3">
-        <v>8478300</v>
+        <v>8124800</v>
       </c>
       <c r="G8" s="3">
-        <v>8448700</v>
+        <v>8096400</v>
       </c>
       <c r="H8" s="3">
-        <v>7682300</v>
+        <v>7362000</v>
       </c>
       <c r="I8" s="3">
-        <v>7155100</v>
+        <v>6856800</v>
       </c>
       <c r="J8" s="3">
-        <v>7491000</v>
+        <v>7178700</v>
       </c>
       <c r="K8" s="3">
         <v>7834200</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5758900</v>
+        <v>5518700</v>
       </c>
       <c r="E9" s="3">
-        <v>5453700</v>
+        <v>5226300</v>
       </c>
       <c r="F9" s="3">
-        <v>6406200</v>
+        <v>6139000</v>
       </c>
       <c r="G9" s="3">
-        <v>6386400</v>
+        <v>6120200</v>
       </c>
       <c r="H9" s="3">
-        <v>5764100</v>
+        <v>5523700</v>
       </c>
       <c r="I9" s="3">
-        <v>5402900</v>
+        <v>5177600</v>
       </c>
       <c r="J9" s="3">
-        <v>5644600</v>
+        <v>5409300</v>
       </c>
       <c r="K9" s="3">
         <v>5856300</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2297500</v>
+        <v>2201700</v>
       </c>
       <c r="E10" s="3">
-        <v>1924500</v>
+        <v>1844200</v>
       </c>
       <c r="F10" s="3">
-        <v>2072100</v>
+        <v>1985700</v>
       </c>
       <c r="G10" s="3">
-        <v>2062300</v>
+        <v>1976300</v>
       </c>
       <c r="H10" s="3">
-        <v>1918300</v>
+        <v>1838300</v>
       </c>
       <c r="I10" s="3">
-        <v>1752200</v>
+        <v>1679100</v>
       </c>
       <c r="J10" s="3">
-        <v>1846400</v>
+        <v>1769400</v>
       </c>
       <c r="K10" s="3">
         <v>1977900</v>
@@ -857,10 +857,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>271200</v>
+        <v>259900</v>
       </c>
       <c r="E12" s="3">
-        <v>247900</v>
+        <v>237600</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>8</v>
@@ -935,25 +935,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-35900</v>
+        <v>-34400</v>
       </c>
       <c r="E14" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="F14" s="3">
-        <v>16900</v>
+        <v>16200</v>
       </c>
       <c r="G14" s="3">
-        <v>-104300</v>
+        <v>-99900</v>
       </c>
       <c r="H14" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="I14" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="J14" s="3">
-        <v>26400</v>
+        <v>25300</v>
       </c>
       <c r="K14" s="3">
         <v>19000</v>
@@ -974,25 +974,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>84400</v>
+        <v>80900</v>
       </c>
       <c r="E15" s="3">
-        <v>95300</v>
+        <v>91300</v>
       </c>
       <c r="F15" s="3">
-        <v>93100</v>
+        <v>89200</v>
       </c>
       <c r="G15" s="3">
-        <v>45000</v>
+        <v>43200</v>
       </c>
       <c r="H15" s="3">
-        <v>46700</v>
+        <v>44800</v>
       </c>
       <c r="I15" s="3">
-        <v>48200</v>
+        <v>46200</v>
       </c>
       <c r="J15" s="3">
-        <v>53300</v>
+        <v>51100</v>
       </c>
       <c r="K15" s="3">
         <v>54400</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6995900</v>
+        <v>6704200</v>
       </c>
       <c r="E17" s="3">
-        <v>6681400</v>
+        <v>6402800</v>
       </c>
       <c r="F17" s="3">
-        <v>7552200</v>
+        <v>7237300</v>
       </c>
       <c r="G17" s="3">
-        <v>7359600</v>
+        <v>7052800</v>
       </c>
       <c r="H17" s="3">
-        <v>6835400</v>
+        <v>6550400</v>
       </c>
       <c r="I17" s="3">
-        <v>6413200</v>
+        <v>6145800</v>
       </c>
       <c r="J17" s="3">
-        <v>6804200</v>
+        <v>6520500</v>
       </c>
       <c r="K17" s="3">
         <v>6973100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1060400</v>
+        <v>1016200</v>
       </c>
       <c r="E18" s="3">
-        <v>696800</v>
+        <v>667700</v>
       </c>
       <c r="F18" s="3">
-        <v>926100</v>
+        <v>887500</v>
       </c>
       <c r="G18" s="3">
-        <v>1089100</v>
+        <v>1043700</v>
       </c>
       <c r="H18" s="3">
-        <v>846900</v>
+        <v>811600</v>
       </c>
       <c r="I18" s="3">
-        <v>741900</v>
+        <v>711000</v>
       </c>
       <c r="J18" s="3">
-        <v>686800</v>
+        <v>658200</v>
       </c>
       <c r="K18" s="3">
         <v>861100</v>
@@ -1122,25 +1122,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-38100</v>
+        <v>-36600</v>
       </c>
       <c r="E20" s="3">
-        <v>-47300</v>
+        <v>-45300</v>
       </c>
       <c r="F20" s="3">
-        <v>-17500</v>
+        <v>-16800</v>
       </c>
       <c r="G20" s="3">
-        <v>-25800</v>
+        <v>-24700</v>
       </c>
       <c r="H20" s="3">
-        <v>-25300</v>
+        <v>-24300</v>
       </c>
       <c r="I20" s="3">
-        <v>-34700</v>
+        <v>-33200</v>
       </c>
       <c r="J20" s="3">
-        <v>-48700</v>
+        <v>-46700</v>
       </c>
       <c r="K20" s="3">
         <v>-75200</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1347300</v>
+        <v>1288100</v>
       </c>
       <c r="E21" s="3">
-        <v>984300</v>
+        <v>940100</v>
       </c>
       <c r="F21" s="3">
-        <v>1240100</v>
+        <v>1185300</v>
       </c>
       <c r="G21" s="3">
-        <v>1294600</v>
+        <v>1238400</v>
       </c>
       <c r="H21" s="3">
-        <v>1046100</v>
+        <v>1000400</v>
       </c>
       <c r="I21" s="3">
-        <v>935800</v>
+        <v>894700</v>
       </c>
       <c r="J21" s="3">
-        <v>878500</v>
+        <v>839600</v>
       </c>
       <c r="K21" s="3">
         <v>1028900</v>
@@ -1200,25 +1200,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>30400</v>
+        <v>29100</v>
       </c>
       <c r="E22" s="3">
-        <v>28500</v>
+        <v>27300</v>
       </c>
       <c r="F22" s="3">
-        <v>73700</v>
+        <v>70700</v>
       </c>
       <c r="G22" s="3">
-        <v>59000</v>
+        <v>56600</v>
       </c>
       <c r="H22" s="3">
-        <v>66700</v>
+        <v>63900</v>
       </c>
       <c r="I22" s="3">
-        <v>43000</v>
+        <v>41200</v>
       </c>
       <c r="J22" s="3">
-        <v>63100</v>
+        <v>60500</v>
       </c>
       <c r="K22" s="3">
         <v>49900</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>991900</v>
+        <v>950600</v>
       </c>
       <c r="E23" s="3">
-        <v>621000</v>
+        <v>595100</v>
       </c>
       <c r="F23" s="3">
-        <v>834800</v>
+        <v>800000</v>
       </c>
       <c r="G23" s="3">
-        <v>1004200</v>
+        <v>962400</v>
       </c>
       <c r="H23" s="3">
-        <v>754800</v>
+        <v>723400</v>
       </c>
       <c r="I23" s="3">
-        <v>664300</v>
+        <v>636600</v>
       </c>
       <c r="J23" s="3">
-        <v>575100</v>
+        <v>551100</v>
       </c>
       <c r="K23" s="3">
         <v>736000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>244800</v>
+        <v>234600</v>
       </c>
       <c r="E24" s="3">
-        <v>180000</v>
+        <v>172500</v>
       </c>
       <c r="F24" s="3">
-        <v>263900</v>
+        <v>252900</v>
       </c>
       <c r="G24" s="3">
-        <v>256600</v>
+        <v>245900</v>
       </c>
       <c r="H24" s="3">
-        <v>263100</v>
+        <v>252100</v>
       </c>
       <c r="I24" s="3">
-        <v>249400</v>
+        <v>239000</v>
       </c>
       <c r="J24" s="3">
-        <v>173500</v>
+        <v>166200</v>
       </c>
       <c r="K24" s="3">
         <v>211700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>747100</v>
+        <v>715900</v>
       </c>
       <c r="E26" s="3">
-        <v>441000</v>
+        <v>422600</v>
       </c>
       <c r="F26" s="3">
-        <v>570900</v>
+        <v>547100</v>
       </c>
       <c r="G26" s="3">
-        <v>747700</v>
+        <v>716500</v>
       </c>
       <c r="H26" s="3">
-        <v>491800</v>
+        <v>471300</v>
       </c>
       <c r="I26" s="3">
-        <v>414900</v>
+        <v>397600</v>
       </c>
       <c r="J26" s="3">
-        <v>401600</v>
+        <v>384800</v>
       </c>
       <c r="K26" s="3">
         <v>524300</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>722600</v>
+        <v>692500</v>
       </c>
       <c r="E27" s="3">
-        <v>423700</v>
+        <v>406000</v>
       </c>
       <c r="F27" s="3">
-        <v>547800</v>
+        <v>524900</v>
       </c>
       <c r="G27" s="3">
-        <v>718100</v>
+        <v>688100</v>
       </c>
       <c r="H27" s="3">
-        <v>463700</v>
+        <v>444300</v>
       </c>
       <c r="I27" s="3">
-        <v>392800</v>
+        <v>376400</v>
       </c>
       <c r="J27" s="3">
-        <v>382500</v>
+        <v>366500</v>
       </c>
       <c r="K27" s="3">
         <v>507700</v>
@@ -1485,7 +1485,7 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>76000</v>
+        <v>72800</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1590,25 +1590,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>38100</v>
+        <v>36600</v>
       </c>
       <c r="E32" s="3">
-        <v>47300</v>
+        <v>45300</v>
       </c>
       <c r="F32" s="3">
-        <v>17500</v>
+        <v>16800</v>
       </c>
       <c r="G32" s="3">
-        <v>25800</v>
+        <v>24700</v>
       </c>
       <c r="H32" s="3">
-        <v>25300</v>
+        <v>24300</v>
       </c>
       <c r="I32" s="3">
-        <v>34700</v>
+        <v>33200</v>
       </c>
       <c r="J32" s="3">
-        <v>48700</v>
+        <v>46700</v>
       </c>
       <c r="K32" s="3">
         <v>75200</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>722600</v>
+        <v>692500</v>
       </c>
       <c r="E33" s="3">
-        <v>423700</v>
+        <v>406000</v>
       </c>
       <c r="F33" s="3">
-        <v>547800</v>
+        <v>524900</v>
       </c>
       <c r="G33" s="3">
-        <v>718100</v>
+        <v>688100</v>
       </c>
       <c r="H33" s="3">
-        <v>539700</v>
+        <v>517200</v>
       </c>
       <c r="I33" s="3">
-        <v>392800</v>
+        <v>376400</v>
       </c>
       <c r="J33" s="3">
-        <v>382500</v>
+        <v>366500</v>
       </c>
       <c r="K33" s="3">
         <v>507700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>722600</v>
+        <v>692500</v>
       </c>
       <c r="E35" s="3">
-        <v>423700</v>
+        <v>406000</v>
       </c>
       <c r="F35" s="3">
-        <v>547800</v>
+        <v>524900</v>
       </c>
       <c r="G35" s="3">
-        <v>718100</v>
+        <v>688100</v>
       </c>
       <c r="H35" s="3">
-        <v>539700</v>
+        <v>517200</v>
       </c>
       <c r="I35" s="3">
-        <v>392800</v>
+        <v>376400</v>
       </c>
       <c r="J35" s="3">
-        <v>382500</v>
+        <v>366500</v>
       </c>
       <c r="K35" s="3">
         <v>507700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1303000</v>
+        <v>1248700</v>
       </c>
       <c r="E41" s="3">
-        <v>1384900</v>
+        <v>1327200</v>
       </c>
       <c r="F41" s="3">
-        <v>633800</v>
+        <v>607400</v>
       </c>
       <c r="G41" s="3">
-        <v>1024100</v>
+        <v>981400</v>
       </c>
       <c r="H41" s="3">
-        <v>701000</v>
+        <v>671800</v>
       </c>
       <c r="I41" s="3">
-        <v>979700</v>
+        <v>938800</v>
       </c>
       <c r="J41" s="3">
-        <v>711500</v>
+        <v>681800</v>
       </c>
       <c r="K41" s="3">
         <v>653400</v>
@@ -1863,25 +1863,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9900</v>
+        <v>9400</v>
       </c>
       <c r="E42" s="3">
-        <v>14000</v>
+        <v>13400</v>
       </c>
       <c r="F42" s="3">
-        <v>35500</v>
+        <v>34000</v>
       </c>
       <c r="G42" s="3">
-        <v>117600</v>
+        <v>112700</v>
       </c>
       <c r="H42" s="3">
-        <v>19700</v>
+        <v>18900</v>
       </c>
       <c r="I42" s="3">
-        <v>16600</v>
+        <v>15900</v>
       </c>
       <c r="J42" s="3">
-        <v>6300</v>
+        <v>6000</v>
       </c>
       <c r="K42" s="3">
         <v>828600</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1856700</v>
+        <v>1779200</v>
       </c>
       <c r="E43" s="3">
-        <v>1622400</v>
+        <v>1554700</v>
       </c>
       <c r="F43" s="3">
-        <v>2212300</v>
+        <v>2120100</v>
       </c>
       <c r="G43" s="3">
-        <v>1701300</v>
+        <v>1630400</v>
       </c>
       <c r="H43" s="3">
-        <v>1747200</v>
+        <v>1674300</v>
       </c>
       <c r="I43" s="3">
-        <v>1668100</v>
+        <v>1598500</v>
       </c>
       <c r="J43" s="3">
-        <v>1521400</v>
+        <v>1458000</v>
       </c>
       <c r="K43" s="3">
         <v>3182600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2069700</v>
+        <v>1983400</v>
       </c>
       <c r="E44" s="3">
-        <v>1550800</v>
+        <v>1486100</v>
       </c>
       <c r="F44" s="3">
-        <v>1779300</v>
+        <v>1705100</v>
       </c>
       <c r="G44" s="3">
-        <v>1757100</v>
+        <v>1683800</v>
       </c>
       <c r="H44" s="3">
-        <v>1687700</v>
+        <v>1617300</v>
       </c>
       <c r="I44" s="3">
-        <v>1519800</v>
+        <v>1456400</v>
       </c>
       <c r="J44" s="3">
-        <v>1431100</v>
+        <v>1371500</v>
       </c>
       <c r="K44" s="3">
         <v>3326000</v>
@@ -1980,25 +1980,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>62800</v>
+        <v>60200</v>
       </c>
       <c r="E45" s="3">
-        <v>50700</v>
+        <v>48600</v>
       </c>
       <c r="F45" s="3">
-        <v>55100</v>
+        <v>52800</v>
       </c>
       <c r="G45" s="3">
-        <v>55900</v>
+        <v>53600</v>
       </c>
       <c r="H45" s="3">
-        <v>65300</v>
+        <v>62500</v>
       </c>
       <c r="I45" s="3">
-        <v>64200</v>
+        <v>61500</v>
       </c>
       <c r="J45" s="3">
-        <v>90400</v>
+        <v>86600</v>
       </c>
       <c r="K45" s="3">
         <v>795200</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5302000</v>
+        <v>5080900</v>
       </c>
       <c r="E46" s="3">
-        <v>4622700</v>
+        <v>4430000</v>
       </c>
       <c r="F46" s="3">
-        <v>4716000</v>
+        <v>4519300</v>
       </c>
       <c r="G46" s="3">
-        <v>4656100</v>
+        <v>4461900</v>
       </c>
       <c r="H46" s="3">
-        <v>4220900</v>
+        <v>4044900</v>
       </c>
       <c r="I46" s="3">
-        <v>4248300</v>
+        <v>4071100</v>
       </c>
       <c r="J46" s="3">
-        <v>3760700</v>
+        <v>3603900</v>
       </c>
       <c r="K46" s="3">
         <v>4283500</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>119600</v>
+        <v>114600</v>
       </c>
       <c r="E47" s="3">
-        <v>99700</v>
+        <v>95500</v>
       </c>
       <c r="F47" s="3">
-        <v>126300</v>
+        <v>121000</v>
       </c>
       <c r="G47" s="3">
-        <v>113800</v>
+        <v>109100</v>
       </c>
       <c r="H47" s="3">
-        <v>117000</v>
+        <v>112100</v>
       </c>
       <c r="I47" s="3">
-        <v>127700</v>
+        <v>122400</v>
       </c>
       <c r="J47" s="3">
-        <v>141300</v>
+        <v>135400</v>
       </c>
       <c r="K47" s="3">
         <v>331300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2305000</v>
+        <v>2208900</v>
       </c>
       <c r="E48" s="3">
-        <v>2038200</v>
+        <v>1953200</v>
       </c>
       <c r="F48" s="3">
-        <v>2110500</v>
+        <v>2022500</v>
       </c>
       <c r="G48" s="3">
-        <v>1644900</v>
+        <v>1576300</v>
       </c>
       <c r="H48" s="3">
-        <v>1553700</v>
+        <v>1488900</v>
       </c>
       <c r="I48" s="3">
-        <v>1552100</v>
+        <v>1487400</v>
       </c>
       <c r="J48" s="3">
-        <v>1508400</v>
+        <v>1445500</v>
       </c>
       <c r="K48" s="3">
         <v>3417800</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1670000</v>
+        <v>1600300</v>
       </c>
       <c r="E49" s="3">
-        <v>1601000</v>
+        <v>1534200</v>
       </c>
       <c r="F49" s="3">
-        <v>1813400</v>
+        <v>1737800</v>
       </c>
       <c r="G49" s="3">
-        <v>1746900</v>
+        <v>1674000</v>
       </c>
       <c r="H49" s="3">
-        <v>1711200</v>
+        <v>1639800</v>
       </c>
       <c r="I49" s="3">
-        <v>1928800</v>
+        <v>1848400</v>
       </c>
       <c r="J49" s="3">
-        <v>2117800</v>
+        <v>2029500</v>
       </c>
       <c r="K49" s="3">
         <v>4887200</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>423900</v>
+        <v>406200</v>
       </c>
       <c r="E52" s="3">
-        <v>564600</v>
+        <v>541100</v>
       </c>
       <c r="F52" s="3">
-        <v>510100</v>
+        <v>488800</v>
       </c>
       <c r="G52" s="3">
-        <v>430900</v>
+        <v>413000</v>
       </c>
       <c r="H52" s="3">
-        <v>401500</v>
+        <v>384700</v>
       </c>
       <c r="I52" s="3">
-        <v>413800</v>
+        <v>396500</v>
       </c>
       <c r="J52" s="3">
-        <v>331100</v>
+        <v>317300</v>
       </c>
       <c r="K52" s="3">
         <v>439400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9820300</v>
+        <v>9410900</v>
       </c>
       <c r="E54" s="3">
-        <v>8926200</v>
+        <v>8554000</v>
       </c>
       <c r="F54" s="3">
-        <v>9276200</v>
+        <v>8889400</v>
       </c>
       <c r="G54" s="3">
-        <v>8592600</v>
+        <v>8234400</v>
       </c>
       <c r="H54" s="3">
-        <v>8004200</v>
+        <v>7670400</v>
       </c>
       <c r="I54" s="3">
-        <v>8270700</v>
+        <v>7925900</v>
       </c>
       <c r="J54" s="3">
-        <v>7859300</v>
+        <v>7531600</v>
       </c>
       <c r="K54" s="3">
         <v>9011300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>974000</v>
+        <v>933400</v>
       </c>
       <c r="E57" s="3">
-        <v>833800</v>
+        <v>799000</v>
       </c>
       <c r="F57" s="3">
-        <v>814800</v>
+        <v>780800</v>
       </c>
       <c r="G57" s="3">
-        <v>771900</v>
+        <v>739700</v>
       </c>
       <c r="H57" s="3">
-        <v>778600</v>
+        <v>746100</v>
       </c>
       <c r="I57" s="3">
-        <v>699800</v>
+        <v>670700</v>
       </c>
       <c r="J57" s="3">
-        <v>559000</v>
+        <v>535700</v>
       </c>
       <c r="K57" s="3">
         <v>655400</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>370300</v>
+        <v>354900</v>
       </c>
       <c r="E58" s="3">
-        <v>269600</v>
+        <v>258300</v>
       </c>
       <c r="F58" s="3">
-        <v>301800</v>
+        <v>289200</v>
       </c>
       <c r="G58" s="3">
-        <v>214400</v>
+        <v>205500</v>
       </c>
       <c r="H58" s="3">
-        <v>239800</v>
+        <v>229800</v>
       </c>
       <c r="I58" s="3">
-        <v>121500</v>
+        <v>116500</v>
       </c>
       <c r="J58" s="3">
-        <v>142100</v>
+        <v>136200</v>
       </c>
       <c r="K58" s="3">
         <v>223900</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1073100</v>
+        <v>1028400</v>
       </c>
       <c r="E59" s="3">
-        <v>1030100</v>
+        <v>987100</v>
       </c>
       <c r="F59" s="3">
-        <v>1164300</v>
+        <v>1115800</v>
       </c>
       <c r="G59" s="3">
-        <v>1072500</v>
+        <v>1027800</v>
       </c>
       <c r="H59" s="3">
-        <v>1004100</v>
+        <v>962300</v>
       </c>
       <c r="I59" s="3">
-        <v>891600</v>
+        <v>854400</v>
       </c>
       <c r="J59" s="3">
-        <v>810000</v>
+        <v>776300</v>
       </c>
       <c r="K59" s="3">
         <v>1838800</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2417400</v>
+        <v>2316600</v>
       </c>
       <c r="E60" s="3">
-        <v>2133400</v>
+        <v>2044500</v>
       </c>
       <c r="F60" s="3">
-        <v>2280900</v>
+        <v>2185800</v>
       </c>
       <c r="G60" s="3">
-        <v>2058800</v>
+        <v>1973000</v>
       </c>
       <c r="H60" s="3">
-        <v>2022600</v>
+        <v>1938200</v>
       </c>
       <c r="I60" s="3">
-        <v>1712900</v>
+        <v>1641500</v>
       </c>
       <c r="J60" s="3">
-        <v>1511200</v>
+        <v>1448200</v>
       </c>
       <c r="K60" s="3">
         <v>1777300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1523300</v>
+        <v>1459800</v>
       </c>
       <c r="E61" s="3">
-        <v>1487300</v>
+        <v>1425300</v>
       </c>
       <c r="F61" s="3">
-        <v>1470700</v>
+        <v>1409300</v>
       </c>
       <c r="G61" s="3">
-        <v>1377400</v>
+        <v>1320000</v>
       </c>
       <c r="H61" s="3">
-        <v>1483100</v>
+        <v>1421200</v>
       </c>
       <c r="I61" s="3">
-        <v>1889100</v>
+        <v>1810300</v>
       </c>
       <c r="J61" s="3">
-        <v>2206300</v>
+        <v>2114300</v>
       </c>
       <c r="K61" s="3">
         <v>2657600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1408000</v>
+        <v>1349300</v>
       </c>
       <c r="E62" s="3">
-        <v>1785300</v>
+        <v>1710900</v>
       </c>
       <c r="F62" s="3">
-        <v>1841500</v>
+        <v>1764700</v>
       </c>
       <c r="G62" s="3">
-        <v>1661900</v>
+        <v>1592600</v>
       </c>
       <c r="H62" s="3">
-        <v>1558900</v>
+        <v>1493900</v>
       </c>
       <c r="I62" s="3">
-        <v>1940000</v>
+        <v>1859100</v>
       </c>
       <c r="J62" s="3">
-        <v>1551200</v>
+        <v>1486500</v>
       </c>
       <c r="K62" s="3">
         <v>1882600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5518200</v>
+        <v>5288200</v>
       </c>
       <c r="E66" s="3">
-        <v>5544400</v>
+        <v>5313200</v>
       </c>
       <c r="F66" s="3">
-        <v>5775800</v>
+        <v>5535000</v>
       </c>
       <c r="G66" s="3">
-        <v>5287000</v>
+        <v>5066600</v>
       </c>
       <c r="H66" s="3">
-        <v>5240700</v>
+        <v>5022200</v>
       </c>
       <c r="I66" s="3">
-        <v>5704500</v>
+        <v>5466700</v>
       </c>
       <c r="J66" s="3">
-        <v>5413300</v>
+        <v>5187600</v>
       </c>
       <c r="K66" s="3">
         <v>6462700</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3980800</v>
+        <v>3814900</v>
       </c>
       <c r="E72" s="3">
-        <v>3330200</v>
+        <v>3191300</v>
       </c>
       <c r="F72" s="3">
-        <v>3099300</v>
+        <v>2970100</v>
       </c>
       <c r="G72" s="3">
-        <v>2989100</v>
+        <v>2864500</v>
       </c>
       <c r="H72" s="3">
-        <v>2554500</v>
+        <v>2448000</v>
       </c>
       <c r="I72" s="3">
-        <v>2271000</v>
+        <v>2176300</v>
       </c>
       <c r="J72" s="3">
-        <v>2254500</v>
+        <v>2160500</v>
       </c>
       <c r="K72" s="3">
         <v>2272200</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4302100</v>
+        <v>4122700</v>
       </c>
       <c r="E76" s="3">
-        <v>3381800</v>
+        <v>3240800</v>
       </c>
       <c r="F76" s="3">
-        <v>3500400</v>
+        <v>3354500</v>
       </c>
       <c r="G76" s="3">
-        <v>3305600</v>
+        <v>3167800</v>
       </c>
       <c r="H76" s="3">
-        <v>2763500</v>
+        <v>2648300</v>
       </c>
       <c r="I76" s="3">
-        <v>2566200</v>
+        <v>2459200</v>
       </c>
       <c r="J76" s="3">
-        <v>2446000</v>
+        <v>2344000</v>
       </c>
       <c r="K76" s="3">
         <v>2548600</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>722600</v>
+        <v>692500</v>
       </c>
       <c r="E81" s="3">
-        <v>423700</v>
+        <v>406000</v>
       </c>
       <c r="F81" s="3">
-        <v>547800</v>
+        <v>524900</v>
       </c>
       <c r="G81" s="3">
-        <v>718100</v>
+        <v>688100</v>
       </c>
       <c r="H81" s="3">
-        <v>539700</v>
+        <v>517200</v>
       </c>
       <c r="I81" s="3">
-        <v>392800</v>
+        <v>376400</v>
       </c>
       <c r="J81" s="3">
-        <v>382500</v>
+        <v>366500</v>
       </c>
       <c r="K81" s="3">
         <v>507700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>322500</v>
+        <v>309100</v>
       </c>
       <c r="E83" s="3">
-        <v>332200</v>
+        <v>318300</v>
       </c>
       <c r="F83" s="3">
-        <v>329000</v>
+        <v>315300</v>
       </c>
       <c r="G83" s="3">
-        <v>229500</v>
+        <v>219900</v>
       </c>
       <c r="H83" s="3">
-        <v>222800</v>
+        <v>213500</v>
       </c>
       <c r="I83" s="3">
-        <v>226800</v>
+        <v>217400</v>
       </c>
       <c r="J83" s="3">
-        <v>238400</v>
+        <v>228500</v>
       </c>
       <c r="K83" s="3">
         <v>245000</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>517300</v>
+        <v>495700</v>
       </c>
       <c r="E89" s="3">
-        <v>814700</v>
+        <v>780700</v>
       </c>
       <c r="F89" s="3">
-        <v>927500</v>
+        <v>888900</v>
       </c>
       <c r="G89" s="3">
-        <v>822600</v>
+        <v>788300</v>
       </c>
       <c r="H89" s="3">
-        <v>633700</v>
+        <v>607300</v>
       </c>
       <c r="I89" s="3">
-        <v>704800</v>
+        <v>675400</v>
       </c>
       <c r="J89" s="3">
-        <v>762000</v>
+        <v>730300</v>
       </c>
       <c r="K89" s="3">
         <v>529500</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-376700</v>
+        <v>-361000</v>
       </c>
       <c r="E91" s="3">
-        <v>-328400</v>
+        <v>-314700</v>
       </c>
       <c r="F91" s="3">
-        <v>-341200</v>
+        <v>-326900</v>
       </c>
       <c r="G91" s="3">
-        <v>-260900</v>
+        <v>-250000</v>
       </c>
       <c r="H91" s="3">
-        <v>-221100</v>
+        <v>-211900</v>
       </c>
       <c r="I91" s="3">
-        <v>-184200</v>
+        <v>-176500</v>
       </c>
       <c r="J91" s="3">
-        <v>-203300</v>
+        <v>-194900</v>
       </c>
       <c r="K91" s="3">
         <v>-204400</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-310300</v>
+        <v>-297400</v>
       </c>
       <c r="E94" s="3">
-        <v>-296300</v>
+        <v>-283900</v>
       </c>
       <c r="F94" s="3">
-        <v>-439300</v>
+        <v>-421000</v>
       </c>
       <c r="G94" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="H94" s="3">
-        <v>-165200</v>
+        <v>-158300</v>
       </c>
       <c r="I94" s="3">
-        <v>55900</v>
+        <v>53600</v>
       </c>
       <c r="J94" s="3">
-        <v>-129600</v>
+        <v>-124200</v>
       </c>
       <c r="K94" s="3">
         <v>-293600</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-291800</v>
+        <v>-279600</v>
       </c>
       <c r="E96" s="3">
-        <v>-134600</v>
+        <v>-129000</v>
       </c>
       <c r="F96" s="3">
-        <v>-269200</v>
+        <v>-258000</v>
       </c>
       <c r="G96" s="3">
-        <v>-258400</v>
+        <v>-247600</v>
       </c>
       <c r="H96" s="3">
-        <v>-246800</v>
+        <v>-236500</v>
       </c>
       <c r="I96" s="3">
-        <v>-246800</v>
+        <v>-236500</v>
       </c>
       <c r="J96" s="3">
-        <v>-246800</v>
+        <v>-236500</v>
       </c>
       <c r="K96" s="3">
         <v>-276400</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-346300</v>
+        <v>-331800</v>
       </c>
       <c r="E100" s="3">
-        <v>265300</v>
+        <v>254200</v>
       </c>
       <c r="F100" s="3">
-        <v>-886800</v>
+        <v>-849900</v>
       </c>
       <c r="G100" s="3">
-        <v>-501000</v>
+        <v>-480100</v>
       </c>
       <c r="H100" s="3">
-        <v>-733600</v>
+        <v>-703000</v>
       </c>
       <c r="I100" s="3">
-        <v>-514300</v>
+        <v>-492900</v>
       </c>
       <c r="J100" s="3">
-        <v>-512500</v>
+        <v>-491100</v>
       </c>
       <c r="K100" s="3">
         <v>-206700</v>
@@ -3959,25 +3959,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>57400</v>
+        <v>55000</v>
       </c>
       <c r="E101" s="3">
-        <v>-32500</v>
+        <v>-31200</v>
       </c>
       <c r="F101" s="3">
-        <v>8300</v>
+        <v>7900</v>
       </c>
       <c r="G101" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="H101" s="3">
-        <v>-13600</v>
+        <v>-13000</v>
       </c>
       <c r="I101" s="3">
-        <v>21900</v>
+        <v>21000</v>
       </c>
       <c r="J101" s="3">
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="K101" s="3">
         <v>31700</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-81900</v>
+        <v>-78500</v>
       </c>
       <c r="E102" s="3">
-        <v>751100</v>
+        <v>719800</v>
       </c>
       <c r="F102" s="3">
-        <v>-390300</v>
+        <v>-374100</v>
       </c>
       <c r="G102" s="3">
-        <v>323100</v>
+        <v>309600</v>
       </c>
       <c r="H102" s="3">
-        <v>-278700</v>
+        <v>-267000</v>
       </c>
       <c r="I102" s="3">
-        <v>268200</v>
+        <v>257000</v>
       </c>
       <c r="J102" s="3">
-        <v>127900</v>
+        <v>122600</v>
       </c>
       <c r="K102" s="3">
         <v>60800</v>

--- a/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
@@ -723,25 +723,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7720400</v>
+        <v>7728600</v>
       </c>
       <c r="E8" s="3">
-        <v>7070500</v>
+        <v>7078000</v>
       </c>
       <c r="F8" s="3">
-        <v>8124800</v>
+        <v>8133400</v>
       </c>
       <c r="G8" s="3">
-        <v>8096400</v>
+        <v>8105000</v>
       </c>
       <c r="H8" s="3">
-        <v>7362000</v>
+        <v>7369800</v>
       </c>
       <c r="I8" s="3">
-        <v>6856800</v>
+        <v>6864000</v>
       </c>
       <c r="J8" s="3">
-        <v>7178700</v>
+        <v>7186300</v>
       </c>
       <c r="K8" s="3">
         <v>7834200</v>
@@ -762,25 +762,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5518700</v>
+        <v>5524600</v>
       </c>
       <c r="E9" s="3">
-        <v>5226300</v>
+        <v>5231800</v>
       </c>
       <c r="F9" s="3">
-        <v>6139000</v>
+        <v>6145500</v>
       </c>
       <c r="G9" s="3">
-        <v>6120200</v>
+        <v>6126600</v>
       </c>
       <c r="H9" s="3">
-        <v>5523700</v>
+        <v>5529600</v>
       </c>
       <c r="I9" s="3">
-        <v>5177600</v>
+        <v>5183100</v>
       </c>
       <c r="J9" s="3">
-        <v>5409300</v>
+        <v>5415000</v>
       </c>
       <c r="K9" s="3">
         <v>5856300</v>
@@ -801,25 +801,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2201700</v>
+        <v>2204000</v>
       </c>
       <c r="E10" s="3">
-        <v>1844200</v>
+        <v>1846200</v>
       </c>
       <c r="F10" s="3">
-        <v>1985700</v>
+        <v>1987800</v>
       </c>
       <c r="G10" s="3">
-        <v>1976300</v>
+        <v>1978400</v>
       </c>
       <c r="H10" s="3">
-        <v>1838300</v>
+        <v>1840200</v>
       </c>
       <c r="I10" s="3">
-        <v>1679100</v>
+        <v>1680900</v>
       </c>
       <c r="J10" s="3">
-        <v>1769400</v>
+        <v>1771300</v>
       </c>
       <c r="K10" s="3">
         <v>1977900</v>
@@ -857,10 +857,10 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>259900</v>
+        <v>260100</v>
       </c>
       <c r="E12" s="3">
-        <v>237600</v>
+        <v>237800</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>8</v>
@@ -944,7 +944,7 @@
         <v>16200</v>
       </c>
       <c r="G14" s="3">
-        <v>-99900</v>
+        <v>-100000</v>
       </c>
       <c r="H14" s="3">
         <v>3700</v>
@@ -977,10 +977,10 @@
         <v>80900</v>
       </c>
       <c r="E15" s="3">
-        <v>91300</v>
+        <v>91400</v>
       </c>
       <c r="F15" s="3">
-        <v>89200</v>
+        <v>89300</v>
       </c>
       <c r="G15" s="3">
         <v>43200</v>
@@ -992,7 +992,7 @@
         <v>46200</v>
       </c>
       <c r="J15" s="3">
-        <v>51100</v>
+        <v>51200</v>
       </c>
       <c r="K15" s="3">
         <v>54400</v>
@@ -1027,25 +1027,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6704200</v>
+        <v>6711300</v>
       </c>
       <c r="E17" s="3">
-        <v>6402800</v>
+        <v>6409600</v>
       </c>
       <c r="F17" s="3">
-        <v>7237300</v>
+        <v>7245000</v>
       </c>
       <c r="G17" s="3">
-        <v>7052800</v>
+        <v>7060200</v>
       </c>
       <c r="H17" s="3">
-        <v>6550400</v>
+        <v>6557400</v>
       </c>
       <c r="I17" s="3">
-        <v>6145800</v>
+        <v>6152300</v>
       </c>
       <c r="J17" s="3">
-        <v>6520500</v>
+        <v>6527400</v>
       </c>
       <c r="K17" s="3">
         <v>6973100</v>
@@ -1066,25 +1066,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1016200</v>
+        <v>1017300</v>
       </c>
       <c r="E18" s="3">
-        <v>667700</v>
+        <v>668400</v>
       </c>
       <c r="F18" s="3">
-        <v>887500</v>
+        <v>888400</v>
       </c>
       <c r="G18" s="3">
-        <v>1043700</v>
+        <v>1044800</v>
       </c>
       <c r="H18" s="3">
-        <v>811600</v>
+        <v>812500</v>
       </c>
       <c r="I18" s="3">
-        <v>711000</v>
+        <v>711800</v>
       </c>
       <c r="J18" s="3">
-        <v>658200</v>
+        <v>658900</v>
       </c>
       <c r="K18" s="3">
         <v>861100</v>
@@ -1125,19 +1125,19 @@
         <v>-36600</v>
       </c>
       <c r="E20" s="3">
-        <v>-45300</v>
+        <v>-45400</v>
       </c>
       <c r="F20" s="3">
         <v>-16800</v>
       </c>
       <c r="G20" s="3">
-        <v>-24700</v>
+        <v>-24800</v>
       </c>
       <c r="H20" s="3">
         <v>-24300</v>
       </c>
       <c r="I20" s="3">
-        <v>-33200</v>
+        <v>-33300</v>
       </c>
       <c r="J20" s="3">
         <v>-46700</v>
@@ -1161,25 +1161,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1288100</v>
+        <v>1281400</v>
       </c>
       <c r="E21" s="3">
-        <v>940100</v>
+        <v>932800</v>
       </c>
       <c r="F21" s="3">
-        <v>1185300</v>
+        <v>1178400</v>
       </c>
       <c r="G21" s="3">
-        <v>1238400</v>
+        <v>1234000</v>
       </c>
       <c r="H21" s="3">
-        <v>1000400</v>
+        <v>995900</v>
       </c>
       <c r="I21" s="3">
-        <v>894700</v>
+        <v>890000</v>
       </c>
       <c r="J21" s="3">
-        <v>839600</v>
+        <v>834500</v>
       </c>
       <c r="K21" s="3">
         <v>1028900</v>
@@ -1212,7 +1212,7 @@
         <v>56600</v>
       </c>
       <c r="H22" s="3">
-        <v>63900</v>
+        <v>64000</v>
       </c>
       <c r="I22" s="3">
         <v>41200</v>
@@ -1239,25 +1239,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>950600</v>
+        <v>951600</v>
       </c>
       <c r="E23" s="3">
-        <v>595100</v>
+        <v>595700</v>
       </c>
       <c r="F23" s="3">
-        <v>800000</v>
+        <v>800800</v>
       </c>
       <c r="G23" s="3">
-        <v>962400</v>
+        <v>963400</v>
       </c>
       <c r="H23" s="3">
-        <v>723400</v>
+        <v>724100</v>
       </c>
       <c r="I23" s="3">
-        <v>636600</v>
+        <v>637200</v>
       </c>
       <c r="J23" s="3">
-        <v>551100</v>
+        <v>551700</v>
       </c>
       <c r="K23" s="3">
         <v>736000</v>
@@ -1278,25 +1278,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>234600</v>
+        <v>234900</v>
       </c>
       <c r="E24" s="3">
-        <v>172500</v>
+        <v>172700</v>
       </c>
       <c r="F24" s="3">
-        <v>252900</v>
+        <v>253100</v>
       </c>
       <c r="G24" s="3">
-        <v>245900</v>
+        <v>246100</v>
       </c>
       <c r="H24" s="3">
-        <v>252100</v>
+        <v>252400</v>
       </c>
       <c r="I24" s="3">
-        <v>239000</v>
+        <v>239200</v>
       </c>
       <c r="J24" s="3">
-        <v>166200</v>
+        <v>166400</v>
       </c>
       <c r="K24" s="3">
         <v>211700</v>
@@ -1356,25 +1356,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>715900</v>
+        <v>716700</v>
       </c>
       <c r="E26" s="3">
-        <v>422600</v>
+        <v>423100</v>
       </c>
       <c r="F26" s="3">
-        <v>547100</v>
+        <v>547700</v>
       </c>
       <c r="G26" s="3">
-        <v>716500</v>
+        <v>717200</v>
       </c>
       <c r="H26" s="3">
-        <v>471300</v>
+        <v>471800</v>
       </c>
       <c r="I26" s="3">
-        <v>397600</v>
+        <v>398000</v>
       </c>
       <c r="J26" s="3">
-        <v>384800</v>
+        <v>385200</v>
       </c>
       <c r="K26" s="3">
         <v>524300</v>
@@ -1395,25 +1395,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>692500</v>
+        <v>693200</v>
       </c>
       <c r="E27" s="3">
-        <v>406000</v>
+        <v>406400</v>
       </c>
       <c r="F27" s="3">
-        <v>524900</v>
+        <v>525500</v>
       </c>
       <c r="G27" s="3">
-        <v>688100</v>
+        <v>688900</v>
       </c>
       <c r="H27" s="3">
-        <v>444300</v>
+        <v>444800</v>
       </c>
       <c r="I27" s="3">
-        <v>376400</v>
+        <v>376800</v>
       </c>
       <c r="J27" s="3">
-        <v>366500</v>
+        <v>366900</v>
       </c>
       <c r="K27" s="3">
         <v>507700</v>
@@ -1485,7 +1485,7 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
-        <v>72800</v>
+        <v>72900</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>8</v>
@@ -1593,19 +1593,19 @@
         <v>36600</v>
       </c>
       <c r="E32" s="3">
-        <v>45300</v>
+        <v>45400</v>
       </c>
       <c r="F32" s="3">
         <v>16800</v>
       </c>
       <c r="G32" s="3">
-        <v>24700</v>
+        <v>24800</v>
       </c>
       <c r="H32" s="3">
         <v>24300</v>
       </c>
       <c r="I32" s="3">
-        <v>33200</v>
+        <v>33300</v>
       </c>
       <c r="J32" s="3">
         <v>46700</v>
@@ -1629,25 +1629,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>692500</v>
+        <v>693200</v>
       </c>
       <c r="E33" s="3">
-        <v>406000</v>
+        <v>406400</v>
       </c>
       <c r="F33" s="3">
-        <v>524900</v>
+        <v>525500</v>
       </c>
       <c r="G33" s="3">
-        <v>688100</v>
+        <v>688900</v>
       </c>
       <c r="H33" s="3">
-        <v>517200</v>
+        <v>517700</v>
       </c>
       <c r="I33" s="3">
-        <v>376400</v>
+        <v>376800</v>
       </c>
       <c r="J33" s="3">
-        <v>366500</v>
+        <v>366900</v>
       </c>
       <c r="K33" s="3">
         <v>507700</v>
@@ -1707,25 +1707,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>692500</v>
+        <v>693200</v>
       </c>
       <c r="E35" s="3">
-        <v>406000</v>
+        <v>406400</v>
       </c>
       <c r="F35" s="3">
-        <v>524900</v>
+        <v>525500</v>
       </c>
       <c r="G35" s="3">
-        <v>688100</v>
+        <v>688900</v>
       </c>
       <c r="H35" s="3">
-        <v>517200</v>
+        <v>517700</v>
       </c>
       <c r="I35" s="3">
-        <v>376400</v>
+        <v>376800</v>
       </c>
       <c r="J35" s="3">
-        <v>366500</v>
+        <v>366900</v>
       </c>
       <c r="K35" s="3">
         <v>507700</v>
@@ -1824,25 +1824,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1248700</v>
+        <v>1250000</v>
       </c>
       <c r="E41" s="3">
-        <v>1327200</v>
+        <v>1328600</v>
       </c>
       <c r="F41" s="3">
-        <v>607400</v>
+        <v>608000</v>
       </c>
       <c r="G41" s="3">
-        <v>981400</v>
+        <v>982500</v>
       </c>
       <c r="H41" s="3">
-        <v>671800</v>
+        <v>672500</v>
       </c>
       <c r="I41" s="3">
-        <v>938800</v>
+        <v>939800</v>
       </c>
       <c r="J41" s="3">
-        <v>681800</v>
+        <v>682500</v>
       </c>
       <c r="K41" s="3">
         <v>653400</v>
@@ -1863,7 +1863,7 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9400</v>
+        <v>9500</v>
       </c>
       <c r="E42" s="3">
         <v>13400</v>
@@ -1872,7 +1872,7 @@
         <v>34000</v>
       </c>
       <c r="G42" s="3">
-        <v>112700</v>
+        <v>112800</v>
       </c>
       <c r="H42" s="3">
         <v>18900</v>
@@ -1881,7 +1881,7 @@
         <v>15900</v>
       </c>
       <c r="J42" s="3">
-        <v>6000</v>
+        <v>6100</v>
       </c>
       <c r="K42" s="3">
         <v>828600</v>
@@ -1902,25 +1902,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1779200</v>
+        <v>1781100</v>
       </c>
       <c r="E43" s="3">
-        <v>1554700</v>
+        <v>1556400</v>
       </c>
       <c r="F43" s="3">
-        <v>2120100</v>
+        <v>2122300</v>
       </c>
       <c r="G43" s="3">
-        <v>1630400</v>
+        <v>1632100</v>
       </c>
       <c r="H43" s="3">
-        <v>1674300</v>
+        <v>1676100</v>
       </c>
       <c r="I43" s="3">
-        <v>1598500</v>
+        <v>1600200</v>
       </c>
       <c r="J43" s="3">
-        <v>1458000</v>
+        <v>1459500</v>
       </c>
       <c r="K43" s="3">
         <v>3182600</v>
@@ -1941,25 +1941,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1983400</v>
+        <v>1985500</v>
       </c>
       <c r="E44" s="3">
-        <v>1486100</v>
+        <v>1487700</v>
       </c>
       <c r="F44" s="3">
-        <v>1705100</v>
+        <v>1706900</v>
       </c>
       <c r="G44" s="3">
-        <v>1683800</v>
+        <v>1685600</v>
       </c>
       <c r="H44" s="3">
-        <v>1617300</v>
+        <v>1619100</v>
       </c>
       <c r="I44" s="3">
-        <v>1456400</v>
+        <v>1457900</v>
       </c>
       <c r="J44" s="3">
-        <v>1371500</v>
+        <v>1372900</v>
       </c>
       <c r="K44" s="3">
         <v>3326000</v>
@@ -1986,19 +1986,19 @@
         <v>48600</v>
       </c>
       <c r="F45" s="3">
-        <v>52800</v>
+        <v>52900</v>
       </c>
       <c r="G45" s="3">
         <v>53600</v>
       </c>
       <c r="H45" s="3">
-        <v>62500</v>
+        <v>62600</v>
       </c>
       <c r="I45" s="3">
-        <v>61500</v>
+        <v>61600</v>
       </c>
       <c r="J45" s="3">
-        <v>86600</v>
+        <v>86700</v>
       </c>
       <c r="K45" s="3">
         <v>795200</v>
@@ -2019,25 +2019,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5080900</v>
+        <v>5086300</v>
       </c>
       <c r="E46" s="3">
-        <v>4430000</v>
+        <v>4434700</v>
       </c>
       <c r="F46" s="3">
-        <v>4519300</v>
+        <v>4524100</v>
       </c>
       <c r="G46" s="3">
-        <v>4461900</v>
+        <v>4466600</v>
       </c>
       <c r="H46" s="3">
-        <v>4044900</v>
+        <v>4049200</v>
       </c>
       <c r="I46" s="3">
-        <v>4071100</v>
+        <v>4075400</v>
       </c>
       <c r="J46" s="3">
-        <v>3603900</v>
+        <v>3607700</v>
       </c>
       <c r="K46" s="3">
         <v>4283500</v>
@@ -2058,25 +2058,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>114600</v>
+        <v>114700</v>
       </c>
       <c r="E47" s="3">
-        <v>95500</v>
+        <v>95600</v>
       </c>
       <c r="F47" s="3">
-        <v>121000</v>
+        <v>121100</v>
       </c>
       <c r="G47" s="3">
-        <v>109100</v>
+        <v>109200</v>
       </c>
       <c r="H47" s="3">
-        <v>112100</v>
+        <v>112200</v>
       </c>
       <c r="I47" s="3">
-        <v>122400</v>
+        <v>122500</v>
       </c>
       <c r="J47" s="3">
-        <v>135400</v>
+        <v>135500</v>
       </c>
       <c r="K47" s="3">
         <v>331300</v>
@@ -2097,25 +2097,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2208900</v>
+        <v>2211200</v>
       </c>
       <c r="E48" s="3">
-        <v>1953200</v>
+        <v>1955300</v>
       </c>
       <c r="F48" s="3">
-        <v>2022500</v>
+        <v>2024600</v>
       </c>
       <c r="G48" s="3">
-        <v>1576300</v>
+        <v>1578000</v>
       </c>
       <c r="H48" s="3">
+        <v>1490500</v>
+      </c>
+      <c r="I48" s="3">
         <v>1488900</v>
       </c>
-      <c r="I48" s="3">
-        <v>1487400</v>
-      </c>
       <c r="J48" s="3">
-        <v>1445500</v>
+        <v>1447100</v>
       </c>
       <c r="K48" s="3">
         <v>3417800</v>
@@ -2136,25 +2136,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1600300</v>
+        <v>1602000</v>
       </c>
       <c r="E49" s="3">
-        <v>1534200</v>
+        <v>1535800</v>
       </c>
       <c r="F49" s="3">
-        <v>1737800</v>
+        <v>1739600</v>
       </c>
       <c r="G49" s="3">
-        <v>1674000</v>
+        <v>1675800</v>
       </c>
       <c r="H49" s="3">
-        <v>1639800</v>
+        <v>1641600</v>
       </c>
       <c r="I49" s="3">
-        <v>1848400</v>
+        <v>1850400</v>
       </c>
       <c r="J49" s="3">
-        <v>2029500</v>
+        <v>2031600</v>
       </c>
       <c r="K49" s="3">
         <v>4887200</v>
@@ -2253,25 +2253,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>406200</v>
+        <v>406600</v>
       </c>
       <c r="E52" s="3">
-        <v>541100</v>
+        <v>541600</v>
       </c>
       <c r="F52" s="3">
-        <v>488800</v>
+        <v>489300</v>
       </c>
       <c r="G52" s="3">
-        <v>413000</v>
+        <v>413400</v>
       </c>
       <c r="H52" s="3">
-        <v>384700</v>
+        <v>385100</v>
       </c>
       <c r="I52" s="3">
-        <v>396500</v>
+        <v>397000</v>
       </c>
       <c r="J52" s="3">
-        <v>317300</v>
+        <v>317600</v>
       </c>
       <c r="K52" s="3">
         <v>439400</v>
@@ -2331,25 +2331,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9410900</v>
+        <v>9420800</v>
       </c>
       <c r="E54" s="3">
-        <v>8554000</v>
+        <v>8563100</v>
       </c>
       <c r="F54" s="3">
-        <v>8889400</v>
+        <v>8898900</v>
       </c>
       <c r="G54" s="3">
-        <v>8234400</v>
+        <v>8243100</v>
       </c>
       <c r="H54" s="3">
-        <v>7670400</v>
+        <v>7678600</v>
       </c>
       <c r="I54" s="3">
-        <v>7925900</v>
+        <v>7934200</v>
       </c>
       <c r="J54" s="3">
-        <v>7531600</v>
+        <v>7539600</v>
       </c>
       <c r="K54" s="3">
         <v>9011300</v>
@@ -2404,25 +2404,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>933400</v>
+        <v>934300</v>
       </c>
       <c r="E57" s="3">
-        <v>799000</v>
+        <v>799900</v>
       </c>
       <c r="F57" s="3">
-        <v>780800</v>
+        <v>781600</v>
       </c>
       <c r="G57" s="3">
-        <v>739700</v>
+        <v>740500</v>
       </c>
       <c r="H57" s="3">
-        <v>746100</v>
+        <v>746900</v>
       </c>
       <c r="I57" s="3">
-        <v>670700</v>
+        <v>671400</v>
       </c>
       <c r="J57" s="3">
-        <v>535700</v>
+        <v>536200</v>
       </c>
       <c r="K57" s="3">
         <v>655400</v>
@@ -2443,25 +2443,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>354900</v>
+        <v>355300</v>
       </c>
       <c r="E58" s="3">
-        <v>258300</v>
+        <v>258600</v>
       </c>
       <c r="F58" s="3">
-        <v>289200</v>
+        <v>289500</v>
       </c>
       <c r="G58" s="3">
-        <v>205500</v>
+        <v>205700</v>
       </c>
       <c r="H58" s="3">
-        <v>229800</v>
+        <v>230100</v>
       </c>
       <c r="I58" s="3">
-        <v>116500</v>
+        <v>116600</v>
       </c>
       <c r="J58" s="3">
-        <v>136200</v>
+        <v>136400</v>
       </c>
       <c r="K58" s="3">
         <v>223900</v>
@@ -2482,25 +2482,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1028400</v>
+        <v>1029500</v>
       </c>
       <c r="E59" s="3">
-        <v>987100</v>
+        <v>988200</v>
       </c>
       <c r="F59" s="3">
-        <v>1115800</v>
+        <v>1116900</v>
       </c>
       <c r="G59" s="3">
-        <v>1027800</v>
+        <v>1028900</v>
       </c>
       <c r="H59" s="3">
-        <v>962300</v>
+        <v>963300</v>
       </c>
       <c r="I59" s="3">
-        <v>854400</v>
+        <v>855300</v>
       </c>
       <c r="J59" s="3">
-        <v>776300</v>
+        <v>777100</v>
       </c>
       <c r="K59" s="3">
         <v>1838800</v>
@@ -2521,25 +2521,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2316600</v>
+        <v>2319100</v>
       </c>
       <c r="E60" s="3">
-        <v>2044500</v>
+        <v>2046700</v>
       </c>
       <c r="F60" s="3">
-        <v>2185800</v>
+        <v>2188100</v>
       </c>
       <c r="G60" s="3">
-        <v>1973000</v>
+        <v>1975100</v>
       </c>
       <c r="H60" s="3">
-        <v>1938200</v>
+        <v>1940300</v>
       </c>
       <c r="I60" s="3">
-        <v>1641500</v>
+        <v>1643300</v>
       </c>
       <c r="J60" s="3">
-        <v>1448200</v>
+        <v>1449700</v>
       </c>
       <c r="K60" s="3">
         <v>1777300</v>
@@ -2560,25 +2560,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1459800</v>
+        <v>1461300</v>
       </c>
       <c r="E61" s="3">
-        <v>1425300</v>
+        <v>1426800</v>
       </c>
       <c r="F61" s="3">
-        <v>1409300</v>
+        <v>1410800</v>
       </c>
       <c r="G61" s="3">
-        <v>1320000</v>
+        <v>1321400</v>
       </c>
       <c r="H61" s="3">
-        <v>1421200</v>
+        <v>1422700</v>
       </c>
       <c r="I61" s="3">
-        <v>1810300</v>
+        <v>1812200</v>
       </c>
       <c r="J61" s="3">
-        <v>2114300</v>
+        <v>2116500</v>
       </c>
       <c r="K61" s="3">
         <v>2657600</v>
@@ -2599,25 +2599,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1349300</v>
+        <v>1350700</v>
       </c>
       <c r="E62" s="3">
-        <v>1710900</v>
+        <v>1712700</v>
       </c>
       <c r="F62" s="3">
-        <v>1764700</v>
+        <v>1766600</v>
       </c>
       <c r="G62" s="3">
-        <v>1592600</v>
+        <v>1594300</v>
       </c>
       <c r="H62" s="3">
-        <v>1493900</v>
+        <v>1495500</v>
       </c>
       <c r="I62" s="3">
-        <v>1859100</v>
+        <v>1861000</v>
       </c>
       <c r="J62" s="3">
-        <v>1486500</v>
+        <v>1488100</v>
       </c>
       <c r="K62" s="3">
         <v>1882600</v>
@@ -2755,25 +2755,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5288200</v>
+        <v>5293800</v>
       </c>
       <c r="E66" s="3">
-        <v>5313200</v>
+        <v>5318800</v>
       </c>
       <c r="F66" s="3">
-        <v>5535000</v>
+        <v>5540800</v>
       </c>
       <c r="G66" s="3">
-        <v>5066600</v>
+        <v>5071900</v>
       </c>
       <c r="H66" s="3">
-        <v>5022200</v>
+        <v>5027500</v>
       </c>
       <c r="I66" s="3">
-        <v>5466700</v>
+        <v>5472500</v>
       </c>
       <c r="J66" s="3">
-        <v>5187600</v>
+        <v>5193000</v>
       </c>
       <c r="K66" s="3">
         <v>6462700</v>
@@ -2967,25 +2967,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3814900</v>
+        <v>3818900</v>
       </c>
       <c r="E72" s="3">
-        <v>3191300</v>
+        <v>3194700</v>
       </c>
       <c r="F72" s="3">
-        <v>2970100</v>
+        <v>2973300</v>
       </c>
       <c r="G72" s="3">
-        <v>2864500</v>
+        <v>2867500</v>
       </c>
       <c r="H72" s="3">
-        <v>2448000</v>
+        <v>2450600</v>
       </c>
       <c r="I72" s="3">
-        <v>2176300</v>
+        <v>2178600</v>
       </c>
       <c r="J72" s="3">
-        <v>2160500</v>
+        <v>2162800</v>
       </c>
       <c r="K72" s="3">
         <v>2272200</v>
@@ -3123,25 +3123,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4122700</v>
+        <v>4127100</v>
       </c>
       <c r="E76" s="3">
-        <v>3240800</v>
+        <v>3244300</v>
       </c>
       <c r="F76" s="3">
-        <v>3354500</v>
+        <v>3358000</v>
       </c>
       <c r="G76" s="3">
-        <v>3167800</v>
+        <v>3171200</v>
       </c>
       <c r="H76" s="3">
-        <v>2648300</v>
+        <v>2651100</v>
       </c>
       <c r="I76" s="3">
-        <v>2459200</v>
+        <v>2461800</v>
       </c>
       <c r="J76" s="3">
-        <v>2344000</v>
+        <v>2346500</v>
       </c>
       <c r="K76" s="3">
         <v>2548600</v>
@@ -3245,25 +3245,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>692500</v>
+        <v>693200</v>
       </c>
       <c r="E81" s="3">
-        <v>406000</v>
+        <v>406400</v>
       </c>
       <c r="F81" s="3">
-        <v>524900</v>
+        <v>525500</v>
       </c>
       <c r="G81" s="3">
-        <v>688100</v>
+        <v>688900</v>
       </c>
       <c r="H81" s="3">
-        <v>517200</v>
+        <v>517700</v>
       </c>
       <c r="I81" s="3">
-        <v>376400</v>
+        <v>376800</v>
       </c>
       <c r="J81" s="3">
-        <v>366500</v>
+        <v>366900</v>
       </c>
       <c r="K81" s="3">
         <v>507700</v>
@@ -3301,25 +3301,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>309100</v>
+        <v>309400</v>
       </c>
       <c r="E83" s="3">
-        <v>318300</v>
+        <v>318700</v>
       </c>
       <c r="F83" s="3">
-        <v>315300</v>
+        <v>315600</v>
       </c>
       <c r="G83" s="3">
-        <v>219900</v>
+        <v>220100</v>
       </c>
       <c r="H83" s="3">
-        <v>213500</v>
+        <v>213700</v>
       </c>
       <c r="I83" s="3">
-        <v>217400</v>
+        <v>217600</v>
       </c>
       <c r="J83" s="3">
-        <v>228500</v>
+        <v>228700</v>
       </c>
       <c r="K83" s="3">
         <v>245000</v>
@@ -3535,25 +3535,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>495700</v>
+        <v>496300</v>
       </c>
       <c r="E89" s="3">
-        <v>780700</v>
+        <v>781500</v>
       </c>
       <c r="F89" s="3">
-        <v>888900</v>
+        <v>889800</v>
       </c>
       <c r="G89" s="3">
-        <v>788300</v>
+        <v>789100</v>
       </c>
       <c r="H89" s="3">
-        <v>607300</v>
+        <v>607900</v>
       </c>
       <c r="I89" s="3">
-        <v>675400</v>
+        <v>676100</v>
       </c>
       <c r="J89" s="3">
-        <v>730300</v>
+        <v>731000</v>
       </c>
       <c r="K89" s="3">
         <v>529500</v>
@@ -3591,25 +3591,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-361000</v>
+        <v>-361400</v>
       </c>
       <c r="E91" s="3">
-        <v>-314700</v>
+        <v>-315100</v>
       </c>
       <c r="F91" s="3">
-        <v>-326900</v>
+        <v>-327300</v>
       </c>
       <c r="G91" s="3">
-        <v>-250000</v>
+        <v>-250300</v>
       </c>
       <c r="H91" s="3">
-        <v>-211900</v>
+        <v>-212100</v>
       </c>
       <c r="I91" s="3">
-        <v>-176500</v>
+        <v>-176700</v>
       </c>
       <c r="J91" s="3">
-        <v>-194900</v>
+        <v>-195100</v>
       </c>
       <c r="K91" s="3">
         <v>-204400</v>
@@ -3708,25 +3708,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-297400</v>
+        <v>-297700</v>
       </c>
       <c r="E94" s="3">
-        <v>-283900</v>
+        <v>-284200</v>
       </c>
       <c r="F94" s="3">
-        <v>-421000</v>
+        <v>-421500</v>
       </c>
       <c r="G94" s="3">
         <v>-1800</v>
       </c>
       <c r="H94" s="3">
-        <v>-158300</v>
+        <v>-158500</v>
       </c>
       <c r="I94" s="3">
         <v>53600</v>
       </c>
       <c r="J94" s="3">
-        <v>-124200</v>
+        <v>-124300</v>
       </c>
       <c r="K94" s="3">
         <v>-293600</v>
@@ -3764,25 +3764,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-279600</v>
+        <v>-279900</v>
       </c>
       <c r="E96" s="3">
-        <v>-129000</v>
+        <v>-129200</v>
       </c>
       <c r="F96" s="3">
-        <v>-258000</v>
+        <v>-258200</v>
       </c>
       <c r="G96" s="3">
-        <v>-247600</v>
+        <v>-247800</v>
       </c>
       <c r="H96" s="3">
-        <v>-236500</v>
+        <v>-236800</v>
       </c>
       <c r="I96" s="3">
-        <v>-236500</v>
+        <v>-236800</v>
       </c>
       <c r="J96" s="3">
-        <v>-236500</v>
+        <v>-236800</v>
       </c>
       <c r="K96" s="3">
         <v>-276400</v>
@@ -3920,25 +3920,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-331800</v>
+        <v>-332200</v>
       </c>
       <c r="E100" s="3">
-        <v>254200</v>
+        <v>254500</v>
       </c>
       <c r="F100" s="3">
-        <v>-849900</v>
+        <v>-850800</v>
       </c>
       <c r="G100" s="3">
-        <v>-480100</v>
+        <v>-480600</v>
       </c>
       <c r="H100" s="3">
-        <v>-703000</v>
+        <v>-703700</v>
       </c>
       <c r="I100" s="3">
-        <v>-492900</v>
+        <v>-493400</v>
       </c>
       <c r="J100" s="3">
-        <v>-491100</v>
+        <v>-491600</v>
       </c>
       <c r="K100" s="3">
         <v>-206700</v>
@@ -3998,25 +3998,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-78500</v>
+        <v>-78600</v>
       </c>
       <c r="E102" s="3">
-        <v>719800</v>
+        <v>720500</v>
       </c>
       <c r="F102" s="3">
-        <v>-374100</v>
+        <v>-374500</v>
       </c>
       <c r="G102" s="3">
-        <v>309600</v>
+        <v>310000</v>
       </c>
       <c r="H102" s="3">
-        <v>-267000</v>
+        <v>-267300</v>
       </c>
       <c r="I102" s="3">
-        <v>257000</v>
+        <v>257300</v>
       </c>
       <c r="J102" s="3">
-        <v>122600</v>
+        <v>122700</v>
       </c>
       <c r="K102" s="3">
         <v>60800</v>

--- a/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
   <si>
     <t>SKFRY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,177 +665,189 @@
     <col min="1" max="1" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42735</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42369</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>42004</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41639</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>41274</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>40908</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>7728600</v>
+        <v>9033200</v>
       </c>
       <c r="E8" s="3">
-        <v>7078000</v>
+        <v>7616600</v>
       </c>
       <c r="F8" s="3">
-        <v>8133400</v>
+        <v>6975500</v>
       </c>
       <c r="G8" s="3">
-        <v>8105000</v>
+        <v>8015600</v>
       </c>
       <c r="H8" s="3">
-        <v>7369800</v>
+        <v>7987600</v>
       </c>
       <c r="I8" s="3">
-        <v>6864000</v>
+        <v>7263000</v>
       </c>
       <c r="J8" s="3">
+        <v>6764600</v>
+      </c>
+      <c r="K8" s="3">
         <v>7186300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>7834200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>7489200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>6711300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>7516800</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>5524600</v>
+        <v>6741200</v>
       </c>
       <c r="E9" s="3">
-        <v>5231800</v>
+        <v>5444500</v>
       </c>
       <c r="F9" s="3">
-        <v>6145500</v>
+        <v>5156000</v>
       </c>
       <c r="G9" s="3">
-        <v>6126600</v>
+        <v>6056500</v>
       </c>
       <c r="H9" s="3">
-        <v>5529600</v>
+        <v>6037900</v>
       </c>
       <c r="I9" s="3">
-        <v>5183100</v>
+        <v>5449500</v>
       </c>
       <c r="J9" s="3">
+        <v>5108000</v>
+      </c>
+      <c r="K9" s="3">
         <v>5415000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>5856300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>5640000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10000500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>5403600</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2204000</v>
+        <v>2292000</v>
       </c>
       <c r="E10" s="3">
-        <v>1846200</v>
+        <v>2172100</v>
       </c>
       <c r="F10" s="3">
-        <v>1987800</v>
+        <v>1819400</v>
       </c>
       <c r="G10" s="3">
-        <v>1978400</v>
+        <v>1959000</v>
       </c>
       <c r="H10" s="3">
-        <v>1840200</v>
+        <v>1949700</v>
       </c>
       <c r="I10" s="3">
-        <v>1680900</v>
+        <v>1813600</v>
       </c>
       <c r="J10" s="3">
+        <v>1656500</v>
+      </c>
+      <c r="K10" s="3">
         <v>1771300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>1977900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>1849200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>-3289200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>2113300</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -851,19 +863,20 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>260100</v>
+        <v>296100</v>
       </c>
       <c r="E12" s="3">
-        <v>237800</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
+        <v>256400</v>
+      </c>
+      <c r="F12" s="3">
+        <v>234400</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -889,9 +902,12 @@
       <c r="N12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -928,87 +944,96 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-34400</v>
+        <v>74600</v>
       </c>
       <c r="E14" s="3">
+        <v>-33900</v>
+      </c>
+      <c r="F14" s="3">
         <v>1900</v>
       </c>
-      <c r="F14" s="3">
-        <v>16200</v>
-      </c>
       <c r="G14" s="3">
-        <v>-100000</v>
+        <v>15900</v>
       </c>
       <c r="H14" s="3">
-        <v>3700</v>
+        <v>-98600</v>
       </c>
       <c r="I14" s="3">
-        <v>4900</v>
+        <v>3600</v>
       </c>
       <c r="J14" s="3">
+        <v>4800</v>
+      </c>
+      <c r="K14" s="3">
         <v>25300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>19000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>12700</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>2400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>5000</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>80900</v>
+        <v>93100</v>
       </c>
       <c r="E15" s="3">
-        <v>91400</v>
+        <v>79800</v>
       </c>
       <c r="F15" s="3">
-        <v>89300</v>
+        <v>90100</v>
       </c>
       <c r="G15" s="3">
-        <v>43200</v>
+        <v>88000</v>
       </c>
       <c r="H15" s="3">
-        <v>44800</v>
+        <v>42600</v>
       </c>
       <c r="I15" s="3">
-        <v>46200</v>
+        <v>44200</v>
       </c>
       <c r="J15" s="3">
+        <v>45600</v>
+      </c>
+      <c r="K15" s="3">
         <v>51200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>54400</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>34500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>25600</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>28200</v>
       </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1021,86 +1046,93 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>6711300</v>
+        <v>8238100</v>
       </c>
       <c r="E17" s="3">
-        <v>6409600</v>
+        <v>6614100</v>
       </c>
       <c r="F17" s="3">
-        <v>7245000</v>
+        <v>6316700</v>
       </c>
       <c r="G17" s="3">
-        <v>7060200</v>
+        <v>7140000</v>
       </c>
       <c r="H17" s="3">
-        <v>6557400</v>
+        <v>6957900</v>
       </c>
       <c r="I17" s="3">
-        <v>6152300</v>
+        <v>6462400</v>
       </c>
       <c r="J17" s="3">
+        <v>6063100</v>
+      </c>
+      <c r="K17" s="3">
         <v>6527400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6973100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7054300</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>5951100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6425700</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1017300</v>
+        <v>795100</v>
       </c>
       <c r="E18" s="3">
-        <v>668400</v>
+        <v>1002500</v>
       </c>
       <c r="F18" s="3">
-        <v>888400</v>
+        <v>658800</v>
       </c>
       <c r="G18" s="3">
-        <v>1044800</v>
+        <v>875500</v>
       </c>
       <c r="H18" s="3">
-        <v>812500</v>
+        <v>1029700</v>
       </c>
       <c r="I18" s="3">
-        <v>711800</v>
+        <v>800700</v>
       </c>
       <c r="J18" s="3">
+        <v>701400</v>
+      </c>
+      <c r="K18" s="3">
         <v>658900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>861100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>434900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>760100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1091200</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1116,203 +1148,219 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-36600</v>
+        <v>-77600</v>
       </c>
       <c r="E20" s="3">
-        <v>-45400</v>
+        <v>-36100</v>
       </c>
       <c r="F20" s="3">
-        <v>-16800</v>
+        <v>-44700</v>
       </c>
       <c r="G20" s="3">
-        <v>-24800</v>
+        <v>-16600</v>
       </c>
       <c r="H20" s="3">
-        <v>-24300</v>
+        <v>-24400</v>
       </c>
       <c r="I20" s="3">
-        <v>-33300</v>
+        <v>-23900</v>
       </c>
       <c r="J20" s="3">
+        <v>-32800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-46700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-75200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-51000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-44000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-33900</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1281400</v>
+        <v>1058200</v>
       </c>
       <c r="E21" s="3">
-        <v>932800</v>
+        <v>1271500</v>
       </c>
       <c r="F21" s="3">
-        <v>1178400</v>
+        <v>928200</v>
       </c>
       <c r="G21" s="3">
-        <v>1234000</v>
+        <v>1170100</v>
       </c>
       <c r="H21" s="3">
-        <v>995900</v>
+        <v>1222300</v>
       </c>
       <c r="I21" s="3">
-        <v>890000</v>
+        <v>987400</v>
       </c>
       <c r="J21" s="3">
+        <v>883100</v>
+      </c>
+      <c r="K21" s="3">
         <v>834500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>1028900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>602500</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="N21" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>1260700</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>29100</v>
+        <v>37800</v>
       </c>
       <c r="E22" s="3">
-        <v>27300</v>
+        <v>28700</v>
       </c>
       <c r="F22" s="3">
-        <v>70700</v>
+        <v>26900</v>
       </c>
       <c r="G22" s="3">
-        <v>56600</v>
+        <v>69700</v>
       </c>
       <c r="H22" s="3">
-        <v>64000</v>
+        <v>55800</v>
       </c>
       <c r="I22" s="3">
-        <v>41200</v>
+        <v>63100</v>
       </c>
       <c r="J22" s="3">
+        <v>40600</v>
+      </c>
+      <c r="K22" s="3">
         <v>60500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>49900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>51700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>50200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>43300</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>951600</v>
+        <v>679600</v>
       </c>
       <c r="E23" s="3">
-        <v>595700</v>
+        <v>937800</v>
       </c>
       <c r="F23" s="3">
-        <v>800800</v>
+        <v>587100</v>
       </c>
       <c r="G23" s="3">
-        <v>963400</v>
+        <v>789200</v>
       </c>
       <c r="H23" s="3">
-        <v>724100</v>
+        <v>949400</v>
       </c>
       <c r="I23" s="3">
-        <v>637200</v>
+        <v>713600</v>
       </c>
       <c r="J23" s="3">
+        <v>628000</v>
+      </c>
+      <c r="K23" s="3">
         <v>551700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>736000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>332200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>666000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1014000</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>234900</v>
+        <v>227200</v>
       </c>
       <c r="E24" s="3">
-        <v>172700</v>
+        <v>231500</v>
       </c>
       <c r="F24" s="3">
-        <v>253100</v>
+        <v>170200</v>
       </c>
       <c r="G24" s="3">
-        <v>246100</v>
+        <v>249500</v>
       </c>
       <c r="H24" s="3">
-        <v>252400</v>
+        <v>242600</v>
       </c>
       <c r="I24" s="3">
-        <v>239200</v>
+        <v>248700</v>
       </c>
       <c r="J24" s="3">
+        <v>235800</v>
+      </c>
+      <c r="K24" s="3">
         <v>166400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>211700</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>209300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>165500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>307400</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1349,87 +1397,96 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>716700</v>
+        <v>452400</v>
       </c>
       <c r="E26" s="3">
-        <v>423100</v>
+        <v>706300</v>
       </c>
       <c r="F26" s="3">
-        <v>547700</v>
+        <v>416900</v>
       </c>
       <c r="G26" s="3">
-        <v>717200</v>
+        <v>539800</v>
       </c>
       <c r="H26" s="3">
-        <v>471800</v>
+        <v>706800</v>
       </c>
       <c r="I26" s="3">
-        <v>398000</v>
+        <v>464900</v>
       </c>
       <c r="J26" s="3">
+        <v>392200</v>
+      </c>
+      <c r="K26" s="3">
         <v>385200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>524300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>122900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>500500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>706500</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>693200</v>
+        <v>416500</v>
       </c>
       <c r="E27" s="3">
-        <v>406400</v>
+        <v>683200</v>
       </c>
       <c r="F27" s="3">
-        <v>525500</v>
+        <v>400500</v>
       </c>
       <c r="G27" s="3">
-        <v>688900</v>
+        <v>517900</v>
       </c>
       <c r="H27" s="3">
-        <v>444800</v>
+        <v>678900</v>
       </c>
       <c r="I27" s="3">
-        <v>376800</v>
+        <v>438400</v>
       </c>
       <c r="J27" s="3">
+        <v>371400</v>
+      </c>
+      <c r="K27" s="3">
         <v>366900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>507700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>107400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>484500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>686900</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1466,9 +1523,12 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1484,11 +1544,11 @@
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="3">
-        <v>72900</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="H29" s="3" t="s">
         <v>8</v>
+      </c>
+      <c r="I29" s="3">
+        <v>71800</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1505,9 +1565,12 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1544,9 +1607,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1583,87 +1649,96 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>36600</v>
+        <v>77600</v>
       </c>
       <c r="E32" s="3">
-        <v>45400</v>
+        <v>36100</v>
       </c>
       <c r="F32" s="3">
-        <v>16800</v>
+        <v>44700</v>
       </c>
       <c r="G32" s="3">
-        <v>24800</v>
+        <v>16600</v>
       </c>
       <c r="H32" s="3">
-        <v>24300</v>
+        <v>24400</v>
       </c>
       <c r="I32" s="3">
-        <v>33300</v>
+        <v>23900</v>
       </c>
       <c r="J32" s="3">
+        <v>32800</v>
+      </c>
+      <c r="K32" s="3">
         <v>46700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>75200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>51000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>44000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>33900</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>693200</v>
+        <v>416500</v>
       </c>
       <c r="E33" s="3">
-        <v>406400</v>
+        <v>683200</v>
       </c>
       <c r="F33" s="3">
-        <v>525500</v>
+        <v>400500</v>
       </c>
       <c r="G33" s="3">
-        <v>688900</v>
+        <v>517900</v>
       </c>
       <c r="H33" s="3">
-        <v>517700</v>
+        <v>678900</v>
       </c>
       <c r="I33" s="3">
-        <v>376800</v>
+        <v>510200</v>
       </c>
       <c r="J33" s="3">
+        <v>371400</v>
+      </c>
+      <c r="K33" s="3">
         <v>366900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>507700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>107400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>484500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>686900</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1700,92 +1775,101 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>693200</v>
+        <v>416500</v>
       </c>
       <c r="E35" s="3">
-        <v>406400</v>
+        <v>683200</v>
       </c>
       <c r="F35" s="3">
-        <v>525500</v>
+        <v>400500</v>
       </c>
       <c r="G35" s="3">
-        <v>688900</v>
+        <v>517900</v>
       </c>
       <c r="H35" s="3">
-        <v>517700</v>
+        <v>678900</v>
       </c>
       <c r="I35" s="3">
-        <v>376800</v>
+        <v>510200</v>
       </c>
       <c r="J35" s="3">
+        <v>371400</v>
+      </c>
+      <c r="K35" s="3">
         <v>366900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>507700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>107400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>484500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>686900</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42735</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42369</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>42004</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41639</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>41274</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>40908</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1801,8 +1885,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1818,359 +1903,387 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>1250000</v>
+        <v>955700</v>
       </c>
       <c r="E41" s="3">
-        <v>1328600</v>
+        <v>1231900</v>
       </c>
       <c r="F41" s="3">
-        <v>608000</v>
+        <v>1309300</v>
       </c>
       <c r="G41" s="3">
-        <v>982500</v>
+        <v>599200</v>
       </c>
       <c r="H41" s="3">
-        <v>672500</v>
+        <v>968200</v>
       </c>
       <c r="I41" s="3">
-        <v>939800</v>
+        <v>662800</v>
       </c>
       <c r="J41" s="3">
+        <v>926200</v>
+      </c>
+      <c r="K41" s="3">
         <v>682500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>653400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>632300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>856800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>547700</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>9500</v>
+        <v>35400</v>
       </c>
       <c r="E42" s="3">
-        <v>13400</v>
+        <v>9300</v>
       </c>
       <c r="F42" s="3">
-        <v>34000</v>
+        <v>13200</v>
       </c>
       <c r="G42" s="3">
-        <v>112800</v>
+        <v>33500</v>
       </c>
       <c r="H42" s="3">
-        <v>18900</v>
+        <v>111200</v>
       </c>
       <c r="I42" s="3">
-        <v>15900</v>
+        <v>18600</v>
       </c>
       <c r="J42" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K42" s="3">
         <v>6100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>828600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>98000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>84500</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>58100</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>1781100</v>
+        <v>2084700</v>
       </c>
       <c r="E43" s="3">
-        <v>1556400</v>
+        <v>1755300</v>
       </c>
       <c r="F43" s="3">
-        <v>2122300</v>
+        <v>1533800</v>
       </c>
       <c r="G43" s="3">
-        <v>1632100</v>
+        <v>2091600</v>
       </c>
       <c r="H43" s="3">
-        <v>1676100</v>
+        <v>1608500</v>
       </c>
       <c r="I43" s="3">
-        <v>1600200</v>
+        <v>1651800</v>
       </c>
       <c r="J43" s="3">
+        <v>1577100</v>
+      </c>
+      <c r="K43" s="3">
         <v>1459500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>3182600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>1464700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>1270600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>1464400</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>1985500</v>
+        <v>2427800</v>
       </c>
       <c r="E44" s="3">
-        <v>1487700</v>
+        <v>1956700</v>
       </c>
       <c r="F44" s="3">
-        <v>1706900</v>
+        <v>1466200</v>
       </c>
       <c r="G44" s="3">
-        <v>1685600</v>
+        <v>1682200</v>
       </c>
       <c r="H44" s="3">
-        <v>1619100</v>
+        <v>1661200</v>
       </c>
       <c r="I44" s="3">
-        <v>1457900</v>
+        <v>1595600</v>
       </c>
       <c r="J44" s="3">
+        <v>1436800</v>
+      </c>
+      <c r="K44" s="3">
         <v>1372900</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>3326000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>1613300</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>1336100</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>1611000</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>60200</v>
+        <v>68800</v>
       </c>
       <c r="E45" s="3">
-        <v>48600</v>
+        <v>59400</v>
       </c>
       <c r="F45" s="3">
-        <v>52900</v>
+        <v>47900</v>
       </c>
       <c r="G45" s="3">
-        <v>53600</v>
+        <v>52100</v>
       </c>
       <c r="H45" s="3">
-        <v>62600</v>
+        <v>52800</v>
       </c>
       <c r="I45" s="3">
-        <v>61600</v>
+        <v>61700</v>
       </c>
       <c r="J45" s="3">
+        <v>60700</v>
+      </c>
+      <c r="K45" s="3">
         <v>86700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>795200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>264100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>73700</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>104400</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5086300</v>
+        <v>5572300</v>
       </c>
       <c r="E46" s="3">
-        <v>4434700</v>
+        <v>5012600</v>
       </c>
       <c r="F46" s="3">
-        <v>4524100</v>
+        <v>4370400</v>
       </c>
       <c r="G46" s="3">
-        <v>4466600</v>
+        <v>4458600</v>
       </c>
       <c r="H46" s="3">
-        <v>4049200</v>
+        <v>4401900</v>
       </c>
       <c r="I46" s="3">
-        <v>4075400</v>
+        <v>3990500</v>
       </c>
       <c r="J46" s="3">
+        <v>4016400</v>
+      </c>
+      <c r="K46" s="3">
         <v>3607700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>4283500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>4072400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>3621800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3785700</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>114700</v>
+        <v>114100</v>
       </c>
       <c r="E47" s="3">
-        <v>95600</v>
+        <v>113000</v>
       </c>
       <c r="F47" s="3">
-        <v>121100</v>
+        <v>94200</v>
       </c>
       <c r="G47" s="3">
-        <v>109200</v>
+        <v>119400</v>
       </c>
       <c r="H47" s="3">
-        <v>112200</v>
+        <v>107600</v>
       </c>
       <c r="I47" s="3">
-        <v>122500</v>
+        <v>110600</v>
       </c>
       <c r="J47" s="3">
+        <v>120800</v>
+      </c>
+      <c r="K47" s="3">
         <v>135500</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>331300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>133900</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>112800</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>160300</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2211200</v>
+        <v>2607500</v>
       </c>
       <c r="E48" s="3">
-        <v>1955300</v>
+        <v>2179200</v>
       </c>
       <c r="F48" s="3">
-        <v>2024600</v>
+        <v>1927000</v>
       </c>
       <c r="G48" s="3">
-        <v>1578000</v>
+        <v>1995300</v>
       </c>
       <c r="H48" s="3">
-        <v>1490500</v>
+        <v>1555200</v>
       </c>
       <c r="I48" s="3">
-        <v>1488900</v>
+        <v>1468900</v>
       </c>
       <c r="J48" s="3">
+        <v>1467400</v>
+      </c>
+      <c r="K48" s="3">
         <v>1447100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3417800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1659800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>1360000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>1484400</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1602000</v>
+        <v>1695400</v>
       </c>
       <c r="E49" s="3">
-        <v>1535800</v>
+        <v>1578800</v>
       </c>
       <c r="F49" s="3">
-        <v>1739600</v>
+        <v>1513600</v>
       </c>
       <c r="G49" s="3">
-        <v>1675800</v>
+        <v>1714400</v>
       </c>
       <c r="H49" s="3">
-        <v>1641600</v>
+        <v>1651500</v>
       </c>
       <c r="I49" s="3">
-        <v>1850400</v>
+        <v>1617800</v>
       </c>
       <c r="J49" s="3">
+        <v>1823500</v>
+      </c>
+      <c r="K49" s="3">
         <v>2031600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>4887200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>2240100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>1018500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>1153000</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2207,9 +2320,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2246,48 +2362,54 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>406600</v>
+        <v>347600</v>
       </c>
       <c r="E52" s="3">
-        <v>541600</v>
+        <v>400700</v>
       </c>
       <c r="F52" s="3">
-        <v>489300</v>
+        <v>533800</v>
       </c>
       <c r="G52" s="3">
-        <v>413400</v>
+        <v>482300</v>
       </c>
       <c r="H52" s="3">
-        <v>385100</v>
+        <v>407400</v>
       </c>
       <c r="I52" s="3">
-        <v>397000</v>
+        <v>379600</v>
       </c>
       <c r="J52" s="3">
+        <v>391200</v>
+      </c>
+      <c r="K52" s="3">
         <v>317600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>439400</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>253700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>201400</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>156800</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2324,48 +2446,54 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>9420800</v>
+        <v>10336900</v>
       </c>
       <c r="E54" s="3">
-        <v>8563100</v>
+        <v>9284300</v>
       </c>
       <c r="F54" s="3">
-        <v>8898900</v>
+        <v>8439000</v>
       </c>
       <c r="G54" s="3">
-        <v>8243100</v>
+        <v>8769900</v>
       </c>
       <c r="H54" s="3">
-        <v>7678600</v>
+        <v>8123700</v>
       </c>
       <c r="I54" s="3">
-        <v>7934200</v>
+        <v>7567300</v>
       </c>
       <c r="J54" s="3">
+        <v>7819300</v>
+      </c>
+      <c r="K54" s="3">
         <v>7539600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9011300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8359900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6314500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6740100</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2381,8 +2509,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2398,242 +2527,261 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>934300</v>
+        <v>1080400</v>
       </c>
       <c r="E57" s="3">
-        <v>799900</v>
+        <v>920800</v>
       </c>
       <c r="F57" s="3">
-        <v>781600</v>
+        <v>788300</v>
       </c>
       <c r="G57" s="3">
-        <v>740500</v>
+        <v>770300</v>
       </c>
       <c r="H57" s="3">
-        <v>746900</v>
+        <v>729800</v>
       </c>
       <c r="I57" s="3">
-        <v>671400</v>
+        <v>736100</v>
       </c>
       <c r="J57" s="3">
+        <v>661600</v>
+      </c>
+      <c r="K57" s="3">
         <v>536200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>655400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>558200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>435400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>533300</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>355300</v>
+        <v>75000</v>
       </c>
       <c r="E58" s="3">
-        <v>258600</v>
+        <v>350100</v>
       </c>
       <c r="F58" s="3">
-        <v>289500</v>
+        <v>254900</v>
       </c>
       <c r="G58" s="3">
-        <v>205700</v>
+        <v>285300</v>
       </c>
       <c r="H58" s="3">
-        <v>230100</v>
+        <v>202700</v>
       </c>
       <c r="I58" s="3">
-        <v>116600</v>
+        <v>226700</v>
       </c>
       <c r="J58" s="3">
+        <v>114900</v>
+      </c>
+      <c r="K58" s="3">
         <v>136400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>223900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>193800</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>306100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>126300</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1029500</v>
+        <v>1122100</v>
       </c>
       <c r="E59" s="3">
-        <v>988200</v>
+        <v>1014600</v>
       </c>
       <c r="F59" s="3">
-        <v>1116900</v>
+        <v>973800</v>
       </c>
       <c r="G59" s="3">
-        <v>1028900</v>
+        <v>1100800</v>
       </c>
       <c r="H59" s="3">
-        <v>963300</v>
+        <v>1014000</v>
       </c>
       <c r="I59" s="3">
-        <v>855300</v>
+        <v>949300</v>
       </c>
       <c r="J59" s="3">
+        <v>842900</v>
+      </c>
+      <c r="K59" s="3">
         <v>777100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>1838800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1219400</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>703500</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>843900</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2319100</v>
+        <v>2277600</v>
       </c>
       <c r="E60" s="3">
-        <v>2046700</v>
+        <v>2285500</v>
       </c>
       <c r="F60" s="3">
-        <v>2188100</v>
+        <v>2017000</v>
       </c>
       <c r="G60" s="3">
-        <v>1975100</v>
+        <v>2156400</v>
       </c>
       <c r="H60" s="3">
-        <v>1940300</v>
+        <v>1946500</v>
       </c>
       <c r="I60" s="3">
-        <v>1643300</v>
+        <v>1912200</v>
       </c>
       <c r="J60" s="3">
+        <v>1619500</v>
+      </c>
+      <c r="K60" s="3">
         <v>1449700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1777300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1971400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1444900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1503600</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1461300</v>
+        <v>1906800</v>
       </c>
       <c r="E61" s="3">
-        <v>1426800</v>
+        <v>1440200</v>
       </c>
       <c r="F61" s="3">
-        <v>1410800</v>
+        <v>1406100</v>
       </c>
       <c r="G61" s="3">
-        <v>1321400</v>
+        <v>1390400</v>
       </c>
       <c r="H61" s="3">
-        <v>1422700</v>
+        <v>1302200</v>
       </c>
       <c r="I61" s="3">
-        <v>1812200</v>
+        <v>1402100</v>
       </c>
       <c r="J61" s="3">
+        <v>1786000</v>
+      </c>
+      <c r="K61" s="3">
         <v>2116500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2657600</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2319600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1323000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1419000</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1350700</v>
+        <v>1116300</v>
       </c>
       <c r="E62" s="3">
-        <v>1712700</v>
+        <v>1331100</v>
       </c>
       <c r="F62" s="3">
-        <v>1766600</v>
+        <v>1687900</v>
       </c>
       <c r="G62" s="3">
-        <v>1594300</v>
+        <v>1741000</v>
       </c>
       <c r="H62" s="3">
-        <v>1495500</v>
+        <v>1571200</v>
       </c>
       <c r="I62" s="3">
-        <v>1861000</v>
+        <v>1473800</v>
       </c>
       <c r="J62" s="3">
+        <v>1834100</v>
+      </c>
+      <c r="K62" s="3">
         <v>1488100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1882600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>1578000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>1211400</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1268500</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2670,9 +2818,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2709,9 +2860,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2748,48 +2902,54 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5293800</v>
+        <v>5497800</v>
       </c>
       <c r="E66" s="3">
-        <v>5318800</v>
+        <v>5217100</v>
       </c>
       <c r="F66" s="3">
-        <v>5540800</v>
+        <v>5241800</v>
       </c>
       <c r="G66" s="3">
-        <v>5071900</v>
+        <v>5460600</v>
       </c>
       <c r="H66" s="3">
-        <v>5027500</v>
+        <v>4998400</v>
       </c>
       <c r="I66" s="3">
-        <v>5472500</v>
+        <v>4954600</v>
       </c>
       <c r="J66" s="3">
+        <v>5393200</v>
+      </c>
+      <c r="K66" s="3">
         <v>5193000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6462700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>5992900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4096600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4306700</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2805,8 +2965,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2843,9 +3004,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2882,9 +3046,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2921,9 +3088,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2960,48 +3130,54 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>3818900</v>
+        <v>4185600</v>
       </c>
       <c r="E72" s="3">
-        <v>3194700</v>
+        <v>3763600</v>
       </c>
       <c r="F72" s="3">
-        <v>2973300</v>
+        <v>3148400</v>
       </c>
       <c r="G72" s="3">
-        <v>2867500</v>
+        <v>2930200</v>
       </c>
       <c r="H72" s="3">
-        <v>2450600</v>
+        <v>2826000</v>
       </c>
       <c r="I72" s="3">
-        <v>2178600</v>
+        <v>2415100</v>
       </c>
       <c r="J72" s="3">
+        <v>2147000</v>
+      </c>
+      <c r="K72" s="3">
         <v>2162800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>2272200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>2442600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>2292700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>2373000</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3038,9 +3214,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3077,9 +3256,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3116,48 +3298,54 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4127100</v>
+        <v>4839100</v>
       </c>
       <c r="E76" s="3">
-        <v>3244300</v>
+        <v>4067300</v>
       </c>
       <c r="F76" s="3">
-        <v>3358000</v>
+        <v>3197300</v>
       </c>
       <c r="G76" s="3">
-        <v>3171200</v>
+        <v>3309400</v>
       </c>
       <c r="H76" s="3">
-        <v>2651100</v>
+        <v>3125200</v>
       </c>
       <c r="I76" s="3">
-        <v>2461800</v>
+        <v>2612700</v>
       </c>
       <c r="J76" s="3">
+        <v>2426100</v>
+      </c>
+      <c r="K76" s="3">
         <v>2346500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2548600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2367000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2217900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2433400</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3194,92 +3382,101 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42735</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42369</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>42004</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41639</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>41274</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>40908</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>693200</v>
+        <v>416500</v>
       </c>
       <c r="E81" s="3">
-        <v>406400</v>
+        <v>683200</v>
       </c>
       <c r="F81" s="3">
-        <v>525500</v>
+        <v>400500</v>
       </c>
       <c r="G81" s="3">
-        <v>688900</v>
+        <v>517900</v>
       </c>
       <c r="H81" s="3">
-        <v>517700</v>
+        <v>678900</v>
       </c>
       <c r="I81" s="3">
-        <v>376800</v>
+        <v>510200</v>
       </c>
       <c r="J81" s="3">
+        <v>371400</v>
+      </c>
+      <c r="K81" s="3">
         <v>366900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>507700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>107400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>484500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>686900</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3295,47 +3492,51 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>309400</v>
+        <v>340600</v>
       </c>
       <c r="E83" s="3">
-        <v>318700</v>
+        <v>304900</v>
       </c>
       <c r="F83" s="3">
-        <v>315600</v>
+        <v>314100</v>
       </c>
       <c r="G83" s="3">
-        <v>220100</v>
+        <v>311100</v>
       </c>
       <c r="H83" s="3">
-        <v>213700</v>
+        <v>216900</v>
       </c>
       <c r="I83" s="3">
-        <v>217600</v>
+        <v>210600</v>
       </c>
       <c r="J83" s="3">
+        <v>214400</v>
+      </c>
+      <c r="K83" s="3">
         <v>228700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>245000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>219300</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="N83" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>203200</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3372,9 +3573,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3411,9 +3615,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3450,9 +3657,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3489,9 +3699,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3528,48 +3741,54 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>496300</v>
+        <v>525700</v>
       </c>
       <c r="E89" s="3">
-        <v>781500</v>
+        <v>489100</v>
       </c>
       <c r="F89" s="3">
-        <v>889800</v>
+        <v>770200</v>
       </c>
       <c r="G89" s="3">
-        <v>789100</v>
+        <v>876900</v>
       </c>
       <c r="H89" s="3">
-        <v>607900</v>
+        <v>777700</v>
       </c>
       <c r="I89" s="3">
-        <v>676100</v>
+        <v>599100</v>
       </c>
       <c r="J89" s="3">
+        <v>666300</v>
+      </c>
+      <c r="K89" s="3">
         <v>731000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>529500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>625900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>644700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>634100</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3585,47 +3804,51 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-361400</v>
+        <v>-468700</v>
       </c>
       <c r="E91" s="3">
-        <v>-315100</v>
+        <v>-356200</v>
       </c>
       <c r="F91" s="3">
-        <v>-327300</v>
+        <v>-310500</v>
       </c>
       <c r="G91" s="3">
-        <v>-250300</v>
+        <v>-322500</v>
       </c>
       <c r="H91" s="3">
-        <v>-212100</v>
+        <v>-246700</v>
       </c>
       <c r="I91" s="3">
-        <v>-176700</v>
+        <v>-209000</v>
       </c>
       <c r="J91" s="3">
+        <v>-174200</v>
+      </c>
+      <c r="K91" s="3">
         <v>-195100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-204400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-205600</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-204500</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-218900</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3662,9 +3885,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3701,48 +3927,54 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-297700</v>
+        <v>-498200</v>
       </c>
       <c r="E94" s="3">
-        <v>-284200</v>
+        <v>-293400</v>
       </c>
       <c r="F94" s="3">
-        <v>-421500</v>
+        <v>-280100</v>
       </c>
       <c r="G94" s="3">
+        <v>-415300</v>
+      </c>
+      <c r="H94" s="3">
         <v>-1800</v>
       </c>
-      <c r="H94" s="3">
-        <v>-158500</v>
-      </c>
       <c r="I94" s="3">
-        <v>53600</v>
+        <v>-156200</v>
       </c>
       <c r="J94" s="3">
+        <v>52800</v>
+      </c>
+      <c r="K94" s="3">
         <v>-124300</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-293600</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1255000</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="N94" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-197300</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3758,47 +3990,51 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-279900</v>
+        <v>-297000</v>
       </c>
       <c r="E96" s="3">
-        <v>-129200</v>
+        <v>-275800</v>
       </c>
       <c r="F96" s="3">
-        <v>-258200</v>
+        <v>-127300</v>
       </c>
       <c r="G96" s="3">
-        <v>-247800</v>
+        <v>-254500</v>
       </c>
       <c r="H96" s="3">
+        <v>-244300</v>
+      </c>
+      <c r="I96" s="3">
+        <v>-233300</v>
+      </c>
+      <c r="J96" s="3">
+        <v>-233300</v>
+      </c>
+      <c r="K96" s="3">
         <v>-236800</v>
       </c>
-      <c r="I96" s="3">
-        <v>-236800</v>
-      </c>
-      <c r="J96" s="3">
-        <v>-236800</v>
-      </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-276400</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-294900</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-260200</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-258500</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3835,9 +4071,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3874,9 +4113,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3913,124 +4155,136 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-332200</v>
+        <v>-316800</v>
       </c>
       <c r="E100" s="3">
-        <v>254500</v>
+        <v>-327400</v>
       </c>
       <c r="F100" s="3">
-        <v>-850800</v>
+        <v>250800</v>
       </c>
       <c r="G100" s="3">
-        <v>-480600</v>
+        <v>-838400</v>
       </c>
       <c r="H100" s="3">
-        <v>-703700</v>
+        <v>-473700</v>
       </c>
       <c r="I100" s="3">
-        <v>-493400</v>
+        <v>-693500</v>
       </c>
       <c r="J100" s="3">
+        <v>-486300</v>
+      </c>
+      <c r="K100" s="3">
         <v>-491600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-206700</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>293700</v>
       </c>
-      <c r="M100" s="3" t="s">
+      <c r="N100" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-161200</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>55000</v>
+        <v>13200</v>
       </c>
       <c r="E101" s="3">
-        <v>-31200</v>
+        <v>54200</v>
       </c>
       <c r="F101" s="3">
-        <v>7900</v>
+        <v>-30800</v>
       </c>
       <c r="G101" s="3">
+        <v>7800</v>
+      </c>
+      <c r="H101" s="3">
         <v>3300</v>
       </c>
-      <c r="H101" s="3">
-        <v>-13000</v>
-      </c>
       <c r="I101" s="3">
-        <v>21000</v>
+        <v>-12900</v>
       </c>
       <c r="J101" s="3">
+        <v>20700</v>
+      </c>
+      <c r="K101" s="3">
         <v>7700</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>31700</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-3200</v>
       </c>
-      <c r="M101" s="3" t="s">
+      <c r="N101" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>200</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-78600</v>
+        <v>-276100</v>
       </c>
       <c r="E102" s="3">
-        <v>720500</v>
+        <v>-77400</v>
       </c>
       <c r="F102" s="3">
-        <v>-374500</v>
+        <v>710100</v>
       </c>
       <c r="G102" s="3">
-        <v>310000</v>
+        <v>-369000</v>
       </c>
       <c r="H102" s="3">
-        <v>-267300</v>
+        <v>305500</v>
       </c>
       <c r="I102" s="3">
-        <v>257300</v>
+        <v>-263400</v>
       </c>
       <c r="J102" s="3">
+        <v>253600</v>
+      </c>
+      <c r="K102" s="3">
         <v>122700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>60800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-338600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>355300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>275900</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9033200</v>
+        <v>9187300</v>
       </c>
       <c r="E8" s="3">
-        <v>7616600</v>
+        <v>7746600</v>
       </c>
       <c r="F8" s="3">
-        <v>6975500</v>
+        <v>7094500</v>
       </c>
       <c r="G8" s="3">
-        <v>8015600</v>
+        <v>8152300</v>
       </c>
       <c r="H8" s="3">
-        <v>7987600</v>
+        <v>8123900</v>
       </c>
       <c r="I8" s="3">
-        <v>7263000</v>
+        <v>7387000</v>
       </c>
       <c r="J8" s="3">
-        <v>6764600</v>
+        <v>6880000</v>
       </c>
       <c r="K8" s="3">
         <v>7186300</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6741200</v>
+        <v>6856200</v>
       </c>
       <c r="E9" s="3">
-        <v>5444500</v>
+        <v>5537400</v>
       </c>
       <c r="F9" s="3">
-        <v>5156000</v>
+        <v>5244000</v>
       </c>
       <c r="G9" s="3">
-        <v>6056500</v>
+        <v>6159800</v>
       </c>
       <c r="H9" s="3">
-        <v>6037900</v>
+        <v>6140900</v>
       </c>
       <c r="I9" s="3">
-        <v>5449500</v>
+        <v>5542500</v>
       </c>
       <c r="J9" s="3">
-        <v>5108000</v>
+        <v>5195200</v>
       </c>
       <c r="K9" s="3">
         <v>5415000</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2292000</v>
+        <v>2331100</v>
       </c>
       <c r="E10" s="3">
-        <v>2172100</v>
+        <v>2209100</v>
       </c>
       <c r="F10" s="3">
-        <v>1819400</v>
+        <v>1850500</v>
       </c>
       <c r="G10" s="3">
-        <v>1959000</v>
+        <v>1992500</v>
       </c>
       <c r="H10" s="3">
-        <v>1949700</v>
+        <v>1983000</v>
       </c>
       <c r="I10" s="3">
-        <v>1813600</v>
+        <v>1844500</v>
       </c>
       <c r="J10" s="3">
-        <v>1656500</v>
+        <v>1684800</v>
       </c>
       <c r="K10" s="3">
         <v>1771300</v>
@@ -870,13 +870,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>296100</v>
+        <v>301100</v>
       </c>
       <c r="E12" s="3">
-        <v>256400</v>
+        <v>260700</v>
       </c>
       <c r="F12" s="3">
-        <v>234400</v>
+        <v>238400</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>74600</v>
+        <v>75900</v>
       </c>
       <c r="E14" s="3">
-        <v>-33900</v>
+        <v>-34500</v>
       </c>
       <c r="F14" s="3">
         <v>1900</v>
       </c>
       <c r="G14" s="3">
-        <v>15900</v>
+        <v>16200</v>
       </c>
       <c r="H14" s="3">
-        <v>-98600</v>
+        <v>-100300</v>
       </c>
       <c r="I14" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="J14" s="3">
-        <v>4800</v>
+        <v>4900</v>
       </c>
       <c r="K14" s="3">
         <v>25300</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>93100</v>
+        <v>94700</v>
       </c>
       <c r="E15" s="3">
-        <v>79800</v>
+        <v>81100</v>
       </c>
       <c r="F15" s="3">
-        <v>90100</v>
+        <v>91700</v>
       </c>
       <c r="G15" s="3">
-        <v>88000</v>
+        <v>89500</v>
       </c>
       <c r="H15" s="3">
-        <v>42600</v>
+        <v>43300</v>
       </c>
       <c r="I15" s="3">
-        <v>44200</v>
+        <v>44900</v>
       </c>
       <c r="J15" s="3">
-        <v>45600</v>
+        <v>46300</v>
       </c>
       <c r="K15" s="3">
         <v>51200</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8238100</v>
+        <v>8378600</v>
       </c>
       <c r="E17" s="3">
-        <v>6614100</v>
+        <v>6726900</v>
       </c>
       <c r="F17" s="3">
-        <v>6316700</v>
+        <v>6424500</v>
       </c>
       <c r="G17" s="3">
-        <v>7140000</v>
+        <v>7261900</v>
       </c>
       <c r="H17" s="3">
-        <v>6957900</v>
+        <v>7076700</v>
       </c>
       <c r="I17" s="3">
-        <v>6462400</v>
+        <v>6572600</v>
       </c>
       <c r="J17" s="3">
-        <v>6063100</v>
+        <v>6166600</v>
       </c>
       <c r="K17" s="3">
         <v>6527400</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>795100</v>
+        <v>808700</v>
       </c>
       <c r="E18" s="3">
-        <v>1002500</v>
+        <v>1019600</v>
       </c>
       <c r="F18" s="3">
-        <v>658800</v>
+        <v>670000</v>
       </c>
       <c r="G18" s="3">
-        <v>875500</v>
+        <v>890500</v>
       </c>
       <c r="H18" s="3">
-        <v>1029700</v>
+        <v>1047200</v>
       </c>
       <c r="I18" s="3">
-        <v>800700</v>
+        <v>814300</v>
       </c>
       <c r="J18" s="3">
-        <v>701400</v>
+        <v>713400</v>
       </c>
       <c r="K18" s="3">
         <v>658900</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-77600</v>
+        <v>-79000</v>
       </c>
       <c r="E20" s="3">
-        <v>-36100</v>
+        <v>-36700</v>
       </c>
       <c r="F20" s="3">
-        <v>-44700</v>
+        <v>-45500</v>
       </c>
       <c r="G20" s="3">
-        <v>-16600</v>
+        <v>-16900</v>
       </c>
       <c r="H20" s="3">
+        <v>-24800</v>
+      </c>
+      <c r="I20" s="3">
         <v>-24400</v>
       </c>
-      <c r="I20" s="3">
-        <v>-23900</v>
-      </c>
       <c r="J20" s="3">
-        <v>-32800</v>
+        <v>-33400</v>
       </c>
       <c r="K20" s="3">
         <v>-46700</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1058200</v>
+        <v>1079600</v>
       </c>
       <c r="E21" s="3">
-        <v>1271500</v>
+        <v>1296200</v>
       </c>
       <c r="F21" s="3">
-        <v>928200</v>
+        <v>947100</v>
       </c>
       <c r="G21" s="3">
-        <v>1170100</v>
+        <v>1193100</v>
       </c>
       <c r="H21" s="3">
-        <v>1222300</v>
+        <v>1245300</v>
       </c>
       <c r="I21" s="3">
-        <v>987400</v>
+        <v>1006300</v>
       </c>
       <c r="J21" s="3">
-        <v>883100</v>
+        <v>900300</v>
       </c>
       <c r="K21" s="3">
         <v>834500</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>37800</v>
+        <v>38500</v>
       </c>
       <c r="E22" s="3">
-        <v>28700</v>
+        <v>29200</v>
       </c>
       <c r="F22" s="3">
-        <v>26900</v>
+        <v>27400</v>
       </c>
       <c r="G22" s="3">
-        <v>69700</v>
+        <v>70900</v>
       </c>
       <c r="H22" s="3">
-        <v>55800</v>
+        <v>56800</v>
       </c>
       <c r="I22" s="3">
-        <v>63100</v>
+        <v>64200</v>
       </c>
       <c r="J22" s="3">
-        <v>40600</v>
+        <v>41300</v>
       </c>
       <c r="K22" s="3">
         <v>60500</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>679600</v>
+        <v>691200</v>
       </c>
       <c r="E23" s="3">
-        <v>937800</v>
+        <v>953800</v>
       </c>
       <c r="F23" s="3">
-        <v>587100</v>
+        <v>597100</v>
       </c>
       <c r="G23" s="3">
-        <v>789200</v>
+        <v>802700</v>
       </c>
       <c r="H23" s="3">
-        <v>949400</v>
+        <v>965600</v>
       </c>
       <c r="I23" s="3">
-        <v>713600</v>
+        <v>725800</v>
       </c>
       <c r="J23" s="3">
-        <v>628000</v>
+        <v>638700</v>
       </c>
       <c r="K23" s="3">
         <v>551700</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>227200</v>
+        <v>231100</v>
       </c>
       <c r="E24" s="3">
-        <v>231500</v>
+        <v>235400</v>
       </c>
       <c r="F24" s="3">
-        <v>170200</v>
+        <v>173100</v>
       </c>
       <c r="G24" s="3">
-        <v>249500</v>
+        <v>253700</v>
       </c>
       <c r="H24" s="3">
-        <v>242600</v>
+        <v>246700</v>
       </c>
       <c r="I24" s="3">
-        <v>248700</v>
+        <v>253000</v>
       </c>
       <c r="J24" s="3">
-        <v>235800</v>
+        <v>239800</v>
       </c>
       <c r="K24" s="3">
         <v>166400</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>452400</v>
+        <v>460200</v>
       </c>
       <c r="E26" s="3">
-        <v>706300</v>
+        <v>718300</v>
       </c>
       <c r="F26" s="3">
-        <v>416900</v>
+        <v>424000</v>
       </c>
       <c r="G26" s="3">
-        <v>539800</v>
+        <v>549000</v>
       </c>
       <c r="H26" s="3">
-        <v>706800</v>
+        <v>718900</v>
       </c>
       <c r="I26" s="3">
-        <v>464900</v>
+        <v>472900</v>
       </c>
       <c r="J26" s="3">
-        <v>392200</v>
+        <v>398900</v>
       </c>
       <c r="K26" s="3">
         <v>385200</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>416500</v>
+        <v>423600</v>
       </c>
       <c r="E27" s="3">
-        <v>683200</v>
+        <v>694800</v>
       </c>
       <c r="F27" s="3">
-        <v>400500</v>
+        <v>407400</v>
       </c>
       <c r="G27" s="3">
-        <v>517900</v>
+        <v>526700</v>
       </c>
       <c r="H27" s="3">
-        <v>678900</v>
+        <v>690500</v>
       </c>
       <c r="I27" s="3">
-        <v>438400</v>
+        <v>445800</v>
       </c>
       <c r="J27" s="3">
-        <v>371400</v>
+        <v>377700</v>
       </c>
       <c r="K27" s="3">
         <v>366900</v>
@@ -1548,7 +1548,7 @@
         <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>71800</v>
+        <v>73100</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>77600</v>
+        <v>79000</v>
       </c>
       <c r="E32" s="3">
-        <v>36100</v>
+        <v>36700</v>
       </c>
       <c r="F32" s="3">
-        <v>44700</v>
+        <v>45500</v>
       </c>
       <c r="G32" s="3">
-        <v>16600</v>
+        <v>16900</v>
       </c>
       <c r="H32" s="3">
+        <v>24800</v>
+      </c>
+      <c r="I32" s="3">
         <v>24400</v>
       </c>
-      <c r="I32" s="3">
-        <v>23900</v>
-      </c>
       <c r="J32" s="3">
-        <v>32800</v>
+        <v>33400</v>
       </c>
       <c r="K32" s="3">
         <v>46700</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>416500</v>
+        <v>423600</v>
       </c>
       <c r="E33" s="3">
-        <v>683200</v>
+        <v>694800</v>
       </c>
       <c r="F33" s="3">
-        <v>400500</v>
+        <v>407400</v>
       </c>
       <c r="G33" s="3">
-        <v>517900</v>
+        <v>526700</v>
       </c>
       <c r="H33" s="3">
-        <v>678900</v>
+        <v>690500</v>
       </c>
       <c r="I33" s="3">
-        <v>510200</v>
+        <v>518900</v>
       </c>
       <c r="J33" s="3">
-        <v>371400</v>
+        <v>377700</v>
       </c>
       <c r="K33" s="3">
         <v>366900</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>416500</v>
+        <v>423600</v>
       </c>
       <c r="E35" s="3">
-        <v>683200</v>
+        <v>694800</v>
       </c>
       <c r="F35" s="3">
-        <v>400500</v>
+        <v>407400</v>
       </c>
       <c r="G35" s="3">
-        <v>517900</v>
+        <v>526700</v>
       </c>
       <c r="H35" s="3">
-        <v>678900</v>
+        <v>690500</v>
       </c>
       <c r="I35" s="3">
-        <v>510200</v>
+        <v>518900</v>
       </c>
       <c r="J35" s="3">
-        <v>371400</v>
+        <v>377700</v>
       </c>
       <c r="K35" s="3">
         <v>366900</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>955700</v>
+        <v>972000</v>
       </c>
       <c r="E41" s="3">
-        <v>1231900</v>
+        <v>1252900</v>
       </c>
       <c r="F41" s="3">
-        <v>1309300</v>
+        <v>1331700</v>
       </c>
       <c r="G41" s="3">
-        <v>599200</v>
+        <v>609400</v>
       </c>
       <c r="H41" s="3">
-        <v>968200</v>
+        <v>984800</v>
       </c>
       <c r="I41" s="3">
-        <v>662800</v>
+        <v>674100</v>
       </c>
       <c r="J41" s="3">
-        <v>926200</v>
+        <v>942000</v>
       </c>
       <c r="K41" s="3">
         <v>682500</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>35400</v>
+        <v>36000</v>
       </c>
       <c r="E42" s="3">
-        <v>9300</v>
+        <v>9500</v>
       </c>
       <c r="F42" s="3">
-        <v>13200</v>
+        <v>13500</v>
       </c>
       <c r="G42" s="3">
-        <v>33500</v>
+        <v>34100</v>
       </c>
       <c r="H42" s="3">
-        <v>111200</v>
+        <v>113100</v>
       </c>
       <c r="I42" s="3">
-        <v>18600</v>
+        <v>19000</v>
       </c>
       <c r="J42" s="3">
-        <v>15700</v>
+        <v>15900</v>
       </c>
       <c r="K42" s="3">
         <v>6100</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2084700</v>
+        <v>2120200</v>
       </c>
       <c r="E43" s="3">
-        <v>1755300</v>
+        <v>1785300</v>
       </c>
       <c r="F43" s="3">
-        <v>1533800</v>
+        <v>1560000</v>
       </c>
       <c r="G43" s="3">
-        <v>2091600</v>
+        <v>2127200</v>
       </c>
       <c r="H43" s="3">
-        <v>1608500</v>
+        <v>1635900</v>
       </c>
       <c r="I43" s="3">
-        <v>1651800</v>
+        <v>1680000</v>
       </c>
       <c r="J43" s="3">
-        <v>1577100</v>
+        <v>1604000</v>
       </c>
       <c r="K43" s="3">
         <v>1459500</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2427800</v>
+        <v>2469200</v>
       </c>
       <c r="E44" s="3">
-        <v>1956700</v>
+        <v>1990100</v>
       </c>
       <c r="F44" s="3">
-        <v>1466200</v>
+        <v>1491200</v>
       </c>
       <c r="G44" s="3">
-        <v>1682200</v>
+        <v>1710900</v>
       </c>
       <c r="H44" s="3">
-        <v>1661200</v>
+        <v>1689500</v>
       </c>
       <c r="I44" s="3">
-        <v>1595600</v>
+        <v>1622800</v>
       </c>
       <c r="J44" s="3">
-        <v>1436800</v>
+        <v>1461300</v>
       </c>
       <c r="K44" s="3">
         <v>1372900</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>68800</v>
+        <v>69900</v>
       </c>
       <c r="E45" s="3">
-        <v>59400</v>
+        <v>60400</v>
       </c>
       <c r="F45" s="3">
-        <v>47900</v>
+        <v>48700</v>
       </c>
       <c r="G45" s="3">
-        <v>52100</v>
+        <v>53000</v>
       </c>
       <c r="H45" s="3">
-        <v>52800</v>
+        <v>53700</v>
       </c>
       <c r="I45" s="3">
+        <v>62700</v>
+      </c>
+      <c r="J45" s="3">
         <v>61700</v>
-      </c>
-      <c r="J45" s="3">
-        <v>60700</v>
       </c>
       <c r="K45" s="3">
         <v>86700</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5572300</v>
+        <v>5667400</v>
       </c>
       <c r="E46" s="3">
-        <v>5012600</v>
+        <v>5098100</v>
       </c>
       <c r="F46" s="3">
-        <v>4370400</v>
+        <v>4445000</v>
       </c>
       <c r="G46" s="3">
-        <v>4458600</v>
+        <v>4534700</v>
       </c>
       <c r="H46" s="3">
-        <v>4401900</v>
+        <v>4477000</v>
       </c>
       <c r="I46" s="3">
-        <v>3990500</v>
+        <v>4058600</v>
       </c>
       <c r="J46" s="3">
-        <v>4016400</v>
+        <v>4084900</v>
       </c>
       <c r="K46" s="3">
         <v>3607700</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>114100</v>
+        <v>116000</v>
       </c>
       <c r="E47" s="3">
-        <v>113000</v>
+        <v>115000</v>
       </c>
       <c r="F47" s="3">
-        <v>94200</v>
+        <v>95800</v>
       </c>
       <c r="G47" s="3">
-        <v>119400</v>
+        <v>121400</v>
       </c>
       <c r="H47" s="3">
-        <v>107600</v>
+        <v>109500</v>
       </c>
       <c r="I47" s="3">
-        <v>110600</v>
+        <v>112500</v>
       </c>
       <c r="J47" s="3">
-        <v>120800</v>
+        <v>122800</v>
       </c>
       <c r="K47" s="3">
         <v>135500</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2607500</v>
+        <v>2652000</v>
       </c>
       <c r="E48" s="3">
-        <v>2179200</v>
+        <v>2216300</v>
       </c>
       <c r="F48" s="3">
-        <v>1927000</v>
+        <v>1959900</v>
       </c>
       <c r="G48" s="3">
-        <v>1995300</v>
+        <v>2029300</v>
       </c>
       <c r="H48" s="3">
-        <v>1555200</v>
+        <v>1581700</v>
       </c>
       <c r="I48" s="3">
-        <v>1468900</v>
+        <v>1493900</v>
       </c>
       <c r="J48" s="3">
-        <v>1467400</v>
+        <v>1492400</v>
       </c>
       <c r="K48" s="3">
         <v>1447100</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1695400</v>
+        <v>1724300</v>
       </c>
       <c r="E49" s="3">
-        <v>1578800</v>
+        <v>1605800</v>
       </c>
       <c r="F49" s="3">
-        <v>1513600</v>
+        <v>1539400</v>
       </c>
       <c r="G49" s="3">
-        <v>1714400</v>
+        <v>1743700</v>
       </c>
       <c r="H49" s="3">
-        <v>1651500</v>
+        <v>1679700</v>
       </c>
       <c r="I49" s="3">
-        <v>1617800</v>
+        <v>1645400</v>
       </c>
       <c r="J49" s="3">
-        <v>1823500</v>
+        <v>1854700</v>
       </c>
       <c r="K49" s="3">
         <v>2031600</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>347600</v>
+        <v>353500</v>
       </c>
       <c r="E52" s="3">
-        <v>400700</v>
+        <v>407600</v>
       </c>
       <c r="F52" s="3">
-        <v>533800</v>
+        <v>542900</v>
       </c>
       <c r="G52" s="3">
-        <v>482300</v>
+        <v>490500</v>
       </c>
       <c r="H52" s="3">
-        <v>407400</v>
+        <v>414400</v>
       </c>
       <c r="I52" s="3">
-        <v>379600</v>
+        <v>386000</v>
       </c>
       <c r="J52" s="3">
-        <v>391200</v>
+        <v>397900</v>
       </c>
       <c r="K52" s="3">
         <v>317600</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10336900</v>
+        <v>10513300</v>
       </c>
       <c r="E54" s="3">
-        <v>9284300</v>
+        <v>9442700</v>
       </c>
       <c r="F54" s="3">
-        <v>8439000</v>
+        <v>8583000</v>
       </c>
       <c r="G54" s="3">
-        <v>8769900</v>
+        <v>8919600</v>
       </c>
       <c r="H54" s="3">
-        <v>8123700</v>
+        <v>8262300</v>
       </c>
       <c r="I54" s="3">
-        <v>7567300</v>
+        <v>7696400</v>
       </c>
       <c r="J54" s="3">
-        <v>7819300</v>
+        <v>7952700</v>
       </c>
       <c r="K54" s="3">
         <v>7539600</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1080400</v>
+        <v>1098900</v>
       </c>
       <c r="E57" s="3">
-        <v>920800</v>
+        <v>936500</v>
       </c>
       <c r="F57" s="3">
-        <v>788300</v>
+        <v>801700</v>
       </c>
       <c r="G57" s="3">
-        <v>770300</v>
+        <v>783500</v>
       </c>
       <c r="H57" s="3">
-        <v>729800</v>
+        <v>742200</v>
       </c>
       <c r="I57" s="3">
-        <v>736100</v>
+        <v>748700</v>
       </c>
       <c r="J57" s="3">
-        <v>661600</v>
+        <v>672900</v>
       </c>
       <c r="K57" s="3">
         <v>536200</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>75000</v>
+        <v>76300</v>
       </c>
       <c r="E58" s="3">
-        <v>350100</v>
+        <v>356100</v>
       </c>
       <c r="F58" s="3">
-        <v>254900</v>
+        <v>259200</v>
       </c>
       <c r="G58" s="3">
-        <v>285300</v>
+        <v>290200</v>
       </c>
       <c r="H58" s="3">
-        <v>202700</v>
+        <v>206100</v>
       </c>
       <c r="I58" s="3">
-        <v>226700</v>
+        <v>230600</v>
       </c>
       <c r="J58" s="3">
-        <v>114900</v>
+        <v>116900</v>
       </c>
       <c r="K58" s="3">
         <v>136400</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1122100</v>
+        <v>1141200</v>
       </c>
       <c r="E59" s="3">
-        <v>1014600</v>
+        <v>1031900</v>
       </c>
       <c r="F59" s="3">
-        <v>973800</v>
+        <v>990500</v>
       </c>
       <c r="G59" s="3">
-        <v>1100800</v>
+        <v>1119500</v>
       </c>
       <c r="H59" s="3">
-        <v>1014000</v>
+        <v>1031300</v>
       </c>
       <c r="I59" s="3">
-        <v>949300</v>
+        <v>965500</v>
       </c>
       <c r="J59" s="3">
-        <v>842900</v>
+        <v>857300</v>
       </c>
       <c r="K59" s="3">
         <v>777100</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2277600</v>
+        <v>2316400</v>
       </c>
       <c r="E60" s="3">
-        <v>2285500</v>
+        <v>2324500</v>
       </c>
       <c r="F60" s="3">
-        <v>2017000</v>
+        <v>2051400</v>
       </c>
       <c r="G60" s="3">
-        <v>2156400</v>
+        <v>2193200</v>
       </c>
       <c r="H60" s="3">
-        <v>1946500</v>
+        <v>1979700</v>
       </c>
       <c r="I60" s="3">
-        <v>1912200</v>
+        <v>1944800</v>
       </c>
       <c r="J60" s="3">
-        <v>1619500</v>
+        <v>1647100</v>
       </c>
       <c r="K60" s="3">
         <v>1449700</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1906800</v>
+        <v>1939300</v>
       </c>
       <c r="E61" s="3">
-        <v>1440200</v>
+        <v>1464700</v>
       </c>
       <c r="F61" s="3">
-        <v>1406100</v>
+        <v>1430100</v>
       </c>
       <c r="G61" s="3">
-        <v>1390400</v>
+        <v>1414100</v>
       </c>
       <c r="H61" s="3">
-        <v>1302200</v>
+        <v>1324500</v>
       </c>
       <c r="I61" s="3">
-        <v>1402100</v>
+        <v>1426100</v>
       </c>
       <c r="J61" s="3">
-        <v>1786000</v>
+        <v>1816500</v>
       </c>
       <c r="K61" s="3">
         <v>2116500</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1116300</v>
+        <v>1135400</v>
       </c>
       <c r="E62" s="3">
-        <v>1331100</v>
+        <v>1353800</v>
       </c>
       <c r="F62" s="3">
-        <v>1687900</v>
+        <v>1716700</v>
       </c>
       <c r="G62" s="3">
-        <v>1741000</v>
+        <v>1770700</v>
       </c>
       <c r="H62" s="3">
-        <v>1571200</v>
+        <v>1598000</v>
       </c>
       <c r="I62" s="3">
-        <v>1473800</v>
+        <v>1498900</v>
       </c>
       <c r="J62" s="3">
-        <v>1834100</v>
+        <v>1865400</v>
       </c>
       <c r="K62" s="3">
         <v>1488100</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5497800</v>
+        <v>5591600</v>
       </c>
       <c r="E66" s="3">
-        <v>5217100</v>
+        <v>5306100</v>
       </c>
       <c r="F66" s="3">
-        <v>5241800</v>
+        <v>5331200</v>
       </c>
       <c r="G66" s="3">
-        <v>5460600</v>
+        <v>5553700</v>
       </c>
       <c r="H66" s="3">
-        <v>4998400</v>
+        <v>5083700</v>
       </c>
       <c r="I66" s="3">
-        <v>4954600</v>
+        <v>5039200</v>
       </c>
       <c r="J66" s="3">
-        <v>5393200</v>
+        <v>5485200</v>
       </c>
       <c r="K66" s="3">
         <v>5193000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4185600</v>
+        <v>4257000</v>
       </c>
       <c r="E72" s="3">
-        <v>3763600</v>
+        <v>3827800</v>
       </c>
       <c r="F72" s="3">
-        <v>3148400</v>
+        <v>3202100</v>
       </c>
       <c r="G72" s="3">
-        <v>2930200</v>
+        <v>2980200</v>
       </c>
       <c r="H72" s="3">
-        <v>2826000</v>
+        <v>2874200</v>
       </c>
       <c r="I72" s="3">
-        <v>2415100</v>
+        <v>2456300</v>
       </c>
       <c r="J72" s="3">
-        <v>2147000</v>
+        <v>2183600</v>
       </c>
       <c r="K72" s="3">
         <v>2162800</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4839100</v>
+        <v>4921600</v>
       </c>
       <c r="E76" s="3">
-        <v>4067300</v>
+        <v>4136700</v>
       </c>
       <c r="F76" s="3">
-        <v>3197300</v>
+        <v>3251800</v>
       </c>
       <c r="G76" s="3">
-        <v>3309400</v>
+        <v>3365800</v>
       </c>
       <c r="H76" s="3">
-        <v>3125200</v>
+        <v>3178500</v>
       </c>
       <c r="I76" s="3">
-        <v>2612700</v>
+        <v>2657300</v>
       </c>
       <c r="J76" s="3">
-        <v>2426100</v>
+        <v>2467500</v>
       </c>
       <c r="K76" s="3">
         <v>2346500</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>416500</v>
+        <v>423600</v>
       </c>
       <c r="E81" s="3">
-        <v>683200</v>
+        <v>694800</v>
       </c>
       <c r="F81" s="3">
-        <v>400500</v>
+        <v>407400</v>
       </c>
       <c r="G81" s="3">
-        <v>517900</v>
+        <v>526700</v>
       </c>
       <c r="H81" s="3">
-        <v>678900</v>
+        <v>690500</v>
       </c>
       <c r="I81" s="3">
-        <v>510200</v>
+        <v>518900</v>
       </c>
       <c r="J81" s="3">
-        <v>371400</v>
+        <v>377700</v>
       </c>
       <c r="K81" s="3">
         <v>366900</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>340600</v>
+        <v>346400</v>
       </c>
       <c r="E83" s="3">
-        <v>304900</v>
+        <v>310100</v>
       </c>
       <c r="F83" s="3">
-        <v>314100</v>
+        <v>319400</v>
       </c>
       <c r="G83" s="3">
-        <v>311100</v>
+        <v>316400</v>
       </c>
       <c r="H83" s="3">
-        <v>216900</v>
+        <v>220600</v>
       </c>
       <c r="I83" s="3">
-        <v>210600</v>
+        <v>214200</v>
       </c>
       <c r="J83" s="3">
-        <v>214400</v>
+        <v>218100</v>
       </c>
       <c r="K83" s="3">
         <v>228700</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>525700</v>
+        <v>534700</v>
       </c>
       <c r="E89" s="3">
-        <v>489100</v>
+        <v>497400</v>
       </c>
       <c r="F89" s="3">
-        <v>770200</v>
+        <v>783400</v>
       </c>
       <c r="G89" s="3">
-        <v>876900</v>
+        <v>891900</v>
       </c>
       <c r="H89" s="3">
-        <v>777700</v>
+        <v>790900</v>
       </c>
       <c r="I89" s="3">
-        <v>599100</v>
+        <v>609300</v>
       </c>
       <c r="J89" s="3">
-        <v>666300</v>
+        <v>677700</v>
       </c>
       <c r="K89" s="3">
         <v>731000</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-468700</v>
+        <v>-476700</v>
       </c>
       <c r="E91" s="3">
-        <v>-356200</v>
+        <v>-362200</v>
       </c>
       <c r="F91" s="3">
-        <v>-310500</v>
+        <v>-315800</v>
       </c>
       <c r="G91" s="3">
-        <v>-322500</v>
+        <v>-328000</v>
       </c>
       <c r="H91" s="3">
-        <v>-246700</v>
+        <v>-250900</v>
       </c>
       <c r="I91" s="3">
-        <v>-209000</v>
+        <v>-212600</v>
       </c>
       <c r="J91" s="3">
-        <v>-174200</v>
+        <v>-177100</v>
       </c>
       <c r="K91" s="3">
         <v>-195100</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-498200</v>
+        <v>-506700</v>
       </c>
       <c r="E94" s="3">
-        <v>-293400</v>
+        <v>-298400</v>
       </c>
       <c r="F94" s="3">
-        <v>-280100</v>
+        <v>-284900</v>
       </c>
       <c r="G94" s="3">
-        <v>-415300</v>
+        <v>-422400</v>
       </c>
       <c r="H94" s="3">
         <v>-1800</v>
       </c>
       <c r="I94" s="3">
-        <v>-156200</v>
+        <v>-158900</v>
       </c>
       <c r="J94" s="3">
-        <v>52800</v>
+        <v>53700</v>
       </c>
       <c r="K94" s="3">
         <v>-124300</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-297000</v>
+        <v>-302100</v>
       </c>
       <c r="E96" s="3">
-        <v>-275800</v>
+        <v>-280500</v>
       </c>
       <c r="F96" s="3">
-        <v>-127300</v>
+        <v>-129500</v>
       </c>
       <c r="G96" s="3">
-        <v>-254500</v>
+        <v>-258800</v>
       </c>
       <c r="H96" s="3">
-        <v>-244300</v>
+        <v>-248400</v>
       </c>
       <c r="I96" s="3">
-        <v>-233300</v>
+        <v>-237300</v>
       </c>
       <c r="J96" s="3">
-        <v>-233300</v>
+        <v>-237300</v>
       </c>
       <c r="K96" s="3">
         <v>-236800</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-316800</v>
+        <v>-322300</v>
       </c>
       <c r="E100" s="3">
-        <v>-327400</v>
+        <v>-333000</v>
       </c>
       <c r="F100" s="3">
-        <v>250800</v>
+        <v>255100</v>
       </c>
       <c r="G100" s="3">
-        <v>-838400</v>
+        <v>-852700</v>
       </c>
       <c r="H100" s="3">
-        <v>-473700</v>
+        <v>-481800</v>
       </c>
       <c r="I100" s="3">
-        <v>-693500</v>
+        <v>-705400</v>
       </c>
       <c r="J100" s="3">
-        <v>-486300</v>
+        <v>-494600</v>
       </c>
       <c r="K100" s="3">
         <v>-491600</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>13200</v>
+        <v>13500</v>
       </c>
       <c r="E101" s="3">
-        <v>54200</v>
+        <v>55200</v>
       </c>
       <c r="F101" s="3">
-        <v>-30800</v>
+        <v>-31300</v>
       </c>
       <c r="G101" s="3">
-        <v>7800</v>
+        <v>8000</v>
       </c>
       <c r="H101" s="3">
         <v>3300</v>
       </c>
       <c r="I101" s="3">
-        <v>-12900</v>
+        <v>-13100</v>
       </c>
       <c r="J101" s="3">
-        <v>20700</v>
+        <v>21000</v>
       </c>
       <c r="K101" s="3">
         <v>7700</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-276100</v>
+        <v>-280800</v>
       </c>
       <c r="E102" s="3">
-        <v>-77400</v>
+        <v>-78800</v>
       </c>
       <c r="F102" s="3">
-        <v>710100</v>
+        <v>722200</v>
       </c>
       <c r="G102" s="3">
-        <v>-369000</v>
+        <v>-375300</v>
       </c>
       <c r="H102" s="3">
-        <v>305500</v>
+        <v>310700</v>
       </c>
       <c r="I102" s="3">
-        <v>-263400</v>
+        <v>-267900</v>
       </c>
       <c r="J102" s="3">
-        <v>253600</v>
+        <v>257900</v>
       </c>
       <c r="K102" s="3">
         <v>122700</v>

--- a/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>9187300</v>
+        <v>8853900</v>
       </c>
       <c r="E8" s="3">
-        <v>7746600</v>
+        <v>7465400</v>
       </c>
       <c r="F8" s="3">
-        <v>7094500</v>
+        <v>6837000</v>
       </c>
       <c r="G8" s="3">
-        <v>8152300</v>
+        <v>7856400</v>
       </c>
       <c r="H8" s="3">
-        <v>8123900</v>
+        <v>7829000</v>
       </c>
       <c r="I8" s="3">
-        <v>7387000</v>
+        <v>7118900</v>
       </c>
       <c r="J8" s="3">
-        <v>6880000</v>
+        <v>6630300</v>
       </c>
       <c r="K8" s="3">
         <v>7186300</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6856200</v>
+        <v>6607400</v>
       </c>
       <c r="E9" s="3">
-        <v>5537400</v>
+        <v>5336400</v>
       </c>
       <c r="F9" s="3">
-        <v>5244000</v>
+        <v>5053700</v>
       </c>
       <c r="G9" s="3">
-        <v>6159800</v>
+        <v>5936300</v>
       </c>
       <c r="H9" s="3">
-        <v>6140900</v>
+        <v>5918000</v>
       </c>
       <c r="I9" s="3">
-        <v>5542500</v>
+        <v>5341300</v>
       </c>
       <c r="J9" s="3">
-        <v>5195200</v>
+        <v>5006600</v>
       </c>
       <c r="K9" s="3">
         <v>5415000</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2331100</v>
+        <v>2246500</v>
       </c>
       <c r="E10" s="3">
-        <v>2209100</v>
+        <v>2129000</v>
       </c>
       <c r="F10" s="3">
-        <v>1850500</v>
+        <v>1783300</v>
       </c>
       <c r="G10" s="3">
-        <v>1992500</v>
+        <v>1920100</v>
       </c>
       <c r="H10" s="3">
-        <v>1983000</v>
+        <v>1911000</v>
       </c>
       <c r="I10" s="3">
-        <v>1844500</v>
+        <v>1777600</v>
       </c>
       <c r="J10" s="3">
-        <v>1684800</v>
+        <v>1623700</v>
       </c>
       <c r="K10" s="3">
         <v>1771300</v>
@@ -870,13 +870,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>301100</v>
+        <v>290200</v>
       </c>
       <c r="E12" s="3">
-        <v>260700</v>
+        <v>251300</v>
       </c>
       <c r="F12" s="3">
-        <v>238400</v>
+        <v>229700</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>75900</v>
+        <v>73200</v>
       </c>
       <c r="E14" s="3">
-        <v>-34500</v>
+        <v>-33200</v>
       </c>
       <c r="F14" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="G14" s="3">
-        <v>16200</v>
+        <v>15600</v>
       </c>
       <c r="H14" s="3">
-        <v>-100300</v>
+        <v>-96600</v>
       </c>
       <c r="I14" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="J14" s="3">
-        <v>4900</v>
+        <v>4700</v>
       </c>
       <c r="K14" s="3">
         <v>25300</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>94700</v>
+        <v>91200</v>
       </c>
       <c r="E15" s="3">
-        <v>81100</v>
+        <v>78200</v>
       </c>
       <c r="F15" s="3">
-        <v>91700</v>
+        <v>88300</v>
       </c>
       <c r="G15" s="3">
-        <v>89500</v>
+        <v>86200</v>
       </c>
       <c r="H15" s="3">
+        <v>41700</v>
+      </c>
+      <c r="I15" s="3">
         <v>43300</v>
       </c>
-      <c r="I15" s="3">
-        <v>44900</v>
-      </c>
       <c r="J15" s="3">
-        <v>46300</v>
+        <v>44700</v>
       </c>
       <c r="K15" s="3">
         <v>51200</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8378600</v>
+        <v>8074500</v>
       </c>
       <c r="E17" s="3">
-        <v>6726900</v>
+        <v>6482800</v>
       </c>
       <c r="F17" s="3">
-        <v>6424500</v>
+        <v>6191300</v>
       </c>
       <c r="G17" s="3">
-        <v>7261900</v>
+        <v>6998300</v>
       </c>
       <c r="H17" s="3">
-        <v>7076700</v>
+        <v>6819800</v>
       </c>
       <c r="I17" s="3">
-        <v>6572600</v>
+        <v>6334100</v>
       </c>
       <c r="J17" s="3">
-        <v>6166600</v>
+        <v>5942800</v>
       </c>
       <c r="K17" s="3">
         <v>6527400</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>808700</v>
+        <v>779300</v>
       </c>
       <c r="E18" s="3">
-        <v>1019600</v>
+        <v>982600</v>
       </c>
       <c r="F18" s="3">
-        <v>670000</v>
+        <v>645700</v>
       </c>
       <c r="G18" s="3">
-        <v>890500</v>
+        <v>858100</v>
       </c>
       <c r="H18" s="3">
-        <v>1047200</v>
+        <v>1009200</v>
       </c>
       <c r="I18" s="3">
-        <v>814300</v>
+        <v>784800</v>
       </c>
       <c r="J18" s="3">
-        <v>713400</v>
+        <v>687500</v>
       </c>
       <c r="K18" s="3">
         <v>658900</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-79000</v>
+        <v>-76100</v>
       </c>
       <c r="E20" s="3">
-        <v>-36700</v>
+        <v>-35300</v>
       </c>
       <c r="F20" s="3">
-        <v>-45500</v>
+        <v>-43800</v>
       </c>
       <c r="G20" s="3">
-        <v>-16900</v>
+        <v>-16300</v>
       </c>
       <c r="H20" s="3">
-        <v>-24800</v>
+        <v>-23900</v>
       </c>
       <c r="I20" s="3">
-        <v>-24400</v>
+        <v>-23500</v>
       </c>
       <c r="J20" s="3">
-        <v>-33400</v>
+        <v>-32200</v>
       </c>
       <c r="K20" s="3">
         <v>-46700</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1079600</v>
+        <v>1037100</v>
       </c>
       <c r="E21" s="3">
-        <v>1296200</v>
+        <v>1246200</v>
       </c>
       <c r="F21" s="3">
-        <v>947100</v>
+        <v>909700</v>
       </c>
       <c r="G21" s="3">
-        <v>1193100</v>
+        <v>1146800</v>
       </c>
       <c r="H21" s="3">
-        <v>1245300</v>
+        <v>1197900</v>
       </c>
       <c r="I21" s="3">
-        <v>1006300</v>
+        <v>967700</v>
       </c>
       <c r="J21" s="3">
-        <v>900300</v>
+        <v>865500</v>
       </c>
       <c r="K21" s="3">
         <v>834500</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>38500</v>
+        <v>37100</v>
       </c>
       <c r="E22" s="3">
-        <v>29200</v>
+        <v>28100</v>
       </c>
       <c r="F22" s="3">
-        <v>27400</v>
+        <v>26400</v>
       </c>
       <c r="G22" s="3">
-        <v>70900</v>
+        <v>68300</v>
       </c>
       <c r="H22" s="3">
-        <v>56800</v>
+        <v>54700</v>
       </c>
       <c r="I22" s="3">
-        <v>64200</v>
+        <v>61800</v>
       </c>
       <c r="J22" s="3">
-        <v>41300</v>
+        <v>39800</v>
       </c>
       <c r="K22" s="3">
         <v>60500</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>691200</v>
+        <v>666100</v>
       </c>
       <c r="E23" s="3">
-        <v>953800</v>
+        <v>919200</v>
       </c>
       <c r="F23" s="3">
-        <v>597100</v>
+        <v>575400</v>
       </c>
       <c r="G23" s="3">
-        <v>802700</v>
+        <v>773600</v>
       </c>
       <c r="H23" s="3">
-        <v>965600</v>
+        <v>930600</v>
       </c>
       <c r="I23" s="3">
-        <v>725800</v>
+        <v>699500</v>
       </c>
       <c r="J23" s="3">
-        <v>638700</v>
+        <v>615500</v>
       </c>
       <c r="K23" s="3">
         <v>551700</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>222700</v>
+      </c>
+      <c r="E24" s="3">
+        <v>226900</v>
+      </c>
+      <c r="F24" s="3">
+        <v>166800</v>
+      </c>
+      <c r="G24" s="3">
+        <v>244500</v>
+      </c>
+      <c r="H24" s="3">
+        <v>237800</v>
+      </c>
+      <c r="I24" s="3">
+        <v>243800</v>
+      </c>
+      <c r="J24" s="3">
         <v>231100</v>
-      </c>
-      <c r="E24" s="3">
-        <v>235400</v>
-      </c>
-      <c r="F24" s="3">
-        <v>173100</v>
-      </c>
-      <c r="G24" s="3">
-        <v>253700</v>
-      </c>
-      <c r="H24" s="3">
-        <v>246700</v>
-      </c>
-      <c r="I24" s="3">
-        <v>253000</v>
-      </c>
-      <c r="J24" s="3">
-        <v>239800</v>
       </c>
       <c r="K24" s="3">
         <v>166400</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>460200</v>
+        <v>443500</v>
       </c>
       <c r="E26" s="3">
-        <v>718300</v>
+        <v>692300</v>
       </c>
       <c r="F26" s="3">
-        <v>424000</v>
+        <v>408700</v>
       </c>
       <c r="G26" s="3">
-        <v>549000</v>
+        <v>529000</v>
       </c>
       <c r="H26" s="3">
-        <v>718900</v>
+        <v>692800</v>
       </c>
       <c r="I26" s="3">
-        <v>472900</v>
+        <v>455700</v>
       </c>
       <c r="J26" s="3">
-        <v>398900</v>
+        <v>384500</v>
       </c>
       <c r="K26" s="3">
         <v>385200</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>423600</v>
+        <v>408200</v>
       </c>
       <c r="E27" s="3">
-        <v>694800</v>
+        <v>669600</v>
       </c>
       <c r="F27" s="3">
-        <v>407400</v>
+        <v>392600</v>
       </c>
       <c r="G27" s="3">
-        <v>526700</v>
+        <v>507600</v>
       </c>
       <c r="H27" s="3">
-        <v>690500</v>
+        <v>665400</v>
       </c>
       <c r="I27" s="3">
-        <v>445800</v>
+        <v>429700</v>
       </c>
       <c r="J27" s="3">
-        <v>377700</v>
+        <v>364000</v>
       </c>
       <c r="K27" s="3">
         <v>366900</v>
@@ -1548,7 +1548,7 @@
         <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>73100</v>
+        <v>70400</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>79000</v>
+        <v>76100</v>
       </c>
       <c r="E32" s="3">
-        <v>36700</v>
+        <v>35300</v>
       </c>
       <c r="F32" s="3">
-        <v>45500</v>
+        <v>43800</v>
       </c>
       <c r="G32" s="3">
-        <v>16900</v>
+        <v>16300</v>
       </c>
       <c r="H32" s="3">
-        <v>24800</v>
+        <v>23900</v>
       </c>
       <c r="I32" s="3">
-        <v>24400</v>
+        <v>23500</v>
       </c>
       <c r="J32" s="3">
-        <v>33400</v>
+        <v>32200</v>
       </c>
       <c r="K32" s="3">
         <v>46700</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>423600</v>
+        <v>408200</v>
       </c>
       <c r="E33" s="3">
-        <v>694800</v>
+        <v>669600</v>
       </c>
       <c r="F33" s="3">
-        <v>407400</v>
+        <v>392600</v>
       </c>
       <c r="G33" s="3">
-        <v>526700</v>
+        <v>507600</v>
       </c>
       <c r="H33" s="3">
-        <v>690500</v>
+        <v>665400</v>
       </c>
       <c r="I33" s="3">
-        <v>518900</v>
+        <v>500100</v>
       </c>
       <c r="J33" s="3">
-        <v>377700</v>
+        <v>364000</v>
       </c>
       <c r="K33" s="3">
         <v>366900</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>423600</v>
+        <v>408200</v>
       </c>
       <c r="E35" s="3">
-        <v>694800</v>
+        <v>669600</v>
       </c>
       <c r="F35" s="3">
-        <v>407400</v>
+        <v>392600</v>
       </c>
       <c r="G35" s="3">
-        <v>526700</v>
+        <v>507600</v>
       </c>
       <c r="H35" s="3">
-        <v>690500</v>
+        <v>665400</v>
       </c>
       <c r="I35" s="3">
-        <v>518900</v>
+        <v>500100</v>
       </c>
       <c r="J35" s="3">
-        <v>377700</v>
+        <v>364000</v>
       </c>
       <c r="K35" s="3">
         <v>366900</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>972000</v>
+        <v>936700</v>
       </c>
       <c r="E41" s="3">
-        <v>1252900</v>
+        <v>1207400</v>
       </c>
       <c r="F41" s="3">
-        <v>1331700</v>
+        <v>1283300</v>
       </c>
       <c r="G41" s="3">
-        <v>609400</v>
+        <v>587300</v>
       </c>
       <c r="H41" s="3">
-        <v>984800</v>
+        <v>949000</v>
       </c>
       <c r="I41" s="3">
-        <v>674100</v>
+        <v>649600</v>
       </c>
       <c r="J41" s="3">
-        <v>942000</v>
+        <v>907800</v>
       </c>
       <c r="K41" s="3">
         <v>682500</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>36000</v>
+        <v>34700</v>
       </c>
       <c r="E42" s="3">
-        <v>9500</v>
+        <v>9100</v>
       </c>
       <c r="F42" s="3">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="G42" s="3">
-        <v>34100</v>
+        <v>32900</v>
       </c>
       <c r="H42" s="3">
-        <v>113100</v>
+        <v>109000</v>
       </c>
       <c r="I42" s="3">
-        <v>19000</v>
+        <v>18300</v>
       </c>
       <c r="J42" s="3">
-        <v>15900</v>
+        <v>15300</v>
       </c>
       <c r="K42" s="3">
         <v>6100</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2120200</v>
+        <v>2043300</v>
       </c>
       <c r="E43" s="3">
-        <v>1785300</v>
+        <v>1720500</v>
       </c>
       <c r="F43" s="3">
-        <v>1560000</v>
+        <v>1503400</v>
       </c>
       <c r="G43" s="3">
-        <v>2127200</v>
+        <v>2050000</v>
       </c>
       <c r="H43" s="3">
-        <v>1635900</v>
+        <v>1576500</v>
       </c>
       <c r="I43" s="3">
-        <v>1680000</v>
+        <v>1619000</v>
       </c>
       <c r="J43" s="3">
-        <v>1604000</v>
+        <v>1545700</v>
       </c>
       <c r="K43" s="3">
         <v>1459500</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2469200</v>
+        <v>2379600</v>
       </c>
       <c r="E44" s="3">
-        <v>1990100</v>
+        <v>1917900</v>
       </c>
       <c r="F44" s="3">
-        <v>1491200</v>
+        <v>1437100</v>
       </c>
       <c r="G44" s="3">
-        <v>1710900</v>
+        <v>1648800</v>
       </c>
       <c r="H44" s="3">
-        <v>1689500</v>
+        <v>1628200</v>
       </c>
       <c r="I44" s="3">
-        <v>1622800</v>
+        <v>1563900</v>
       </c>
       <c r="J44" s="3">
-        <v>1461300</v>
+        <v>1408300</v>
       </c>
       <c r="K44" s="3">
         <v>1372900</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>69900</v>
+        <v>67400</v>
       </c>
       <c r="E45" s="3">
-        <v>60400</v>
+        <v>58200</v>
       </c>
       <c r="F45" s="3">
-        <v>48700</v>
+        <v>46900</v>
       </c>
       <c r="G45" s="3">
-        <v>53000</v>
+        <v>51100</v>
       </c>
       <c r="H45" s="3">
-        <v>53700</v>
+        <v>51800</v>
       </c>
       <c r="I45" s="3">
-        <v>62700</v>
+        <v>60500</v>
       </c>
       <c r="J45" s="3">
-        <v>61700</v>
+        <v>59500</v>
       </c>
       <c r="K45" s="3">
         <v>86700</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5667400</v>
+        <v>5461700</v>
       </c>
       <c r="E46" s="3">
-        <v>5098100</v>
+        <v>4913100</v>
       </c>
       <c r="F46" s="3">
-        <v>4445000</v>
+        <v>4283700</v>
       </c>
       <c r="G46" s="3">
-        <v>4534700</v>
+        <v>4370100</v>
       </c>
       <c r="H46" s="3">
-        <v>4477000</v>
+        <v>4314500</v>
       </c>
       <c r="I46" s="3">
-        <v>4058600</v>
+        <v>3911300</v>
       </c>
       <c r="J46" s="3">
-        <v>4084900</v>
+        <v>3936700</v>
       </c>
       <c r="K46" s="3">
         <v>3607700</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>116000</v>
+        <v>111800</v>
       </c>
       <c r="E47" s="3">
-        <v>115000</v>
+        <v>110800</v>
       </c>
       <c r="F47" s="3">
-        <v>95800</v>
+        <v>92300</v>
       </c>
       <c r="G47" s="3">
-        <v>121400</v>
+        <v>117000</v>
       </c>
       <c r="H47" s="3">
-        <v>109500</v>
+        <v>105500</v>
       </c>
       <c r="I47" s="3">
-        <v>112500</v>
+        <v>108400</v>
       </c>
       <c r="J47" s="3">
-        <v>122800</v>
+        <v>118400</v>
       </c>
       <c r="K47" s="3">
         <v>135500</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2652000</v>
+        <v>2555800</v>
       </c>
       <c r="E48" s="3">
-        <v>2216300</v>
+        <v>2135900</v>
       </c>
       <c r="F48" s="3">
-        <v>1959900</v>
+        <v>1888700</v>
       </c>
       <c r="G48" s="3">
-        <v>2029300</v>
+        <v>1955700</v>
       </c>
       <c r="H48" s="3">
-        <v>1581700</v>
+        <v>1524300</v>
       </c>
       <c r="I48" s="3">
-        <v>1493900</v>
+        <v>1439700</v>
       </c>
       <c r="J48" s="3">
-        <v>1492400</v>
+        <v>1438200</v>
       </c>
       <c r="K48" s="3">
         <v>1447100</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1724300</v>
+        <v>1661700</v>
       </c>
       <c r="E49" s="3">
-        <v>1605800</v>
+        <v>1547500</v>
       </c>
       <c r="F49" s="3">
-        <v>1539400</v>
+        <v>1483500</v>
       </c>
       <c r="G49" s="3">
-        <v>1743700</v>
+        <v>1680400</v>
       </c>
       <c r="H49" s="3">
-        <v>1679700</v>
+        <v>1618700</v>
       </c>
       <c r="I49" s="3">
-        <v>1645400</v>
+        <v>1585700</v>
       </c>
       <c r="J49" s="3">
-        <v>1854700</v>
+        <v>1787300</v>
       </c>
       <c r="K49" s="3">
         <v>2031600</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>353500</v>
+        <v>340700</v>
       </c>
       <c r="E52" s="3">
-        <v>407600</v>
+        <v>392800</v>
       </c>
       <c r="F52" s="3">
-        <v>542900</v>
+        <v>523200</v>
       </c>
       <c r="G52" s="3">
-        <v>490500</v>
+        <v>472700</v>
       </c>
       <c r="H52" s="3">
-        <v>414400</v>
+        <v>399300</v>
       </c>
       <c r="I52" s="3">
-        <v>386000</v>
+        <v>372000</v>
       </c>
       <c r="J52" s="3">
-        <v>397900</v>
+        <v>383400</v>
       </c>
       <c r="K52" s="3">
         <v>317600</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10513300</v>
+        <v>10131700</v>
       </c>
       <c r="E54" s="3">
-        <v>9442700</v>
+        <v>9100000</v>
       </c>
       <c r="F54" s="3">
-        <v>8583000</v>
+        <v>8271500</v>
       </c>
       <c r="G54" s="3">
-        <v>8919600</v>
+        <v>8595800</v>
       </c>
       <c r="H54" s="3">
-        <v>8262300</v>
+        <v>7962400</v>
       </c>
       <c r="I54" s="3">
-        <v>7696400</v>
+        <v>7417100</v>
       </c>
       <c r="J54" s="3">
-        <v>7952700</v>
+        <v>7664100</v>
       </c>
       <c r="K54" s="3">
         <v>7539600</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1098900</v>
+        <v>1059000</v>
       </c>
       <c r="E57" s="3">
-        <v>936500</v>
+        <v>902500</v>
       </c>
       <c r="F57" s="3">
-        <v>801700</v>
+        <v>772600</v>
       </c>
       <c r="G57" s="3">
-        <v>783500</v>
+        <v>755000</v>
       </c>
       <c r="H57" s="3">
-        <v>742200</v>
+        <v>715300</v>
       </c>
       <c r="I57" s="3">
-        <v>748700</v>
+        <v>721500</v>
       </c>
       <c r="J57" s="3">
-        <v>672900</v>
+        <v>648500</v>
       </c>
       <c r="K57" s="3">
         <v>536200</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>76300</v>
+        <v>73500</v>
       </c>
       <c r="E58" s="3">
-        <v>356100</v>
+        <v>343200</v>
       </c>
       <c r="F58" s="3">
-        <v>259200</v>
+        <v>249800</v>
       </c>
       <c r="G58" s="3">
-        <v>290200</v>
+        <v>279700</v>
       </c>
       <c r="H58" s="3">
-        <v>206100</v>
+        <v>198700</v>
       </c>
       <c r="I58" s="3">
-        <v>230600</v>
+        <v>222200</v>
       </c>
       <c r="J58" s="3">
-        <v>116900</v>
+        <v>112600</v>
       </c>
       <c r="K58" s="3">
         <v>136400</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1141200</v>
+        <v>1099800</v>
       </c>
       <c r="E59" s="3">
-        <v>1031900</v>
+        <v>994400</v>
       </c>
       <c r="F59" s="3">
-        <v>990500</v>
+        <v>954500</v>
       </c>
       <c r="G59" s="3">
-        <v>1119500</v>
+        <v>1078900</v>
       </c>
       <c r="H59" s="3">
-        <v>1031300</v>
+        <v>993900</v>
       </c>
       <c r="I59" s="3">
-        <v>965500</v>
+        <v>930500</v>
       </c>
       <c r="J59" s="3">
-        <v>857300</v>
+        <v>826200</v>
       </c>
       <c r="K59" s="3">
         <v>777100</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2316400</v>
+        <v>2232300</v>
       </c>
       <c r="E60" s="3">
-        <v>2324500</v>
+        <v>2240100</v>
       </c>
       <c r="F60" s="3">
-        <v>2051400</v>
+        <v>1977000</v>
       </c>
       <c r="G60" s="3">
-        <v>2193200</v>
+        <v>2113600</v>
       </c>
       <c r="H60" s="3">
-        <v>1979700</v>
+        <v>1907800</v>
       </c>
       <c r="I60" s="3">
-        <v>1944800</v>
+        <v>1874200</v>
       </c>
       <c r="J60" s="3">
-        <v>1647100</v>
+        <v>1587300</v>
       </c>
       <c r="K60" s="3">
         <v>1449700</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1939300</v>
+        <v>1868900</v>
       </c>
       <c r="E61" s="3">
-        <v>1464700</v>
+        <v>1411600</v>
       </c>
       <c r="F61" s="3">
-        <v>1430100</v>
+        <v>1378200</v>
       </c>
       <c r="G61" s="3">
-        <v>1414100</v>
+        <v>1362800</v>
       </c>
       <c r="H61" s="3">
-        <v>1324500</v>
+        <v>1276400</v>
       </c>
       <c r="I61" s="3">
-        <v>1426100</v>
+        <v>1374300</v>
       </c>
       <c r="J61" s="3">
-        <v>1816500</v>
+        <v>1750500</v>
       </c>
       <c r="K61" s="3">
         <v>2116500</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1135400</v>
+        <v>1094200</v>
       </c>
       <c r="E62" s="3">
-        <v>1353800</v>
+        <v>1304700</v>
       </c>
       <c r="F62" s="3">
-        <v>1716700</v>
+        <v>1654400</v>
       </c>
       <c r="G62" s="3">
-        <v>1770700</v>
+        <v>1706400</v>
       </c>
       <c r="H62" s="3">
-        <v>1598000</v>
+        <v>1540000</v>
       </c>
       <c r="I62" s="3">
-        <v>1498900</v>
+        <v>1444500</v>
       </c>
       <c r="J62" s="3">
-        <v>1865400</v>
+        <v>1797700</v>
       </c>
       <c r="K62" s="3">
         <v>1488100</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5591600</v>
+        <v>5388700</v>
       </c>
       <c r="E66" s="3">
-        <v>5306100</v>
+        <v>5113500</v>
       </c>
       <c r="F66" s="3">
-        <v>5331200</v>
+        <v>5137700</v>
       </c>
       <c r="G66" s="3">
-        <v>5553700</v>
+        <v>5352200</v>
       </c>
       <c r="H66" s="3">
-        <v>5083700</v>
+        <v>4899200</v>
       </c>
       <c r="I66" s="3">
-        <v>5039200</v>
+        <v>4856300</v>
       </c>
       <c r="J66" s="3">
-        <v>5485200</v>
+        <v>5286100</v>
       </c>
       <c r="K66" s="3">
         <v>5193000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4257000</v>
+        <v>4102500</v>
       </c>
       <c r="E72" s="3">
-        <v>3827800</v>
+        <v>3688900</v>
       </c>
       <c r="F72" s="3">
-        <v>3202100</v>
+        <v>3085900</v>
       </c>
       <c r="G72" s="3">
-        <v>2980200</v>
+        <v>2872000</v>
       </c>
       <c r="H72" s="3">
-        <v>2874200</v>
+        <v>2769900</v>
       </c>
       <c r="I72" s="3">
-        <v>2456300</v>
+        <v>2367200</v>
       </c>
       <c r="J72" s="3">
-        <v>2183600</v>
+        <v>2104400</v>
       </c>
       <c r="K72" s="3">
         <v>2162800</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4921600</v>
+        <v>4743000</v>
       </c>
       <c r="E76" s="3">
-        <v>4136700</v>
+        <v>3986500</v>
       </c>
       <c r="F76" s="3">
-        <v>3251800</v>
+        <v>3133800</v>
       </c>
       <c r="G76" s="3">
-        <v>3365800</v>
+        <v>3243700</v>
       </c>
       <c r="H76" s="3">
-        <v>3178500</v>
+        <v>3063200</v>
       </c>
       <c r="I76" s="3">
-        <v>2657300</v>
+        <v>2560800</v>
       </c>
       <c r="J76" s="3">
-        <v>2467500</v>
+        <v>2377900</v>
       </c>
       <c r="K76" s="3">
         <v>2346500</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>423600</v>
+        <v>408200</v>
       </c>
       <c r="E81" s="3">
-        <v>694800</v>
+        <v>669600</v>
       </c>
       <c r="F81" s="3">
-        <v>407400</v>
+        <v>392600</v>
       </c>
       <c r="G81" s="3">
-        <v>526700</v>
+        <v>507600</v>
       </c>
       <c r="H81" s="3">
-        <v>690500</v>
+        <v>665400</v>
       </c>
       <c r="I81" s="3">
-        <v>518900</v>
+        <v>500100</v>
       </c>
       <c r="J81" s="3">
-        <v>377700</v>
+        <v>364000</v>
       </c>
       <c r="K81" s="3">
         <v>366900</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>346400</v>
+        <v>333800</v>
       </c>
       <c r="E83" s="3">
-        <v>310100</v>
+        <v>298900</v>
       </c>
       <c r="F83" s="3">
-        <v>319400</v>
+        <v>307800</v>
       </c>
       <c r="G83" s="3">
-        <v>316400</v>
+        <v>304900</v>
       </c>
       <c r="H83" s="3">
-        <v>220600</v>
+        <v>212600</v>
       </c>
       <c r="I83" s="3">
-        <v>214200</v>
+        <v>206400</v>
       </c>
       <c r="J83" s="3">
-        <v>218100</v>
+        <v>210200</v>
       </c>
       <c r="K83" s="3">
         <v>228700</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>534700</v>
+        <v>515200</v>
       </c>
       <c r="E89" s="3">
-        <v>497400</v>
+        <v>479400</v>
       </c>
       <c r="F89" s="3">
-        <v>783400</v>
+        <v>754900</v>
       </c>
       <c r="G89" s="3">
-        <v>891900</v>
+        <v>859500</v>
       </c>
       <c r="H89" s="3">
-        <v>790900</v>
+        <v>762200</v>
       </c>
       <c r="I89" s="3">
-        <v>609300</v>
+        <v>587200</v>
       </c>
       <c r="J89" s="3">
-        <v>677700</v>
+        <v>653100</v>
       </c>
       <c r="K89" s="3">
         <v>731000</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-476700</v>
+        <v>-459400</v>
       </c>
       <c r="E91" s="3">
-        <v>-362200</v>
+        <v>-349100</v>
       </c>
       <c r="F91" s="3">
-        <v>-315800</v>
+        <v>-304300</v>
       </c>
       <c r="G91" s="3">
-        <v>-328000</v>
+        <v>-316100</v>
       </c>
       <c r="H91" s="3">
-        <v>-250900</v>
+        <v>-241800</v>
       </c>
       <c r="I91" s="3">
-        <v>-212600</v>
+        <v>-204900</v>
       </c>
       <c r="J91" s="3">
-        <v>-177100</v>
+        <v>-170700</v>
       </c>
       <c r="K91" s="3">
         <v>-195100</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-506700</v>
+        <v>-488300</v>
       </c>
       <c r="E94" s="3">
-        <v>-298400</v>
+        <v>-287500</v>
       </c>
       <c r="F94" s="3">
-        <v>-284900</v>
+        <v>-274600</v>
       </c>
       <c r="G94" s="3">
-        <v>-422400</v>
+        <v>-407100</v>
       </c>
       <c r="H94" s="3">
-        <v>-1800</v>
+        <v>-1700</v>
       </c>
       <c r="I94" s="3">
-        <v>-158900</v>
+        <v>-153100</v>
       </c>
       <c r="J94" s="3">
-        <v>53700</v>
+        <v>51800</v>
       </c>
       <c r="K94" s="3">
         <v>-124300</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-302100</v>
+        <v>-291100</v>
       </c>
       <c r="E96" s="3">
-        <v>-280500</v>
+        <v>-270400</v>
       </c>
       <c r="F96" s="3">
-        <v>-129500</v>
+        <v>-124800</v>
       </c>
       <c r="G96" s="3">
-        <v>-258800</v>
+        <v>-249400</v>
       </c>
       <c r="H96" s="3">
-        <v>-248400</v>
+        <v>-239400</v>
       </c>
       <c r="I96" s="3">
-        <v>-237300</v>
+        <v>-228700</v>
       </c>
       <c r="J96" s="3">
-        <v>-237300</v>
+        <v>-228700</v>
       </c>
       <c r="K96" s="3">
         <v>-236800</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-322300</v>
+        <v>-310600</v>
       </c>
       <c r="E100" s="3">
-        <v>-333000</v>
+        <v>-320900</v>
       </c>
       <c r="F100" s="3">
-        <v>255100</v>
+        <v>245800</v>
       </c>
       <c r="G100" s="3">
-        <v>-852700</v>
+        <v>-821800</v>
       </c>
       <c r="H100" s="3">
-        <v>-481800</v>
+        <v>-464300</v>
       </c>
       <c r="I100" s="3">
-        <v>-705400</v>
+        <v>-679800</v>
       </c>
       <c r="J100" s="3">
-        <v>-494600</v>
+        <v>-476600</v>
       </c>
       <c r="K100" s="3">
         <v>-491600</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>13500</v>
+        <v>13000</v>
       </c>
       <c r="E101" s="3">
-        <v>55200</v>
+        <v>53200</v>
       </c>
       <c r="F101" s="3">
-        <v>-31300</v>
+        <v>-30100</v>
       </c>
       <c r="G101" s="3">
-        <v>8000</v>
+        <v>7700</v>
       </c>
       <c r="H101" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="I101" s="3">
-        <v>-13100</v>
+        <v>-12600</v>
       </c>
       <c r="J101" s="3">
-        <v>21000</v>
+        <v>20300</v>
       </c>
       <c r="K101" s="3">
         <v>7700</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-280800</v>
+        <v>-270600</v>
       </c>
       <c r="E102" s="3">
-        <v>-78800</v>
+        <v>-75900</v>
       </c>
       <c r="F102" s="3">
-        <v>722200</v>
+        <v>696000</v>
       </c>
       <c r="G102" s="3">
-        <v>-375300</v>
+        <v>-361700</v>
       </c>
       <c r="H102" s="3">
-        <v>310700</v>
+        <v>299400</v>
       </c>
       <c r="I102" s="3">
-        <v>-267900</v>
+        <v>-258200</v>
       </c>
       <c r="J102" s="3">
-        <v>257900</v>
+        <v>248500</v>
       </c>
       <c r="K102" s="3">
         <v>122700</v>

--- a/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SKFRY_YR_FIN.xlsx
@@ -726,25 +726,25 @@
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>8853900</v>
+        <v>9152400</v>
       </c>
       <c r="E8" s="3">
-        <v>7465400</v>
+        <v>7717100</v>
       </c>
       <c r="F8" s="3">
-        <v>6837000</v>
+        <v>7067500</v>
       </c>
       <c r="G8" s="3">
-        <v>7856400</v>
+        <v>8121300</v>
       </c>
       <c r="H8" s="3">
-        <v>7829000</v>
+        <v>8093000</v>
       </c>
       <c r="I8" s="3">
-        <v>7118900</v>
+        <v>7358900</v>
       </c>
       <c r="J8" s="3">
-        <v>6630300</v>
+        <v>6853900</v>
       </c>
       <c r="K8" s="3">
         <v>7186300</v>
@@ -768,25 +768,25 @@
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>6607400</v>
+        <v>6830200</v>
       </c>
       <c r="E9" s="3">
-        <v>5336400</v>
+        <v>5516400</v>
       </c>
       <c r="F9" s="3">
-        <v>5053700</v>
+        <v>5224100</v>
       </c>
       <c r="G9" s="3">
-        <v>5936300</v>
+        <v>6136500</v>
       </c>
       <c r="H9" s="3">
-        <v>5918000</v>
+        <v>6117600</v>
       </c>
       <c r="I9" s="3">
-        <v>5341300</v>
+        <v>5521400</v>
       </c>
       <c r="J9" s="3">
-        <v>5006600</v>
+        <v>5175400</v>
       </c>
       <c r="K9" s="3">
         <v>5415000</v>
@@ -810,25 +810,25 @@
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>2246500</v>
+        <v>2322300</v>
       </c>
       <c r="E10" s="3">
-        <v>2129000</v>
+        <v>2200700</v>
       </c>
       <c r="F10" s="3">
-        <v>1783300</v>
+        <v>1843500</v>
       </c>
       <c r="G10" s="3">
-        <v>1920100</v>
+        <v>1984900</v>
       </c>
       <c r="H10" s="3">
-        <v>1911000</v>
+        <v>1975500</v>
       </c>
       <c r="I10" s="3">
-        <v>1777600</v>
+        <v>1837500</v>
       </c>
       <c r="J10" s="3">
-        <v>1623700</v>
+        <v>1678400</v>
       </c>
       <c r="K10" s="3">
         <v>1771300</v>
@@ -870,13 +870,13 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>290200</v>
+        <v>300000</v>
       </c>
       <c r="E12" s="3">
-        <v>251300</v>
+        <v>259700</v>
       </c>
       <c r="F12" s="3">
-        <v>229700</v>
+        <v>237500</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -954,25 +954,25 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>73200</v>
+        <v>75600</v>
       </c>
       <c r="E14" s="3">
-        <v>-33200</v>
+        <v>-34400</v>
       </c>
       <c r="F14" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="G14" s="3">
-        <v>15600</v>
+        <v>16100</v>
       </c>
       <c r="H14" s="3">
-        <v>-96600</v>
+        <v>-99900</v>
       </c>
       <c r="I14" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="J14" s="3">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="K14" s="3">
         <v>25300</v>
@@ -996,25 +996,25 @@
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>91200</v>
+        <v>94300</v>
       </c>
       <c r="E15" s="3">
-        <v>78200</v>
+        <v>80800</v>
       </c>
       <c r="F15" s="3">
-        <v>88300</v>
+        <v>91300</v>
       </c>
       <c r="G15" s="3">
-        <v>86200</v>
+        <v>89100</v>
       </c>
       <c r="H15" s="3">
-        <v>41700</v>
+        <v>43100</v>
       </c>
       <c r="I15" s="3">
-        <v>43300</v>
+        <v>44800</v>
       </c>
       <c r="J15" s="3">
-        <v>44700</v>
+        <v>46200</v>
       </c>
       <c r="K15" s="3">
         <v>51200</v>
@@ -1053,25 +1053,25 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>8074500</v>
+        <v>8346800</v>
       </c>
       <c r="E17" s="3">
-        <v>6482800</v>
+        <v>6701400</v>
       </c>
       <c r="F17" s="3">
-        <v>6191300</v>
+        <v>6400100</v>
       </c>
       <c r="G17" s="3">
-        <v>6998300</v>
+        <v>7234300</v>
       </c>
       <c r="H17" s="3">
-        <v>6819800</v>
+        <v>7049800</v>
       </c>
       <c r="I17" s="3">
-        <v>6334100</v>
+        <v>6547600</v>
       </c>
       <c r="J17" s="3">
-        <v>5942800</v>
+        <v>6143200</v>
       </c>
       <c r="K17" s="3">
         <v>6527400</v>
@@ -1095,25 +1095,25 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>779300</v>
+        <v>805600</v>
       </c>
       <c r="E18" s="3">
-        <v>982600</v>
+        <v>1015800</v>
       </c>
       <c r="F18" s="3">
-        <v>645700</v>
+        <v>667500</v>
       </c>
       <c r="G18" s="3">
-        <v>858100</v>
+        <v>887100</v>
       </c>
       <c r="H18" s="3">
-        <v>1009200</v>
+        <v>1043200</v>
       </c>
       <c r="I18" s="3">
-        <v>784800</v>
+        <v>811300</v>
       </c>
       <c r="J18" s="3">
-        <v>687500</v>
+        <v>710700</v>
       </c>
       <c r="K18" s="3">
         <v>658900</v>
@@ -1155,25 +1155,25 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-76100</v>
+        <v>-78700</v>
       </c>
       <c r="E20" s="3">
-        <v>-35300</v>
+        <v>-36500</v>
       </c>
       <c r="F20" s="3">
-        <v>-43800</v>
+        <v>-45300</v>
       </c>
       <c r="G20" s="3">
-        <v>-16300</v>
+        <v>-16800</v>
       </c>
       <c r="H20" s="3">
-        <v>-23900</v>
+        <v>-24700</v>
       </c>
       <c r="I20" s="3">
-        <v>-23500</v>
+        <v>-24300</v>
       </c>
       <c r="J20" s="3">
-        <v>-32200</v>
+        <v>-33200</v>
       </c>
       <c r="K20" s="3">
         <v>-46700</v>
@@ -1197,25 +1197,25 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1037100</v>
+        <v>1073500</v>
       </c>
       <c r="E21" s="3">
-        <v>1246200</v>
+        <v>1289400</v>
       </c>
       <c r="F21" s="3">
-        <v>909700</v>
+        <v>941600</v>
       </c>
       <c r="G21" s="3">
-        <v>1146800</v>
+        <v>1186700</v>
       </c>
       <c r="H21" s="3">
-        <v>1197900</v>
+        <v>1239200</v>
       </c>
       <c r="I21" s="3">
-        <v>967700</v>
+        <v>1001300</v>
       </c>
       <c r="J21" s="3">
-        <v>865500</v>
+        <v>895600</v>
       </c>
       <c r="K21" s="3">
         <v>834500</v>
@@ -1239,25 +1239,25 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>37100</v>
+        <v>38300</v>
       </c>
       <c r="E22" s="3">
-        <v>28100</v>
+        <v>29100</v>
       </c>
       <c r="F22" s="3">
-        <v>26400</v>
+        <v>27300</v>
       </c>
       <c r="G22" s="3">
-        <v>68300</v>
+        <v>70600</v>
       </c>
       <c r="H22" s="3">
-        <v>54700</v>
+        <v>56600</v>
       </c>
       <c r="I22" s="3">
-        <v>61800</v>
+        <v>63900</v>
       </c>
       <c r="J22" s="3">
-        <v>39800</v>
+        <v>41200</v>
       </c>
       <c r="K22" s="3">
         <v>60500</v>
@@ -1281,25 +1281,25 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>666100</v>
+        <v>688600</v>
       </c>
       <c r="E23" s="3">
-        <v>919200</v>
+        <v>950100</v>
       </c>
       <c r="F23" s="3">
-        <v>575400</v>
+        <v>594800</v>
       </c>
       <c r="G23" s="3">
-        <v>773600</v>
+        <v>799600</v>
       </c>
       <c r="H23" s="3">
-        <v>930600</v>
+        <v>962000</v>
       </c>
       <c r="I23" s="3">
-        <v>699500</v>
+        <v>723100</v>
       </c>
       <c r="J23" s="3">
-        <v>615500</v>
+        <v>636300</v>
       </c>
       <c r="K23" s="3">
         <v>551700</v>
@@ -1323,25 +1323,25 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>222700</v>
+        <v>230200</v>
       </c>
       <c r="E24" s="3">
-        <v>226900</v>
+        <v>234500</v>
       </c>
       <c r="F24" s="3">
-        <v>166800</v>
+        <v>172400</v>
       </c>
       <c r="G24" s="3">
-        <v>244500</v>
+        <v>252800</v>
       </c>
       <c r="H24" s="3">
-        <v>237800</v>
+        <v>245800</v>
       </c>
       <c r="I24" s="3">
-        <v>243800</v>
+        <v>252000</v>
       </c>
       <c r="J24" s="3">
-        <v>231100</v>
+        <v>238900</v>
       </c>
       <c r="K24" s="3">
         <v>166400</v>
@@ -1407,25 +1407,25 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>443500</v>
+        <v>458400</v>
       </c>
       <c r="E26" s="3">
-        <v>692300</v>
+        <v>715600</v>
       </c>
       <c r="F26" s="3">
-        <v>408700</v>
+        <v>422400</v>
       </c>
       <c r="G26" s="3">
-        <v>529000</v>
+        <v>546900</v>
       </c>
       <c r="H26" s="3">
-        <v>692800</v>
+        <v>716200</v>
       </c>
       <c r="I26" s="3">
-        <v>455700</v>
+        <v>471100</v>
       </c>
       <c r="J26" s="3">
-        <v>384500</v>
+        <v>397400</v>
       </c>
       <c r="K26" s="3">
         <v>385200</v>
@@ -1449,25 +1449,25 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>408200</v>
+        <v>422000</v>
       </c>
       <c r="E27" s="3">
-        <v>669600</v>
+        <v>692200</v>
       </c>
       <c r="F27" s="3">
-        <v>392600</v>
+        <v>405800</v>
       </c>
       <c r="G27" s="3">
-        <v>507600</v>
+        <v>524700</v>
       </c>
       <c r="H27" s="3">
-        <v>665400</v>
+        <v>687800</v>
       </c>
       <c r="I27" s="3">
-        <v>429700</v>
+        <v>444200</v>
       </c>
       <c r="J27" s="3">
-        <v>364000</v>
+        <v>376300</v>
       </c>
       <c r="K27" s="3">
         <v>366900</v>
@@ -1548,7 +1548,7 @@
         <v>8</v>
       </c>
       <c r="I29" s="3">
-        <v>70400</v>
+        <v>72800</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
@@ -1659,25 +1659,25 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>76100</v>
+        <v>78700</v>
       </c>
       <c r="E32" s="3">
-        <v>35300</v>
+        <v>36500</v>
       </c>
       <c r="F32" s="3">
-        <v>43800</v>
+        <v>45300</v>
       </c>
       <c r="G32" s="3">
-        <v>16300</v>
+        <v>16800</v>
       </c>
       <c r="H32" s="3">
-        <v>23900</v>
+        <v>24700</v>
       </c>
       <c r="I32" s="3">
-        <v>23500</v>
+        <v>24300</v>
       </c>
       <c r="J32" s="3">
-        <v>32200</v>
+        <v>33200</v>
       </c>
       <c r="K32" s="3">
         <v>46700</v>
@@ -1701,25 +1701,25 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>408200</v>
+        <v>422000</v>
       </c>
       <c r="E33" s="3">
-        <v>669600</v>
+        <v>692200</v>
       </c>
       <c r="F33" s="3">
-        <v>392600</v>
+        <v>405800</v>
       </c>
       <c r="G33" s="3">
-        <v>507600</v>
+        <v>524700</v>
       </c>
       <c r="H33" s="3">
-        <v>665400</v>
+        <v>687800</v>
       </c>
       <c r="I33" s="3">
-        <v>500100</v>
+        <v>516900</v>
       </c>
       <c r="J33" s="3">
-        <v>364000</v>
+        <v>376300</v>
       </c>
       <c r="K33" s="3">
         <v>366900</v>
@@ -1785,25 +1785,25 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>408200</v>
+        <v>422000</v>
       </c>
       <c r="E35" s="3">
-        <v>669600</v>
+        <v>692200</v>
       </c>
       <c r="F35" s="3">
-        <v>392600</v>
+        <v>405800</v>
       </c>
       <c r="G35" s="3">
-        <v>507600</v>
+        <v>524700</v>
       </c>
       <c r="H35" s="3">
-        <v>665400</v>
+        <v>687800</v>
       </c>
       <c r="I35" s="3">
-        <v>500100</v>
+        <v>516900</v>
       </c>
       <c r="J35" s="3">
-        <v>364000</v>
+        <v>376300</v>
       </c>
       <c r="K35" s="3">
         <v>366900</v>
@@ -1910,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>936700</v>
+        <v>968300</v>
       </c>
       <c r="E41" s="3">
-        <v>1207400</v>
+        <v>1248100</v>
       </c>
       <c r="F41" s="3">
-        <v>1283300</v>
+        <v>1326600</v>
       </c>
       <c r="G41" s="3">
-        <v>587300</v>
+        <v>607100</v>
       </c>
       <c r="H41" s="3">
-        <v>949000</v>
+        <v>981000</v>
       </c>
       <c r="I41" s="3">
-        <v>649600</v>
+        <v>671500</v>
       </c>
       <c r="J41" s="3">
-        <v>907800</v>
+        <v>938400</v>
       </c>
       <c r="K41" s="3">
         <v>682500</v>
@@ -1952,25 +1952,25 @@
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>34700</v>
+        <v>35900</v>
       </c>
       <c r="E42" s="3">
-        <v>9100</v>
+        <v>9400</v>
       </c>
       <c r="F42" s="3">
-        <v>13000</v>
+        <v>13400</v>
       </c>
       <c r="G42" s="3">
-        <v>32900</v>
+        <v>34000</v>
       </c>
       <c r="H42" s="3">
-        <v>109000</v>
+        <v>112600</v>
       </c>
       <c r="I42" s="3">
-        <v>18300</v>
+        <v>18900</v>
       </c>
       <c r="J42" s="3">
-        <v>15300</v>
+        <v>15900</v>
       </c>
       <c r="K42" s="3">
         <v>6100</v>
@@ -1994,25 +1994,25 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2043300</v>
+        <v>2112200</v>
       </c>
       <c r="E43" s="3">
-        <v>1720500</v>
+        <v>1778500</v>
       </c>
       <c r="F43" s="3">
-        <v>1503400</v>
+        <v>1554100</v>
       </c>
       <c r="G43" s="3">
-        <v>2050000</v>
+        <v>2119200</v>
       </c>
       <c r="H43" s="3">
-        <v>1576500</v>
+        <v>1629700</v>
       </c>
       <c r="I43" s="3">
-        <v>1619000</v>
+        <v>1673600</v>
       </c>
       <c r="J43" s="3">
-        <v>1545700</v>
+        <v>1597900</v>
       </c>
       <c r="K43" s="3">
         <v>1459500</v>
@@ -2036,25 +2036,25 @@
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>2379600</v>
+        <v>2459800</v>
       </c>
       <c r="E44" s="3">
-        <v>1917900</v>
+        <v>1982500</v>
       </c>
       <c r="F44" s="3">
-        <v>1437100</v>
+        <v>1485500</v>
       </c>
       <c r="G44" s="3">
-        <v>1648800</v>
+        <v>1704400</v>
       </c>
       <c r="H44" s="3">
-        <v>1628200</v>
+        <v>1683100</v>
       </c>
       <c r="I44" s="3">
-        <v>1563900</v>
+        <v>1616700</v>
       </c>
       <c r="J44" s="3">
-        <v>1408300</v>
+        <v>1455800</v>
       </c>
       <c r="K44" s="3">
         <v>1372900</v>
@@ -2078,25 +2078,25 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>67400</v>
+        <v>69700</v>
       </c>
       <c r="E45" s="3">
-        <v>58200</v>
+        <v>60100</v>
       </c>
       <c r="F45" s="3">
-        <v>46900</v>
+        <v>48500</v>
       </c>
       <c r="G45" s="3">
-        <v>51100</v>
+        <v>52800</v>
       </c>
       <c r="H45" s="3">
-        <v>51800</v>
+        <v>53500</v>
       </c>
       <c r="I45" s="3">
-        <v>60500</v>
+        <v>62500</v>
       </c>
       <c r="J45" s="3">
-        <v>59500</v>
+        <v>61500</v>
       </c>
       <c r="K45" s="3">
         <v>86700</v>
@@ -2120,25 +2120,25 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5461700</v>
+        <v>5645800</v>
       </c>
       <c r="E46" s="3">
-        <v>4913100</v>
+        <v>5078800</v>
       </c>
       <c r="F46" s="3">
-        <v>4283700</v>
+        <v>4428100</v>
       </c>
       <c r="G46" s="3">
-        <v>4370100</v>
+        <v>4517400</v>
       </c>
       <c r="H46" s="3">
-        <v>4314500</v>
+        <v>4460000</v>
       </c>
       <c r="I46" s="3">
-        <v>3911300</v>
+        <v>4043200</v>
       </c>
       <c r="J46" s="3">
-        <v>3936700</v>
+        <v>4069400</v>
       </c>
       <c r="K46" s="3">
         <v>3607700</v>
@@ -2162,25 +2162,25 @@
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>111800</v>
+        <v>115600</v>
       </c>
       <c r="E47" s="3">
-        <v>110800</v>
+        <v>114500</v>
       </c>
       <c r="F47" s="3">
-        <v>92300</v>
+        <v>95500</v>
       </c>
       <c r="G47" s="3">
-        <v>117000</v>
+        <v>121000</v>
       </c>
       <c r="H47" s="3">
-        <v>105500</v>
+        <v>109100</v>
       </c>
       <c r="I47" s="3">
-        <v>108400</v>
+        <v>112100</v>
       </c>
       <c r="J47" s="3">
-        <v>118400</v>
+        <v>122400</v>
       </c>
       <c r="K47" s="3">
         <v>135500</v>
@@ -2204,25 +2204,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>2555800</v>
+        <v>2642000</v>
       </c>
       <c r="E48" s="3">
-        <v>2135900</v>
+        <v>2207900</v>
       </c>
       <c r="F48" s="3">
-        <v>1888700</v>
+        <v>1952400</v>
       </c>
       <c r="G48" s="3">
-        <v>1955700</v>
+        <v>2021600</v>
       </c>
       <c r="H48" s="3">
-        <v>1524300</v>
+        <v>1575700</v>
       </c>
       <c r="I48" s="3">
-        <v>1439700</v>
+        <v>1488200</v>
       </c>
       <c r="J48" s="3">
-        <v>1438200</v>
+        <v>1486700</v>
       </c>
       <c r="K48" s="3">
         <v>1447100</v>
@@ -2246,25 +2246,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1661700</v>
+        <v>1717800</v>
       </c>
       <c r="E49" s="3">
-        <v>1547500</v>
+        <v>1599700</v>
       </c>
       <c r="F49" s="3">
-        <v>1483500</v>
+        <v>1533600</v>
       </c>
       <c r="G49" s="3">
-        <v>1680400</v>
+        <v>1737000</v>
       </c>
       <c r="H49" s="3">
-        <v>1618700</v>
+        <v>1673300</v>
       </c>
       <c r="I49" s="3">
-        <v>1585700</v>
+        <v>1639100</v>
       </c>
       <c r="J49" s="3">
-        <v>1787300</v>
+        <v>1847600</v>
       </c>
       <c r="K49" s="3">
         <v>2031600</v>
@@ -2372,25 +2372,25 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>340700</v>
+        <v>352200</v>
       </c>
       <c r="E52" s="3">
-        <v>392800</v>
+        <v>406000</v>
       </c>
       <c r="F52" s="3">
-        <v>523200</v>
+        <v>540800</v>
       </c>
       <c r="G52" s="3">
-        <v>472700</v>
+        <v>488600</v>
       </c>
       <c r="H52" s="3">
-        <v>399300</v>
+        <v>412800</v>
       </c>
       <c r="I52" s="3">
-        <v>372000</v>
+        <v>384600</v>
       </c>
       <c r="J52" s="3">
-        <v>383400</v>
+        <v>396400</v>
       </c>
       <c r="K52" s="3">
         <v>317600</v>
@@ -2456,25 +2456,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10131700</v>
+        <v>10473300</v>
       </c>
       <c r="E54" s="3">
-        <v>9100000</v>
+        <v>9406900</v>
       </c>
       <c r="F54" s="3">
-        <v>8271500</v>
+        <v>8550400</v>
       </c>
       <c r="G54" s="3">
-        <v>8595800</v>
+        <v>8885700</v>
       </c>
       <c r="H54" s="3">
-        <v>7962400</v>
+        <v>8230900</v>
       </c>
       <c r="I54" s="3">
-        <v>7417100</v>
+        <v>7667200</v>
       </c>
       <c r="J54" s="3">
-        <v>7664100</v>
+        <v>7922500</v>
       </c>
       <c r="K54" s="3">
         <v>7539600</v>
@@ -2534,25 +2534,25 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1059000</v>
+        <v>1094700</v>
       </c>
       <c r="E57" s="3">
-        <v>902500</v>
+        <v>933000</v>
       </c>
       <c r="F57" s="3">
-        <v>772600</v>
+        <v>798700</v>
       </c>
       <c r="G57" s="3">
-        <v>755000</v>
+        <v>780500</v>
       </c>
       <c r="H57" s="3">
-        <v>715300</v>
+        <v>739400</v>
       </c>
       <c r="I57" s="3">
-        <v>721500</v>
+        <v>745800</v>
       </c>
       <c r="J57" s="3">
-        <v>648500</v>
+        <v>670400</v>
       </c>
       <c r="K57" s="3">
         <v>536200</v>
@@ -2576,25 +2576,25 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>73500</v>
+        <v>76000</v>
       </c>
       <c r="E58" s="3">
-        <v>343200</v>
+        <v>354700</v>
       </c>
       <c r="F58" s="3">
-        <v>249800</v>
+        <v>258200</v>
       </c>
       <c r="G58" s="3">
-        <v>279700</v>
+        <v>289100</v>
       </c>
       <c r="H58" s="3">
-        <v>198700</v>
+        <v>205400</v>
       </c>
       <c r="I58" s="3">
-        <v>222200</v>
+        <v>229700</v>
       </c>
       <c r="J58" s="3">
-        <v>112600</v>
+        <v>116400</v>
       </c>
       <c r="K58" s="3">
         <v>136400</v>
@@ -2618,25 +2618,25 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1099800</v>
+        <v>1136900</v>
       </c>
       <c r="E59" s="3">
-        <v>994400</v>
+        <v>1028000</v>
       </c>
       <c r="F59" s="3">
-        <v>954500</v>
+        <v>986700</v>
       </c>
       <c r="G59" s="3">
-        <v>1078900</v>
+        <v>1115300</v>
       </c>
       <c r="H59" s="3">
-        <v>993900</v>
+        <v>1027400</v>
       </c>
       <c r="I59" s="3">
-        <v>930500</v>
+        <v>961900</v>
       </c>
       <c r="J59" s="3">
-        <v>826200</v>
+        <v>854000</v>
       </c>
       <c r="K59" s="3">
         <v>777100</v>
@@ -2660,25 +2660,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2232300</v>
+        <v>2307600</v>
       </c>
       <c r="E60" s="3">
-        <v>2240100</v>
+        <v>2315700</v>
       </c>
       <c r="F60" s="3">
-        <v>1977000</v>
+        <v>2043600</v>
       </c>
       <c r="G60" s="3">
-        <v>2113600</v>
+        <v>2184900</v>
       </c>
       <c r="H60" s="3">
-        <v>1907800</v>
+        <v>1972200</v>
       </c>
       <c r="I60" s="3">
-        <v>1874200</v>
+        <v>1937400</v>
       </c>
       <c r="J60" s="3">
-        <v>1587300</v>
+        <v>1640800</v>
       </c>
       <c r="K60" s="3">
         <v>1449700</v>
@@ -2702,25 +2702,25 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1868900</v>
+        <v>1931900</v>
       </c>
       <c r="E61" s="3">
-        <v>1411600</v>
+        <v>1459200</v>
       </c>
       <c r="F61" s="3">
-        <v>1378200</v>
+        <v>1424700</v>
       </c>
       <c r="G61" s="3">
-        <v>1362800</v>
+        <v>1408700</v>
       </c>
       <c r="H61" s="3">
-        <v>1276400</v>
+        <v>1319400</v>
       </c>
       <c r="I61" s="3">
-        <v>1374300</v>
+        <v>1420600</v>
       </c>
       <c r="J61" s="3">
-        <v>1750500</v>
+        <v>1809600</v>
       </c>
       <c r="K61" s="3">
         <v>2116500</v>
@@ -2744,25 +2744,25 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1094200</v>
+        <v>1131100</v>
       </c>
       <c r="E62" s="3">
-        <v>1304700</v>
+        <v>1348700</v>
       </c>
       <c r="F62" s="3">
-        <v>1654400</v>
+        <v>1710100</v>
       </c>
       <c r="G62" s="3">
-        <v>1706400</v>
+        <v>1764000</v>
       </c>
       <c r="H62" s="3">
-        <v>1540000</v>
+        <v>1591900</v>
       </c>
       <c r="I62" s="3">
-        <v>1444500</v>
+        <v>1493300</v>
       </c>
       <c r="J62" s="3">
-        <v>1797700</v>
+        <v>1858300</v>
       </c>
       <c r="K62" s="3">
         <v>1488100</v>
@@ -2912,25 +2912,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>5388700</v>
+        <v>5570400</v>
       </c>
       <c r="E66" s="3">
-        <v>5113500</v>
+        <v>5285900</v>
       </c>
       <c r="F66" s="3">
-        <v>5137700</v>
+        <v>5310900</v>
       </c>
       <c r="G66" s="3">
-        <v>5352200</v>
+        <v>5532600</v>
       </c>
       <c r="H66" s="3">
-        <v>4899200</v>
+        <v>5064400</v>
       </c>
       <c r="I66" s="3">
-        <v>4856300</v>
+        <v>5020000</v>
       </c>
       <c r="J66" s="3">
-        <v>5286100</v>
+        <v>5464400</v>
       </c>
       <c r="K66" s="3">
         <v>5193000</v>
@@ -3140,25 +3140,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>4102500</v>
+        <v>4240900</v>
       </c>
       <c r="E72" s="3">
-        <v>3688900</v>
+        <v>3813200</v>
       </c>
       <c r="F72" s="3">
-        <v>3085900</v>
+        <v>3190000</v>
       </c>
       <c r="G72" s="3">
-        <v>2872000</v>
+        <v>2968800</v>
       </c>
       <c r="H72" s="3">
-        <v>2769900</v>
+        <v>2863300</v>
       </c>
       <c r="I72" s="3">
-        <v>2367200</v>
+        <v>2447000</v>
       </c>
       <c r="J72" s="3">
-        <v>2104400</v>
+        <v>2175300</v>
       </c>
       <c r="K72" s="3">
         <v>2162800</v>
@@ -3308,25 +3308,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4743000</v>
+        <v>4902900</v>
       </c>
       <c r="E76" s="3">
-        <v>3986500</v>
+        <v>4121000</v>
       </c>
       <c r="F76" s="3">
-        <v>3133800</v>
+        <v>3239500</v>
       </c>
       <c r="G76" s="3">
-        <v>3243700</v>
+        <v>3353000</v>
       </c>
       <c r="H76" s="3">
-        <v>3063200</v>
+        <v>3166500</v>
       </c>
       <c r="I76" s="3">
-        <v>2560800</v>
+        <v>2647200</v>
       </c>
       <c r="J76" s="3">
-        <v>2377900</v>
+        <v>2458100</v>
       </c>
       <c r="K76" s="3">
         <v>2346500</v>
@@ -3439,25 +3439,25 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>408200</v>
+        <v>422000</v>
       </c>
       <c r="E81" s="3">
-        <v>669600</v>
+        <v>692200</v>
       </c>
       <c r="F81" s="3">
-        <v>392600</v>
+        <v>405800</v>
       </c>
       <c r="G81" s="3">
-        <v>507600</v>
+        <v>524700</v>
       </c>
       <c r="H81" s="3">
-        <v>665400</v>
+        <v>687800</v>
       </c>
       <c r="I81" s="3">
-        <v>500100</v>
+        <v>516900</v>
       </c>
       <c r="J81" s="3">
-        <v>364000</v>
+        <v>376300</v>
       </c>
       <c r="K81" s="3">
         <v>366900</v>
@@ -3499,25 +3499,25 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>333800</v>
+        <v>345100</v>
       </c>
       <c r="E83" s="3">
-        <v>298900</v>
+        <v>308900</v>
       </c>
       <c r="F83" s="3">
-        <v>307800</v>
+        <v>318200</v>
       </c>
       <c r="G83" s="3">
-        <v>304900</v>
+        <v>315200</v>
       </c>
       <c r="H83" s="3">
-        <v>212600</v>
+        <v>219800</v>
       </c>
       <c r="I83" s="3">
-        <v>206400</v>
+        <v>213400</v>
       </c>
       <c r="J83" s="3">
-        <v>210200</v>
+        <v>217300</v>
       </c>
       <c r="K83" s="3">
         <v>228700</v>
@@ -3751,25 +3751,25 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>515200</v>
+        <v>532600</v>
       </c>
       <c r="E89" s="3">
-        <v>479400</v>
+        <v>495500</v>
       </c>
       <c r="F89" s="3">
-        <v>754900</v>
+        <v>780400</v>
       </c>
       <c r="G89" s="3">
-        <v>859500</v>
+        <v>888500</v>
       </c>
       <c r="H89" s="3">
-        <v>762200</v>
+        <v>787900</v>
       </c>
       <c r="I89" s="3">
-        <v>587200</v>
+        <v>607000</v>
       </c>
       <c r="J89" s="3">
-        <v>653100</v>
+        <v>675100</v>
       </c>
       <c r="K89" s="3">
         <v>731000</v>
@@ -3811,25 +3811,25 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-459400</v>
+        <v>-474900</v>
       </c>
       <c r="E91" s="3">
-        <v>-349100</v>
+        <v>-360900</v>
       </c>
       <c r="F91" s="3">
-        <v>-304300</v>
+        <v>-314600</v>
       </c>
       <c r="G91" s="3">
-        <v>-316100</v>
+        <v>-326800</v>
       </c>
       <c r="H91" s="3">
-        <v>-241800</v>
+        <v>-249900</v>
       </c>
       <c r="I91" s="3">
-        <v>-204900</v>
+        <v>-211800</v>
       </c>
       <c r="J91" s="3">
-        <v>-170700</v>
+        <v>-176500</v>
       </c>
       <c r="K91" s="3">
         <v>-195100</v>
@@ -3937,25 +3937,25 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-488300</v>
+        <v>-504800</v>
       </c>
       <c r="E94" s="3">
-        <v>-287500</v>
+        <v>-297200</v>
       </c>
       <c r="F94" s="3">
-        <v>-274600</v>
+        <v>-283800</v>
       </c>
       <c r="G94" s="3">
-        <v>-407100</v>
+        <v>-420800</v>
       </c>
       <c r="H94" s="3">
-        <v>-1700</v>
+        <v>-1800</v>
       </c>
       <c r="I94" s="3">
-        <v>-153100</v>
+        <v>-158200</v>
       </c>
       <c r="J94" s="3">
-        <v>51800</v>
+        <v>53500</v>
       </c>
       <c r="K94" s="3">
         <v>-124300</v>
@@ -3997,25 +3997,25 @@
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>-291100</v>
+        <v>-300900</v>
       </c>
       <c r="E96" s="3">
-        <v>-270400</v>
+        <v>-279500</v>
       </c>
       <c r="F96" s="3">
-        <v>-124800</v>
+        <v>-129000</v>
       </c>
       <c r="G96" s="3">
-        <v>-249400</v>
+        <v>-257900</v>
       </c>
       <c r="H96" s="3">
-        <v>-239400</v>
+        <v>-247500</v>
       </c>
       <c r="I96" s="3">
-        <v>-228700</v>
+        <v>-236400</v>
       </c>
       <c r="J96" s="3">
-        <v>-228700</v>
+        <v>-236400</v>
       </c>
       <c r="K96" s="3">
         <v>-236800</v>
@@ -4165,25 +4165,25 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-310600</v>
+        <v>-321000</v>
       </c>
       <c r="E100" s="3">
-        <v>-320900</v>
+        <v>-331700</v>
       </c>
       <c r="F100" s="3">
-        <v>245800</v>
+        <v>254100</v>
       </c>
       <c r="G100" s="3">
-        <v>-821800</v>
+        <v>-849500</v>
       </c>
       <c r="H100" s="3">
-        <v>-464300</v>
+        <v>-479900</v>
       </c>
       <c r="I100" s="3">
-        <v>-679800</v>
+        <v>-702700</v>
       </c>
       <c r="J100" s="3">
-        <v>-476600</v>
+        <v>-492700</v>
       </c>
       <c r="K100" s="3">
         <v>-491600</v>
@@ -4207,25 +4207,25 @@
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>13000</v>
+        <v>13400</v>
       </c>
       <c r="E101" s="3">
-        <v>53200</v>
+        <v>55000</v>
       </c>
       <c r="F101" s="3">
-        <v>-30100</v>
+        <v>-31200</v>
       </c>
       <c r="G101" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="H101" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="I101" s="3">
-        <v>-12600</v>
+        <v>-13000</v>
       </c>
       <c r="J101" s="3">
-        <v>20300</v>
+        <v>21000</v>
       </c>
       <c r="K101" s="3">
         <v>7700</v>
@@ -4249,25 +4249,25 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-270600</v>
+        <v>-279800</v>
       </c>
       <c r="E102" s="3">
-        <v>-75900</v>
+        <v>-78500</v>
       </c>
       <c r="F102" s="3">
-        <v>696000</v>
+        <v>719500</v>
       </c>
       <c r="G102" s="3">
-        <v>-361700</v>
+        <v>-373900</v>
       </c>
       <c r="H102" s="3">
-        <v>299400</v>
+        <v>309500</v>
       </c>
       <c r="I102" s="3">
-        <v>-258200</v>
+        <v>-266900</v>
       </c>
       <c r="J102" s="3">
-        <v>248500</v>
+        <v>256900</v>
       </c>
       <c r="K102" s="3">
         <v>122700</v>
